--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -488,29 +498,35 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>44.3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>152.92</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -524,21 +540,21 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -546,7 +562,13 @@
       <c r="I3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -562,27 +584,33 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>36.85</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>550.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>65.16</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>652.91</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -596,29 +624,35 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -632,29 +666,35 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>94.2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>230.1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>324.3</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -668,29 +708,35 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>223.8</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>49.96</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>273.76</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -704,29 +750,35 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>92.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>108</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>45</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>245.5</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -740,29 +792,35 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>177.8</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>22.5</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>200.3</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -776,29 +834,35 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>12</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>10</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>60</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>90</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -812,29 +876,35 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
         <v>19</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>24.05</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>79</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>103.05</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -848,29 +918,35 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
         <v>7</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>100.7</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>100.7</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -884,29 +960,35 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
         <v>4</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -920,29 +1002,35 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
         <v>18</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>20</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>45</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>65</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -956,29 +1044,35 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -992,29 +1086,35 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
         <v>8</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>12.5</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>32</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>44.5</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1028,29 +1128,35 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
         <v>6</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.78</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>40</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>41.78</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1064,29 +1170,35 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
         <v>17</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>36.4</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>36.4</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1100,29 +1212,35 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
         <v>11</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>10</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1136,29 +1254,35 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>9.9</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>9.9</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1172,29 +1296,35 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
         <v>16</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>3.7</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.7</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1210,17 +1340,17 @@
       <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
@@ -1230,7 +1360,13 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1246,17 +1382,17 @@
       <c r="C23" t="n">
         <v>21</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -1266,7 +1402,13 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1282,17 +1424,17 @@
       <c r="C24" t="n">
         <v>22</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
@@ -1302,7 +1444,13 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1318,17 +1466,17 @@
       <c r="C25" t="n">
         <v>23</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
@@ -1338,7 +1486,13 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1354,17 +1508,17 @@
       <c r="C26" t="n">
         <v>24</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -1374,7 +1528,13 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1390,17 +1550,17 @@
       <c r="C27" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
@@ -1410,7 +1570,13 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1426,17 +1592,17 @@
       <c r="C28" t="n">
         <v>26</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
@@ -1446,7 +1612,13 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1462,17 +1634,17 @@
       <c r="C29" t="n">
         <v>27</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -1482,7 +1654,13 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,55 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -504,29 +524,41 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>44.3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>152.92</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -546,29 +578,41 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>14</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -590,27 +634,39 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>36.85</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>550.9</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>65.16</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>652.91</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -630,29 +686,41 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
-      </c>
-      <c r="G5" t="n">
-        <v>555.2500000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>555.2500000000001</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -672,29 +740,41 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>94.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>230.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>324.3</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -714,29 +794,41 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
         <v>13</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>223.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>49.96</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>273.76</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -756,29 +848,41 @@
         <v>6</v>
       </c>
       <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
         <v>9</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
         <v>92.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
         <v>108</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>245.5</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -798,29 +902,41 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
         <v>177.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>22.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>200.3</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -840,29 +956,41 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
         <v>12</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>10</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
         <v>60</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>90</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>160</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -882,29 +1010,41 @@
         <v>9</v>
       </c>
       <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
         <v>19</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
         <v>24.05</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>79</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>103.05</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -924,29 +1064,41 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>100.7</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>100.7</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -966,29 +1118,41 @@
         <v>11</v>
       </c>
       <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
-      </c>
-      <c r="G13" t="n">
-        <v>93.54999999999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>93.54999999999998</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1008,29 +1172,41 @@
         <v>12</v>
       </c>
       <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
         <v>18</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
         <v>20</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>45</v>
       </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
         <v>65</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1050,29 +1226,41 @@
         <v>13</v>
       </c>
       <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
         <v>10</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1092,29 +1280,41 @@
         <v>14</v>
       </c>
       <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
         <v>8</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>12.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>32</v>
       </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
         <v>44.5</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1134,29 +1334,41 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
         <v>6</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.78</v>
       </c>
-      <c r="J17" t="n">
+      <c r="N17" t="n">
         <v>40</v>
       </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
         <v>41.78</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1176,29 +1388,41 @@
         <v>16</v>
       </c>
       <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
         <v>17</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>36.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>36.4</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1218,29 +1442,41 @@
         <v>17</v>
       </c>
       <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
         <v>11</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>10</v>
       </c>
-      <c r="K19" t="n">
+      <c r="O19" t="n">
         <v>10</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1260,29 +1496,41 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
-      </c>
-      <c r="G20" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>9.9</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1302,29 +1550,41 @@
         <v>19</v>
       </c>
       <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="n">
         <v>16</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>3.7</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1346,27 +1606,39 @@
       <c r="E22" t="n">
         <v>20</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1388,27 +1660,39 @@
       <c r="E23" t="n">
         <v>21</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1430,27 +1714,39 @@
       <c r="E24" t="n">
         <v>22</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1472,27 +1768,39 @@
       <c r="E25" t="n">
         <v>23</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1514,27 +1822,39 @@
       <c r="E26" t="n">
         <v>24</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1556,27 +1876,39 @@
       <c r="E27" t="n">
         <v>25</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1598,27 +1930,39 @@
       <c r="E28" t="n">
         <v>26</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1640,27 +1984,39 @@
       <c r="E29" t="n">
         <v>27</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,35 +476,45 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -536,29 +546,35 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>15</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>44.3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>152.92</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -590,21 +606,21 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>14</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -612,7 +628,13 @@
       <c r="O3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -646,27 +668,33 @@
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>36.85</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>550.9</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>65.16</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>652.91</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -698,29 +726,35 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -752,29 +786,35 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>94.2</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>230.1</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>324.3</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -806,29 +846,35 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
         <v>13</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>223.8</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>49.96</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>273.76</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -860,29 +906,35 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
         <v>9</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>92.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>108</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>45</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>245.5</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -914,29 +966,35 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>177.8</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>22.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>200.3</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -968,29 +1026,35 @@
         <v>8</v>
       </c>
       <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
         <v>12</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>10</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>60</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>90</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>160</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1022,29 +1086,35 @@
         <v>9</v>
       </c>
       <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
         <v>19</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>24.05</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>79</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>103.05</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1076,29 +1146,35 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
         <v>7</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>100.7</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>100.7</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1130,29 +1206,35 @@
         <v>11</v>
       </c>
       <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1184,29 +1266,35 @@
         <v>12</v>
       </c>
       <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
         <v>18</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>20</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>45</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>65</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1238,29 +1326,35 @@
         <v>13</v>
       </c>
       <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
         <v>10</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1292,29 +1386,35 @@
         <v>14</v>
       </c>
       <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
         <v>8</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>12.5</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>32</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>44.5</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1346,29 +1446,35 @@
         <v>15</v>
       </c>
       <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
         <v>6</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.78</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>40</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>41.78</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1400,29 +1506,35 @@
         <v>16</v>
       </c>
       <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
         <v>17</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>36.4</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>36.4</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1454,29 +1566,35 @@
         <v>17</v>
       </c>
       <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
         <v>11</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>10</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>10</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1508,29 +1626,35 @@
         <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>9.9</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>9.9</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1562,29 +1686,35 @@
         <v>19</v>
       </c>
       <c r="I21" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
         <v>16</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>3.7</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>3.7</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1618,17 +1748,17 @@
       <c r="I22" t="n">
         <v>20</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -1638,7 +1768,13 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1672,17 +1808,17 @@
       <c r="I23" t="n">
         <v>21</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
@@ -1692,7 +1828,13 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1726,17 +1868,17 @@
       <c r="I24" t="n">
         <v>22</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
@@ -1746,7 +1888,13 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1780,17 +1928,17 @@
       <c r="I25" t="n">
         <v>23</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
@@ -1800,7 +1948,13 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1834,17 +1988,17 @@
       <c r="I26" t="n">
         <v>24</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="n">
+        <v>24</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
@@ -1854,7 +2008,13 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1888,17 +2048,17 @@
       <c r="I27" t="n">
         <v>25</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
@@ -1908,7 +2068,13 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1942,17 +2108,17 @@
       <c r="I28" t="n">
         <v>26</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
@@ -1962,7 +2128,13 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1996,17 +2168,17 @@
       <c r="I29" t="n">
         <v>27</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -2016,7 +2188,13 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,35 +486,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -552,29 +557,32 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>44.3</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>152.92</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -612,29 +620,32 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
         <v>14</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -674,27 +685,30 @@
       <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>36.85</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>550.9</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>65.16</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>652.91</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -732,19 +746,19 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
         <v>5</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
@@ -752,9 +766,12 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -792,29 +809,32 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>94.2</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>230.1</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>324.3</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -852,29 +872,32 @@
         <v>5</v>
       </c>
       <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
         <v>13</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>223.8</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>49.96</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>273.76</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -912,29 +935,32 @@
         <v>6</v>
       </c>
       <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
         <v>9</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>92.5</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>108</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>45</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>245.5</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -972,29 +998,32 @@
         <v>7</v>
       </c>
       <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
         <v>3</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>177.8</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>22.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>200.3</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1032,29 +1061,32 @@
         <v>8</v>
       </c>
       <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
         <v>12</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>10</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>60</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>90</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>160</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1092,29 +1124,32 @@
         <v>9</v>
       </c>
       <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
         <v>19</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>24.05</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>79</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>103.05</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1152,29 +1187,32 @@
         <v>10</v>
       </c>
       <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
         <v>7</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>100.7</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>100.7</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1212,19 +1250,19 @@
         <v>11</v>
       </c>
       <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
@@ -1232,9 +1270,12 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1272,29 +1313,32 @@
         <v>12</v>
       </c>
       <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
         <v>18</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>20</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>45</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>65</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1332,29 +1376,32 @@
         <v>13</v>
       </c>
       <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="n">
         <v>10</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1392,29 +1439,32 @@
         <v>14</v>
       </c>
       <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
         <v>8</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>12.5</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>32</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>44.5</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1452,29 +1502,32 @@
         <v>15</v>
       </c>
       <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="n">
         <v>6</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.78</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>40</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>41.78</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1512,29 +1565,32 @@
         <v>16</v>
       </c>
       <c r="K18" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" t="n">
         <v>17</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>36.4</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>36.4</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1572,16 +1628,16 @@
         <v>17</v>
       </c>
       <c r="K19" t="n">
+        <v>17</v>
+      </c>
+      <c r="L19" t="n">
         <v>11</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -1589,12 +1645,15 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1632,19 +1691,19 @@
         <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>9.9</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
@@ -1652,9 +1711,12 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>9.9</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1692,19 +1754,19 @@
         <v>19</v>
       </c>
       <c r="K21" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" t="n">
         <v>16</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>3.7</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1712,9 +1774,12 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>3.7</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1754,14 +1819,14 @@
       <c r="K22" t="n">
         <v>20</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -1774,7 +1839,10 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1814,14 +1882,14 @@
       <c r="K23" t="n">
         <v>21</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>21</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -1834,7 +1902,10 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1874,14 +1945,14 @@
       <c r="K24" t="n">
         <v>22</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>22</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
@@ -1894,7 +1965,10 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1934,14 +2008,14 @@
       <c r="K25" t="n">
         <v>23</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="n">
+        <v>23</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -1954,7 +2028,10 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1994,14 +2071,14 @@
       <c r="K26" t="n">
         <v>24</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
@@ -2014,7 +2091,10 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2054,14 +2134,14 @@
       <c r="K27" t="n">
         <v>25</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
@@ -2074,7 +2154,10 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2114,14 +2197,14 @@
       <c r="K28" t="n">
         <v>26</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
@@ -2134,7 +2217,10 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2174,14 +2260,14 @@
       <c r="K29" t="n">
         <v>27</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>27</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
@@ -2194,7 +2280,10 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,35 +491,40 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -560,29 +565,32 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>15</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>44.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>152.92</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -623,29 +631,32 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>14</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -688,27 +699,30 @@
       <c r="L4" t="n">
         <v>2</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>36.85</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>550.9</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>65.16</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>652.91</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -749,19 +763,19 @@
         <v>3</v>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
@@ -769,9 +783,12 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -812,29 +829,32 @@
         <v>4</v>
       </c>
       <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>94.2</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>230.1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>324.3</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -875,29 +895,32 @@
         <v>5</v>
       </c>
       <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
         <v>13</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>223.8</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>49.96</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>273.76</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -938,29 +961,32 @@
         <v>6</v>
       </c>
       <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
         <v>9</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>92.5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>108</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>45</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>245.5</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1001,29 +1027,32 @@
         <v>7</v>
       </c>
       <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>177.8</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>22.5</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>200.3</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1064,29 +1093,32 @@
         <v>8</v>
       </c>
       <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
         <v>12</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>10</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>60</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>90</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>160</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1127,29 +1159,32 @@
         <v>9</v>
       </c>
       <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
         <v>19</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>24.05</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>79</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>103.05</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1190,29 +1225,32 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
         <v>7</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>100.7</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>100.7</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1253,19 +1291,19 @@
         <v>11</v>
       </c>
       <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
@@ -1273,9 +1311,12 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1316,29 +1357,32 @@
         <v>12</v>
       </c>
       <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" t="n">
         <v>18</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>20</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>45</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>65</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1379,29 +1423,32 @@
         <v>13</v>
       </c>
       <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
         <v>10</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1442,29 +1489,32 @@
         <v>14</v>
       </c>
       <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="n">
         <v>8</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>12.5</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>32</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>44.5</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1505,29 +1555,32 @@
         <v>15</v>
       </c>
       <c r="L17" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" t="n">
         <v>6</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>40</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>41.78</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1568,29 +1621,32 @@
         <v>16</v>
       </c>
       <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
         <v>17</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>36.4</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>36.4</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1631,16 +1687,16 @@
         <v>17</v>
       </c>
       <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
         <v>11</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
@@ -1648,12 +1704,15 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>10</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1694,19 +1753,19 @@
         <v>18</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>9.9</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -1714,9 +1773,12 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>9.9</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1757,19 +1819,19 @@
         <v>19</v>
       </c>
       <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="n">
         <v>16</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>3.7</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
@@ -1777,9 +1839,12 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.7</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1822,14 +1887,14 @@
       <c r="L22" t="n">
         <v>20</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -1842,7 +1907,10 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1885,14 +1953,14 @@
       <c r="L23" t="n">
         <v>21</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="n">
+        <v>21</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
@@ -1905,7 +1973,10 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1948,14 +2019,14 @@
       <c r="L24" t="n">
         <v>22</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="n">
+        <v>22</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
@@ -1968,7 +2039,10 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2011,14 +2085,14 @@
       <c r="L25" t="n">
         <v>23</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M25" t="n">
+        <v>23</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
@@ -2031,7 +2105,10 @@
       <c r="R25" t="n">
         <v>0</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2074,14 +2151,14 @@
       <c r="L26" t="n">
         <v>24</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M26" t="n">
+        <v>24</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
@@ -2094,7 +2171,10 @@
       <c r="R26" t="n">
         <v>0</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2137,14 +2217,14 @@
       <c r="L27" t="n">
         <v>25</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="n">
+        <v>25</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
@@ -2157,7 +2237,10 @@
       <c r="R27" t="n">
         <v>0</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2200,14 +2283,14 @@
       <c r="L28" t="n">
         <v>26</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M28" t="n">
+        <v>26</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
@@ -2220,7 +2303,10 @@
       <c r="R28" t="n">
         <v>0</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2263,14 +2349,14 @@
       <c r="L29" t="n">
         <v>27</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="n">
+        <v>27</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
@@ -2283,7 +2369,10 @@
       <c r="R29" t="n">
         <v>0</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,35 +496,45 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -568,29 +578,35 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>15</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>44.3</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>152.92</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -634,21 +650,21 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
         <v>14</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -656,7 +672,13 @@
       <c r="S3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -702,27 +724,33 @@
       <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>36.85</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>550.9</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>65.16</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>652.91</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -766,29 +794,35 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -832,29 +866,35 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>94.2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>230.1</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>324.3</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -898,29 +938,35 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
         <v>13</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>223.8</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>49.96</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>273.76</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -964,29 +1010,35 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
         <v>9</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>92.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>108</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>45</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>245.5</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1030,29 +1082,35 @@
         <v>7</v>
       </c>
       <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>177.8</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>22.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>200.3</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1096,29 +1154,35 @@
         <v>8</v>
       </c>
       <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
         <v>12</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>10</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>60</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>90</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>160</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1162,29 +1226,35 @@
         <v>9</v>
       </c>
       <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
         <v>19</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>24.05</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>79</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>103.05</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1228,29 +1298,35 @@
         <v>10</v>
       </c>
       <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
         <v>7</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>100.7</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>100.7</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1294,29 +1370,35 @@
         <v>11</v>
       </c>
       <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1360,29 +1442,35 @@
         <v>12</v>
       </c>
       <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
         <v>18</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>20</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>45</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>65</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1426,29 +1514,35 @@
         <v>13</v>
       </c>
       <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
         <v>10</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1492,29 +1586,35 @@
         <v>14</v>
       </c>
       <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14</v>
+      </c>
+      <c r="O16" t="n">
         <v>8</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>12.5</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>32</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>44.5</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1558,29 +1658,35 @@
         <v>15</v>
       </c>
       <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
         <v>6</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.78</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>40</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>41.78</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1624,29 +1730,35 @@
         <v>16</v>
       </c>
       <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
         <v>17</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>36.4</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>36.4</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1690,29 +1802,35 @@
         <v>17</v>
       </c>
       <c r="M19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
         <v>11</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>10</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>10</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1756,29 +1874,35 @@
         <v>18</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>9.9</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>9.9</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1822,29 +1946,35 @@
         <v>19</v>
       </c>
       <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
         <v>16</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>3.7</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>3.7</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1890,17 +2020,17 @@
       <c r="M22" t="n">
         <v>20</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
@@ -1910,7 +2040,13 @@
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1956,17 +2092,17 @@
       <c r="M23" t="n">
         <v>21</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
@@ -1976,7 +2112,13 @@
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2022,17 +2164,17 @@
       <c r="M24" t="n">
         <v>22</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="n">
+        <v>22</v>
+      </c>
+      <c r="O24" t="n">
+        <v>22</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
@@ -2042,7 +2184,13 @@
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2088,17 +2236,17 @@
       <c r="M25" t="n">
         <v>23</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" t="n">
+        <v>23</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
@@ -2108,7 +2256,13 @@
       <c r="S25" t="n">
         <v>0</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2154,17 +2308,17 @@
       <c r="M26" t="n">
         <v>24</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N26" t="n">
+        <v>24</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
@@ -2174,7 +2328,13 @@
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2220,17 +2380,17 @@
       <c r="M27" t="n">
         <v>25</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" t="n">
+        <v>25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>25</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
@@ -2240,7 +2400,13 @@
       <c r="S27" t="n">
         <v>0</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2286,17 +2452,17 @@
       <c r="M28" t="n">
         <v>26</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" t="n">
+        <v>26</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
@@ -2306,7 +2472,13 @@
       <c r="S28" t="n">
         <v>0</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2352,17 +2524,17 @@
       <c r="M29" t="n">
         <v>27</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" t="n">
+        <v>27</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
@@ -2372,7 +2544,13 @@
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,35 +506,40 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -584,29 +589,32 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>15</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>44.3</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>152.92</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -656,29 +664,32 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>14</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -730,27 +741,30 @@
       <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>36.85</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>550.9</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>65.16</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>652.91</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -800,19 +814,19 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -820,9 +834,12 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -872,29 +889,32 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>94.2</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>230.1</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>324.3</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -944,29 +964,32 @@
         <v>5</v>
       </c>
       <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
         <v>13</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>223.8</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>49.96</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>273.76</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1016,29 +1039,32 @@
         <v>6</v>
       </c>
       <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
         <v>9</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>92.5</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>108</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>45</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>245.5</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1088,29 +1114,32 @@
         <v>7</v>
       </c>
       <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>177.8</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>22.5</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>200.3</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1160,29 +1189,32 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
         <v>12</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>10</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>60</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>90</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>160</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1232,29 +1264,32 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="n">
         <v>19</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>24.05</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>79</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>103.05</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1304,29 +1339,32 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
         <v>7</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>100.7</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>100.7</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1376,19 +1414,19 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
         <v>4</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
@@ -1396,9 +1434,12 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1448,29 +1489,32 @@
         <v>12</v>
       </c>
       <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
         <v>18</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>20</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>45</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>65</v>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1520,29 +1564,32 @@
         <v>13</v>
       </c>
       <c r="O15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P15" t="n">
         <v>10</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1592,29 +1639,32 @@
         <v>14</v>
       </c>
       <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
         <v>8</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>12.5</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>32</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>44.5</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1664,29 +1714,32 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.78</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>40</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>41.78</v>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1736,29 +1789,32 @@
         <v>16</v>
       </c>
       <c r="O18" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" t="n">
         <v>17</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>36.4</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>36.4</v>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1808,16 +1864,16 @@
         <v>17</v>
       </c>
       <c r="O19" t="n">
+        <v>17</v>
+      </c>
+      <c r="P19" t="n">
         <v>11</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
@@ -1825,12 +1881,15 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>10</v>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V19" t="n">
+        <v>10</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1880,19 +1939,19 @@
         <v>18</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>9.9</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
@@ -1900,9 +1959,12 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>9.9</v>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1952,19 +2014,19 @@
         <v>19</v>
       </c>
       <c r="O21" t="n">
+        <v>19</v>
+      </c>
+      <c r="P21" t="n">
         <v>16</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>3.7</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
@@ -1972,9 +2034,12 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>3.7</v>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2026,14 +2091,14 @@
       <c r="O22" t="n">
         <v>20</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
@@ -2046,7 +2111,10 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2098,14 +2166,14 @@
       <c r="O23" t="n">
         <v>21</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
@@ -2118,7 +2186,10 @@
       <c r="U23" t="n">
         <v>0</v>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2170,14 +2241,14 @@
       <c r="O24" t="n">
         <v>22</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
@@ -2190,7 +2261,10 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2242,14 +2316,14 @@
       <c r="O25" t="n">
         <v>23</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="P25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
@@ -2262,7 +2336,10 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2314,14 +2391,14 @@
       <c r="O26" t="n">
         <v>24</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
@@ -2334,7 +2411,10 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2386,14 +2466,14 @@
       <c r="O27" t="n">
         <v>25</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="P27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
@@ -2406,7 +2486,10 @@
       <c r="U27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2458,14 +2541,14 @@
       <c r="O28" t="n">
         <v>26</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="P28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
@@ -2478,7 +2561,10 @@
       <c r="U28" t="n">
         <v>0</v>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2530,14 +2616,14 @@
       <c r="O29" t="n">
         <v>27</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
@@ -2550,7 +2636,10 @@
       <c r="U29" t="n">
         <v>0</v>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,35 +511,45 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -592,29 +602,35 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>15</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>44.3</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>152.92</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -667,21 +683,21 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>14</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -689,7 +705,13 @@
       <c r="V3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -744,27 +766,33 @@
       <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>36.85</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>550.9</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>65.16</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>652.91</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -817,29 +845,35 @@
         <v>3</v>
       </c>
       <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -892,29 +926,35 @@
         <v>4</v>
       </c>
       <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>94.2</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>230.1</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>324.3</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -967,29 +1007,35 @@
         <v>5</v>
       </c>
       <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
         <v>13</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>223.8</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>49.96</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>273.76</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1042,29 +1088,35 @@
         <v>6</v>
       </c>
       <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
         <v>9</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>92.5</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>108</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>45</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>245.5</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1117,29 +1169,35 @@
         <v>7</v>
       </c>
       <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>177.8</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>22.5</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>200.3</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1192,29 +1250,35 @@
         <v>8</v>
       </c>
       <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
         <v>12</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>10</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>60</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>90</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>160</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1267,29 +1331,35 @@
         <v>9</v>
       </c>
       <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
         <v>19</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>24.05</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>79</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>103.05</v>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1342,29 +1412,35 @@
         <v>10</v>
       </c>
       <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="n">
         <v>7</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>100.7</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>100.7</v>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1417,29 +1493,35 @@
         <v>11</v>
       </c>
       <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" t="n">
         <v>4</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1492,29 +1574,35 @@
         <v>12</v>
       </c>
       <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
         <v>18</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>20</v>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>45</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>65</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1567,29 +1655,35 @@
         <v>13</v>
       </c>
       <c r="P15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
         <v>10</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1642,29 +1736,35 @@
         <v>14</v>
       </c>
       <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" t="n">
         <v>8</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>12.5</v>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>32</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>44.5</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1717,29 +1817,35 @@
         <v>15</v>
       </c>
       <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" t="n">
         <v>6</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.78</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>40</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
         <v>41.78</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1792,29 +1898,35 @@
         <v>16</v>
       </c>
       <c r="P18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16</v>
+      </c>
+      <c r="R18" t="n">
         <v>17</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>36.4</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>36.4</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1867,29 +1979,35 @@
         <v>17</v>
       </c>
       <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17</v>
+      </c>
+      <c r="R19" t="n">
         <v>11</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>10</v>
       </c>
-      <c r="V19" t="n">
+      <c r="X19" t="n">
         <v>10</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1942,29 +2060,35 @@
         <v>18</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>9.9</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>9.9</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2017,29 +2141,35 @@
         <v>19</v>
       </c>
       <c r="P21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19</v>
+      </c>
+      <c r="R21" t="n">
         <v>16</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>3.7</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>3.7</v>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2094,17 +2224,17 @@
       <c r="P22" t="n">
         <v>20</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
@@ -2114,7 +2244,13 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2169,17 +2305,17 @@
       <c r="P23" t="n">
         <v>21</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="n">
+        <v>21</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21</v>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -2189,7 +2325,13 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2244,17 +2386,17 @@
       <c r="P24" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>22</v>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
@@ -2264,7 +2406,13 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2319,17 +2467,17 @@
       <c r="P25" t="n">
         <v>23</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="n">
+        <v>23</v>
+      </c>
+      <c r="R25" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
@@ -2339,7 +2487,13 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2394,17 +2548,17 @@
       <c r="P26" t="n">
         <v>24</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>24</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
@@ -2414,7 +2568,13 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2469,17 +2629,17 @@
       <c r="P27" t="n">
         <v>25</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
@@ -2489,7 +2649,13 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2544,17 +2710,17 @@
       <c r="P28" t="n">
         <v>26</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="n">
+        <v>26</v>
+      </c>
+      <c r="R28" t="n">
+        <v>26</v>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
@@ -2564,7 +2730,13 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2619,17 +2791,17 @@
       <c r="P29" t="n">
         <v>27</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="n">
+        <v>27</v>
+      </c>
+      <c r="R29" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
@@ -2639,7 +2811,13 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,35 +521,70 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -608,29 +643,50 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="AA2" t="n">
         <v>44.3</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AB2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AC2" t="n">
         <v>152.92</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -689,29 +745,50 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
         <v>14</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -772,27 +849,48 @@
       <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="AA4" t="n">
         <v>36.85</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AB4" t="n">
         <v>550.9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AC4" t="n">
         <v>65.16</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>652.91</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -851,29 +949,50 @@
         <v>3</v>
       </c>
       <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="AA5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -932,29 +1051,50 @@
         <v>4</v>
       </c>
       <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="T6" t="n">
+      <c r="AA6" t="n">
         <v>94.2</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AB6" t="n">
         <v>230.1</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>324.3</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1013,29 +1153,50 @@
         <v>5</v>
       </c>
       <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="T7" t="n">
+      <c r="AA7" t="n">
         <v>223.8</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>49.96</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>273.76</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1094,29 +1255,50 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="AA8" t="n">
         <v>92.5</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AB8" t="n">
         <v>108</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>45</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AE8" t="n">
         <v>245.5</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1175,29 +1357,50 @@
         <v>7</v>
       </c>
       <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
         <v>3</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="T9" t="n">
+      <c r="AA9" t="n">
         <v>177.8</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AB9" t="n">
         <v>22.5</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>200.3</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1256,29 +1459,50 @@
         <v>8</v>
       </c>
       <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
         <v>12</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="AA10" t="n">
         <v>10</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AB10" t="n">
         <v>60</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>90</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AE10" t="n">
         <v>160</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1337,29 +1561,50 @@
         <v>9</v>
       </c>
       <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
         <v>19</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="T11" t="n">
+      <c r="AA11" t="n">
         <v>24.05</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>79</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>103.05</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1418,29 +1663,50 @@
         <v>10</v>
       </c>
       <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>100.7</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>100.7</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1499,29 +1765,50 @@
         <v>11</v>
       </c>
       <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="AA13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1580,29 +1867,50 @@
         <v>12</v>
       </c>
       <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
         <v>18</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="T14" t="n">
+      <c r="AA14" t="n">
         <v>20</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>45</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AE14" t="n">
         <v>65</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1661,29 +1969,50 @@
         <v>13</v>
       </c>
       <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1742,29 +2071,50 @@
         <v>14</v>
       </c>
       <c r="R16" t="n">
+        <v>14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14</v>
+      </c>
+      <c r="W16" t="n">
+        <v>14</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
         <v>8</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="T16" t="n">
+      <c r="AA16" t="n">
         <v>12.5</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>32</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AE16" t="n">
         <v>44.5</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1823,29 +2173,50 @@
         <v>15</v>
       </c>
       <c r="R17" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15</v>
+      </c>
+      <c r="V17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>1.78</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AD17" t="n">
         <v>40</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AE17" t="n">
         <v>41.78</v>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1904,29 +2275,50 @@
         <v>16</v>
       </c>
       <c r="R18" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16</v>
+      </c>
+      <c r="U18" t="n">
+        <v>16</v>
+      </c>
+      <c r="V18" t="n">
+        <v>16</v>
+      </c>
+      <c r="W18" t="n">
+        <v>16</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="n">
         <v>17</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
         <v>36.4</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>36.4</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1985,29 +2377,50 @@
         <v>17</v>
       </c>
       <c r="R19" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17</v>
+      </c>
+      <c r="T19" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>17</v>
+      </c>
+      <c r="V19" t="n">
+        <v>17</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
         <v>11</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>10</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AE19" t="n">
         <v>10</v>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2066,29 +2479,50 @@
         <v>18</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18</v>
+      </c>
+      <c r="T20" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>18</v>
+      </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>18</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="T20" t="n">
+      <c r="AA20" t="n">
         <v>9.9</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
         <v>9.9</v>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2147,29 +2581,50 @@
         <v>19</v>
       </c>
       <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>19</v>
+      </c>
+      <c r="T21" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" t="n">
+        <v>19</v>
+      </c>
+      <c r="V21" t="n">
+        <v>19</v>
+      </c>
+      <c r="W21" t="n">
+        <v>19</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
         <v>16</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="T21" t="n">
+      <c r="AA21" t="n">
         <v>3.7</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>3.7</v>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2230,27 +2685,48 @@
       <c r="R22" t="n">
         <v>20</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" t="n">
+        <v>20</v>
+      </c>
+      <c r="V22" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" t="n">
+        <v>20</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2311,27 +2787,48 @@
       <c r="R23" t="n">
         <v>21</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S23" t="n">
+        <v>21</v>
+      </c>
+      <c r="T23" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" t="n">
+        <v>21</v>
+      </c>
+      <c r="V23" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" t="n">
+        <v>21</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2392,27 +2889,48 @@
       <c r="R24" t="n">
         <v>22</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" t="n">
+        <v>22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>22</v>
+      </c>
+      <c r="U24" t="n">
+        <v>22</v>
+      </c>
+      <c r="V24" t="n">
+        <v>22</v>
+      </c>
+      <c r="W24" t="n">
+        <v>22</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2473,27 +2991,48 @@
       <c r="R25" t="n">
         <v>23</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" t="n">
+        <v>23</v>
+      </c>
+      <c r="T25" t="n">
+        <v>23</v>
+      </c>
+      <c r="U25" t="n">
+        <v>23</v>
+      </c>
+      <c r="V25" t="n">
+        <v>23</v>
+      </c>
+      <c r="W25" t="n">
+        <v>23</v>
+      </c>
+      <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2554,27 +3093,48 @@
       <c r="R26" t="n">
         <v>24</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" t="n">
+        <v>24</v>
+      </c>
+      <c r="T26" t="n">
+        <v>24</v>
+      </c>
+      <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>24</v>
+      </c>
+      <c r="W26" t="n">
+        <v>24</v>
+      </c>
+      <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2635,27 +3195,48 @@
       <c r="R27" t="n">
         <v>25</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>25</v>
+      </c>
+      <c r="V27" t="n">
+        <v>25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2716,27 +3297,48 @@
       <c r="R28" t="n">
         <v>26</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S28" t="n">
+        <v>26</v>
+      </c>
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26</v>
+      </c>
+      <c r="V28" t="n">
+        <v>26</v>
+      </c>
+      <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2797,27 +3399,48 @@
       <c r="R29" t="n">
         <v>27</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S29" t="n">
+        <v>27</v>
+      </c>
+      <c r="T29" t="n">
+        <v>27</v>
+      </c>
+      <c r="U29" t="n">
+        <v>27</v>
+      </c>
+      <c r="V29" t="n">
+        <v>27</v>
+      </c>
+      <c r="W29" t="n">
+        <v>27</v>
+      </c>
+      <c r="X29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,35 +556,85 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -664,29 +714,59 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>15</v>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AK2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AL2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AM2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -766,29 +846,59 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
         <v>14</v>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -870,27 +980,57 @@
       <c r="Y4" t="n">
         <v>2</v>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="AK4" t="n">
         <v>36.85</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AL4" t="n">
         <v>550.9</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AM4" t="n">
         <v>65.16</v>
       </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
         <v>652.91</v>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -970,29 +1110,59 @@
         <v>3</v>
       </c>
       <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="n">
         <v>5</v>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AA5" t="n">
+      <c r="AK5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1072,29 +1242,59 @@
         <v>4</v>
       </c>
       <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="n">
         <v>1</v>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AA6" t="n">
+      <c r="AK6" t="n">
         <v>94.2</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AL6" t="n">
         <v>230.1</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
         <v>324.3</v>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1174,29 +1374,59 @@
         <v>5</v>
       </c>
       <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AA7" t="n">
+      <c r="AK7" t="n">
         <v>223.8</v>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
         <v>49.96</v>
       </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>273.76</v>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1276,29 +1506,59 @@
         <v>6</v>
       </c>
       <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AA8" t="n">
+      <c r="AK8" t="n">
         <v>92.5</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AL8" t="n">
         <v>108</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>45</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AO8" t="n">
         <v>245.5</v>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1378,29 +1638,59 @@
         <v>7</v>
       </c>
       <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
         <v>3</v>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AA9" t="n">
+      <c r="AK9" t="n">
         <v>177.8</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AL9" t="n">
         <v>22.5</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
         <v>200.3</v>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1480,29 +1770,59 @@
         <v>8</v>
       </c>
       <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
         <v>12</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AA10" t="n">
+      <c r="AK10" t="n">
         <v>10</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AL10" t="n">
         <v>60</v>
       </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>90</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AO10" t="n">
         <v>160</v>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1582,29 +1902,59 @@
         <v>9</v>
       </c>
       <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
         <v>19</v>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AA11" t="n">
+      <c r="AK11" t="n">
         <v>24.05</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>79</v>
       </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>103.05</v>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1684,29 +2034,59 @@
         <v>10</v>
       </c>
       <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
         <v>7</v>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1786,29 +2166,59 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
         <v>4</v>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AA13" t="n">
+      <c r="AK13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1888,29 +2298,59 @@
         <v>12</v>
       </c>
       <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
         <v>18</v>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AA14" t="n">
+      <c r="AK14" t="n">
         <v>20</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>45</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AO14" t="n">
         <v>65</v>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1990,29 +2430,59 @@
         <v>13</v>
       </c>
       <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
         <v>10</v>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2092,29 +2562,59 @@
         <v>14</v>
       </c>
       <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="n">
         <v>8</v>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AA16" t="n">
+      <c r="AK16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>32</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AO16" t="n">
         <v>44.5</v>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2194,29 +2694,59 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
         <v>6</v>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>1.78</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AN17" t="n">
         <v>40</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AO17" t="n">
         <v>41.78</v>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2296,29 +2826,59 @@
         <v>16</v>
       </c>
       <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
         <v>17</v>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2398,29 +2958,59 @@
         <v>17</v>
       </c>
       <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
         <v>11</v>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
         <v>10</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AO19" t="n">
         <v>10</v>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2500,29 +3090,59 @@
         <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AA20" t="n">
+      <c r="AK20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2602,29 +3222,59 @@
         <v>19</v>
       </c>
       <c r="Y21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
         <v>16</v>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AA21" t="n">
+      <c r="AK21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2706,27 +3356,57 @@
       <c r="Y22" t="n">
         <v>20</v>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2808,27 +3488,57 @@
       <c r="Y23" t="n">
         <v>21</v>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2910,27 +3620,57 @@
       <c r="Y24" t="n">
         <v>22</v>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="Z24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3012,27 +3752,57 @@
       <c r="Y25" t="n">
         <v>23</v>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3114,27 +3884,57 @@
       <c r="Y26" t="n">
         <v>24</v>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3216,27 +4016,57 @@
       <c r="Y27" t="n">
         <v>25</v>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="Z27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3318,27 +4148,57 @@
       <c r="Y28" t="n">
         <v>26</v>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3420,27 +4280,57 @@
       <c r="Y29" t="n">
         <v>27</v>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP29"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,35 +606,40 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -744,29 +749,32 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>15</v>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
       <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -876,29 +884,32 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>14</v>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
       <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1010,27 +1021,30 @@
       <c r="AI4" t="n">
         <v>2</v>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>36.85</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>550.9</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>65.16</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
       <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
         <v>652.91</v>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1140,19 +1154,19 @@
         <v>3</v>
       </c>
       <c r="AI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>5</v>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
@@ -1160,9 +1174,12 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1272,29 +1289,32 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>94.2</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>230.1</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>324.3</v>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1404,29 +1424,32 @@
         <v>5</v>
       </c>
       <c r="AI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>13</v>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>223.8</v>
       </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>49.96</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
       <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
         <v>273.76</v>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1536,29 +1559,32 @@
         <v>6</v>
       </c>
       <c r="AI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>92.5</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>108</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
       <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>45</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>245.5</v>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1668,29 +1694,32 @@
         <v>7</v>
       </c>
       <c r="AI9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>177.8</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>22.5</v>
       </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>200.3</v>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1800,29 +1829,32 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12</v>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>10</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>60</v>
       </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
       <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>90</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>160</v>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1932,29 +1964,32 @@
         <v>9</v>
       </c>
       <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>24.05</v>
       </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>79</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
         <v>103.05</v>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2064,29 +2099,32 @@
         <v>10</v>
       </c>
       <c r="AI12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>7</v>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
       <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2196,19 +2234,19 @@
         <v>11</v>
       </c>
       <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>4</v>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
@@ -2216,9 +2254,12 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2328,29 +2369,32 @@
         <v>12</v>
       </c>
       <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>18</v>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>20</v>
       </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>45</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>65</v>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2460,29 +2504,32 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>10</v>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
       <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2592,29 +2639,32 @@
         <v>14</v>
       </c>
       <c r="AI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>8</v>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
         <v>0</v>
       </c>
       <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>32</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>44.5</v>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2724,29 +2774,32 @@
         <v>15</v>
       </c>
       <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>6</v>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
       <c r="AL17" t="n">
         <v>0</v>
       </c>
       <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>1.78</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AO17" t="n">
         <v>40</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>41.78</v>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2856,29 +2909,32 @@
         <v>16</v>
       </c>
       <c r="AI18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>17</v>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
       <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2988,16 +3044,16 @@
         <v>17</v>
       </c>
       <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>11</v>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
@@ -3005,12 +3061,15 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AP19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3120,19 +3179,19 @@
         <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
@@ -3140,9 +3199,12 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3252,19 +3314,19 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>16</v>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
@@ -3272,9 +3334,12 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3386,14 +3451,14 @@
       <c r="AI22" t="n">
         <v>20</v>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
       <c r="AL22" t="n">
         <v>0</v>
       </c>
@@ -3406,7 +3471,10 @@
       <c r="AO22" t="n">
         <v>0</v>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3518,14 +3586,14 @@
       <c r="AI23" t="n">
         <v>21</v>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AJ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
       <c r="AL23" t="n">
         <v>0</v>
       </c>
@@ -3538,7 +3606,10 @@
       <c r="AO23" t="n">
         <v>0</v>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3650,14 +3721,14 @@
       <c r="AI24" t="n">
         <v>22</v>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AJ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
       <c r="AL24" t="n">
         <v>0</v>
       </c>
@@ -3670,7 +3741,10 @@
       <c r="AO24" t="n">
         <v>0</v>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3782,14 +3856,14 @@
       <c r="AI25" t="n">
         <v>23</v>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
       <c r="AL25" t="n">
         <v>0</v>
       </c>
@@ -3802,7 +3876,10 @@
       <c r="AO25" t="n">
         <v>0</v>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3914,14 +3991,14 @@
       <c r="AI26" t="n">
         <v>24</v>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AJ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
       <c r="AL26" t="n">
         <v>0</v>
       </c>
@@ -3934,7 +4011,10 @@
       <c r="AO26" t="n">
         <v>0</v>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4046,14 +4126,14 @@
       <c r="AI27" t="n">
         <v>25</v>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AJ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
       <c r="AL27" t="n">
         <v>0</v>
       </c>
@@ -4066,7 +4146,10 @@
       <c r="AO27" t="n">
         <v>0</v>
       </c>
-      <c r="AP27" t="inlineStr">
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -4178,14 +4261,14 @@
       <c r="AI28" t="n">
         <v>26</v>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AJ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
       <c r="AL28" t="n">
         <v>0</v>
       </c>
@@ -4198,7 +4281,10 @@
       <c r="AO28" t="n">
         <v>0</v>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4310,14 +4396,14 @@
       <c r="AI29" t="n">
         <v>27</v>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AJ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
       <c r="AL29" t="n">
         <v>0</v>
       </c>
@@ -4330,7 +4416,10 @@
       <c r="AO29" t="n">
         <v>0</v>
       </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ29"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,35 +611,40 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -752,29 +757,32 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>15</v>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
       <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -887,29 +895,32 @@
         <v>1</v>
       </c>
       <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
         <v>14</v>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
       <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1024,27 +1035,30 @@
       <c r="AJ4" t="n">
         <v>2</v>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>36.85</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>550.9</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>65.16</v>
       </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
       <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>652.91</v>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1157,19 +1171,19 @@
         <v>3</v>
       </c>
       <c r="AJ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK5" t="n">
         <v>5</v>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
@@ -1177,9 +1191,12 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1292,29 +1309,32 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK6" t="n">
         <v>1</v>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>94.2</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>230.1</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
       <c r="AO6" t="n">
         <v>0</v>
       </c>
       <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>324.3</v>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1427,29 +1447,32 @@
         <v>5</v>
       </c>
       <c r="AJ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>13</v>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>223.8</v>
       </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
       <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>49.96</v>
       </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
       <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>273.76</v>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1562,29 +1585,32 @@
         <v>6</v>
       </c>
       <c r="AJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK8" t="n">
         <v>9</v>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>92.5</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>108</v>
       </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
       <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
         <v>45</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8" t="n">
         <v>245.5</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1697,29 +1723,32 @@
         <v>7</v>
       </c>
       <c r="AJ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK9" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>177.8</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>22.5</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
       <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>200.3</v>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1832,29 +1861,32 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK10" t="n">
         <v>12</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>10</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>60</v>
       </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
       <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
         <v>90</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>160</v>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1967,29 +1999,32 @@
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
         <v>19</v>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>24.05</v>
       </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
       <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>79</v>
       </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
       <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>103.05</v>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2102,29 +2137,32 @@
         <v>10</v>
       </c>
       <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
         <v>7</v>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="n">
         <v>0</v>
       </c>
       <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2237,19 +2275,19 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
         <v>4</v>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
@@ -2257,9 +2295,12 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2372,29 +2413,32 @@
         <v>12</v>
       </c>
       <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
         <v>18</v>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>20</v>
       </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
         <v>45</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AQ14" t="n">
         <v>65</v>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2507,29 +2551,32 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
         <v>10</v>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
       <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
       <c r="AO15" t="n">
         <v>0</v>
       </c>
       <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2642,29 +2689,32 @@
         <v>14</v>
       </c>
       <c r="AJ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK16" t="n">
         <v>8</v>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
         <v>32</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
         <v>44.5</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2777,29 +2827,32 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
         <v>6</v>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
         <v>1.78</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>40</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>41.78</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2912,29 +2965,32 @@
         <v>16</v>
       </c>
       <c r="AJ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK18" t="n">
         <v>17</v>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
       <c r="AO18" t="n">
         <v>0</v>
       </c>
       <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3047,16 +3103,16 @@
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
         <v>11</v>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
@@ -3064,12 +3120,15 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
         <v>10</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AQ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3182,19 +3241,19 @@
         <v>18</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
       <c r="AN20" t="n">
         <v>0</v>
       </c>
@@ -3202,9 +3261,12 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3317,19 +3379,19 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
         <v>16</v>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
       <c r="AN21" t="n">
         <v>0</v>
       </c>
@@ -3337,9 +3399,12 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3454,14 +3519,14 @@
       <c r="AJ22" t="n">
         <v>20</v>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AK22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
@@ -3474,7 +3539,10 @@
       <c r="AP22" t="n">
         <v>0</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3589,14 +3657,14 @@
       <c r="AJ23" t="n">
         <v>21</v>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
@@ -3609,7 +3677,10 @@
       <c r="AP23" t="n">
         <v>0</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3724,14 +3795,14 @@
       <c r="AJ24" t="n">
         <v>22</v>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AK24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
@@ -3744,7 +3815,10 @@
       <c r="AP24" t="n">
         <v>0</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3859,14 +3933,14 @@
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
@@ -3879,7 +3953,10 @@
       <c r="AP25" t="n">
         <v>0</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3994,14 +4071,14 @@
       <c r="AJ26" t="n">
         <v>24</v>
       </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
         <v>0</v>
       </c>
@@ -4014,7 +4091,10 @@
       <c r="AP26" t="n">
         <v>0</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4129,14 +4209,14 @@
       <c r="AJ27" t="n">
         <v>25</v>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AK27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
@@ -4149,7 +4229,10 @@
       <c r="AP27" t="n">
         <v>0</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -4264,14 +4347,14 @@
       <c r="AJ28" t="n">
         <v>26</v>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
       <c r="AM28" t="n">
         <v>0</v>
       </c>
@@ -4284,7 +4367,10 @@
       <c r="AP28" t="n">
         <v>0</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4399,14 +4485,14 @@
       <c r="AJ29" t="n">
         <v>27</v>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AK29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
@@ -4419,7 +4505,10 @@
       <c r="AP29" t="n">
         <v>0</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR29"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,35 +616,40 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -760,29 +765,32 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>15</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -898,29 +906,32 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
         <v>14</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1038,27 +1049,30 @@
       <c r="AK4" t="n">
         <v>2</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>36.85</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>550.9</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>65.16</v>
       </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
         <v>652.91</v>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1174,19 +1188,19 @@
         <v>3</v>
       </c>
       <c r="AK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="n">
         <v>5</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
       <c r="AO5" t="n">
         <v>0</v>
       </c>
@@ -1194,9 +1208,12 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1312,29 +1329,32 @@
         <v>4</v>
       </c>
       <c r="AK6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="n">
         <v>1</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>94.2</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>230.1</v>
       </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>324.3</v>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1450,29 +1470,32 @@
         <v>5</v>
       </c>
       <c r="AK7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="n">
         <v>13</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>223.8</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
       <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
         <v>49.96</v>
       </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>273.76</v>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1588,29 +1611,32 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="n">
         <v>9</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>92.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>108</v>
       </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
       <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>45</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
         <v>245.5</v>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1726,29 +1752,32 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL9" t="n">
         <v>3</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>177.8</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>22.5</v>
       </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>200.3</v>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1864,29 +1893,32 @@
         <v>8</v>
       </c>
       <c r="AK10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="n">
         <v>12</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>10</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>60</v>
       </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
       <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>90</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="n">
         <v>160</v>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2002,29 +2034,32 @@
         <v>9</v>
       </c>
       <c r="AK11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="n">
         <v>19</v>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>24.05</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
         <v>79</v>
       </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
         <v>103.05</v>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2140,29 +2175,32 @@
         <v>10</v>
       </c>
       <c r="AK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="n">
         <v>7</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
       <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2278,19 +2316,19 @@
         <v>11</v>
       </c>
       <c r="AK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="n">
         <v>4</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
       <c r="AO13" t="n">
         <v>0</v>
       </c>
@@ -2298,9 +2336,12 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2416,29 +2457,32 @@
         <v>12</v>
       </c>
       <c r="AK14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL14" t="n">
         <v>18</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
         <v>20</v>
       </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
       <c r="AO14" t="n">
         <v>0</v>
       </c>
       <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>45</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="n">
         <v>65</v>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2554,29 +2598,32 @@
         <v>13</v>
       </c>
       <c r="AK15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL15" t="n">
         <v>10</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
       <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
       <c r="AP15" t="n">
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2692,29 +2739,32 @@
         <v>14</v>
       </c>
       <c r="AK16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL16" t="n">
         <v>8</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO16" t="n">
         <v>0</v>
       </c>
       <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>32</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="n">
         <v>44.5</v>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2830,29 +2880,32 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
         <v>6</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
       <c r="AN17" t="n">
         <v>0</v>
       </c>
       <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
         <v>1.78</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>40</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="n">
         <v>41.78</v>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2968,29 +3021,32 @@
         <v>16</v>
       </c>
       <c r="AK18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL18" t="n">
         <v>17</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
       <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
       <c r="AP18" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3106,16 +3162,16 @@
         <v>17</v>
       </c>
       <c r="AK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="n">
         <v>11</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
@@ -3123,12 +3179,15 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AR19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3244,19 +3303,19 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
       <c r="AO20" t="n">
         <v>0</v>
       </c>
@@ -3264,9 +3323,12 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3382,19 +3444,19 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="n">
         <v>16</v>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
       <c r="AO21" t="n">
         <v>0</v>
       </c>
@@ -3402,9 +3464,12 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3522,14 +3587,14 @@
       <c r="AK22" t="n">
         <v>20</v>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AL22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
       <c r="AN22" t="n">
         <v>0</v>
       </c>
@@ -3542,7 +3607,10 @@
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3660,14 +3728,14 @@
       <c r="AK23" t="n">
         <v>21</v>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
       <c r="AN23" t="n">
         <v>0</v>
       </c>
@@ -3680,7 +3748,10 @@
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3798,14 +3869,14 @@
       <c r="AK24" t="n">
         <v>22</v>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AL24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
       <c r="AN24" t="n">
         <v>0</v>
       </c>
@@ -3818,7 +3889,10 @@
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3936,14 +4010,14 @@
       <c r="AK25" t="n">
         <v>23</v>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AL25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
       <c r="AN25" t="n">
         <v>0</v>
       </c>
@@ -3956,7 +4030,10 @@
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4074,14 +4151,14 @@
       <c r="AK26" t="n">
         <v>24</v>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AL26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
       <c r="AN26" t="n">
         <v>0</v>
       </c>
@@ -4094,7 +4171,10 @@
       <c r="AQ26" t="n">
         <v>0</v>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4212,14 +4292,14 @@
       <c r="AK27" t="n">
         <v>25</v>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AL27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
       <c r="AN27" t="n">
         <v>0</v>
       </c>
@@ -4232,7 +4312,10 @@
       <c r="AQ27" t="n">
         <v>0</v>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -4350,14 +4433,14 @@
       <c r="AK28" t="n">
         <v>26</v>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
       <c r="AN28" t="n">
         <v>0</v>
       </c>
@@ -4370,7 +4453,10 @@
       <c r="AQ28" t="n">
         <v>0</v>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4488,14 +4574,14 @@
       <c r="AK29" t="n">
         <v>27</v>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AL29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
       <c r="AN29" t="n">
         <v>0</v>
       </c>
@@ -4508,7 +4594,10 @@
       <c r="AQ29" t="n">
         <v>0</v>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS29"/>
+  <dimension ref="A1:AT29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,35 +621,40 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -768,29 +773,32 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
         <v>15</v>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -909,29 +917,32 @@
         <v>1</v>
       </c>
       <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
         <v>14</v>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1052,27 +1063,30 @@
       <c r="AL4" t="n">
         <v>2</v>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>36.85</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>550.9</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>65.16</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
       <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
         <v>652.91</v>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1191,19 +1205,19 @@
         <v>3</v>
       </c>
       <c r="AL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="n">
         <v>5</v>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
@@ -1211,9 +1225,12 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1332,29 +1349,32 @@
         <v>4</v>
       </c>
       <c r="AL6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
         <v>1</v>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>94.2</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>230.1</v>
       </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
       <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
         <v>324.3</v>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1473,29 +1493,32 @@
         <v>5</v>
       </c>
       <c r="AL7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
         <v>13</v>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>223.8</v>
       </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
       <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>49.96</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
       <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
         <v>273.76</v>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1614,29 +1637,32 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM8" t="n">
         <v>9</v>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>92.5</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>108</v>
       </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
         <v>45</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
         <v>245.5</v>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1755,29 +1781,32 @@
         <v>7</v>
       </c>
       <c r="AL9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM9" t="n">
         <v>3</v>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>177.8</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>22.5</v>
       </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
         <v>200.3</v>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1896,29 +1925,32 @@
         <v>8</v>
       </c>
       <c r="AL10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM10" t="n">
         <v>12</v>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>10</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>60</v>
       </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
         <v>90</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
         <v>160</v>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2037,29 +2069,32 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM11" t="n">
         <v>19</v>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
         <v>24.05</v>
       </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
       <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>79</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
       <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
         <v>103.05</v>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2178,29 +2213,32 @@
         <v>10</v>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="n">
         <v>7</v>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
       <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2319,19 +2357,19 @@
         <v>11</v>
       </c>
       <c r="AL13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM13" t="n">
         <v>4</v>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
@@ -2339,9 +2377,12 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2460,29 +2501,32 @@
         <v>12</v>
       </c>
       <c r="AL14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="n">
         <v>18</v>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
         <v>20</v>
       </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
         <v>45</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
         <v>65</v>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2601,29 +2645,32 @@
         <v>13</v>
       </c>
       <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
         <v>10</v>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
       <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2742,29 +2789,32 @@
         <v>14</v>
       </c>
       <c r="AL16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM16" t="n">
         <v>8</v>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
         <v>32</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
         <v>44.5</v>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2883,29 +2933,32 @@
         <v>15</v>
       </c>
       <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
         <v>6</v>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
       <c r="AO17" t="n">
         <v>0</v>
       </c>
       <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1.78</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="n">
         <v>40</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
         <v>41.78</v>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3024,29 +3077,32 @@
         <v>16</v>
       </c>
       <c r="AL18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM18" t="n">
         <v>17</v>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
       <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3165,16 +3221,16 @@
         <v>17</v>
       </c>
       <c r="AL19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
         <v>11</v>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
       <c r="AO19" t="n">
         <v>0</v>
       </c>
@@ -3182,12 +3238,15 @@
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AS19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3306,19 +3365,19 @@
         <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
       <c r="AP20" t="n">
         <v>0</v>
       </c>
@@ -3326,9 +3385,12 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3447,19 +3509,19 @@
         <v>19</v>
       </c>
       <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
         <v>16</v>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AN21" t="n">
+      <c r="AO21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
@@ -3467,9 +3529,12 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3590,14 +3655,14 @@
       <c r="AL22" t="n">
         <v>20</v>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AM22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
       <c r="AO22" t="n">
         <v>0</v>
       </c>
@@ -3610,7 +3675,10 @@
       <c r="AR22" t="n">
         <v>0</v>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3731,14 +3799,14 @@
       <c r="AL23" t="n">
         <v>21</v>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
       <c r="AO23" t="n">
         <v>0</v>
       </c>
@@ -3751,7 +3819,10 @@
       <c r="AR23" t="n">
         <v>0</v>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3872,14 +3943,14 @@
       <c r="AL24" t="n">
         <v>22</v>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AM24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
       <c r="AO24" t="n">
         <v>0</v>
       </c>
@@ -3892,7 +3963,10 @@
       <c r="AR24" t="n">
         <v>0</v>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -4013,14 +4087,14 @@
       <c r="AL25" t="n">
         <v>23</v>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AM25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
       <c r="AO25" t="n">
         <v>0</v>
       </c>
@@ -4033,7 +4107,10 @@
       <c r="AR25" t="n">
         <v>0</v>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4154,14 +4231,14 @@
       <c r="AL26" t="n">
         <v>24</v>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AM26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
       <c r="AO26" t="n">
         <v>0</v>
       </c>
@@ -4174,7 +4251,10 @@
       <c r="AR26" t="n">
         <v>0</v>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4295,14 +4375,14 @@
       <c r="AL27" t="n">
         <v>25</v>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AM27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
       <c r="AO27" t="n">
         <v>0</v>
       </c>
@@ -4315,7 +4395,10 @@
       <c r="AR27" t="n">
         <v>0</v>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -4436,14 +4519,14 @@
       <c r="AL28" t="n">
         <v>26</v>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AM28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
       <c r="AO28" t="n">
         <v>0</v>
       </c>
@@ -4456,7 +4539,10 @@
       <c r="AR28" t="n">
         <v>0</v>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4577,14 +4663,14 @@
       <c r="AL29" t="n">
         <v>27</v>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AM29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
       <c r="AO29" t="n">
         <v>0</v>
       </c>
@@ -4597,7 +4683,10 @@
       <c r="AR29" t="n">
         <v>0</v>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT29"/>
+  <dimension ref="A1:AU29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,35 +626,40 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -776,29 +781,32 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>15</v>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -920,29 +928,32 @@
         <v>1</v>
       </c>
       <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
         <v>14</v>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1066,27 +1077,30 @@
       <c r="AM4" t="n">
         <v>2</v>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>36.85</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>550.9</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>65.16</v>
       </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
       <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
         <v>652.91</v>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1208,19 +1222,19 @@
         <v>3</v>
       </c>
       <c r="AM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN5" t="n">
         <v>5</v>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -1228,9 +1242,12 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1352,29 +1369,32 @@
         <v>4</v>
       </c>
       <c r="AM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="n">
         <v>1</v>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>94.2</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>230.1</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
         <v>324.3</v>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1496,29 +1516,32 @@
         <v>5</v>
       </c>
       <c r="AM7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN7" t="n">
         <v>13</v>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>223.8</v>
       </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>49.96</v>
       </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
       <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
         <v>273.76</v>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1640,29 +1663,32 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN8" t="n">
         <v>9</v>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>92.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8" t="n">
         <v>108</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
       <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
         <v>45</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
         <v>245.5</v>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1784,29 +1810,32 @@
         <v>7</v>
       </c>
       <c r="AM9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3</v>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>177.8</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>22.5</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
         <v>200.3</v>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1928,29 +1957,32 @@
         <v>8</v>
       </c>
       <c r="AM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN10" t="n">
         <v>12</v>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>10</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>60</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
       <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
         <v>90</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AT10" t="n">
         <v>160</v>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2072,29 +2104,32 @@
         <v>9</v>
       </c>
       <c r="AM11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN11" t="n">
         <v>19</v>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
         <v>24.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
         <v>79</v>
       </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
         <v>103.05</v>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2216,29 +2251,32 @@
         <v>10</v>
       </c>
       <c r="AM12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN12" t="n">
         <v>7</v>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
       <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
         <v>100.7</v>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2360,19 +2398,19 @@
         <v>11</v>
       </c>
       <c r="AM13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN13" t="n">
         <v>4</v>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
@@ -2380,9 +2418,12 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2504,29 +2545,32 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN14" t="n">
         <v>18</v>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>20</v>
       </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
       <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
         <v>45</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AT14" t="n">
         <v>65</v>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -2648,29 +2692,32 @@
         <v>13</v>
       </c>
       <c r="AM15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN15" t="n">
         <v>10</v>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
       <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
       <c r="AR15" t="n">
         <v>0</v>
       </c>
       <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2792,29 +2839,32 @@
         <v>14</v>
       </c>
       <c r="AM16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN16" t="n">
         <v>8</v>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>12.5</v>
       </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
       <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
         <v>32</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AT16" t="n">
         <v>44.5</v>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2936,29 +2986,32 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN17" t="n">
         <v>6</v>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
         <v>1.78</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
         <v>40</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AT17" t="n">
         <v>41.78</v>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3080,29 +3133,32 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN18" t="n">
         <v>17</v>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
       <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
         <v>36.4</v>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3224,16 +3280,16 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN19" t="n">
         <v>11</v>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
@@ -3241,12 +3297,15 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>10</v>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AT19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU19" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3368,19 +3427,19 @@
         <v>18</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
@@ -3388,9 +3447,12 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
         <v>9.9</v>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -3512,19 +3574,19 @@
         <v>19</v>
       </c>
       <c r="AM21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN21" t="n">
         <v>16</v>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AO21" t="n">
+      <c r="AP21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
@@ -3532,9 +3594,12 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
         <v>3.7</v>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3658,14 +3723,14 @@
       <c r="AM22" t="n">
         <v>20</v>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AN22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO22" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
       <c r="AP22" t="n">
         <v>0</v>
       </c>
@@ -3678,7 +3743,10 @@
       <c r="AS22" t="n">
         <v>0</v>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3802,14 +3870,14 @@
       <c r="AM23" t="n">
         <v>21</v>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AN23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO23" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
       <c r="AP23" t="n">
         <v>0</v>
       </c>
@@ -3822,7 +3890,10 @@
       <c r="AS23" t="n">
         <v>0</v>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3946,14 +4017,14 @@
       <c r="AM24" t="n">
         <v>22</v>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AN24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO24" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
       <c r="AP24" t="n">
         <v>0</v>
       </c>
@@ -3966,7 +4037,10 @@
       <c r="AS24" t="n">
         <v>0</v>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -4090,14 +4164,14 @@
       <c r="AM25" t="n">
         <v>23</v>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
       <c r="AP25" t="n">
         <v>0</v>
       </c>
@@ -4110,7 +4184,10 @@
       <c r="AS25" t="n">
         <v>0</v>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4234,14 +4311,14 @@
       <c r="AM26" t="n">
         <v>24</v>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AN26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO26" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
       <c r="AP26" t="n">
         <v>0</v>
       </c>
@@ -4254,7 +4331,10 @@
       <c r="AS26" t="n">
         <v>0</v>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -4378,14 +4458,14 @@
       <c r="AM27" t="n">
         <v>25</v>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
       <c r="AP27" t="n">
         <v>0</v>
       </c>
@@ -4398,7 +4478,10 @@
       <c r="AS27" t="n">
         <v>0</v>
       </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -4522,14 +4605,14 @@
       <c r="AM28" t="n">
         <v>26</v>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AN28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO28" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
       <c r="AP28" t="n">
         <v>0</v>
       </c>
@@ -4542,7 +4625,10 @@
       <c r="AS28" t="n">
         <v>0</v>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4666,14 +4752,14 @@
       <c r="AM29" t="n">
         <v>27</v>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AN29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO29" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
       <c r="AP29" t="n">
         <v>0</v>
       </c>
@@ -4686,7 +4772,10 @@
       <c r="AS29" t="n">
         <v>0</v>
       </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,35 +466,40 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -522,27 +527,30 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>44.3</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>152.92</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -568,29 +576,32 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>223.8</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>49.96</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>273.76</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -616,29 +627,32 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>92.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>108</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>45</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>245.5</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -664,19 +678,19 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
         <v>11</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -684,9 +698,12 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -712,29 +729,32 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
         <v>12</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>20</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>45</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>65</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -760,16 +780,16 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
         <v>17</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -777,12 +797,15 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -808,19 +831,19 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
         <v>18</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>9.9</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -828,9 +851,12 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>9.9</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -856,16 +882,16 @@
         <v>7</v>
       </c>
       <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
         <v>23</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -878,7 +904,10 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -904,16 +933,16 @@
         <v>8</v>
       </c>
       <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
         <v>24</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -926,7 +955,10 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -952,16 +984,16 @@
         <v>9</v>
       </c>
       <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
         <v>28</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -971,8 +1003,11 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -998,29 +1033,32 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1046,29 +1084,32 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>94.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>230.1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>324.3</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1094,29 +1135,32 @@
         <v>12</v>
       </c>
       <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>177.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>22.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>200.3</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1142,29 +1186,32 @@
         <v>13</v>
       </c>
       <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>100.7</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>100.7</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1190,29 +1237,32 @@
         <v>14</v>
       </c>
       <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
         <v>13</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1238,29 +1288,32 @@
         <v>15</v>
       </c>
       <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
         <v>16</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>36.4</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>36.4</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1286,19 +1339,19 @@
         <v>16</v>
       </c>
       <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
         <v>19</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3.7</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -1306,9 +1359,12 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.7</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1334,16 +1390,16 @@
         <v>17</v>
       </c>
       <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
         <v>22</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1356,7 +1412,10 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1382,16 +1441,16 @@
         <v>18</v>
       </c>
       <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
         <v>25</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
@@ -1404,7 +1463,10 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1430,16 +1492,16 @@
         <v>19</v>
       </c>
       <c r="G21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n">
         <v>29</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1449,8 +1511,11 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1476,16 +1541,16 @@
         <v>20</v>
       </c>
       <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
         <v>30</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
@@ -1495,8 +1560,11 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1522,29 +1590,32 @@
         <v>21</v>
       </c>
       <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>36.85</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>550.9</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>65.16</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>652.91</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1570,19 +1641,19 @@
         <v>22</v>
       </c>
       <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -1590,9 +1661,12 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1618,29 +1692,32 @@
         <v>23</v>
       </c>
       <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
         <v>8</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>60</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>90</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>160</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1666,29 +1743,32 @@
         <v>24</v>
       </c>
       <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
         <v>9</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>24.05</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>79</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>103.05</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1714,29 +1794,32 @@
         <v>25</v>
       </c>
       <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
         <v>14</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>12.5</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>32</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>44.5</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1762,29 +1845,32 @@
         <v>26</v>
       </c>
       <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
         <v>15</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.78</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>40</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>41.78</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1810,16 +1896,16 @@
         <v>27</v>
       </c>
       <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
         <v>20</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -1832,7 +1918,10 @@
       <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1858,16 +1947,16 @@
         <v>28</v>
       </c>
       <c r="G30" t="n">
+        <v>28</v>
+      </c>
+      <c r="H30" t="n">
         <v>21</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
@@ -1880,7 +1969,10 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1906,16 +1998,16 @@
         <v>29</v>
       </c>
       <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
         <v>26</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
@@ -1928,7 +2020,10 @@
       <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1954,16 +2049,16 @@
         <v>30</v>
       </c>
       <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
         <v>27</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -1976,7 +2071,10 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2004,14 +2102,14 @@
       <c r="G33" t="n">
         <v>31</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
@@ -2021,8 +2119,11 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,35 +471,40 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -530,27 +535,30 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>44.3</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>152.92</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -579,29 +587,32 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>5</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>223.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>49.96</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>273.76</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -630,29 +641,32 @@
         <v>2</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>92.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>108</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>45</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>245.5</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -681,19 +695,19 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -701,9 +715,12 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -732,29 +749,32 @@
         <v>4</v>
       </c>
       <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>20</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>45</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>65</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -783,16 +803,16 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
         <v>17</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -800,12 +820,15 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -834,19 +857,19 @@
         <v>6</v>
       </c>
       <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
         <v>18</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>9.9</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -854,9 +877,12 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>9.9</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -885,16 +911,16 @@
         <v>7</v>
       </c>
       <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
         <v>23</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -907,7 +933,10 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -936,16 +965,16 @@
         <v>8</v>
       </c>
       <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
         <v>24</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -958,7 +987,10 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -987,16 +1019,16 @@
         <v>9</v>
       </c>
       <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
         <v>28</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1006,8 +1038,11 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1036,29 +1071,32 @@
         <v>10</v>
       </c>
       <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1087,29 +1125,32 @@
         <v>11</v>
       </c>
       <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>94.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>230.1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>324.3</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1138,29 +1179,32 @@
         <v>12</v>
       </c>
       <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
         <v>7</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>177.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>22.5</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>200.3</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1189,29 +1233,32 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
         <v>10</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>100.7</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>100.7</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1240,29 +1287,32 @@
         <v>14</v>
       </c>
       <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
         <v>13</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1291,29 +1341,32 @@
         <v>15</v>
       </c>
       <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
         <v>16</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>36.4</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>36.4</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1342,19 +1395,19 @@
         <v>16</v>
       </c>
       <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
         <v>19</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>3.7</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
@@ -1362,9 +1415,12 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>3.7</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1393,16 +1449,16 @@
         <v>17</v>
       </c>
       <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
         <v>22</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -1415,7 +1471,10 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1444,16 +1503,16 @@
         <v>18</v>
       </c>
       <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
         <v>25</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -1466,7 +1525,10 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1495,16 +1557,16 @@
         <v>19</v>
       </c>
       <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="n">
         <v>29</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -1514,8 +1576,11 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1544,16 +1609,16 @@
         <v>20</v>
       </c>
       <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
         <v>30</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -1563,8 +1628,11 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1593,29 +1661,32 @@
         <v>21</v>
       </c>
       <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>36.85</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>550.9</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>65.16</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>652.91</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1644,19 +1715,19 @@
         <v>22</v>
       </c>
       <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
@@ -1664,9 +1735,12 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1695,29 +1769,32 @@
         <v>23</v>
       </c>
       <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
         <v>8</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>10</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>60</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>90</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>160</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1746,29 +1823,32 @@
         <v>24</v>
       </c>
       <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
         <v>9</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>24.05</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>79</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>103.05</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1797,29 +1877,32 @@
         <v>25</v>
       </c>
       <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
         <v>14</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>12.5</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>32</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>44.5</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1848,29 +1931,32 @@
         <v>26</v>
       </c>
       <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n">
         <v>15</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.78</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>40</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>41.78</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1899,16 +1985,16 @@
         <v>27</v>
       </c>
       <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
         <v>20</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -1921,7 +2007,10 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1950,16 +2039,16 @@
         <v>28</v>
       </c>
       <c r="H30" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="n">
         <v>21</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -1972,7 +2061,10 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2001,16 +2093,16 @@
         <v>29</v>
       </c>
       <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="n">
         <v>26</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -2023,7 +2115,10 @@
       <c r="N31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2052,16 +2147,16 @@
         <v>30</v>
       </c>
       <c r="H32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="n">
         <v>27</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -2074,7 +2169,10 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2105,14 +2203,14 @@
       <c r="H33" t="n">
         <v>31</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -2122,8 +2220,11 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,35 +476,45 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -538,27 +548,33 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>44.3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>152.92</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -590,29 +606,35 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>223.8</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>49.96</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>273.76</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -644,29 +666,35 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>92.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>108</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>45</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>245.5</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -698,29 +726,35 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>11</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -752,29 +786,35 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>20</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>45</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>65</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -806,29 +846,35 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
         <v>17</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>10</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -860,29 +906,35 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
         <v>18</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>9.9</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>9.9</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -914,19 +966,19 @@
         <v>7</v>
       </c>
       <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
         <v>23</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
@@ -936,7 +988,13 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -968,19 +1026,19 @@
         <v>8</v>
       </c>
       <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
         <v>24</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
@@ -990,7 +1048,13 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1022,27 +1086,33 @@
         <v>9</v>
       </c>
       <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
         <v>28</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1074,21 +1144,21 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1096,7 +1166,13 @@
       <c r="O12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1128,29 +1204,35 @@
         <v>11</v>
       </c>
       <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>94.2</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>230.1</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>324.3</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1182,29 +1264,35 @@
         <v>12</v>
       </c>
       <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>177.8</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>22.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>200.3</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1236,29 +1324,35 @@
         <v>13</v>
       </c>
       <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
         <v>10</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>100.7</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>100.7</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1290,29 +1384,35 @@
         <v>14</v>
       </c>
       <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
         <v>13</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1344,29 +1444,35 @@
         <v>15</v>
       </c>
       <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
         <v>16</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>36.4</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>36.4</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1398,29 +1504,35 @@
         <v>16</v>
       </c>
       <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
         <v>19</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>3.7</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3.7</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1452,19 +1564,19 @@
         <v>17</v>
       </c>
       <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
         <v>22</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -1474,7 +1586,13 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1506,19 +1624,19 @@
         <v>18</v>
       </c>
       <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
         <v>25</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
@@ -1528,7 +1646,13 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1560,27 +1684,33 @@
         <v>19</v>
       </c>
       <c r="I21" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
         <v>29</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1612,27 +1742,33 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
         <v>30</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1664,29 +1800,35 @@
         <v>21</v>
       </c>
       <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
         <v>2</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>36.85</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>550.9</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>65.16</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>652.91</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1718,29 +1860,35 @@
         <v>22</v>
       </c>
       <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1772,29 +1920,35 @@
         <v>23</v>
       </c>
       <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="n">
         <v>8</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>10</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>60</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>90</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>160</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1826,29 +1980,35 @@
         <v>24</v>
       </c>
       <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="n">
         <v>9</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>24.05</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>79</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>103.05</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1880,29 +2040,35 @@
         <v>25</v>
       </c>
       <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
         <v>14</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>12.5</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>32</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>44.5</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1934,29 +2100,35 @@
         <v>26</v>
       </c>
       <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
         <v>15</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.78</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>40</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>41.78</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1988,19 +2160,19 @@
         <v>27</v>
       </c>
       <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
         <v>20</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -2010,7 +2182,13 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2042,19 +2220,19 @@
         <v>28</v>
       </c>
       <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>28</v>
+      </c>
+      <c r="K30" t="n">
         <v>21</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
@@ -2064,7 +2242,13 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2096,19 +2280,19 @@
         <v>29</v>
       </c>
       <c r="I31" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
         <v>26</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
@@ -2118,7 +2302,13 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2150,19 +2340,19 @@
         <v>30</v>
       </c>
       <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
+      <c r="K32" t="n">
         <v>27</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
@@ -2172,7 +2362,13 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2206,25 +2402,31 @@
       <c r="I33" t="n">
         <v>31</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>31</v>
+      </c>
+      <c r="K33" t="n">
+        <v>31</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,35 +486,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -554,27 +559,30 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>44.3</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>152.92</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -612,29 +620,32 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>223.8</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>49.96</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>273.76</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -672,29 +683,32 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>6</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>92.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>108</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>45</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>245.5</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -732,19 +746,19 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
         <v>11</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
@@ -752,9 +766,12 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -792,29 +809,32 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
         <v>12</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>20</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>45</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>65</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -852,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
         <v>17</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
@@ -869,12 +889,15 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>10</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -912,19 +935,19 @@
         <v>6</v>
       </c>
       <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
         <v>18</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>9.9</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
@@ -932,9 +955,12 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>9.9</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -972,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
         <v>23</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -994,7 +1020,10 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1032,16 +1061,16 @@
         <v>8</v>
       </c>
       <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
         <v>24</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
@@ -1054,7 +1083,10 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1092,16 +1124,16 @@
         <v>9</v>
       </c>
       <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
         <v>28</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
@@ -1111,8 +1143,11 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1150,29 +1185,32 @@
         <v>10</v>
       </c>
       <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1210,29 +1248,32 @@
         <v>11</v>
       </c>
       <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>94.2</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>230.1</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>324.3</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1270,29 +1311,32 @@
         <v>12</v>
       </c>
       <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
         <v>7</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>177.8</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>22.5</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>200.3</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1330,29 +1374,32 @@
         <v>13</v>
       </c>
       <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="n">
         <v>10</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>100.7</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>100.7</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1390,29 +1437,32 @@
         <v>14</v>
       </c>
       <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
         <v>13</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1450,29 +1500,32 @@
         <v>15</v>
       </c>
       <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="n">
         <v>16</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>36.4</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>36.4</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1510,19 +1563,19 @@
         <v>16</v>
       </c>
       <c r="K18" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" t="n">
         <v>19</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>3.7</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
@@ -1530,9 +1583,12 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>3.7</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1570,16 +1626,16 @@
         <v>17</v>
       </c>
       <c r="K19" t="n">
+        <v>17</v>
+      </c>
+      <c r="L19" t="n">
         <v>22</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -1592,7 +1648,10 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1630,16 +1689,16 @@
         <v>18</v>
       </c>
       <c r="K20" t="n">
+        <v>18</v>
+      </c>
+      <c r="L20" t="n">
         <v>25</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
@@ -1652,7 +1711,10 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1690,16 +1752,16 @@
         <v>19</v>
       </c>
       <c r="K21" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" t="n">
         <v>29</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
@@ -1709,8 +1771,11 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1748,16 +1813,16 @@
         <v>20</v>
       </c>
       <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="n">
         <v>30</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -1767,8 +1832,11 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1806,29 +1874,32 @@
         <v>21</v>
       </c>
       <c r="K23" t="n">
+        <v>21</v>
+      </c>
+      <c r="L23" t="n">
         <v>2</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>36.85</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>550.9</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>65.16</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>652.91</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1866,19 +1937,19 @@
         <v>22</v>
       </c>
       <c r="K24" t="n">
+        <v>22</v>
+      </c>
+      <c r="L24" t="n">
         <v>3</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
@@ -1886,9 +1957,12 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1926,29 +2000,32 @@
         <v>23</v>
       </c>
       <c r="K25" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" t="n">
         <v>8</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>10</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>60</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>90</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>160</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1986,29 +2063,32 @@
         <v>24</v>
       </c>
       <c r="K26" t="n">
+        <v>24</v>
+      </c>
+      <c r="L26" t="n">
         <v>9</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>24.05</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>79</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>103.05</v>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2046,29 +2126,32 @@
         <v>25</v>
       </c>
       <c r="K27" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" t="n">
         <v>14</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>12.5</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>32</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>44.5</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2106,29 +2189,32 @@
         <v>26</v>
       </c>
       <c r="K28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L28" t="n">
         <v>15</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.78</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>40</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>41.78</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2166,16 +2252,16 @@
         <v>27</v>
       </c>
       <c r="K29" t="n">
+        <v>27</v>
+      </c>
+      <c r="L29" t="n">
         <v>20</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
@@ -2188,7 +2274,10 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2226,16 +2315,16 @@
         <v>28</v>
       </c>
       <c r="K30" t="n">
+        <v>28</v>
+      </c>
+      <c r="L30" t="n">
         <v>21</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
@@ -2248,7 +2337,10 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2286,16 +2378,16 @@
         <v>29</v>
       </c>
       <c r="K31" t="n">
+        <v>29</v>
+      </c>
+      <c r="L31" t="n">
         <v>26</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
@@ -2308,7 +2400,10 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2346,16 +2441,16 @@
         <v>30</v>
       </c>
       <c r="K32" t="n">
+        <v>30</v>
+      </c>
+      <c r="L32" t="n">
         <v>27</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
@@ -2368,7 +2463,10 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2408,14 +2506,14 @@
       <c r="K33" t="n">
         <v>31</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>31</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
@@ -2425,8 +2523,11 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,35 +491,40 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -562,27 +567,30 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>44.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>152.92</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -623,29 +631,32 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>223.8</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>49.96</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>273.76</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -686,29 +697,32 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>92.5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>108</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>45</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>245.5</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -749,19 +763,19 @@
         <v>3</v>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>11</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
@@ -769,9 +783,12 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -812,29 +829,32 @@
         <v>4</v>
       </c>
       <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
         <v>12</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>20</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>45</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>65</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -875,16 +895,16 @@
         <v>5</v>
       </c>
       <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
         <v>17</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
@@ -892,12 +912,15 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>10</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -938,19 +961,19 @@
         <v>6</v>
       </c>
       <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
         <v>18</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>9.9</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -958,9 +981,12 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>9.9</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1001,16 +1027,16 @@
         <v>7</v>
       </c>
       <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
         <v>23</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
@@ -1023,7 +1049,10 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1064,16 +1093,16 @@
         <v>8</v>
       </c>
       <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
         <v>24</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
@@ -1086,7 +1115,10 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1127,16 +1159,16 @@
         <v>9</v>
       </c>
       <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
         <v>28</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
@@ -1146,8 +1178,11 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1188,29 +1223,32 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1251,29 +1289,32 @@
         <v>11</v>
       </c>
       <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>94.2</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>230.1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>324.3</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1314,29 +1355,32 @@
         <v>12</v>
       </c>
       <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" t="n">
         <v>7</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>177.8</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>22.5</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>200.3</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1377,29 +1421,32 @@
         <v>13</v>
       </c>
       <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
         <v>10</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>100.7</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>100.7</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1440,29 +1487,32 @@
         <v>14</v>
       </c>
       <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="n">
         <v>13</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1503,29 +1553,32 @@
         <v>15</v>
       </c>
       <c r="L17" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" t="n">
         <v>16</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>36.4</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>36.4</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1566,19 +1619,19 @@
         <v>16</v>
       </c>
       <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
         <v>19</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>3.7</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
@@ -1586,9 +1639,12 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.7</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1629,16 +1685,16 @@
         <v>17</v>
       </c>
       <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
         <v>22</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
@@ -1651,7 +1707,10 @@
       <c r="R19" t="n">
         <v>0</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1692,16 +1751,16 @@
         <v>18</v>
       </c>
       <c r="L20" t="n">
+        <v>18</v>
+      </c>
+      <c r="M20" t="n">
         <v>25</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
@@ -1714,7 +1773,10 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1755,16 +1817,16 @@
         <v>19</v>
       </c>
       <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="n">
         <v>29</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1774,8 +1836,11 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1816,16 +1881,16 @@
         <v>20</v>
       </c>
       <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="n">
         <v>30</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -1835,8 +1900,11 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1877,29 +1945,32 @@
         <v>21</v>
       </c>
       <c r="L23" t="n">
+        <v>21</v>
+      </c>
+      <c r="M23" t="n">
         <v>2</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>36.85</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>550.9</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>65.16</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>652.91</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1940,19 +2011,19 @@
         <v>22</v>
       </c>
       <c r="L24" t="n">
+        <v>22</v>
+      </c>
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
@@ -1960,9 +2031,12 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2003,29 +2077,32 @@
         <v>23</v>
       </c>
       <c r="L25" t="n">
+        <v>23</v>
+      </c>
+      <c r="M25" t="n">
         <v>8</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>10</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>60</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>90</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>160</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2066,29 +2143,32 @@
         <v>24</v>
       </c>
       <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="n">
         <v>9</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>24.05</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>79</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>103.05</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2129,29 +2209,32 @@
         <v>25</v>
       </c>
       <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
         <v>14</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>12.5</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>32</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>44.5</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2192,29 +2275,32 @@
         <v>26</v>
       </c>
       <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="n">
         <v>15</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>40</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>41.78</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2255,16 +2341,16 @@
         <v>27</v>
       </c>
       <c r="L29" t="n">
+        <v>27</v>
+      </c>
+      <c r="M29" t="n">
         <v>20</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
@@ -2277,7 +2363,10 @@
       <c r="R29" t="n">
         <v>0</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2318,16 +2407,16 @@
         <v>28</v>
       </c>
       <c r="L30" t="n">
+        <v>28</v>
+      </c>
+      <c r="M30" t="n">
         <v>21</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
@@ -2340,7 +2429,10 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2381,16 +2473,16 @@
         <v>29</v>
       </c>
       <c r="L31" t="n">
+        <v>29</v>
+      </c>
+      <c r="M31" t="n">
         <v>26</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
@@ -2403,7 +2495,10 @@
       <c r="R31" t="n">
         <v>0</v>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2444,16 +2539,16 @@
         <v>30</v>
       </c>
       <c r="L32" t="n">
+        <v>30</v>
+      </c>
+      <c r="M32" t="n">
         <v>27</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
@@ -2466,7 +2561,10 @@
       <c r="R32" t="n">
         <v>0</v>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2509,14 +2607,14 @@
       <c r="L33" t="n">
         <v>31</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>31</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
@@ -2526,8 +2624,11 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,35 +496,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -570,27 +575,30 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>44.3</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>152.92</v>
       </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -634,29 +642,32 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>223.8</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>49.96</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>273.76</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -700,29 +711,32 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
         <v>6</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>92.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>108</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>45</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>245.5</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -766,19 +780,19 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
         <v>11</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
@@ -786,9 +800,12 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -832,29 +849,32 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
         <v>12</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>20</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>45</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>65</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -898,16 +918,16 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
         <v>17</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
@@ -915,12 +935,15 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -964,19 +987,19 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
         <v>18</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>9.9</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
@@ -984,9 +1007,12 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>9.9</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1030,16 +1056,16 @@
         <v>7</v>
       </c>
       <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
         <v>23</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
@@ -1052,7 +1078,10 @@
       <c r="S9" t="n">
         <v>0</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1096,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
         <v>24</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -1118,7 +1147,10 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1162,16 +1194,16 @@
         <v>9</v>
       </c>
       <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
         <v>28</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
@@ -1181,8 +1213,11 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1226,29 +1261,32 @@
         <v>10</v>
       </c>
       <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1292,29 +1330,32 @@
         <v>11</v>
       </c>
       <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>94.2</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>230.1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>324.3</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1358,29 +1399,32 @@
         <v>12</v>
       </c>
       <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
         <v>7</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>177.8</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>22.5</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>200.3</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1424,29 +1468,32 @@
         <v>13</v>
       </c>
       <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
         <v>10</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>100.7</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>100.7</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1490,29 +1537,32 @@
         <v>14</v>
       </c>
       <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
         <v>13</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1556,29 +1606,32 @@
         <v>15</v>
       </c>
       <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
         <v>16</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>36.4</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>36.4</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1622,19 +1675,19 @@
         <v>16</v>
       </c>
       <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
         <v>19</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>3.7</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
@@ -1642,9 +1695,12 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>3.7</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1688,16 +1744,16 @@
         <v>17</v>
       </c>
       <c r="M19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N19" t="n">
         <v>22</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
@@ -1710,7 +1766,10 @@
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1754,16 +1813,16 @@
         <v>18</v>
       </c>
       <c r="M20" t="n">
+        <v>18</v>
+      </c>
+      <c r="N20" t="n">
         <v>25</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -1776,7 +1835,10 @@
       <c r="S20" t="n">
         <v>0</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1820,16 +1882,16 @@
         <v>19</v>
       </c>
       <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="n">
         <v>29</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
@@ -1839,8 +1901,11 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1884,16 +1949,16 @@
         <v>20</v>
       </c>
       <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
         <v>30</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
@@ -1903,8 +1968,11 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1948,29 +2016,32 @@
         <v>21</v>
       </c>
       <c r="M23" t="n">
+        <v>21</v>
+      </c>
+      <c r="N23" t="n">
         <v>2</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>36.85</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>550.9</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>65.16</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>652.91</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2014,19 +2085,19 @@
         <v>22</v>
       </c>
       <c r="M24" t="n">
+        <v>22</v>
+      </c>
+      <c r="N24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
@@ -2034,9 +2105,12 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2080,29 +2154,32 @@
         <v>23</v>
       </c>
       <c r="M25" t="n">
+        <v>23</v>
+      </c>
+      <c r="N25" t="n">
         <v>8</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>10</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>60</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>90</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>160</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2146,29 +2223,32 @@
         <v>24</v>
       </c>
       <c r="M26" t="n">
+        <v>24</v>
+      </c>
+      <c r="N26" t="n">
         <v>9</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>24.05</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>79</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>103.05</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2212,29 +2292,32 @@
         <v>25</v>
       </c>
       <c r="M27" t="n">
+        <v>25</v>
+      </c>
+      <c r="N27" t="n">
         <v>14</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>12.5</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>32</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>44.5</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2278,29 +2361,32 @@
         <v>26</v>
       </c>
       <c r="M28" t="n">
+        <v>26</v>
+      </c>
+      <c r="N28" t="n">
         <v>15</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.78</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>40</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>41.78</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2344,16 +2430,16 @@
         <v>27</v>
       </c>
       <c r="M29" t="n">
+        <v>27</v>
+      </c>
+      <c r="N29" t="n">
         <v>20</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
@@ -2366,7 +2452,10 @@
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2410,16 +2499,16 @@
         <v>28</v>
       </c>
       <c r="M30" t="n">
+        <v>28</v>
+      </c>
+      <c r="N30" t="n">
         <v>21</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -2432,7 +2521,10 @@
       <c r="S30" t="n">
         <v>0</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2476,16 +2568,16 @@
         <v>29</v>
       </c>
       <c r="M31" t="n">
+        <v>29</v>
+      </c>
+      <c r="N31" t="n">
         <v>26</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
@@ -2498,7 +2590,10 @@
       <c r="S31" t="n">
         <v>0</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2542,16 +2637,16 @@
         <v>30</v>
       </c>
       <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
         <v>27</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -2564,7 +2659,10 @@
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2610,14 +2708,14 @@
       <c r="M33" t="n">
         <v>31</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" t="n">
+        <v>31</v>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
@@ -2627,8 +2725,11 @@
       <c r="R33" t="n">
         <v>0</v>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,35 +501,45 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -578,27 +588,33 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>44.3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>152.92</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -645,29 +661,35 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>223.8</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>49.96</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>273.76</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -714,29 +736,35 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
         <v>6</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>92.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>108</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>45</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>245.5</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -783,29 +811,35 @@
         <v>3</v>
       </c>
       <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -852,29 +886,35 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
         <v>12</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>20</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>45</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>65</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -921,29 +961,35 @@
         <v>5</v>
       </c>
       <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
         <v>17</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>10</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>10</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -990,29 +1036,35 @@
         <v>6</v>
       </c>
       <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
         <v>18</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>9.9</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>9.9</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1059,19 +1111,19 @@
         <v>7</v>
       </c>
       <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
         <v>23</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
@@ -1081,7 +1133,13 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1128,19 +1186,19 @@
         <v>8</v>
       </c>
       <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
         <v>24</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -1150,7 +1208,13 @@
       <c r="T10" t="n">
         <v>0</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1197,27 +1261,33 @@
         <v>9</v>
       </c>
       <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="n">
         <v>28</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1264,21 +1334,21 @@
         <v>10</v>
       </c>
       <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1286,7 +1356,13 @@
       <c r="T12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1333,29 +1409,35 @@
         <v>11</v>
       </c>
       <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
         <v>4</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>94.2</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>230.1</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>324.3</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1402,29 +1484,35 @@
         <v>12</v>
       </c>
       <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
         <v>7</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>177.8</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>22.5</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>200.3</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1471,29 +1559,35 @@
         <v>13</v>
       </c>
       <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>100.7</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>100.7</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1540,29 +1634,35 @@
         <v>14</v>
       </c>
       <c r="N16" t="n">
+        <v>14</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
         <v>13</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1609,29 +1709,35 @@
         <v>15</v>
       </c>
       <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
         <v>16</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>36.4</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>36.4</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1678,29 +1784,35 @@
         <v>16</v>
       </c>
       <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" t="n">
         <v>19</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>3.7</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1747,19 +1859,19 @@
         <v>17</v>
       </c>
       <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>17</v>
+      </c>
+      <c r="P19" t="n">
         <v>22</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
@@ -1769,7 +1881,13 @@
       <c r="T19" t="n">
         <v>0</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1816,19 +1934,19 @@
         <v>18</v>
       </c>
       <c r="N20" t="n">
+        <v>18</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18</v>
+      </c>
+      <c r="P20" t="n">
         <v>25</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -1838,7 +1956,13 @@
       <c r="T20" t="n">
         <v>0</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1885,27 +2009,33 @@
         <v>19</v>
       </c>
       <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19</v>
+      </c>
+      <c r="P21" t="n">
         <v>29</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1952,27 +2082,33 @@
         <v>20</v>
       </c>
       <c r="N22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" t="n">
         <v>30</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2019,29 +2155,35 @@
         <v>21</v>
       </c>
       <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21</v>
+      </c>
+      <c r="P23" t="n">
         <v>2</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>36.85</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>550.9</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>65.16</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>652.91</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2088,29 +2230,35 @@
         <v>22</v>
       </c>
       <c r="N24" t="n">
+        <v>22</v>
+      </c>
+      <c r="O24" t="n">
+        <v>22</v>
+      </c>
+      <c r="P24" t="n">
         <v>3</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2157,29 +2305,35 @@
         <v>23</v>
       </c>
       <c r="N25" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" t="n">
+        <v>23</v>
+      </c>
+      <c r="P25" t="n">
         <v>8</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>10</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>60</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>90</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>160</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2226,29 +2380,35 @@
         <v>24</v>
       </c>
       <c r="N26" t="n">
+        <v>24</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24</v>
+      </c>
+      <c r="P26" t="n">
         <v>9</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>24.05</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>79</v>
       </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>103.05</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2295,29 +2455,35 @@
         <v>25</v>
       </c>
       <c r="N27" t="n">
+        <v>25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>25</v>
+      </c>
+      <c r="P27" t="n">
         <v>14</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>12.5</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>32</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>44.5</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2364,29 +2530,35 @@
         <v>26</v>
       </c>
       <c r="N28" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" t="n">
+        <v>26</v>
+      </c>
+      <c r="P28" t="n">
         <v>15</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.78</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>40</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>41.78</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2433,19 +2605,19 @@
         <v>27</v>
       </c>
       <c r="N29" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" t="n">
+        <v>27</v>
+      </c>
+      <c r="P29" t="n">
         <v>20</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
@@ -2455,7 +2627,13 @@
       <c r="T29" t="n">
         <v>0</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2502,19 +2680,19 @@
         <v>28</v>
       </c>
       <c r="N30" t="n">
+        <v>28</v>
+      </c>
+      <c r="O30" t="n">
+        <v>28</v>
+      </c>
+      <c r="P30" t="n">
         <v>21</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
@@ -2524,7 +2702,13 @@
       <c r="T30" t="n">
         <v>0</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2571,19 +2755,19 @@
         <v>29</v>
       </c>
       <c r="N31" t="n">
+        <v>29</v>
+      </c>
+      <c r="O31" t="n">
+        <v>29</v>
+      </c>
+      <c r="P31" t="n">
         <v>26</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
@@ -2593,7 +2777,13 @@
       <c r="T31" t="n">
         <v>0</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2640,19 +2830,19 @@
         <v>30</v>
       </c>
       <c r="N32" t="n">
+        <v>30</v>
+      </c>
+      <c r="O32" t="n">
+        <v>30</v>
+      </c>
+      <c r="P32" t="n">
         <v>27</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
@@ -2662,7 +2852,13 @@
       <c r="T32" t="n">
         <v>0</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2711,25 +2907,31 @@
       <c r="N33" t="n">
         <v>31</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="O33" t="n">
+        <v>31</v>
+      </c>
+      <c r="P33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,35 +511,45 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -594,27 +604,33 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>44.3</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>152.92</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -667,29 +683,35 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>223.8</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>49.96</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>273.76</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -742,29 +764,35 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>92.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>108</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>45</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>245.5</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -817,29 +845,35 @@
         <v>3</v>
       </c>
       <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
         <v>11</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -892,29 +926,35 @@
         <v>4</v>
       </c>
       <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
         <v>12</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>20</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>45</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>65</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -967,29 +1007,35 @@
         <v>5</v>
       </c>
       <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
         <v>17</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>10</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>10</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1042,29 +1088,35 @@
         <v>6</v>
       </c>
       <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
         <v>18</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>9.9</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>9.9</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1117,19 +1169,19 @@
         <v>7</v>
       </c>
       <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
         <v>23</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
@@ -1139,7 +1191,13 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1192,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
         <v>24</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
@@ -1214,7 +1272,13 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1267,27 +1331,33 @@
         <v>9</v>
       </c>
       <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
         <v>28</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1340,21 +1410,21 @@
         <v>10</v>
       </c>
       <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1362,7 +1432,13 @@
       <c r="V12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1415,29 +1491,35 @@
         <v>11</v>
       </c>
       <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" t="n">
         <v>4</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>94.2</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>230.1</v>
       </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>324.3</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1490,29 +1572,35 @@
         <v>12</v>
       </c>
       <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
         <v>7</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>177.8</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>22.5</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>200.3</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1565,29 +1653,35 @@
         <v>13</v>
       </c>
       <c r="P15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
         <v>10</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>100.7</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>100.7</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1640,29 +1734,35 @@
         <v>14</v>
       </c>
       <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" t="n">
         <v>13</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1715,29 +1815,35 @@
         <v>15</v>
       </c>
       <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" t="n">
         <v>16</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>36.4</v>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>36.4</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1790,29 +1896,35 @@
         <v>16</v>
       </c>
       <c r="P18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16</v>
+      </c>
+      <c r="R18" t="n">
         <v>19</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>3.7</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>3.7</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1865,19 +1977,19 @@
         <v>17</v>
       </c>
       <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17</v>
+      </c>
+      <c r="R19" t="n">
         <v>22</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
@@ -1887,7 +1999,13 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1940,19 +2058,19 @@
         <v>18</v>
       </c>
       <c r="P20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18</v>
+      </c>
+      <c r="R20" t="n">
         <v>25</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
@@ -1962,7 +2080,13 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2015,27 +2139,33 @@
         <v>19</v>
       </c>
       <c r="P21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19</v>
+      </c>
+      <c r="R21" t="n">
         <v>29</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2088,27 +2218,33 @@
         <v>20</v>
       </c>
       <c r="P22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" t="n">
         <v>30</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2161,29 +2297,35 @@
         <v>21</v>
       </c>
       <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>21</v>
+      </c>
+      <c r="R23" t="n">
         <v>2</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>36.85</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>550.9</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>65.16</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>652.91</v>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2236,29 +2378,35 @@
         <v>22</v>
       </c>
       <c r="P24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
         <v>3</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2311,29 +2459,35 @@
         <v>23</v>
       </c>
       <c r="P25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23</v>
+      </c>
+      <c r="R25" t="n">
         <v>8</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>10</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>60</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>90</v>
       </c>
-      <c r="V25" t="n">
+      <c r="X25" t="n">
         <v>160</v>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2386,29 +2540,35 @@
         <v>24</v>
       </c>
       <c r="P26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
         <v>9</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>24.05</v>
       </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>79</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>103.05</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2461,29 +2621,35 @@
         <v>25</v>
       </c>
       <c r="P27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="n">
         <v>14</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>12.5</v>
       </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>32</v>
       </c>
-      <c r="V27" t="n">
+      <c r="X27" t="n">
         <v>44.5</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2536,29 +2702,35 @@
         <v>26</v>
       </c>
       <c r="P28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>26</v>
+      </c>
+      <c r="R28" t="n">
         <v>15</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.78</v>
       </c>
-      <c r="U28" t="n">
+      <c r="W28" t="n">
         <v>40</v>
       </c>
-      <c r="V28" t="n">
+      <c r="X28" t="n">
         <v>41.78</v>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2611,19 +2783,19 @@
         <v>27</v>
       </c>
       <c r="P29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>27</v>
+      </c>
+      <c r="R29" t="n">
         <v>20</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
@@ -2633,7 +2805,13 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2686,19 +2864,19 @@
         <v>28</v>
       </c>
       <c r="P30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28</v>
+      </c>
+      <c r="R30" t="n">
         <v>21</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
@@ -2708,7 +2886,13 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2761,19 +2945,19 @@
         <v>29</v>
       </c>
       <c r="P31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>29</v>
+      </c>
+      <c r="R31" t="n">
         <v>26</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
@@ -2783,7 +2967,13 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2836,19 +3026,19 @@
         <v>30</v>
       </c>
       <c r="P32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30</v>
+      </c>
+      <c r="R32" t="n">
         <v>27</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +3048,13 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2913,25 +3109,31 @@
       <c r="P33" t="n">
         <v>31</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="n">
+        <v>31</v>
+      </c>
+      <c r="R33" t="n">
+        <v>31</v>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,35 +521,50 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -610,27 +625,36 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>44.3</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>152.92</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -689,29 +713,38 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
         <v>5</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>223.8</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>49.96</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>273.76</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -770,29 +803,38 @@
         <v>2</v>
       </c>
       <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
         <v>6</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>92.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>108</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>45</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>245.5</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -851,29 +893,38 @@
         <v>3</v>
       </c>
       <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
         <v>11</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -932,29 +983,38 @@
         <v>4</v>
       </c>
       <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
         <v>12</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="T6" t="n">
+      <c r="W6" t="n">
         <v>20</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>45</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>65</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1013,29 +1073,38 @@
         <v>5</v>
       </c>
       <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
         <v>17</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>10</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>10</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1094,29 +1163,38 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
         <v>18</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
         <v>9.9</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>9.9</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1175,29 +1253,38 @@
         <v>7</v>
       </c>
       <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
         <v>23</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1256,29 +1343,38 @@
         <v>8</v>
       </c>
       <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
         <v>24</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1337,27 +1433,36 @@
         <v>9</v>
       </c>
       <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
         <v>28</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1416,29 +1521,38 @@
         <v>10</v>
       </c>
       <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
         <v>1</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1497,29 +1611,38 @@
         <v>11</v>
       </c>
       <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="W13" t="n">
         <v>94.2</v>
       </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
         <v>230.1</v>
       </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>324.3</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1578,29 +1701,38 @@
         <v>12</v>
       </c>
       <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
         <v>7</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="T14" t="n">
+      <c r="W14" t="n">
         <v>177.8</v>
       </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
         <v>22.5</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>200.3</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1659,21 +1791,21 @@
         <v>13</v>
       </c>
       <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" t="n">
         <v>10</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1681,7 +1813,16 @@
       <c r="X15" t="n">
         <v>100.7</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1740,21 +1881,21 @@
         <v>14</v>
       </c>
       <c r="R16" t="n">
+        <v>14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14</v>
+      </c>
+      <c r="U16" t="n">
         <v>13</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1762,7 +1903,16 @@
       <c r="X16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1821,21 +1971,21 @@
         <v>15</v>
       </c>
       <c r="R17" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
         <v>16</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1843,7 +1993,16 @@
       <c r="X17" t="n">
         <v>36.4</v>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1902,29 +2061,38 @@
         <v>16</v>
       </c>
       <c r="R18" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
+      <c r="T18" t="n">
+        <v>16</v>
+      </c>
+      <c r="U18" t="n">
         <v>19</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>3.7</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
         <v>3.7</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1983,29 +2151,38 @@
         <v>17</v>
       </c>
       <c r="R19" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17</v>
+      </c>
+      <c r="T19" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" t="n">
         <v>22</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2064,29 +2241,38 @@
         <v>18</v>
       </c>
       <c r="R20" t="n">
+        <v>18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18</v>
+      </c>
+      <c r="T20" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" t="n">
         <v>25</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2145,27 +2331,36 @@
         <v>19</v>
       </c>
       <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>19</v>
+      </c>
+      <c r="T21" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" t="n">
         <v>29</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2224,27 +2419,36 @@
         <v>20</v>
       </c>
       <c r="R22" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" t="n">
         <v>30</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2303,29 +2507,38 @@
         <v>21</v>
       </c>
       <c r="R23" t="n">
+        <v>21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>21</v>
+      </c>
+      <c r="T23" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" t="n">
         <v>2</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="T23" t="n">
+      <c r="W23" t="n">
         <v>36.85</v>
       </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>550.9</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>65.16</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
         <v>652.91</v>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2384,29 +2597,38 @@
         <v>22</v>
       </c>
       <c r="R24" t="n">
+        <v>22</v>
+      </c>
+      <c r="S24" t="n">
+        <v>22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>22</v>
+      </c>
+      <c r="U24" t="n">
         <v>3</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2465,29 +2687,38 @@
         <v>23</v>
       </c>
       <c r="R25" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>23</v>
+      </c>
+      <c r="T25" t="n">
+        <v>23</v>
+      </c>
+      <c r="U25" t="n">
         <v>8</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="T25" t="n">
+      <c r="W25" t="n">
         <v>10</v>
       </c>
-      <c r="U25" t="n">
+      <c r="X25" t="n">
         <v>60</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
         <v>90</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>160</v>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2546,29 +2777,38 @@
         <v>24</v>
       </c>
       <c r="R26" t="n">
+        <v>24</v>
+      </c>
+      <c r="S26" t="n">
+        <v>24</v>
+      </c>
+      <c r="T26" t="n">
+        <v>24</v>
+      </c>
+      <c r="U26" t="n">
         <v>9</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="W26" t="n">
         <v>24.05</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>79</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
         <v>103.05</v>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2627,29 +2867,38 @@
         <v>25</v>
       </c>
       <c r="R27" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>25</v>
+      </c>
+      <c r="U27" t="n">
         <v>14</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="T27" t="n">
+      <c r="W27" t="n">
         <v>12.5</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
         <v>32</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>44.5</v>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2708,29 +2957,38 @@
         <v>26</v>
       </c>
       <c r="R28" t="n">
+        <v>26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>26</v>
+      </c>
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" t="n">
         <v>15</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>1.78</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>40</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
         <v>41.78</v>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2789,29 +3047,38 @@
         <v>27</v>
       </c>
       <c r="R29" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" t="n">
+        <v>27</v>
+      </c>
+      <c r="T29" t="n">
+        <v>27</v>
+      </c>
+      <c r="U29" t="n">
         <v>20</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2870,29 +3137,38 @@
         <v>28</v>
       </c>
       <c r="R30" t="n">
+        <v>28</v>
+      </c>
+      <c r="S30" t="n">
+        <v>28</v>
+      </c>
+      <c r="T30" t="n">
+        <v>28</v>
+      </c>
+      <c r="U30" t="n">
         <v>21</v>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2951,29 +3227,38 @@
         <v>29</v>
       </c>
       <c r="R31" t="n">
+        <v>29</v>
+      </c>
+      <c r="S31" t="n">
+        <v>29</v>
+      </c>
+      <c r="T31" t="n">
+        <v>29</v>
+      </c>
+      <c r="U31" t="n">
         <v>26</v>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3032,29 +3317,38 @@
         <v>30</v>
       </c>
       <c r="R32" t="n">
+        <v>30</v>
+      </c>
+      <c r="S32" t="n">
+        <v>30</v>
+      </c>
+      <c r="T32" t="n">
+        <v>30</v>
+      </c>
+      <c r="U32" t="n">
         <v>27</v>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3115,25 +3409,34 @@
       <c r="R33" t="n">
         <v>31</v>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S33" t="n">
+        <v>31</v>
+      </c>
+      <c r="T33" t="n">
+        <v>31</v>
+      </c>
+      <c r="U33" t="n">
+        <v>31</v>
+      </c>
+      <c r="V33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,35 +536,40 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -634,27 +639,30 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>44.3</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>152.92</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
       <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -722,29 +730,32 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>5</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>223.8</v>
       </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>49.96</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -812,29 +823,32 @@
         <v>2</v>
       </c>
       <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
         <v>6</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>92.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>108</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>45</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -902,19 +916,19 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
         <v>11</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
@@ -922,9 +936,12 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -992,29 +1009,32 @@
         <v>4</v>
       </c>
       <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
         <v>12</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>20</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>45</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>65</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1082,16 +1102,16 @@
         <v>5</v>
       </c>
       <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
         <v>17</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
@@ -1099,12 +1119,15 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1172,19 +1195,19 @@
         <v>6</v>
       </c>
       <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
         <v>18</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>9.9</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
@@ -1192,9 +1215,12 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1262,16 +1288,16 @@
         <v>7</v>
       </c>
       <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
         <v>23</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
@@ -1284,7 +1310,10 @@
       <c r="AA9" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1352,16 +1381,16 @@
         <v>8</v>
       </c>
       <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
         <v>24</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
@@ -1374,7 +1403,10 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1442,16 +1474,16 @@
         <v>9</v>
       </c>
       <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
         <v>28</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
@@ -1461,8 +1493,11 @@
       <c r="Z11" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr">
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1530,29 +1565,32 @@
         <v>10</v>
       </c>
       <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
         <v>1</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
       <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1620,29 +1658,32 @@
         <v>11</v>
       </c>
       <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
         <v>4</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>94.2</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>230.1</v>
       </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1710,29 +1751,32 @@
         <v>12</v>
       </c>
       <c r="U14" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" t="n">
         <v>7</v>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>177.8</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>22.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1800,29 +1844,32 @@
         <v>13</v>
       </c>
       <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
         <v>10</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>100.7</v>
       </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1890,29 +1937,32 @@
         <v>14</v>
       </c>
       <c r="U16" t="n">
+        <v>14</v>
+      </c>
+      <c r="V16" t="n">
         <v>13</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1980,29 +2030,32 @@
         <v>15</v>
       </c>
       <c r="U17" t="n">
+        <v>15</v>
+      </c>
+      <c r="V17" t="n">
         <v>16</v>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>36.4</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2070,19 +2123,19 @@
         <v>16</v>
       </c>
       <c r="U18" t="n">
+        <v>16</v>
+      </c>
+      <c r="V18" t="n">
         <v>19</v>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>3.7</v>
       </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
@@ -2090,9 +2143,12 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2160,16 +2216,16 @@
         <v>17</v>
       </c>
       <c r="U19" t="n">
+        <v>17</v>
+      </c>
+      <c r="V19" t="n">
         <v>22</v>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
@@ -2182,7 +2238,10 @@
       <c r="AA19" t="n">
         <v>0</v>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2250,16 +2309,16 @@
         <v>18</v>
       </c>
       <c r="U20" t="n">
+        <v>18</v>
+      </c>
+      <c r="V20" t="n">
         <v>25</v>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
@@ -2272,7 +2331,10 @@
       <c r="AA20" t="n">
         <v>0</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2340,16 +2402,16 @@
         <v>19</v>
       </c>
       <c r="U21" t="n">
+        <v>19</v>
+      </c>
+      <c r="V21" t="n">
         <v>29</v>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
@@ -2359,8 +2421,11 @@
       <c r="Z21" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr">
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2428,16 +2493,16 @@
         <v>20</v>
       </c>
       <c r="U22" t="n">
+        <v>20</v>
+      </c>
+      <c r="V22" t="n">
         <v>30</v>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
@@ -2447,8 +2512,11 @@
       <c r="Z22" t="n">
         <v>0</v>
       </c>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr">
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2516,29 +2584,32 @@
         <v>21</v>
       </c>
       <c r="U23" t="n">
+        <v>21</v>
+      </c>
+      <c r="V23" t="n">
         <v>2</v>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>36.85</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>550.9</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>65.16</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
       <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2606,19 +2677,19 @@
         <v>22</v>
       </c>
       <c r="U24" t="n">
+        <v>22</v>
+      </c>
+      <c r="V24" t="n">
         <v>3</v>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
@@ -2626,9 +2697,12 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2696,29 +2770,32 @@
         <v>23</v>
       </c>
       <c r="U25" t="n">
+        <v>23</v>
+      </c>
+      <c r="V25" t="n">
         <v>8</v>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>10</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>60</v>
       </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
       <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
         <v>90</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>160</v>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2786,29 +2863,32 @@
         <v>24</v>
       </c>
       <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
         <v>9</v>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>24.05</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
         <v>79</v>
       </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
       <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2876,29 +2956,32 @@
         <v>25</v>
       </c>
       <c r="U27" t="n">
+        <v>25</v>
+      </c>
+      <c r="V27" t="n">
         <v>14</v>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>12.5</v>
       </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
         <v>32</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2966,29 +3049,32 @@
         <v>26</v>
       </c>
       <c r="U28" t="n">
+        <v>26</v>
+      </c>
+      <c r="V28" t="n">
         <v>15</v>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
         <v>1.78</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>40</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3056,16 +3142,16 @@
         <v>27</v>
       </c>
       <c r="U29" t="n">
+        <v>27</v>
+      </c>
+      <c r="V29" t="n">
         <v>20</v>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
@@ -3078,7 +3164,10 @@
       <c r="AA29" t="n">
         <v>0</v>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3146,16 +3235,16 @@
         <v>28</v>
       </c>
       <c r="U30" t="n">
+        <v>28</v>
+      </c>
+      <c r="V30" t="n">
         <v>21</v>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
@@ -3168,7 +3257,10 @@
       <c r="AA30" t="n">
         <v>0</v>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3236,16 +3328,16 @@
         <v>29</v>
       </c>
       <c r="U31" t="n">
+        <v>29</v>
+      </c>
+      <c r="V31" t="n">
         <v>26</v>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
@@ -3258,7 +3350,10 @@
       <c r="AA31" t="n">
         <v>0</v>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3326,16 +3421,16 @@
         <v>30</v>
       </c>
       <c r="U32" t="n">
+        <v>30</v>
+      </c>
+      <c r="V32" t="n">
         <v>27</v>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
@@ -3348,7 +3443,10 @@
       <c r="AA32" t="n">
         <v>0</v>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3418,14 +3516,14 @@
       <c r="U33" t="n">
         <v>31</v>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="V33" t="n">
+        <v>31</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
@@ -3435,8 +3533,11 @@
       <c r="Z33" t="n">
         <v>0</v>
       </c>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr">
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,35 +541,40 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -642,27 +647,30 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>44.3</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -733,29 +741,32 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
         <v>5</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>223.8</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
       <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -826,29 +837,32 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
         <v>6</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>92.5</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>108</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
       <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>45</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -919,19 +933,19 @@
         <v>3</v>
       </c>
       <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
         <v>11</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
@@ -939,9 +953,12 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1012,29 +1029,32 @@
         <v>4</v>
       </c>
       <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
         <v>12</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>20</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
         <v>45</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>65</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1105,16 +1125,16 @@
         <v>5</v>
       </c>
       <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
         <v>17</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
@@ -1122,12 +1142,15 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1198,19 +1221,19 @@
         <v>6</v>
       </c>
       <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
         <v>18</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>9.9</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
@@ -1218,9 +1241,12 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1291,16 +1317,16 @@
         <v>7</v>
       </c>
       <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="n">
         <v>23</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
@@ -1313,7 +1339,10 @@
       <c r="AB9" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1384,16 +1413,16 @@
         <v>8</v>
       </c>
       <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="n">
         <v>24</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
@@ -1406,7 +1435,10 @@
       <c r="AB10" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1477,16 +1509,16 @@
         <v>9</v>
       </c>
       <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
         <v>28</v>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
@@ -1496,8 +1528,11 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1568,29 +1603,32 @@
         <v>10</v>
       </c>
       <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="n">
         <v>1</v>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
       <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1661,29 +1699,32 @@
         <v>11</v>
       </c>
       <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="n">
         <v>4</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>94.2</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>230.1</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1754,29 +1795,32 @@
         <v>12</v>
       </c>
       <c r="V14" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" t="n">
         <v>7</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>177.8</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>22.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1847,29 +1891,32 @@
         <v>13</v>
       </c>
       <c r="V15" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" t="n">
         <v>10</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
         <v>100.7</v>
       </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1940,29 +1987,32 @@
         <v>14</v>
       </c>
       <c r="V16" t="n">
+        <v>14</v>
+      </c>
+      <c r="W16" t="n">
         <v>13</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
       <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2033,29 +2083,32 @@
         <v>15</v>
       </c>
       <c r="V17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" t="n">
         <v>16</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>36.4</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2126,19 +2179,19 @@
         <v>16</v>
       </c>
       <c r="V18" t="n">
+        <v>16</v>
+      </c>
+      <c r="W18" t="n">
         <v>19</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>3.7</v>
       </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
@@ -2146,9 +2199,12 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2219,16 +2275,16 @@
         <v>17</v>
       </c>
       <c r="V19" t="n">
+        <v>17</v>
+      </c>
+      <c r="W19" t="n">
         <v>22</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
@@ -2241,7 +2297,10 @@
       <c r="AB19" t="n">
         <v>0</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2312,16 +2371,16 @@
         <v>18</v>
       </c>
       <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
         <v>25</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
@@ -2334,7 +2393,10 @@
       <c r="AB20" t="n">
         <v>0</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2405,16 +2467,16 @@
         <v>19</v>
       </c>
       <c r="V21" t="n">
+        <v>19</v>
+      </c>
+      <c r="W21" t="n">
         <v>29</v>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
@@ -2424,8 +2486,11 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr">
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2496,16 +2561,16 @@
         <v>20</v>
       </c>
       <c r="V22" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" t="n">
         <v>30</v>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
@@ -2515,8 +2580,11 @@
       <c r="AA22" t="n">
         <v>0</v>
       </c>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr">
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2587,29 +2655,32 @@
         <v>21</v>
       </c>
       <c r="V23" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" t="n">
         <v>2</v>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>36.85</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>550.9</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
       <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2680,19 +2751,19 @@
         <v>22</v>
       </c>
       <c r="V24" t="n">
+        <v>22</v>
+      </c>
+      <c r="W24" t="n">
         <v>3</v>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
@@ -2700,9 +2771,12 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2773,29 +2847,32 @@
         <v>23</v>
       </c>
       <c r="V25" t="n">
+        <v>23</v>
+      </c>
+      <c r="W25" t="n">
         <v>8</v>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>10</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>60</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
       <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
         <v>90</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>160</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2866,29 +2943,32 @@
         <v>24</v>
       </c>
       <c r="V26" t="n">
+        <v>24</v>
+      </c>
+      <c r="W26" t="n">
         <v>9</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>24.05</v>
       </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
       <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
         <v>79</v>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
       <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2959,29 +3039,32 @@
         <v>25</v>
       </c>
       <c r="V27" t="n">
+        <v>25</v>
+      </c>
+      <c r="W27" t="n">
         <v>14</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
         <v>32</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3052,29 +3135,32 @@
         <v>26</v>
       </c>
       <c r="V28" t="n">
+        <v>26</v>
+      </c>
+      <c r="W28" t="n">
         <v>15</v>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>40</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3145,16 +3231,16 @@
         <v>27</v>
       </c>
       <c r="V29" t="n">
+        <v>27</v>
+      </c>
+      <c r="W29" t="n">
         <v>20</v>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
@@ -3167,7 +3253,10 @@
       <c r="AB29" t="n">
         <v>0</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3238,16 +3327,16 @@
         <v>28</v>
       </c>
       <c r="V30" t="n">
+        <v>28</v>
+      </c>
+      <c r="W30" t="n">
         <v>21</v>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
@@ -3260,7 +3349,10 @@
       <c r="AB30" t="n">
         <v>0</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3331,16 +3423,16 @@
         <v>29</v>
       </c>
       <c r="V31" t="n">
+        <v>29</v>
+      </c>
+      <c r="W31" t="n">
         <v>26</v>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
@@ -3353,7 +3445,10 @@
       <c r="AB31" t="n">
         <v>0</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3424,16 +3519,16 @@
         <v>30</v>
       </c>
       <c r="V32" t="n">
+        <v>30</v>
+      </c>
+      <c r="W32" t="n">
         <v>27</v>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
@@ -3446,7 +3541,10 @@
       <c r="AB32" t="n">
         <v>0</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3519,14 +3617,14 @@
       <c r="V33" t="n">
         <v>31</v>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="W33" t="n">
+        <v>31</v>
+      </c>
+      <c r="X33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
@@ -3536,8 +3634,11 @@
       <c r="AA33" t="n">
         <v>0</v>
       </c>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr">
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,35 +546,40 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -650,27 +655,30 @@
       <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>44.3</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
       <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -744,29 +752,32 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
         <v>5</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>223.8</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -840,29 +851,32 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
         <v>6</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>92.5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>108</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>45</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -936,19 +950,19 @@
         <v>3</v>
       </c>
       <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
         <v>11</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -956,9 +970,12 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1032,29 +1049,32 @@
         <v>4</v>
       </c>
       <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
         <v>12</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>20</v>
       </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
         <v>45</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>65</v>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1128,16 +1148,16 @@
         <v>5</v>
       </c>
       <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
         <v>17</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
@@ -1145,12 +1165,15 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1224,19 +1247,19 @@
         <v>6</v>
       </c>
       <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
         <v>18</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>9.9</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1244,9 +1267,12 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1320,16 +1346,16 @@
         <v>7</v>
       </c>
       <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
         <v>23</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
@@ -1342,7 +1368,10 @@
       <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1416,16 +1445,16 @@
         <v>8</v>
       </c>
       <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
         <v>24</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
@@ -1438,7 +1467,10 @@
       <c r="AC10" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1512,16 +1544,16 @@
         <v>9</v>
       </c>
       <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
         <v>28</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
@@ -1531,8 +1563,11 @@
       <c r="AB11" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1606,29 +1641,32 @@
         <v>10</v>
       </c>
       <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
         <v>1</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
       <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1702,29 +1740,32 @@
         <v>11</v>
       </c>
       <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
         <v>4</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>94.2</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
       <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1798,29 +1839,32 @@
         <v>12</v>
       </c>
       <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
         <v>7</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>177.8</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
       <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1894,29 +1938,32 @@
         <v>13</v>
       </c>
       <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
         <v>10</v>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
       <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1990,29 +2037,32 @@
         <v>14</v>
       </c>
       <c r="W16" t="n">
+        <v>14</v>
+      </c>
+      <c r="X16" t="n">
         <v>13</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
       <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
       <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2086,29 +2136,32 @@
         <v>15</v>
       </c>
       <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
         <v>16</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
       <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2182,19 +2235,19 @@
         <v>16</v>
       </c>
       <c r="W18" t="n">
+        <v>16</v>
+      </c>
+      <c r="X18" t="n">
         <v>19</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>3.7</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -2202,9 +2255,12 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2278,16 +2334,16 @@
         <v>17</v>
       </c>
       <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
         <v>22</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
@@ -2300,7 +2356,10 @@
       <c r="AC19" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2374,16 +2433,16 @@
         <v>18</v>
       </c>
       <c r="W20" t="n">
+        <v>18</v>
+      </c>
+      <c r="X20" t="n">
         <v>25</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
@@ -2396,7 +2455,10 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2470,16 +2532,16 @@
         <v>19</v>
       </c>
       <c r="W21" t="n">
+        <v>19</v>
+      </c>
+      <c r="X21" t="n">
         <v>29</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
@@ -2489,8 +2551,11 @@
       <c r="AB21" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2564,16 +2629,16 @@
         <v>20</v>
       </c>
       <c r="W22" t="n">
+        <v>20</v>
+      </c>
+      <c r="X22" t="n">
         <v>30</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -2583,8 +2648,11 @@
       <c r="AB22" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2658,29 +2726,32 @@
         <v>21</v>
       </c>
       <c r="W23" t="n">
+        <v>21</v>
+      </c>
+      <c r="X23" t="n">
         <v>2</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>36.85</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
       <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2754,19 +2825,19 @@
         <v>22</v>
       </c>
       <c r="W24" t="n">
+        <v>22</v>
+      </c>
+      <c r="X24" t="n">
         <v>3</v>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -2774,9 +2845,12 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2850,29 +2924,32 @@
         <v>23</v>
       </c>
       <c r="W25" t="n">
+        <v>23</v>
+      </c>
+      <c r="X25" t="n">
         <v>8</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>10</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>60</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
       <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
         <v>90</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>160</v>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2946,29 +3023,32 @@
         <v>24</v>
       </c>
       <c r="W26" t="n">
+        <v>24</v>
+      </c>
+      <c r="X26" t="n">
         <v>9</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>24.05</v>
       </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
       <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
         <v>79</v>
       </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
       <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3042,29 +3122,32 @@
         <v>25</v>
       </c>
       <c r="W27" t="n">
+        <v>25</v>
+      </c>
+      <c r="X27" t="n">
         <v>14</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
         <v>32</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3138,29 +3221,32 @@
         <v>26</v>
       </c>
       <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
         <v>15</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>40</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3234,16 +3320,16 @@
         <v>27</v>
       </c>
       <c r="W29" t="n">
+        <v>27</v>
+      </c>
+      <c r="X29" t="n">
         <v>20</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
@@ -3256,7 +3342,10 @@
       <c r="AC29" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3330,16 +3419,16 @@
         <v>28</v>
       </c>
       <c r="W30" t="n">
+        <v>28</v>
+      </c>
+      <c r="X30" t="n">
         <v>21</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
@@ -3352,7 +3441,10 @@
       <c r="AC30" t="n">
         <v>0</v>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3426,16 +3518,16 @@
         <v>29</v>
       </c>
       <c r="W31" t="n">
+        <v>29</v>
+      </c>
+      <c r="X31" t="n">
         <v>26</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
@@ -3448,7 +3540,10 @@
       <c r="AC31" t="n">
         <v>0</v>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3522,16 +3617,16 @@
         <v>30</v>
       </c>
       <c r="W32" t="n">
+        <v>30</v>
+      </c>
+      <c r="X32" t="n">
         <v>27</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
@@ -3544,7 +3639,10 @@
       <c r="AC32" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3620,14 +3718,14 @@
       <c r="W33" t="n">
         <v>31</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="X33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
@@ -3637,8 +3735,11 @@
       <c r="AB33" t="n">
         <v>0</v>
       </c>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,35 +551,40 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -658,27 +663,30 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
       <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -755,29 +763,32 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>223.8</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
       <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -854,29 +865,32 @@
         <v>2</v>
       </c>
       <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
         <v>6</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>92.5</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>108</v>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
       <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>45</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -953,19 +967,19 @@
         <v>3</v>
       </c>
       <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -973,9 +987,12 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1052,29 +1069,32 @@
         <v>4</v>
       </c>
       <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>20</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>45</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>65</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1151,16 +1171,16 @@
         <v>5</v>
       </c>
       <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1168,12 +1188,15 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>10</v>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1250,19 +1273,19 @@
         <v>6</v>
       </c>
       <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
         <v>18</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1270,9 +1293,12 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1349,16 +1375,16 @@
         <v>7</v>
       </c>
       <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
         <v>23</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1371,7 +1397,10 @@
       <c r="AD9" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1448,16 +1477,16 @@
         <v>8</v>
       </c>
       <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
         <v>24</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1470,7 +1499,10 @@
       <c r="AD10" t="n">
         <v>0</v>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1547,16 +1579,16 @@
         <v>9</v>
       </c>
       <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
         <v>28</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -1566,8 +1598,11 @@
       <c r="AC11" t="n">
         <v>0</v>
       </c>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1644,29 +1679,32 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
       <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1743,29 +1781,32 @@
         <v>11</v>
       </c>
       <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>94.2</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1842,29 +1883,32 @@
         <v>12</v>
       </c>
       <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
         <v>7</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>177.8</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1941,29 +1985,32 @@
         <v>13</v>
       </c>
       <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
       <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2040,29 +2087,32 @@
         <v>14</v>
       </c>
       <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
       <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2139,29 +2189,32 @@
         <v>15</v>
       </c>
       <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
         <v>16</v>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
       <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2238,19 +2291,19 @@
         <v>16</v>
       </c>
       <c r="X18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="n">
         <v>19</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -2258,9 +2311,12 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2337,16 +2393,16 @@
         <v>17</v>
       </c>
       <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
         <v>22</v>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -2359,7 +2415,10 @@
       <c r="AD19" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2436,16 +2495,16 @@
         <v>18</v>
       </c>
       <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
         <v>25</v>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -2458,7 +2517,10 @@
       <c r="AD20" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2535,16 +2597,16 @@
         <v>19</v>
       </c>
       <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
         <v>29</v>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -2554,8 +2616,11 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr">
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2632,16 +2697,16 @@
         <v>20</v>
       </c>
       <c r="X22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="n">
         <v>30</v>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -2651,8 +2716,11 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr">
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2729,29 +2797,32 @@
         <v>21</v>
       </c>
       <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
         <v>2</v>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>36.85</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
       <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2828,19 +2899,19 @@
         <v>22</v>
       </c>
       <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3</v>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
@@ -2848,9 +2919,12 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2927,29 +3001,32 @@
         <v>23</v>
       </c>
       <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8</v>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>10</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>60</v>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
       <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
         <v>90</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>160</v>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3026,29 +3103,32 @@
         <v>24</v>
       </c>
       <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9</v>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>24.05</v>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
       <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
         <v>79</v>
       </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
       <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3125,29 +3205,32 @@
         <v>25</v>
       </c>
       <c r="X27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="n">
         <v>14</v>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
       <c r="AB27" t="n">
         <v>0</v>
       </c>
       <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
         <v>32</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3224,29 +3307,32 @@
         <v>26</v>
       </c>
       <c r="X28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="n">
         <v>15</v>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>40</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3323,16 +3409,16 @@
         <v>27</v>
       </c>
       <c r="X29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="n">
         <v>20</v>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -3345,7 +3431,10 @@
       <c r="AD29" t="n">
         <v>0</v>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3422,16 +3511,16 @@
         <v>28</v>
       </c>
       <c r="X30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y30" t="n">
         <v>21</v>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -3444,7 +3533,10 @@
       <c r="AD30" t="n">
         <v>0</v>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3521,16 +3613,16 @@
         <v>29</v>
       </c>
       <c r="X31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="n">
         <v>26</v>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -3543,7 +3635,10 @@
       <c r="AD31" t="n">
         <v>0</v>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3620,16 +3715,16 @@
         <v>30</v>
       </c>
       <c r="X32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="n">
         <v>27</v>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -3642,7 +3737,10 @@
       <c r="AD32" t="n">
         <v>0</v>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3721,14 +3819,14 @@
       <c r="X33" t="n">
         <v>31</v>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Y33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -3738,8 +3836,11 @@
       <c r="AC33" t="n">
         <v>0</v>
       </c>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr">
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,35 +556,45 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -666,27 +676,33 @@
       <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -766,29 +782,35 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
         <v>5</v>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>223.8</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -868,29 +890,35 @@
         <v>2</v>
       </c>
       <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
         <v>6</v>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>92.5</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>108</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>45</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -970,29 +998,35 @@
         <v>3</v>
       </c>
       <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1072,29 +1106,35 @@
         <v>4</v>
       </c>
       <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>20</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>45</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>65</v>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1174,29 +1214,35 @@
         <v>5</v>
       </c>
       <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" t="n">
         <v>17</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>10</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>10</v>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1276,29 +1322,35 @@
         <v>6</v>
       </c>
       <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
         <v>18</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1378,19 +1430,19 @@
         <v>7</v>
       </c>
       <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA9" t="n">
         <v>23</v>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
@@ -1400,7 +1452,13 @@
       <c r="AE9" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1480,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
         <v>24</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
@@ -1502,7 +1560,13 @@
       <c r="AE10" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1582,27 +1646,33 @@
         <v>9</v>
       </c>
       <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
         <v>28</v>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1682,21 +1752,21 @@
         <v>10</v>
       </c>
       <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
         <v>1</v>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
       <c r="AC12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1704,7 +1774,13 @@
       <c r="AE12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="AH12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1784,29 +1860,35 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
         <v>4</v>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AA13" t="n">
+      <c r="AC13" t="n">
         <v>94.2</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
       <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1886,29 +1968,35 @@
         <v>12</v>
       </c>
       <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
         <v>7</v>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
         <v>177.8</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
       <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1988,29 +2076,35 @@
         <v>13</v>
       </c>
       <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
         <v>10</v>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
       <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2090,29 +2184,35 @@
         <v>14</v>
       </c>
       <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
         <v>13</v>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
       <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2192,29 +2292,35 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
         <v>16</v>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
       <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2294,29 +2400,35 @@
         <v>16</v>
       </c>
       <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA18" t="n">
         <v>19</v>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AA18" t="n">
+      <c r="AC18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2396,19 +2508,19 @@
         <v>17</v>
       </c>
       <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
         <v>22</v>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
@@ -2418,7 +2530,13 @@
       <c r="AE19" t="n">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2498,19 +2616,19 @@
         <v>18</v>
       </c>
       <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="n">
         <v>25</v>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
@@ -2520,7 +2638,13 @@
       <c r="AE20" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2600,27 +2724,33 @@
         <v>19</v>
       </c>
       <c r="Y21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
         <v>29</v>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr">
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2700,27 +2830,33 @@
         <v>20</v>
       </c>
       <c r="Y22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA22" t="n">
         <v>30</v>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr">
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2800,29 +2936,35 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
         <v>2</v>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AA23" t="n">
+      <c r="AC23" t="n">
         <v>36.85</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AD23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AE23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2902,29 +3044,35 @@
         <v>22</v>
       </c>
       <c r="Y24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA24" t="n">
         <v>3</v>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AA24" t="n">
+      <c r="AC24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3004,29 +3152,35 @@
         <v>23</v>
       </c>
       <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
         <v>8</v>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AA25" t="n">
+      <c r="AC25" t="n">
         <v>10</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AD25" t="n">
         <v>60</v>
       </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
         <v>90</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AG25" t="n">
         <v>160</v>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3106,29 +3260,35 @@
         <v>24</v>
       </c>
       <c r="Y26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
         <v>9</v>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AA26" t="n">
+      <c r="AC26" t="n">
         <v>24.05</v>
       </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
         <v>79</v>
       </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3208,29 +3368,35 @@
         <v>25</v>
       </c>
       <c r="Y27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA27" t="n">
         <v>14</v>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AA27" t="n">
+      <c r="AC27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
       <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
         <v>32</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AG27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3310,29 +3476,35 @@
         <v>26</v>
       </c>
       <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
         <v>15</v>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
       <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AF28" t="n">
         <v>40</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AG28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3412,19 +3584,19 @@
         <v>27</v>
       </c>
       <c r="Y29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="n">
         <v>20</v>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
@@ -3434,7 +3606,13 @@
       <c r="AE29" t="n">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3514,19 +3692,19 @@
         <v>28</v>
       </c>
       <c r="Y30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA30" t="n">
         <v>21</v>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
@@ -3536,7 +3714,13 @@
       <c r="AE30" t="n">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3616,19 +3800,19 @@
         <v>29</v>
       </c>
       <c r="Y31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA31" t="n">
         <v>26</v>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
       <c r="AC31" t="n">
         <v>0</v>
       </c>
@@ -3638,7 +3822,13 @@
       <c r="AE31" t="n">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3718,19 +3908,19 @@
         <v>30</v>
       </c>
       <c r="Y32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA32" t="n">
         <v>27</v>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
       <c r="AC32" t="n">
         <v>0</v>
       </c>
@@ -3740,7 +3930,13 @@
       <c r="AE32" t="n">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3822,25 +4018,31 @@
       <c r="Y33" t="n">
         <v>31</v>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="Z33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr">
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,35 +566,45 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -682,27 +692,33 @@
       <c r="AA2" t="n">
         <v>0</v>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -788,29 +804,35 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
         <v>5</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>223.8</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -896,29 +918,35 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
         <v>6</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>92.5</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>108</v>
       </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>45</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1004,29 +1032,35 @@
         <v>3</v>
       </c>
       <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" t="n">
         <v>0</v>
       </c>
       <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1112,29 +1146,35 @@
         <v>4</v>
       </c>
       <c r="AA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="n">
         <v>12</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>20</v>
       </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
       <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>45</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>65</v>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1220,29 +1260,35 @@
         <v>5</v>
       </c>
       <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="n">
         <v>17</v>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>10</v>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1328,29 +1374,35 @@
         <v>6</v>
       </c>
       <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
         <v>18</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1436,19 +1488,19 @@
         <v>7</v>
       </c>
       <c r="AA9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC9" t="n">
         <v>23</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
       <c r="AE9" t="n">
         <v>0</v>
       </c>
@@ -1458,7 +1510,13 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1544,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="AA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
         <v>24</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
@@ -1566,7 +1624,13 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1652,27 +1716,33 @@
         <v>9</v>
       </c>
       <c r="AA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
         <v>28</v>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1758,21 +1828,21 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
         <v>1</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
       <c r="AE12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1780,7 +1850,13 @@
       <c r="AG12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1866,29 +1942,35 @@
         <v>11</v>
       </c>
       <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
         <v>4</v>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
         <v>94.2</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AF13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
       <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1974,29 +2056,35 @@
         <v>12</v>
       </c>
       <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
         <v>177.8</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AF14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
       <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2082,29 +2170,35 @@
         <v>13</v>
       </c>
       <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
       <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2190,29 +2284,35 @@
         <v>14</v>
       </c>
       <c r="AA16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
         <v>13</v>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
       <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2298,29 +2398,35 @@
         <v>15</v>
       </c>
       <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
         <v>16</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
       <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2406,29 +2512,35 @@
         <v>16</v>
       </c>
       <c r="AA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
         <v>19</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AC18" t="n">
+      <c r="AE18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
       <c r="AF18" t="n">
         <v>0</v>
       </c>
       <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2514,19 +2626,19 @@
         <v>17</v>
       </c>
       <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
         <v>22</v>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
       <c r="AE19" t="n">
         <v>0</v>
       </c>
@@ -2536,7 +2648,13 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2622,19 +2740,19 @@
         <v>18</v>
       </c>
       <c r="AA20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="n">
         <v>25</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
       <c r="AE20" t="n">
         <v>0</v>
       </c>
@@ -2644,7 +2762,13 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2730,27 +2854,33 @@
         <v>19</v>
       </c>
       <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
         <v>29</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
       <c r="AE21" t="n">
         <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr">
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2836,27 +2966,33 @@
         <v>20</v>
       </c>
       <c r="AA22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="n">
         <v>30</v>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr">
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2942,29 +3078,35 @@
         <v>21</v>
       </c>
       <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
         <v>2</v>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AC23" t="n">
+      <c r="AE23" t="n">
         <v>36.85</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AF23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AG23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3050,29 +3192,35 @@
         <v>22</v>
       </c>
       <c r="AA24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="n">
         <v>3</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AC24" t="n">
+      <c r="AE24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3158,29 +3306,35 @@
         <v>23</v>
       </c>
       <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
         <v>8</v>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AC25" t="n">
+      <c r="AE25" t="n">
         <v>10</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AF25" t="n">
         <v>60</v>
       </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
         <v>90</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>160</v>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3266,29 +3420,35 @@
         <v>24</v>
       </c>
       <c r="AA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC26" t="n">
         <v>9</v>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AC26" t="n">
+      <c r="AE26" t="n">
         <v>24.05</v>
       </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
         <v>79</v>
       </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3374,29 +3534,35 @@
         <v>25</v>
       </c>
       <c r="AA27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="n">
         <v>14</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AC27" t="n">
+      <c r="AE27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
       <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
         <v>32</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3482,29 +3648,35 @@
         <v>26</v>
       </c>
       <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
         <v>15</v>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
       <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AH28" t="n">
         <v>40</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3590,19 +3762,19 @@
         <v>27</v>
       </c>
       <c r="AA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC29" t="n">
         <v>20</v>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
       <c r="AE29" t="n">
         <v>0</v>
       </c>
@@ -3612,7 +3784,13 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3698,19 +3876,19 @@
         <v>28</v>
       </c>
       <c r="AA30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC30" t="n">
         <v>21</v>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
       <c r="AE30" t="n">
         <v>0</v>
       </c>
@@ -3720,7 +3898,13 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3806,19 +3990,19 @@
         <v>29</v>
       </c>
       <c r="AA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
         <v>26</v>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
@@ -3828,7 +4012,13 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3914,19 +4104,19 @@
         <v>30</v>
       </c>
       <c r="AA32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC32" t="n">
         <v>27</v>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
       <c r="AE32" t="n">
         <v>0</v>
       </c>
@@ -3936,7 +4126,13 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4024,25 +4220,31 @@
       <c r="AA33" t="n">
         <v>31</v>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AB33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
       </c>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr">
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,35 +576,40 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -698,27 +703,30 @@
       <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
       <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -810,29 +818,32 @@
         <v>1</v>
       </c>
       <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
         <v>5</v>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>223.8</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
       <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
       <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -924,29 +935,32 @@
         <v>2</v>
       </c>
       <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>92.5</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>108</v>
       </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>45</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1038,19 +1052,19 @@
         <v>3</v>
       </c>
       <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
         <v>11</v>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
@@ -1058,9 +1072,12 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1152,29 +1169,32 @@
         <v>4</v>
       </c>
       <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
         <v>12</v>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>20</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>45</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>65</v>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1266,16 +1286,16 @@
         <v>5</v>
       </c>
       <c r="AC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>17</v>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
       <c r="AF7" t="n">
         <v>0</v>
       </c>
@@ -1283,12 +1303,15 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1380,19 +1403,19 @@
         <v>6</v>
       </c>
       <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
         <v>18</v>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
@@ -1400,9 +1423,12 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1494,16 +1520,16 @@
         <v>7</v>
       </c>
       <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
         <v>23</v>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
@@ -1516,7 +1542,10 @@
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1608,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>24</v>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
@@ -1630,7 +1659,10 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1722,16 +1754,16 @@
         <v>9</v>
       </c>
       <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
         <v>28</v>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
@@ -1741,8 +1773,11 @@
       <c r="AH11" t="n">
         <v>0</v>
       </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1834,29 +1869,32 @@
         <v>10</v>
       </c>
       <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
         <v>1</v>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
       <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1948,29 +1986,32 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
         <v>4</v>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>94.2</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2062,29 +2103,32 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
         <v>7</v>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>177.8</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2176,29 +2220,32 @@
         <v>13</v>
       </c>
       <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
         <v>10</v>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2290,29 +2337,32 @@
         <v>14</v>
       </c>
       <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
         <v>13</v>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
       <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2404,29 +2454,32 @@
         <v>15</v>
       </c>
       <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
         <v>16</v>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
       <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
       <c r="AH17" t="n">
         <v>0</v>
       </c>
       <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2518,19 +2571,19 @@
         <v>16</v>
       </c>
       <c r="AC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
         <v>19</v>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
@@ -2538,9 +2591,12 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2632,16 +2688,16 @@
         <v>17</v>
       </c>
       <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
         <v>22</v>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
       <c r="AF19" t="n">
         <v>0</v>
       </c>
@@ -2654,7 +2710,10 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2746,16 +2805,16 @@
         <v>18</v>
       </c>
       <c r="AC20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="n">
         <v>25</v>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
       <c r="AF20" t="n">
         <v>0</v>
       </c>
@@ -2768,7 +2827,10 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2860,16 +2922,16 @@
         <v>19</v>
       </c>
       <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
         <v>29</v>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
       <c r="AF21" t="n">
         <v>0</v>
       </c>
@@ -2879,8 +2941,11 @@
       <c r="AH21" t="n">
         <v>0</v>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr">
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2972,16 +3037,16 @@
         <v>20</v>
       </c>
       <c r="AC22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="n">
         <v>30</v>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
@@ -2991,8 +3056,11 @@
       <c r="AH22" t="n">
         <v>0</v>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr">
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3084,29 +3152,32 @@
         <v>21</v>
       </c>
       <c r="AC23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="n">
         <v>2</v>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>36.85</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AG23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
       <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3198,19 +3269,19 @@
         <v>22</v>
       </c>
       <c r="AC24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="n">
         <v>3</v>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
       <c r="AG24" t="n">
         <v>0</v>
       </c>
@@ -3218,9 +3289,12 @@
         <v>0</v>
       </c>
       <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3312,29 +3386,32 @@
         <v>23</v>
       </c>
       <c r="AC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="n">
         <v>8</v>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
         <v>10</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AG25" t="n">
         <v>60</v>
       </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
       <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
         <v>90</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AJ25" t="n">
         <v>160</v>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3426,29 +3503,32 @@
         <v>24</v>
       </c>
       <c r="AC26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD26" t="n">
         <v>9</v>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
         <v>24.05</v>
       </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
       <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
         <v>79</v>
       </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
       <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3540,29 +3620,32 @@
         <v>25</v>
       </c>
       <c r="AC27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD27" t="n">
         <v>14</v>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
       <c r="AG27" t="n">
         <v>0</v>
       </c>
       <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>32</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3654,29 +3737,32 @@
         <v>26</v>
       </c>
       <c r="AC28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="n">
         <v>15</v>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
       <c r="AF28" t="n">
         <v>0</v>
       </c>
       <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AI28" t="n">
         <v>40</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AJ28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3768,16 +3854,16 @@
         <v>27</v>
       </c>
       <c r="AC29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="n">
         <v>20</v>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
       <c r="AF29" t="n">
         <v>0</v>
       </c>
@@ -3790,7 +3876,10 @@
       <c r="AI29" t="n">
         <v>0</v>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3882,16 +3971,16 @@
         <v>28</v>
       </c>
       <c r="AC30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD30" t="n">
         <v>21</v>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
       <c r="AF30" t="n">
         <v>0</v>
       </c>
@@ -3904,7 +3993,10 @@
       <c r="AI30" t="n">
         <v>0</v>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3996,16 +4088,16 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD31" t="n">
         <v>26</v>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
       <c r="AF31" t="n">
         <v>0</v>
       </c>
@@ -4018,7 +4110,10 @@
       <c r="AI31" t="n">
         <v>0</v>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4110,16 +4205,16 @@
         <v>30</v>
       </c>
       <c r="AC32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD32" t="n">
         <v>27</v>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
       <c r="AF32" t="n">
         <v>0</v>
       </c>
@@ -4132,7 +4227,10 @@
       <c r="AI32" t="n">
         <v>0</v>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4226,14 +4324,14 @@
       <c r="AC33" t="n">
         <v>31</v>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AD33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
       <c r="AF33" t="n">
         <v>0</v>
       </c>
@@ -4243,8 +4341,11 @@
       <c r="AH33" t="n">
         <v>0</v>
       </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr">
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,35 +581,40 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -706,27 +711,30 @@
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -821,29 +829,32 @@
         <v>1</v>
       </c>
       <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
         <v>5</v>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>223.8</v>
       </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
       <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -938,29 +949,32 @@
         <v>2</v>
       </c>
       <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
         <v>6</v>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>92.5</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>108</v>
       </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
       <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>45</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1055,19 +1069,19 @@
         <v>3</v>
       </c>
       <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
         <v>11</v>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
@@ -1075,9 +1089,12 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1172,29 +1189,32 @@
         <v>4</v>
       </c>
       <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
         <v>12</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>20</v>
       </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>45</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>65</v>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1289,16 +1309,16 @@
         <v>5</v>
       </c>
       <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
@@ -1306,12 +1326,15 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AK7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1406,19 +1429,19 @@
         <v>6</v>
       </c>
       <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>18</v>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
@@ -1426,9 +1449,12 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1523,16 +1549,16 @@
         <v>7</v>
       </c>
       <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
         <v>23</v>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
@@ -1545,7 +1571,10 @@
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1640,16 +1669,16 @@
         <v>8</v>
       </c>
       <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
         <v>24</v>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
@@ -1662,7 +1691,10 @@
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1757,16 +1789,16 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
         <v>28</v>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
@@ -1776,8 +1808,11 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1872,29 +1907,32 @@
         <v>10</v>
       </c>
       <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1</v>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1989,29 +2027,32 @@
         <v>11</v>
       </c>
       <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
         <v>4</v>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>94.2</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2106,29 +2147,32 @@
         <v>12</v>
       </c>
       <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
         <v>7</v>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>177.8</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2223,29 +2267,32 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
         <v>10</v>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
       <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2340,29 +2387,32 @@
         <v>14</v>
       </c>
       <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
         <v>13</v>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
       <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2457,29 +2507,32 @@
         <v>15</v>
       </c>
       <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
         <v>16</v>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
       <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2574,19 +2627,19 @@
         <v>16</v>
       </c>
       <c r="AD18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="n">
         <v>19</v>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AF18" t="n">
+      <c r="AG18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
@@ -2594,9 +2647,12 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2691,16 +2747,16 @@
         <v>17</v>
       </c>
       <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
         <v>22</v>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
@@ -2713,7 +2769,10 @@
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2808,16 +2867,16 @@
         <v>18</v>
       </c>
       <c r="AD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="n">
         <v>25</v>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
@@ -2830,7 +2889,10 @@
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2925,16 +2987,16 @@
         <v>19</v>
       </c>
       <c r="AD21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="n">
         <v>29</v>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
       <c r="AG21" t="n">
         <v>0</v>
       </c>
@@ -2944,8 +3006,11 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr">
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3040,16 +3105,16 @@
         <v>20</v>
       </c>
       <c r="AD22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="n">
         <v>30</v>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
       <c r="AG22" t="n">
         <v>0</v>
       </c>
@@ -3059,8 +3124,11 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr">
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3155,29 +3223,32 @@
         <v>21</v>
       </c>
       <c r="AD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="n">
         <v>2</v>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AF23" t="n">
+      <c r="AG23" t="n">
         <v>36.85</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AI23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3272,19 +3343,19 @@
         <v>22</v>
       </c>
       <c r="AD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="n">
         <v>3</v>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AF24" t="n">
+      <c r="AG24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
       <c r="AH24" t="n">
         <v>0</v>
       </c>
@@ -3292,9 +3363,12 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3389,29 +3463,32 @@
         <v>23</v>
       </c>
       <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
         <v>8</v>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AF25" t="n">
+      <c r="AG25" t="n">
         <v>10</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
         <v>60</v>
       </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
       <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>90</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>160</v>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3506,29 +3583,32 @@
         <v>24</v>
       </c>
       <c r="AD26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="n">
         <v>9</v>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AF26" t="n">
+      <c r="AG26" t="n">
         <v>24.05</v>
       </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
       <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
         <v>79</v>
       </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3623,29 +3703,32 @@
         <v>25</v>
       </c>
       <c r="AD27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="n">
         <v>14</v>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
       <c r="AH27" t="n">
         <v>0</v>
       </c>
       <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>32</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AK27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3740,29 +3823,32 @@
         <v>26</v>
       </c>
       <c r="AD28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE28" t="n">
         <v>15</v>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
       <c r="AG28" t="n">
         <v>0</v>
       </c>
       <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AJ28" t="n">
         <v>40</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AK28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3857,16 +3943,16 @@
         <v>27</v>
       </c>
       <c r="AD29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="n">
         <v>20</v>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
       <c r="AG29" t="n">
         <v>0</v>
       </c>
@@ -3879,7 +3965,10 @@
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3974,16 +4063,16 @@
         <v>28</v>
       </c>
       <c r="AD30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE30" t="n">
         <v>21</v>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
       <c r="AG30" t="n">
         <v>0</v>
       </c>
@@ -3996,7 +4085,10 @@
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
-      <c r="AK30" t="inlineStr">
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4091,16 +4183,16 @@
         <v>29</v>
       </c>
       <c r="AD31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE31" t="n">
         <v>26</v>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
       <c r="AG31" t="n">
         <v>0</v>
       </c>
@@ -4113,7 +4205,10 @@
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4208,16 +4303,16 @@
         <v>30</v>
       </c>
       <c r="AD32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE32" t="n">
         <v>27</v>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
       <c r="AG32" t="n">
         <v>0</v>
       </c>
@@ -4230,7 +4325,10 @@
       <c r="AJ32" t="n">
         <v>0</v>
       </c>
-      <c r="AK32" t="inlineStr">
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4327,14 +4425,14 @@
       <c r="AD33" t="n">
         <v>31</v>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AE33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
       <c r="AG33" t="n">
         <v>0</v>
       </c>
@@ -4344,8 +4442,11 @@
       <c r="AI33" t="n">
         <v>0</v>
       </c>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr">
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,35 +586,40 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -714,27 +719,30 @@
       <c r="AE2" t="n">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -832,29 +840,32 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
         <v>5</v>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>223.8</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
       <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -952,29 +963,32 @@
         <v>2</v>
       </c>
       <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="n">
         <v>6</v>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>92.5</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>108</v>
       </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
         <v>45</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1072,19 +1086,19 @@
         <v>3</v>
       </c>
       <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11</v>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
@@ -1092,9 +1106,12 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1192,29 +1209,32 @@
         <v>4</v>
       </c>
       <c r="AE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="n">
         <v>12</v>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>20</v>
       </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
         <v>45</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>65</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1312,16 +1332,16 @@
         <v>5</v>
       </c>
       <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
@@ -1329,12 +1349,15 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AL7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1432,19 +1455,19 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
         <v>18</v>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
@@ -1452,9 +1475,12 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1552,16 +1578,16 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF9" t="n">
         <v>23</v>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
@@ -1574,7 +1600,10 @@
       <c r="AK9" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1672,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="n">
         <v>24</v>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
@@ -1694,7 +1723,10 @@
       <c r="AK10" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1792,16 +1824,16 @@
         <v>9</v>
       </c>
       <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
         <v>28</v>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
@@ -1811,8 +1843,11 @@
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1910,29 +1945,32 @@
         <v>10</v>
       </c>
       <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
         <v>1</v>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
       <c r="AH12" t="n">
         <v>0</v>
       </c>
       <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
       <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2030,29 +2068,32 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
         <v>4</v>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>94.2</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2150,29 +2191,32 @@
         <v>12</v>
       </c>
       <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
         <v>7</v>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>177.8</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2270,29 +2314,32 @@
         <v>13</v>
       </c>
       <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
         <v>10</v>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
       <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2390,29 +2437,32 @@
         <v>14</v>
       </c>
       <c r="AE16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="n">
         <v>13</v>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
       <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2510,29 +2560,32 @@
         <v>15</v>
       </c>
       <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
         <v>16</v>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
       <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2630,19 +2683,19 @@
         <v>16</v>
       </c>
       <c r="AE18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="n">
         <v>19</v>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
@@ -2650,9 +2703,12 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2750,16 +2806,16 @@
         <v>17</v>
       </c>
       <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
         <v>22</v>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
       <c r="AH19" t="n">
         <v>0</v>
       </c>
@@ -2772,7 +2828,10 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2870,16 +2929,16 @@
         <v>18</v>
       </c>
       <c r="AE20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="n">
         <v>25</v>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
@@ -2892,7 +2951,10 @@
       <c r="AK20" t="n">
         <v>0</v>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2990,16 +3052,16 @@
         <v>19</v>
       </c>
       <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
         <v>29</v>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
       <c r="AH21" t="n">
         <v>0</v>
       </c>
@@ -3009,8 +3071,11 @@
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr">
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3108,16 +3173,16 @@
         <v>20</v>
       </c>
       <c r="AE22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="n">
         <v>30</v>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
       <c r="AH22" t="n">
         <v>0</v>
       </c>
@@ -3127,8 +3192,11 @@
       <c r="AJ22" t="n">
         <v>0</v>
       </c>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr">
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3226,29 +3294,32 @@
         <v>21</v>
       </c>
       <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
         <v>2</v>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
         <v>36.85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AI23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
       <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3346,19 +3417,19 @@
         <v>22</v>
       </c>
       <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="n">
         <v>3</v>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
       <c r="AI24" t="n">
         <v>0</v>
       </c>
@@ -3366,9 +3437,12 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AM24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3466,29 +3540,32 @@
         <v>23</v>
       </c>
       <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
         <v>8</v>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
         <v>10</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AI25" t="n">
         <v>60</v>
       </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
         <v>90</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AL25" t="n">
         <v>160</v>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3586,29 +3663,32 @@
         <v>24</v>
       </c>
       <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
         <v>9</v>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
         <v>24.05</v>
       </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
       <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>79</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
       <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AM26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3706,29 +3786,32 @@
         <v>25</v>
       </c>
       <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
         <v>14</v>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AH27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
       <c r="AI27" t="n">
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
         <v>32</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AL27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AM27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3826,29 +3909,32 @@
         <v>26</v>
       </c>
       <c r="AE28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF28" t="n">
         <v>15</v>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
       <c r="AH28" t="n">
         <v>0</v>
       </c>
       <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AK28" t="n">
         <v>40</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3946,16 +4032,16 @@
         <v>27</v>
       </c>
       <c r="AE29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="n">
         <v>20</v>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
       <c r="AH29" t="n">
         <v>0</v>
       </c>
@@ -3968,7 +4054,10 @@
       <c r="AK29" t="n">
         <v>0</v>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4066,16 +4155,16 @@
         <v>28</v>
       </c>
       <c r="AE30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF30" t="n">
         <v>21</v>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
       <c r="AH30" t="n">
         <v>0</v>
       </c>
@@ -4088,7 +4177,10 @@
       <c r="AK30" t="n">
         <v>0</v>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4186,16 +4278,16 @@
         <v>29</v>
       </c>
       <c r="AE31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="n">
         <v>26</v>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
       <c r="AH31" t="n">
         <v>0</v>
       </c>
@@ -4208,7 +4300,10 @@
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4306,16 +4401,16 @@
         <v>30</v>
       </c>
       <c r="AE32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF32" t="n">
         <v>27</v>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
       <c r="AH32" t="n">
         <v>0</v>
       </c>
@@ -4328,7 +4423,10 @@
       <c r="AK32" t="n">
         <v>0</v>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4428,14 +4526,14 @@
       <c r="AE33" t="n">
         <v>31</v>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AF33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
       <c r="AH33" t="n">
         <v>0</v>
       </c>
@@ -4445,8 +4543,11 @@
       <c r="AJ33" t="n">
         <v>0</v>
       </c>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr">
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AV33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,35 +591,80 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -722,27 +767,54 @@
       <c r="AF2" t="n">
         <v>0</v>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="AH2" t="n">
+      <c r="AQ2" t="n">
         <v>44.3</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AR2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AS2" t="n">
         <v>152.92</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -843,29 +915,56 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
         <v>5</v>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="AH3" t="n">
+      <c r="AQ3" t="n">
         <v>223.8</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>49.96</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
         <v>273.76</v>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -966,29 +1065,56 @@
         <v>2</v>
       </c>
       <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="n">
         <v>6</v>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="AH4" t="n">
+      <c r="AQ4" t="n">
         <v>92.5</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AR4" t="n">
         <v>108</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
         <v>45</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AU4" t="n">
         <v>245.5</v>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1089,29 +1215,56 @@
         <v>3</v>
       </c>
       <c r="AF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11</v>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="AH5" t="n">
+      <c r="AQ5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1212,29 +1365,56 @@
         <v>4</v>
       </c>
       <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
         <v>12</v>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="AH6" t="n">
+      <c r="AQ6" t="n">
         <v>20</v>
       </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
         <v>45</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AU6" t="n">
         <v>65</v>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1335,29 +1515,56 @@
         <v>5</v>
       </c>
       <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
         <v>10</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AU7" t="n">
         <v>10</v>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1458,29 +1665,56 @@
         <v>6</v>
       </c>
       <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="n">
         <v>18</v>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="AH8" t="n">
+      <c r="AQ8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
         <v>9.9</v>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1581,29 +1815,56 @@
         <v>7</v>
       </c>
       <c r="AF9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO9" t="n">
         <v>23</v>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1704,29 +1965,56 @@
         <v>8</v>
       </c>
       <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="n">
         <v>24</v>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1827,27 +2115,54 @@
         <v>9</v>
       </c>
       <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO11" t="n">
         <v>28</v>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr">
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1948,29 +2263,56 @@
         <v>10</v>
       </c>
       <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1</v>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2071,29 +2413,56 @@
         <v>11</v>
       </c>
       <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO13" t="n">
         <v>4</v>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="AH13" t="n">
+      <c r="AQ13" t="n">
         <v>94.2</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AR13" t="n">
         <v>230.1</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
         <v>324.3</v>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2194,29 +2563,56 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO14" t="n">
         <v>7</v>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="AH14" t="n">
+      <c r="AQ14" t="n">
         <v>177.8</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AR14" t="n">
         <v>22.5</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
         <v>200.3</v>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2317,29 +2713,56 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO15" t="n">
         <v>10</v>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
         <v>100.7</v>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2440,29 +2863,56 @@
         <v>14</v>
       </c>
       <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO16" t="n">
         <v>13</v>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2563,29 +3013,56 @@
         <v>15</v>
       </c>
       <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO17" t="n">
         <v>16</v>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
         <v>36.4</v>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2686,29 +3163,56 @@
         <v>16</v>
       </c>
       <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO18" t="n">
         <v>19</v>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="AH18" t="n">
+      <c r="AQ18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
         <v>3.7</v>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2809,29 +3313,56 @@
         <v>17</v>
       </c>
       <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO19" t="n">
         <v>22</v>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -2932,29 +3463,56 @@
         <v>18</v>
       </c>
       <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO20" t="n">
         <v>25</v>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3055,27 +3613,54 @@
         <v>19</v>
       </c>
       <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO21" t="n">
         <v>29</v>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr">
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -3176,27 +3761,54 @@
         <v>20</v>
       </c>
       <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO22" t="n">
         <v>30</v>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr">
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3297,29 +3909,56 @@
         <v>21</v>
       </c>
       <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO23" t="n">
         <v>2</v>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="AH23" t="n">
+      <c r="AQ23" t="n">
         <v>36.85</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AR23" t="n">
         <v>550.9</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AS23" t="n">
         <v>65.16</v>
       </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
         <v>652.91</v>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3420,29 +4059,56 @@
         <v>22</v>
       </c>
       <c r="AF24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO24" t="n">
         <v>3</v>
       </c>
-      <c r="AG24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="AH24" t="n">
+      <c r="AQ24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3543,29 +4209,56 @@
         <v>23</v>
       </c>
       <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="n">
         <v>8</v>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="AH25" t="n">
+      <c r="AQ25" t="n">
         <v>10</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AR25" t="n">
         <v>60</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
         <v>90</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AU25" t="n">
         <v>160</v>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3666,29 +4359,56 @@
         <v>24</v>
       </c>
       <c r="AF26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO26" t="n">
         <v>9</v>
       </c>
-      <c r="AG26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="AH26" t="n">
+      <c r="AQ26" t="n">
         <v>24.05</v>
       </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
         <v>79</v>
       </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
         <v>103.05</v>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3789,29 +4509,56 @@
         <v>25</v>
       </c>
       <c r="AF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="n">
         <v>14</v>
       </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="AH27" t="n">
+      <c r="AQ27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
         <v>32</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AU27" t="n">
         <v>44.5</v>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -3912,29 +4659,56 @@
         <v>26</v>
       </c>
       <c r="AF28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO28" t="n">
         <v>15</v>
       </c>
-      <c r="AG28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
         <v>1.78</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AT28" t="n">
         <v>40</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AU28" t="n">
         <v>41.78</v>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AV28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4035,29 +4809,56 @@
         <v>27</v>
       </c>
       <c r="AF29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO29" t="n">
         <v>20</v>
       </c>
-      <c r="AG29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4158,29 +4959,56 @@
         <v>28</v>
       </c>
       <c r="AF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO30" t="n">
         <v>21</v>
       </c>
-      <c r="AG30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4281,29 +5109,56 @@
         <v>29</v>
       </c>
       <c r="AF31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO31" t="n">
         <v>26</v>
       </c>
-      <c r="AG31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4404,29 +5259,56 @@
         <v>30</v>
       </c>
       <c r="AF32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO32" t="n">
         <v>27</v>
       </c>
-      <c r="AG32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -4529,25 +5411,52 @@
       <c r="AF33" t="n">
         <v>31</v>
       </c>
-      <c r="AG33" t="inlineStr">
+      <c r="AG33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr">
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -482,27 +492,33 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>44.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>152.92</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -515,27 +531,33 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>223.8</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>49.96</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>273.76</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -548,27 +570,33 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>92.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>108</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>45</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>245.5</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -581,27 +609,33 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -614,27 +648,33 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>20</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>45</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>65</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -647,27 +687,33 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>10</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -680,27 +726,33 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>9.9</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>9.9</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -713,17 +765,17 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -733,7 +785,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -746,17 +804,17 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -766,7 +824,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -779,25 +843,31 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -810,19 +880,19 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -830,7 +900,13 @@
       <c r="H12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -843,27 +919,33 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>94.2</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>230.1</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>324.3</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -876,27 +958,33 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>177.8</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>22.5</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>200.3</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -909,27 +997,33 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>100.7</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100.7</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -942,27 +1036,33 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -975,27 +1075,33 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>36.4</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>36.4</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1008,27 +1114,33 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>3.7</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.7</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1041,17 +1153,17 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
@@ -1061,7 +1173,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1074,17 +1192,17 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -1094,7 +1212,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1107,25 +1231,31 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1138,25 +1268,31 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1169,27 +1305,33 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>36.85</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>550.9</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>65.16</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>652.91</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1202,27 +1344,33 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1235,27 +1383,33 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
         <v>10</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>60</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>90</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>160</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1268,27 +1422,33 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
         <v>24.05</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>79</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>103.05</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1301,27 +1461,33 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
         <v>12.5</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>32</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>44.5</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1334,27 +1500,33 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.78</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>40</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>41.78</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1367,17 +1539,17 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -1387,7 +1559,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1400,17 +1578,17 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
@@ -1420,7 +1598,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1433,17 +1617,17 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
@@ -1453,7 +1637,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1466,17 +1656,17 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -1486,7 +1676,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1499,25 +1695,31 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1530,25 +1732,66 @@
       <c r="B34" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Pascal Lenormand</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Equipe 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ANGY M</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -498,27 +508,33 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>44.3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>152.92</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -537,27 +553,33 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>223.8</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>49.96</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>273.76</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -576,27 +598,33 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>92.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>108</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>45</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>245.5</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -615,27 +643,33 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -654,27 +688,33 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>45</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>65</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -693,27 +733,33 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -732,27 +778,33 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>9.9</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>9.9</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -771,17 +823,17 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -791,7 +843,13 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -810,17 +868,17 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -830,7 +888,13 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -849,25 +913,31 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -886,19 +956,19 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -906,7 +976,13 @@
       <c r="J12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -925,27 +1001,33 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>94.2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>230.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>324.3</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -964,27 +1046,33 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>177.8</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>22.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>200.3</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1003,27 +1091,33 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>100.7</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>100.7</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1042,27 +1136,33 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1081,27 +1181,33 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>36.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>36.4</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1120,27 +1226,33 @@
       <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>3.7</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.7</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1159,17 +1271,17 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
@@ -1179,7 +1291,13 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1198,17 +1316,17 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -1218,7 +1336,13 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1237,25 +1361,31 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1274,25 +1404,31 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1311,27 +1447,33 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>36.85</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>550.9</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>65.16</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>652.91</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1350,27 +1492,33 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1389,27 +1537,33 @@
       <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>10</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>60</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>90</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>160</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1428,27 +1582,33 @@
       <c r="D26" t="n">
         <v>24</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>24.05</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>79</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>103.05</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1467,27 +1627,33 @@
       <c r="D27" t="n">
         <v>25</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>12.5</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>32</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>44.5</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1506,27 +1672,33 @@
       <c r="D28" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1.78</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>40</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>41.78</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1545,17 +1717,17 @@
       <c r="D29" t="n">
         <v>27</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -1565,7 +1737,13 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1584,17 +1762,17 @@
       <c r="D30" t="n">
         <v>28</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
@@ -1604,7 +1782,13 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1623,17 +1807,17 @@
       <c r="D31" t="n">
         <v>29</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
@@ -1643,7 +1827,13 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1662,17 +1852,17 @@
       <c r="D32" t="n">
         <v>30</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -1682,7 +1872,13 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1701,25 +1897,31 @@
       <c r="D33" t="n">
         <v>31</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1738,25 +1940,31 @@
       <c r="D34" t="n">
         <v>32</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Pascal Lenormand</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1769,29 +1977,35 @@
       <c r="B35" t="n">
         <v>33</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
       <c r="D35" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>ANGY M</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,35 +461,45 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -514,27 +524,33 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>44.3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>152.92</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -559,27 +575,33 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>223.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>49.96</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>273.76</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -604,27 +626,33 @@
       <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>92.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>108</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>45</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>245.5</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -649,27 +677,33 @@
       <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -694,27 +728,33 @@
       <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>20</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>45</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>65</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -739,27 +779,33 @@
       <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>10</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -784,27 +830,33 @@
       <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>9.9</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>9.9</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -829,17 +881,17 @@
       <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -849,7 +901,13 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -874,17 +932,17 @@
       <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -894,7 +952,13 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -919,25 +983,31 @@
       <c r="F11" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -962,19 +1032,19 @@
       <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -982,7 +1052,13 @@
       <c r="L12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1007,27 +1083,33 @@
       <c r="F13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>94.2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>230.1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>324.3</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1052,27 +1134,33 @@
       <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>177.8</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>22.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>200.3</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1097,27 +1185,33 @@
       <c r="F15" t="n">
         <v>13</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>100.7</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>100.7</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1142,27 +1236,33 @@
       <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1187,27 +1287,33 @@
       <c r="F17" t="n">
         <v>15</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>36.4</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>36.4</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1232,27 +1338,33 @@
       <c r="F18" t="n">
         <v>16</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>3.7</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.7</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1277,17 +1389,17 @@
       <c r="F19" t="n">
         <v>17</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1297,7 +1409,13 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1322,17 +1440,17 @@
       <c r="F20" t="n">
         <v>18</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
@@ -1342,7 +1460,13 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1367,25 +1491,31 @@
       <c r="F21" t="n">
         <v>19</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1410,25 +1540,31 @@
       <c r="F22" t="n">
         <v>20</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1453,27 +1589,33 @@
       <c r="F23" t="n">
         <v>21</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>36.85</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>550.9</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>65.16</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>652.91</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1498,27 +1640,33 @@
       <c r="F24" t="n">
         <v>22</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1543,27 +1691,33 @@
       <c r="F25" t="n">
         <v>23</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>60</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>90</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>160</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1588,27 +1742,33 @@
       <c r="F26" t="n">
         <v>24</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>24.05</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>79</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>103.05</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1633,27 +1793,33 @@
       <c r="F27" t="n">
         <v>25</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>12.5</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>32</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>44.5</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1678,27 +1844,33 @@
       <c r="F28" t="n">
         <v>26</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.78</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>40</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>41.78</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1723,17 +1895,17 @@
       <c r="F29" t="n">
         <v>27</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -1743,7 +1915,13 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1768,17 +1946,17 @@
       <c r="F30" t="n">
         <v>28</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
@@ -1788,7 +1966,13 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1813,17 +1997,17 @@
       <c r="F31" t="n">
         <v>29</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
@@ -1833,7 +2017,13 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1858,17 +2048,17 @@
       <c r="F32" t="n">
         <v>30</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -1878,7 +2068,13 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1903,25 +2099,31 @@
       <c r="F33" t="n">
         <v>31</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1946,25 +2148,31 @@
       <c r="F34" t="n">
         <v>32</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Pascal Lenormand</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1983,29 +2191,35 @@
       <c r="D35" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
       <c r="F35" t="n">
         <v>33</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>33</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>ANGY M</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,55 +451,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1.1.1</t>
+          <t>athlete</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1.1.1.1</t>
+          <t>points_marche</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1.1.1.1.1</t>
+          <t>points_course</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1.1.1.1.1.1</t>
+          <t>points_velo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>athlete</t>
+          <t>points_cardio</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>points_marche</t>
+          <t>total</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>points_course</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>points_velo</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>points_cardio</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -518,39 +498,27 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Thomas Mrt</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1253.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Thomas Mrt</t>
-        </is>
+        <v>152.92</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1253.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>152.92</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -569,39 +537,27 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sébastien .</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>223.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Sébastien .</t>
-        </is>
+        <v>49.96</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>49.96</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
         <v>273.76</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -620,39 +576,27 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Marie L</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>92.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Marie L</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
       </c>
       <c r="J4" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>108</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45</v>
-      </c>
-      <c r="N4" t="n">
         <v>245.5</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -671,39 +615,27 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>3</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Christophe Dehillotte</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>93.54999999999998</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Christophe Dehillotte</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>93.54999999999998</v>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -722,39 +654,27 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>4</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>jean-charles roussel</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>jean-charles roussel</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>45</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>45</v>
-      </c>
-      <c r="N6" t="n">
         <v>65</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -773,39 +693,27 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
-        <v>5</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Satya Wiplier</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Satya Wiplier</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -824,39 +732,27 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>6</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Alain Seguy</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Alain Seguy</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>9.9</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -875,39 +771,27 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
-        <v>7</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mari On</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Mari On</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -926,39 +810,27 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="n">
-        <v>8</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nicolas Cognet</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Nicolas Cognet</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -977,37 +849,25 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="n">
-        <v>9</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Florence Gurnot</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Florence Gurnot</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1026,39 +886,27 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="n">
-        <v>10</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sébastien Buczynski</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Sébastien Buczynski</t>
-        </is>
+        <v>1199.98</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1199.98</v>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1077,39 +925,27 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
-        <v>11</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aurore Meresse</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>94.2</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>230.1</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Aurore Meresse</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
         <v>324.3</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1128,39 +964,27 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="n">
-        <v>12</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cathy BOGNON</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>177.8</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>22.5</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Cathy BOGNON</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
         <v>200.3</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1179,39 +1003,27 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="n">
-        <v>13</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Frederic Zaugg</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>100.7</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Frederic Zaugg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
         <v>100.7</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1230,39 +1042,27 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="n">
-        <v>14</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Marie Leger</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Marie Leger</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1281,39 +1081,27 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="n">
-        <v>15</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>corentin paya</t>
+        </is>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>36.4</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>corentin paya</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>36.4</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1332,39 +1120,27 @@
       <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="n">
-        <v>16</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Trang Tran</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>16</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Trang Tran</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>3.7</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1383,39 +1159,27 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="n">
-        <v>17</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>emmanuelle brouder</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>17</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>emmanuelle brouder</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1434,39 +1198,27 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="n">
-        <v>18</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nz Van</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Nz Van</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1485,37 +1237,25 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="n">
-        <v>19</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Laurent Dupuis</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>19</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Laurent Dupuis</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1534,37 +1274,25 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="n">
-        <v>20</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PAT Le Belge</t>
+        </is>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>PAT Le Belge</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1583,39 +1311,27 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="n">
-        <v>21</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Bryan Simpson</t>
+        </is>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>36.85</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>550.9</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Bryan Simpson</t>
-        </is>
+        <v>65.16</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>36.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>550.9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
         <v>652.91</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1634,39 +1350,27 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="n">
-        <v>22</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Colette VAUCHEL</t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>555.2500000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Colette VAUCHEL</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>555.2500000000001</v>
-      </c>
-      <c r="O24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1685,39 +1389,27 @@
       <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="n">
-        <v>23</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sylvain Wiplier</t>
+        </is>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Sylvain Wiplier</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>90</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" t="n">
-        <v>60</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>90</v>
-      </c>
-      <c r="N25" t="n">
         <v>160</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1736,39 +1428,27 @@
       <c r="D26" t="n">
         <v>24</v>
       </c>
-      <c r="E26" t="n">
-        <v>24</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>virginy pilloud</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>24.05</v>
       </c>
       <c r="G26" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>24</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>virginy pilloud</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>79</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
         <v>103.05</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1787,39 +1467,27 @@
       <c r="D27" t="n">
         <v>25</v>
       </c>
-      <c r="E27" t="n">
-        <v>25</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Loïc Le Gal</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="G27" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>25</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Loïc Le Gal</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
       </c>
       <c r="J27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>32</v>
-      </c>
-      <c r="N27" t="n">
         <v>44.5</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1838,39 +1506,27 @@
       <c r="D28" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
-        <v>26</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Elodie Lefèvre</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>26</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Elodie Lefèvre</t>
-        </is>
+        <v>1.78</v>
+      </c>
+      <c r="I28" t="n">
+        <v>40</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M28" t="n">
-        <v>40</v>
-      </c>
-      <c r="N28" t="n">
         <v>41.78</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1889,39 +1545,27 @@
       <c r="D29" t="n">
         <v>27</v>
       </c>
-      <c r="E29" t="n">
-        <v>27</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Juliette Godart</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>27</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Juliette Godart</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1940,39 +1584,27 @@
       <c r="D30" t="n">
         <v>28</v>
       </c>
-      <c r="E30" t="n">
-        <v>28</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Julie Leger</t>
+        </is>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>28</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Julie Leger</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1991,39 +1623,27 @@
       <c r="D31" t="n">
         <v>29</v>
       </c>
-      <c r="E31" t="n">
-        <v>29</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sophie Rollin</t>
+        </is>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>29</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Sophie Rollin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2042,39 +1662,27 @@
       <c r="D32" t="n">
         <v>30</v>
       </c>
-      <c r="E32" t="n">
-        <v>30</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Timothee Delauriere</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Timothee Delauriere</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2093,37 +1701,25 @@
       <c r="D33" t="n">
         <v>31</v>
       </c>
-      <c r="E33" t="n">
-        <v>31</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tchiipolote Bzh</t>
+        </is>
       </c>
       <c r="F33" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>31</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Tchiipolote Bzh</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2142,37 +1738,25 @@
       <c r="D34" t="n">
         <v>32</v>
       </c>
-      <c r="E34" t="n">
-        <v>32</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pascal Lenormand</t>
+        </is>
       </c>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Pascal Lenormand</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2191,37 +1775,56 @@
       <c r="D35" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="n">
-        <v>33</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ANGY M</t>
+        </is>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" t="n">
-        <v>33</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ANGY M</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Equipe 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Loïc Lenormand</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Equipe 1</t>
         </is>
       </c>
     </row>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,40 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -498,27 +503,30 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>44.3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>152.92</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -537,27 +545,30 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>223.8</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>49.96</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>273.76</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -576,27 +587,30 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>92.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>108</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>45</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>245.5</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -615,17 +629,17 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -633,9 +647,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -654,27 +671,30 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>45</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>65</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -693,14 +713,14 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
@@ -708,12 +728,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -732,17 +755,17 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>9.9</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -750,9 +773,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>9.9</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -771,14 +797,14 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
@@ -791,7 +817,10 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -810,14 +839,14 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
@@ -830,7 +859,10 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -849,14 +881,14 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -866,8 +898,11 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -886,27 +921,30 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -925,27 +963,30 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>94.2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>230.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>324.3</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -964,27 +1005,30 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>177.8</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>22.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>200.3</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1003,27 +1047,30 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>100.7</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>100.7</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1042,27 +1089,30 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1081,27 +1131,30 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>36.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>36.4</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1120,17 +1173,17 @@
       <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>3.7</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -1138,9 +1191,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.7</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1159,14 +1215,14 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
@@ -1179,7 +1235,10 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1198,14 +1257,14 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -1218,7 +1277,10 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1237,14 +1299,14 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
@@ -1254,8 +1316,11 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1274,14 +1339,14 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
@@ -1291,8 +1356,11 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1311,27 +1379,30 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>36.85</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>550.9</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>65.16</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>652.91</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1350,17 +1421,17 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
@@ -1368,9 +1439,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1389,27 +1463,30 @@
       <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>10</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>60</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>90</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>160</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1428,27 +1505,30 @@
       <c r="D26" t="n">
         <v>24</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>24.05</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>79</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>103.05</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1467,27 +1547,30 @@
       <c r="D27" t="n">
         <v>25</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>12.5</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>32</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>44.5</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1506,27 +1589,30 @@
       <c r="D28" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1.78</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>40</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>41.78</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1545,14 +1631,14 @@
       <c r="D29" t="n">
         <v>27</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -1565,7 +1651,10 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1584,14 +1673,14 @@
       <c r="D30" t="n">
         <v>28</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
@@ -1604,7 +1693,10 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1623,14 +1715,14 @@
       <c r="D31" t="n">
         <v>29</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
@@ -1643,7 +1735,10 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1662,14 +1757,14 @@
       <c r="D32" t="n">
         <v>30</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -1682,7 +1777,10 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1701,14 +1799,14 @@
       <c r="D33" t="n">
         <v>31</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
@@ -1718,8 +1816,11 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1738,14 +1839,14 @@
       <c r="D34" t="n">
         <v>32</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Pascal Lenormand</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
@@ -1755,8 +1856,11 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1775,14 +1879,14 @@
       <c r="D35" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>ANGY M</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -1792,8 +1896,11 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1812,17 +1919,20 @@
       <c r="D36" t="n">
         <v>34</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Loïc Lenormand</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,45 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -506,27 +516,33 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>44.3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>152.92</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -548,27 +564,33 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>223.8</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>49.96</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>273.76</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -590,27 +612,33 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>92.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>108</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>245.5</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -632,27 +660,33 @@
       <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -674,27 +708,33 @@
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>20</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>45</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>65</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -716,27 +756,33 @@
       <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -758,27 +804,33 @@
       <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>9.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>9.9</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -800,17 +852,17 @@
       <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -820,7 +872,13 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -842,17 +900,17 @@
       <c r="E10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
@@ -862,7 +920,13 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -884,25 +948,31 @@
       <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -924,19 +994,19 @@
       <c r="E12" t="n">
         <v>10</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -944,7 +1014,13 @@
       <c r="K12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1199.98</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -966,27 +1042,33 @@
       <c r="E13" t="n">
         <v>11</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>94.2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>230.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>324.3</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1008,27 +1090,33 @@
       <c r="E14" t="n">
         <v>12</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>177.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>22.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>200.3</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1050,27 +1138,33 @@
       <c r="E15" t="n">
         <v>13</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100.7</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>100.7</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1092,27 +1186,33 @@
       <c r="E16" t="n">
         <v>14</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1134,27 +1234,33 @@
       <c r="E17" t="n">
         <v>15</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>36.4</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>36.4</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1176,27 +1282,33 @@
       <c r="E18" t="n">
         <v>16</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>3.7</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>3.7</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1218,17 +1330,17 @@
       <c r="E19" t="n">
         <v>17</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
@@ -1238,7 +1350,13 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1260,17 +1378,17 @@
       <c r="E20" t="n">
         <v>18</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1398,13 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1302,25 +1426,31 @@
       <c r="E21" t="n">
         <v>19</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1342,25 +1472,31 @@
       <c r="E22" t="n">
         <v>20</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1382,27 +1518,33 @@
       <c r="E23" t="n">
         <v>21</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>36.85</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>550.9</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>65.16</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>652.91</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1424,27 +1566,33 @@
       <c r="E24" t="n">
         <v>22</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1466,27 +1614,33 @@
       <c r="E25" t="n">
         <v>23</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>10</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>60</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>90</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>160</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1508,27 +1662,33 @@
       <c r="E26" t="n">
         <v>24</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>24.05</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>79</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>103.05</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1550,27 +1710,33 @@
       <c r="E27" t="n">
         <v>25</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>12.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>32</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>44.5</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1592,27 +1758,33 @@
       <c r="E28" t="n">
         <v>26</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1.78</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>40</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>41.78</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1634,17 +1806,17 @@
       <c r="E29" t="n">
         <v>27</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -1654,7 +1826,13 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1676,17 +1854,17 @@
       <c r="E30" t="n">
         <v>28</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>28</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
@@ -1696,7 +1874,13 @@
       <c r="K30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1718,17 +1902,17 @@
       <c r="E31" t="n">
         <v>29</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
@@ -1738,7 +1922,13 @@
       <c r="K31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1760,17 +1950,17 @@
       <c r="E32" t="n">
         <v>30</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -1780,7 +1970,13 @@
       <c r="K32" t="n">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1802,25 +1998,31 @@
       <c r="E33" t="n">
         <v>31</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1842,25 +2044,31 @@
       <c r="E34" t="n">
         <v>32</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Pascal Lenormand</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1882,25 +2090,31 @@
       <c r="E35" t="n">
         <v>33</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>ANGY M</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1922,17 +2136,23 @@
       <c r="E36" t="n">
         <v>34</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>34</v>
+      </c>
+      <c r="G36" t="n">
+        <v>34</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Loïc Lenormand</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,35 +466,40 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>athlete</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>points_marche</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>points_course</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>points_velo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>points_cardio</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>equipe</t>
         </is>
@@ -522,27 +527,30 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Thomas Mrt</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>44.3</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1253.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>152.92</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>1450.72</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -570,27 +578,30 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Sébastien .</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>223.8</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>49.96</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>273.76</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -618,27 +629,30 @@
       <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Marie L</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>92.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>108</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>45</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>245.5</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -666,17 +680,17 @@
       <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Christophe Dehillotte</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -684,9 +698,12 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>93.54999999999998</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -714,27 +731,30 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>jean-charles roussel</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>20</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>45</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>65</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -762,14 +782,14 @@
       <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Satya Wiplier</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -777,12 +797,15 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -810,17 +833,17 @@
       <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Alain Seguy</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>9.9</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -828,9 +851,12 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>9.9</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -858,14 +884,14 @@
       <c r="G9" t="n">
         <v>7</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Mari On</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -878,7 +904,10 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -906,14 +935,14 @@
       <c r="G10" t="n">
         <v>8</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Nicolas Cognet</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -926,7 +955,10 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -954,14 +986,14 @@
       <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Florence Gurnot</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -971,8 +1003,11 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>
@@ -1000,27 +1035,30 @@
       <c r="G12" t="n">
         <v>10</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Sébastien Buczynski</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>1199.98</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1048,27 +1086,30 @@
       <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Aurore Meresse</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>94.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>230.1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>324.3</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1096,27 +1137,30 @@
       <c r="G14" t="n">
         <v>12</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Cathy BOGNON</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>177.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>22.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>200.3</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1144,27 +1188,30 @@
       <c r="G15" t="n">
         <v>13</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Frederic Zaugg</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>100.7</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>100.7</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1192,27 +1239,30 @@
       <c r="G16" t="n">
         <v>14</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Marie Leger</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1240,27 +1290,30 @@
       <c r="G17" t="n">
         <v>15</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>corentin paya</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>36.4</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>36.4</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1288,17 +1341,17 @@
       <c r="G18" t="n">
         <v>16</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Trang Tran</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3.7</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -1306,9 +1359,12 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.7</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1336,14 +1392,14 @@
       <c r="G19" t="n">
         <v>17</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>emmanuelle brouder</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1356,7 +1412,10 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1384,14 +1443,14 @@
       <c r="G20" t="n">
         <v>18</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Nz Van</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
@@ -1404,7 +1463,10 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1432,14 +1494,14 @@
       <c r="G21" t="n">
         <v>19</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Laurent Dupuis</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1449,8 +1511,11 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Equipe 2</t>
         </is>
@@ -1478,14 +1543,14 @@
       <c r="G22" t="n">
         <v>20</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>PAT Le Belge</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
@@ -1495,8 +1560,11 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1524,27 +1592,30 @@
       <c r="G23" t="n">
         <v>21</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Bryan Simpson</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>36.85</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>550.9</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>65.16</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>652.91</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1572,17 +1643,17 @@
       <c r="G24" t="n">
         <v>22</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Colette VAUCHEL</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -1590,9 +1661,12 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>555.2500000000001</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1620,27 +1694,30 @@
       <c r="G25" t="n">
         <v>23</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Sylvain Wiplier</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>60</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>90</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>160</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1668,27 +1745,30 @@
       <c r="G26" t="n">
         <v>24</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>virginy pilloud</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>24.05</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>79</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>103.05</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1716,27 +1796,30 @@
       <c r="G27" t="n">
         <v>25</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Loïc Le Gal</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>12.5</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>32</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>44.5</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1764,27 +1847,30 @@
       <c r="G28" t="n">
         <v>26</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Elodie Lefèvre</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.78</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>40</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>41.78</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1812,14 +1898,14 @@
       <c r="G29" t="n">
         <v>27</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Juliette Godart</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -1832,7 +1918,10 @@
       <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1860,14 +1949,14 @@
       <c r="G30" t="n">
         <v>28</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Julie Leger</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
@@ -1880,7 +1969,10 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1908,14 +2000,14 @@
       <c r="G31" t="n">
         <v>29</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Sophie Rollin</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
@@ -1928,7 +2020,10 @@
       <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -1956,14 +2051,14 @@
       <c r="G32" t="n">
         <v>30</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Timothee Delauriere</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -1976,7 +2071,10 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2004,14 +2102,14 @@
       <c r="G33" t="n">
         <v>31</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Tchiipolote Bzh</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
@@ -2021,8 +2119,11 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2050,14 +2151,14 @@
       <c r="G34" t="n">
         <v>32</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Pascal Lenormand</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
@@ -2067,8 +2168,11 @@
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2096,14 +2200,14 @@
       <c r="G35" t="n">
         <v>33</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>33</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>ANGY M</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
@@ -2113,8 +2217,11 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
         <is>
           <t>Equipe 3</t>
         </is>
@@ -2142,17 +2249,20 @@
       <c r="G36" t="n">
         <v>34</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Loïc Lenormand</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
         <is>
           <t>Equipe 1</t>
         </is>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -533,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +591,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -620,29 +626,32 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2">
         <v>44.3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1253.5</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>152.92</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>1450.72</v>
       </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -673,29 +682,32 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3">
         <v>223.8</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>49.96</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>273.76</v>
       </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -726,29 +738,32 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
         <v>92.5</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>108</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>45</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>245.5</v>
       </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -779,15 +794,15 @@
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
         <v>93.54999999999998</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -795,13 +810,16 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>93.54999999999998</v>
       </c>
-      <c r="Q5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -832,29 +850,32 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>45</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>65</v>
       </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -885,11 +906,11 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -898,16 +919,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>10</v>
       </c>
-      <c r="Q7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -938,15 +962,15 @@
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8">
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
         <v>9.9</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -954,13 +978,16 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>9.9</v>
       </c>
-      <c r="Q8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -991,11 +1018,11 @@
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1009,11 +1036,14 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1044,11 +1074,11 @@
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1062,11 +1092,14 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1097,11 +1130,11 @@
       <c r="J11">
         <v>9</v>
       </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1112,11 +1145,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1147,29 +1183,32 @@
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>1199.98</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>1199.98</v>
       </c>
-      <c r="Q12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1200,29 +1239,32 @@
       <c r="J13">
         <v>11</v>
       </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13">
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13">
         <v>94.2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>230.1</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>324.3</v>
       </c>
-      <c r="Q13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1253,29 +1295,32 @@
       <c r="J14">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14">
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14">
         <v>177.8</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>22.5</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>200.3</v>
       </c>
-      <c r="Q14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1306,29 +1351,32 @@
       <c r="J15">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>100.7</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>100.7</v>
       </c>
-      <c r="Q15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1359,29 +1407,32 @@
       <c r="J16">
         <v>14</v>
       </c>
-      <c r="K16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
       </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>64.40000000000001</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>64.40000000000001</v>
       </c>
-      <c r="Q16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1412,29 +1463,32 @@
       <c r="J17">
         <v>15</v>
       </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>36.4</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>36.4</v>
       </c>
-      <c r="Q17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1465,15 +1519,15 @@
       <c r="J18">
         <v>16</v>
       </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18">
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18">
         <v>3.7</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
@@ -1481,13 +1535,16 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>3.7</v>
       </c>
-      <c r="Q18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1518,11 +1575,11 @@
       <c r="J19">
         <v>17</v>
       </c>
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1536,11 +1593,14 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1571,11 +1631,11 @@
       <c r="J20">
         <v>18</v>
       </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1589,11 +1649,14 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1624,11 +1687,11 @@
       <c r="J21">
         <v>19</v>
       </c>
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1639,11 +1702,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1674,11 +1740,11 @@
       <c r="J22">
         <v>20</v>
       </c>
-      <c r="K22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1689,11 +1755,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1724,29 +1793,32 @@
       <c r="J23">
         <v>21</v>
       </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23">
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23">
         <v>36.85</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>550.9</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>65.16</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>652.91</v>
       </c>
-      <c r="Q23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1777,15 +1849,15 @@
       <c r="J24">
         <v>22</v>
       </c>
-      <c r="K24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24">
+      <c r="K24">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24">
         <v>555.2500000000001</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
@@ -1793,13 +1865,16 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>555.2500000000001</v>
       </c>
-      <c r="Q24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1830,29 +1905,32 @@
       <c r="J25">
         <v>23</v>
       </c>
-      <c r="K25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25">
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25">
         <v>10</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>60</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>90</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>160</v>
       </c>
-      <c r="Q25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1883,29 +1961,32 @@
       <c r="J26">
         <v>24</v>
       </c>
-      <c r="K26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26">
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26">
         <v>24.05</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>79</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>103.05</v>
       </c>
-      <c r="Q26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1936,29 +2017,32 @@
       <c r="J27">
         <v>25</v>
       </c>
-      <c r="K27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27">
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27">
         <v>12.5</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>32</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>44.5</v>
       </c>
-      <c r="Q27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1989,29 +2073,32 @@
       <c r="J28">
         <v>26</v>
       </c>
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>1.78</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>40</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>41.78</v>
       </c>
-      <c r="Q28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2042,11 +2129,11 @@
       <c r="J29">
         <v>27</v>
       </c>
-      <c r="K29" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
+      <c r="K29">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2060,11 +2147,14 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2095,11 +2185,11 @@
       <c r="J30">
         <v>28</v>
       </c>
-      <c r="K30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
+      <c r="K30">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2113,11 +2203,14 @@
       <c r="P30">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2148,11 +2241,11 @@
       <c r="J31">
         <v>29</v>
       </c>
-      <c r="K31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
+      <c r="K31">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>46</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2166,11 +2259,14 @@
       <c r="P31">
         <v>0</v>
       </c>
-      <c r="Q31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2201,11 +2297,11 @@
       <c r="J32">
         <v>30</v>
       </c>
-      <c r="K32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>47</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2219,11 +2315,14 @@
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2254,11 +2353,11 @@
       <c r="J33">
         <v>31</v>
       </c>
-      <c r="K33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
+      <c r="K33">
+        <v>31</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2269,11 +2368,14 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2304,11 +2406,11 @@
       <c r="J34">
         <v>32</v>
       </c>
-      <c r="K34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
+      <c r="K34">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>49</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2319,11 +2421,14 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="Q34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2354,11 +2459,11 @@
       <c r="J35">
         <v>33</v>
       </c>
-      <c r="K35" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
+      <c r="K35">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>50</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2369,11 +2474,14 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="Q35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2404,11 +2512,14 @@
       <c r="J36">
         <v>34</v>
       </c>
-      <c r="K36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
         <v>51</v>
+      </c>
+      <c r="R36" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -536,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +609,23 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -629,29 +659,44 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2">
         <v>44.3</v>
       </c>
-      <c r="N2">
+      <c r="S2">
         <v>1253.5</v>
       </c>
-      <c r="O2">
+      <c r="T2">
         <v>152.92</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>1450.72</v>
       </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -685,29 +730,44 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3">
         <v>223.8</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>49.96</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>273.76</v>
       </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -741,29 +801,44 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
+      <c r="L4">
+        <v>2</v>
       </c>
       <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4">
         <v>92.5</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>108</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>45</v>
       </c>
-      <c r="Q4">
+      <c r="V4">
         <v>245.5</v>
       </c>
-      <c r="R4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="W4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -797,29 +872,44 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
+      <c r="L5">
+        <v>3</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5">
         <v>93.54999999999998</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>93.54999999999998</v>
       </c>
-      <c r="R5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -853,29 +943,44 @@
       <c r="K6">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
+      <c r="L6">
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6">
         <v>20</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>45</v>
       </c>
-      <c r="Q6">
+      <c r="V6">
         <v>65</v>
       </c>
-      <c r="R6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -909,29 +1014,44 @@
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
-        <v>22</v>
+      <c r="L7">
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>10</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
         <v>10</v>
       </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -965,29 +1085,44 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
-        <v>23</v>
+      <c r="L8">
+        <v>6</v>
       </c>
       <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8">
         <v>9.9</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>9.9</v>
       </c>
-      <c r="R8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="W8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1021,29 +1156,44 @@
       <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
+      <c r="L9">
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1077,29 +1227,44 @@
       <c r="K10">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
-        <v>25</v>
+      <c r="L10">
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1133,26 +1298,41 @@
       <c r="K11">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
-        <v>26</v>
+      <c r="L11">
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1186,29 +1366,44 @@
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
-        <v>27</v>
+      <c r="L12">
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>1199.98</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>1199.98</v>
       </c>
-      <c r="R12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="W12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1242,29 +1437,44 @@
       <c r="K13">
         <v>11</v>
       </c>
-      <c r="L13" t="s">
-        <v>28</v>
+      <c r="L13">
+        <v>11</v>
       </c>
       <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13">
         <v>94.2</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>230.1</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>324.3</v>
       </c>
-      <c r="R13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="W13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1298,29 +1508,44 @@
       <c r="K14">
         <v>12</v>
       </c>
-      <c r="L14" t="s">
-        <v>29</v>
+      <c r="L14">
+        <v>12</v>
       </c>
       <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14">
         <v>177.8</v>
       </c>
-      <c r="N14">
+      <c r="S14">
         <v>22.5</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>200.3</v>
       </c>
-      <c r="R14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="W14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1354,29 +1579,44 @@
       <c r="K15">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
-        <v>30</v>
+      <c r="L15">
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>100.7</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>100.7</v>
       </c>
-      <c r="R15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="W15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1410,29 +1650,44 @@
       <c r="K16">
         <v>14</v>
       </c>
-      <c r="L16" t="s">
-        <v>31</v>
+      <c r="L16">
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>64.40000000000001</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>64.40000000000001</v>
       </c>
-      <c r="R16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="W16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1466,29 +1721,44 @@
       <c r="K17">
         <v>15</v>
       </c>
-      <c r="L17" t="s">
-        <v>32</v>
+      <c r="L17">
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>36.4</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>36.4</v>
       </c>
-      <c r="R17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="W17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1522,29 +1792,44 @@
       <c r="K18">
         <v>16</v>
       </c>
-      <c r="L18" t="s">
-        <v>33</v>
+      <c r="L18">
+        <v>16</v>
       </c>
       <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18">
         <v>3.7</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>3.7</v>
       </c>
-      <c r="R18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="W18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1578,29 +1863,44 @@
       <c r="K19">
         <v>17</v>
       </c>
-      <c r="L19" t="s">
-        <v>34</v>
+      <c r="L19">
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1634,29 +1934,44 @@
       <c r="K20">
         <v>18</v>
       </c>
-      <c r="L20" t="s">
-        <v>35</v>
+      <c r="L20">
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1690,26 +2005,41 @@
       <c r="K21">
         <v>19</v>
       </c>
-      <c r="L21" t="s">
-        <v>36</v>
+      <c r="L21">
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1743,26 +2073,41 @@
       <c r="K22">
         <v>20</v>
       </c>
-      <c r="L22" t="s">
-        <v>37</v>
+      <c r="L22">
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1796,29 +2141,44 @@
       <c r="K23">
         <v>21</v>
       </c>
-      <c r="L23" t="s">
-        <v>38</v>
+      <c r="L23">
+        <v>21</v>
       </c>
       <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23">
         <v>36.85</v>
       </c>
-      <c r="N23">
+      <c r="S23">
         <v>550.9</v>
       </c>
-      <c r="O23">
+      <c r="T23">
         <v>65.16</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>652.91</v>
       </c>
-      <c r="R23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="W23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1852,29 +2212,44 @@
       <c r="K24">
         <v>22</v>
       </c>
-      <c r="L24" t="s">
-        <v>39</v>
+      <c r="L24">
+        <v>22</v>
       </c>
       <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="P24">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24">
         <v>555.2500000000001</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>555.2500000000001</v>
       </c>
-      <c r="R24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="W24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1908,29 +2283,44 @@
       <c r="K25">
         <v>23</v>
       </c>
-      <c r="L25" t="s">
-        <v>40</v>
+      <c r="L25">
+        <v>23</v>
       </c>
       <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25">
         <v>10</v>
       </c>
-      <c r="N25">
+      <c r="S25">
         <v>60</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>90</v>
       </c>
-      <c r="Q25">
+      <c r="V25">
         <v>160</v>
       </c>
-      <c r="R25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="W25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1964,29 +2354,44 @@
       <c r="K26">
         <v>24</v>
       </c>
-      <c r="L26" t="s">
-        <v>41</v>
+      <c r="L26">
+        <v>24</v>
       </c>
       <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26">
         <v>24.05</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>79</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>103.05</v>
       </c>
-      <c r="R26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="W26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2020,29 +2425,44 @@
       <c r="K27">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
-        <v>42</v>
+      <c r="L27">
+        <v>25</v>
       </c>
       <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>47</v>
+      </c>
+      <c r="R27">
         <v>12.5</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>32</v>
       </c>
-      <c r="Q27">
+      <c r="V27">
         <v>44.5</v>
       </c>
-      <c r="R27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="W27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2076,29 +2496,44 @@
       <c r="K28">
         <v>26</v>
       </c>
-      <c r="L28" t="s">
-        <v>43</v>
+      <c r="L28">
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>1.78</v>
       </c>
-      <c r="P28">
+      <c r="U28">
         <v>40</v>
       </c>
-      <c r="Q28">
+      <c r="V28">
         <v>41.78</v>
       </c>
-      <c r="R28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="W28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2132,29 +2567,44 @@
       <c r="K29">
         <v>27</v>
       </c>
-      <c r="L29" t="s">
-        <v>44</v>
+      <c r="L29">
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2188,29 +2638,44 @@
       <c r="K30">
         <v>28</v>
       </c>
-      <c r="L30" t="s">
-        <v>45</v>
+      <c r="L30">
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2244,29 +2709,44 @@
       <c r="K31">
         <v>29</v>
       </c>
-      <c r="L31" t="s">
-        <v>46</v>
+      <c r="L31">
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2300,29 +2780,44 @@
       <c r="K32">
         <v>30</v>
       </c>
-      <c r="L32" t="s">
-        <v>47</v>
+      <c r="L32">
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2356,26 +2851,41 @@
       <c r="K33">
         <v>31</v>
       </c>
-      <c r="L33" t="s">
-        <v>48</v>
+      <c r="L33">
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2409,26 +2919,41 @@
       <c r="K34">
         <v>32</v>
       </c>
-      <c r="L34" t="s">
-        <v>49</v>
+      <c r="L34">
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2462,26 +2987,41 @@
       <c r="K35">
         <v>33</v>
       </c>
-      <c r="L35" t="s">
-        <v>50</v>
+      <c r="L35">
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>55</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2515,11 +3055,26 @@
       <c r="K36">
         <v>34</v>
       </c>
-      <c r="L36" t="s">
-        <v>51</v>
-      </c>
-      <c r="R36" t="s">
-        <v>52</v>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>34</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -551,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +627,11 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -674,29 +680,32 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2">
         <v>44.3</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1253.5</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>152.92</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>1450.72</v>
       </c>
-      <c r="W2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -745,29 +754,32 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3">
         <v>223.8</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>49.96</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>273.76</v>
       </c>
-      <c r="W3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -816,29 +828,32 @@
       <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4">
         <v>92.5</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>108</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>45</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>245.5</v>
       </c>
-      <c r="W4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -887,15 +902,15 @@
       <c r="P5">
         <v>3</v>
       </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5">
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5">
         <v>93.54999999999998</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0</v>
       </c>
@@ -903,13 +918,16 @@
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>93.54999999999998</v>
       </c>
-      <c r="W5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -958,29 +976,32 @@
       <c r="P6">
         <v>4</v>
       </c>
-      <c r="Q6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6">
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6">
         <v>20</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>45</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>65</v>
       </c>
-      <c r="W6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1029,11 +1050,11 @@
       <c r="P7">
         <v>5</v>
       </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1042,16 +1063,19 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>10</v>
       </c>
-      <c r="W7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1100,15 +1124,15 @@
       <c r="P8">
         <v>6</v>
       </c>
-      <c r="Q8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8">
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8">
         <v>9.9</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
@@ -1116,13 +1140,16 @@
         <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>9.9</v>
       </c>
-      <c r="W8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1171,11 +1198,11 @@
       <c r="P9">
         <v>7</v>
       </c>
-      <c r="Q9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>30</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1189,11 +1216,14 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1242,11 +1272,11 @@
       <c r="P10">
         <v>8</v>
       </c>
-      <c r="Q10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10" t="s">
+        <v>31</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1260,11 +1290,14 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1313,11 +1346,11 @@
       <c r="P11">
         <v>9</v>
       </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1328,11 +1361,14 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1381,29 +1417,32 @@
       <c r="P12">
         <v>10</v>
       </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>33</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>1199.98</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>1199.98</v>
       </c>
-      <c r="W12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1452,29 +1491,32 @@
       <c r="P13">
         <v>11</v>
       </c>
-      <c r="Q13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13">
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13">
         <v>94.2</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>230.1</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>324.3</v>
       </c>
-      <c r="W13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1523,29 +1565,32 @@
       <c r="P14">
         <v>12</v>
       </c>
-      <c r="Q14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14">
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14">
         <v>177.8</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>22.5</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>200.3</v>
       </c>
-      <c r="W14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1594,29 +1639,32 @@
       <c r="P15">
         <v>13</v>
       </c>
-      <c r="Q15" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>100.7</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>100.7</v>
       </c>
-      <c r="W15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1665,29 +1713,32 @@
       <c r="P16">
         <v>14</v>
       </c>
-      <c r="Q16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>37</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>64.40000000000001</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>64.40000000000001</v>
       </c>
-      <c r="W16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1736,29 +1787,32 @@
       <c r="P17">
         <v>15</v>
       </c>
-      <c r="Q17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>38</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>36.4</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>36.4</v>
       </c>
-      <c r="W17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1807,15 +1861,15 @@
       <c r="P18">
         <v>16</v>
       </c>
-      <c r="Q18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18">
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18">
         <v>3.7</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
       <c r="T18">
         <v>0</v>
       </c>
@@ -1823,13 +1877,16 @@
         <v>0</v>
       </c>
       <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>3.7</v>
       </c>
-      <c r="W18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1878,11 +1935,11 @@
       <c r="P19">
         <v>17</v>
       </c>
-      <c r="Q19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>40</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1896,11 +1953,14 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1949,11 +2009,11 @@
       <c r="P20">
         <v>18</v>
       </c>
-      <c r="Q20" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>41</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1967,11 +2027,14 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2020,11 +2083,11 @@
       <c r="P21">
         <v>19</v>
       </c>
-      <c r="Q21" t="s">
-        <v>41</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>42</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2035,11 +2098,14 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2088,11 +2154,11 @@
       <c r="P22">
         <v>20</v>
       </c>
-      <c r="Q22" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2103,11 +2169,14 @@
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2156,29 +2225,32 @@
       <c r="P23">
         <v>21</v>
       </c>
-      <c r="Q23" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23">
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23">
         <v>36.85</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>550.9</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>65.16</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>652.91</v>
       </c>
-      <c r="W23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2227,15 +2299,15 @@
       <c r="P24">
         <v>22</v>
       </c>
-      <c r="Q24" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24">
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="R24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24">
         <v>555.2500000000001</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
         <v>0</v>
       </c>
@@ -2243,13 +2315,16 @@
         <v>0</v>
       </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>555.2500000000001</v>
       </c>
-      <c r="W24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2298,29 +2373,32 @@
       <c r="P25">
         <v>23</v>
       </c>
-      <c r="Q25" t="s">
-        <v>45</v>
-      </c>
-      <c r="R25">
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25">
         <v>10</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>60</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>90</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>160</v>
       </c>
-      <c r="W25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2369,29 +2447,32 @@
       <c r="P26">
         <v>24</v>
       </c>
-      <c r="Q26" t="s">
-        <v>46</v>
-      </c>
-      <c r="R26">
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26">
         <v>24.05</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>79</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>103.05</v>
       </c>
-      <c r="W26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2440,29 +2521,32 @@
       <c r="P27">
         <v>25</v>
       </c>
-      <c r="Q27" t="s">
-        <v>47</v>
-      </c>
-      <c r="R27">
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27">
         <v>12.5</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>32</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>44.5</v>
       </c>
-      <c r="W27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2511,29 +2595,32 @@
       <c r="P28">
         <v>26</v>
       </c>
-      <c r="Q28" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>49</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>1.78</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>40</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>41.78</v>
       </c>
-      <c r="W28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2582,11 +2669,11 @@
       <c r="P29">
         <v>27</v>
       </c>
-      <c r="Q29" t="s">
-        <v>49</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>50</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2600,11 +2687,14 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2653,11 +2743,11 @@
       <c r="P30">
         <v>28</v>
       </c>
-      <c r="Q30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
+      <c r="Q30">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>51</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2671,11 +2761,14 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2724,11 +2817,11 @@
       <c r="P31">
         <v>29</v>
       </c>
-      <c r="Q31" t="s">
-        <v>51</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
+      <c r="Q31">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>52</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2742,11 +2835,14 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2795,11 +2891,11 @@
       <c r="P32">
         <v>30</v>
       </c>
-      <c r="Q32" t="s">
-        <v>52</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
+      <c r="Q32">
+        <v>30</v>
+      </c>
+      <c r="R32" t="s">
+        <v>53</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2813,11 +2909,14 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2866,11 +2965,11 @@
       <c r="P33">
         <v>31</v>
       </c>
-      <c r="Q33" t="s">
-        <v>53</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="R33" t="s">
+        <v>54</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2881,11 +2980,14 @@
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2934,11 +3036,11 @@
       <c r="P34">
         <v>32</v>
       </c>
-      <c r="Q34" t="s">
-        <v>54</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+      <c r="R34" t="s">
+        <v>55</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2949,11 +3051,14 @@
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3002,11 +3107,11 @@
       <c r="P35">
         <v>33</v>
       </c>
-      <c r="Q35" t="s">
-        <v>55</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
+      <c r="Q35">
+        <v>33</v>
+      </c>
+      <c r="R35" t="s">
+        <v>56</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3017,11 +3122,14 @@
       <c r="U35">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3070,11 +3178,14 @@
       <c r="P36">
         <v>34</v>
       </c>
-      <c r="Q36" t="s">
-        <v>56</v>
-      </c>
-      <c r="W36" t="s">
+      <c r="Q36">
+        <v>34</v>
+      </c>
+      <c r="R36" t="s">
         <v>57</v>
+      </c>
+      <c r="X36" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -554,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +633,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -683,29 +689,32 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2">
         <v>44.3</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1253.5</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>152.92</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>1450.72</v>
       </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -757,29 +766,32 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3">
         <v>223.8</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>49.96</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>273.76</v>
       </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -831,29 +843,32 @@
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4">
         <v>92.5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>108</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>45</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>245.5</v>
       </c>
-      <c r="X4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -905,15 +920,15 @@
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5">
         <v>93.54999999999998</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
@@ -921,13 +936,16 @@
         <v>0</v>
       </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>93.54999999999998</v>
       </c>
-      <c r="X5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -979,29 +997,32 @@
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6">
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6">
         <v>20</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>45</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>65</v>
       </c>
-      <c r="X6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1053,11 +1074,11 @@
       <c r="Q7">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1066,16 +1087,19 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>10</v>
       </c>
-      <c r="X7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1127,15 +1151,15 @@
       <c r="Q8">
         <v>6</v>
       </c>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8">
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8">
         <v>9.9</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -1143,13 +1167,16 @@
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>9.9</v>
       </c>
-      <c r="X8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1201,11 +1228,11 @@
       <c r="Q9">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1219,11 +1246,14 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1275,11 +1305,11 @@
       <c r="Q10">
         <v>8</v>
       </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1293,11 +1323,14 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1349,11 +1382,11 @@
       <c r="Q11">
         <v>9</v>
       </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1364,11 +1397,14 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="X11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1420,29 +1456,32 @@
       <c r="Q12">
         <v>10</v>
       </c>
-      <c r="R12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>1199.98</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>1199.98</v>
       </c>
-      <c r="X12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1494,29 +1533,32 @@
       <c r="Q13">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13">
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13">
         <v>94.2</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>230.1</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>324.3</v>
       </c>
-      <c r="X13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1568,29 +1610,32 @@
       <c r="Q14">
         <v>12</v>
       </c>
-      <c r="R14" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14">
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14">
         <v>177.8</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>22.5</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>200.3</v>
       </c>
-      <c r="X14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1642,29 +1687,32 @@
       <c r="Q15">
         <v>13</v>
       </c>
-      <c r="R15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
       </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>100.7</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>100.7</v>
       </c>
-      <c r="X15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1716,29 +1764,32 @@
       <c r="Q16">
         <v>14</v>
       </c>
-      <c r="R16" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>64.40000000000001</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>64.40000000000001</v>
       </c>
-      <c r="X16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1790,29 +1841,32 @@
       <c r="Q17">
         <v>15</v>
       </c>
-      <c r="R17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>36.4</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>36.4</v>
       </c>
-      <c r="X17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1864,15 +1918,15 @@
       <c r="Q18">
         <v>16</v>
       </c>
-      <c r="R18" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18">
+      <c r="R18">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18">
         <v>3.7</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
         <v>0</v>
       </c>
@@ -1880,13 +1934,16 @@
         <v>0</v>
       </c>
       <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>3.7</v>
       </c>
-      <c r="X18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1938,11 +1995,11 @@
       <c r="Q19">
         <v>17</v>
       </c>
-      <c r="R19" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
+        <v>41</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -1956,11 +2013,14 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2012,11 +2072,11 @@
       <c r="Q20">
         <v>18</v>
       </c>
-      <c r="R20" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
+      <c r="R20">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>42</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2030,11 +2090,14 @@
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2086,11 +2149,11 @@
       <c r="Q21">
         <v>19</v>
       </c>
-      <c r="R21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
+      <c r="R21">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2101,11 +2164,14 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="X21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2157,11 +2223,11 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>44</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2172,11 +2238,14 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2228,29 +2297,32 @@
       <c r="Q23">
         <v>21</v>
       </c>
-      <c r="R23" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23">
+      <c r="R23">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23">
         <v>36.85</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>550.9</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>65.16</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
       <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>652.91</v>
       </c>
-      <c r="X23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2302,15 +2374,15 @@
       <c r="Q24">
         <v>22</v>
       </c>
-      <c r="R24" t="s">
-        <v>45</v>
-      </c>
-      <c r="S24">
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24">
         <v>555.2500000000001</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
         <v>0</v>
       </c>
@@ -2318,13 +2390,16 @@
         <v>0</v>
       </c>
       <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>555.2500000000001</v>
       </c>
-      <c r="X24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2376,29 +2451,32 @@
       <c r="Q25">
         <v>23</v>
       </c>
-      <c r="R25" t="s">
-        <v>46</v>
-      </c>
-      <c r="S25">
+      <c r="R25">
+        <v>23</v>
+      </c>
+      <c r="S25" t="s">
+        <v>47</v>
+      </c>
+      <c r="T25">
         <v>10</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>60</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>90</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>160</v>
       </c>
-      <c r="X25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2450,29 +2528,32 @@
       <c r="Q26">
         <v>24</v>
       </c>
-      <c r="R26" t="s">
-        <v>47</v>
-      </c>
-      <c r="S26">
+      <c r="R26">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26">
         <v>24.05</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>79</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
       <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
         <v>103.05</v>
       </c>
-      <c r="X26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2524,29 +2605,32 @@
       <c r="Q27">
         <v>25</v>
       </c>
-      <c r="R27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27">
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27">
         <v>12.5</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>32</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>44.5</v>
       </c>
-      <c r="X27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2598,29 +2682,32 @@
       <c r="Q28">
         <v>26</v>
       </c>
-      <c r="R28" t="s">
-        <v>49</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
+      <c r="R28">
+        <v>26</v>
+      </c>
+      <c r="S28" t="s">
+        <v>50</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>1.78</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>40</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>41.78</v>
       </c>
-      <c r="X28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2672,11 +2759,11 @@
       <c r="Q29">
         <v>27</v>
       </c>
-      <c r="R29" t="s">
-        <v>50</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
+      <c r="R29">
+        <v>27</v>
+      </c>
+      <c r="S29" t="s">
+        <v>51</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2690,11 +2777,14 @@
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2746,11 +2836,11 @@
       <c r="Q30">
         <v>28</v>
       </c>
-      <c r="R30" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
+      <c r="R30">
+        <v>28</v>
+      </c>
+      <c r="S30" t="s">
+        <v>52</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2764,11 +2854,14 @@
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2820,11 +2913,11 @@
       <c r="Q31">
         <v>29</v>
       </c>
-      <c r="R31" t="s">
-        <v>52</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
+      <c r="R31">
+        <v>29</v>
+      </c>
+      <c r="S31" t="s">
+        <v>53</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2838,11 +2931,14 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2894,11 +2990,11 @@
       <c r="Q32">
         <v>30</v>
       </c>
-      <c r="R32" t="s">
-        <v>53</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
+      <c r="R32">
+        <v>30</v>
+      </c>
+      <c r="S32" t="s">
+        <v>54</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2912,11 +3008,14 @@
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2968,11 +3067,11 @@
       <c r="Q33">
         <v>31</v>
       </c>
-      <c r="R33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
+      <c r="R33">
+        <v>31</v>
+      </c>
+      <c r="S33" t="s">
+        <v>55</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -2983,11 +3082,14 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="X33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3039,11 +3141,11 @@
       <c r="Q34">
         <v>32</v>
       </c>
-      <c r="R34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
+      <c r="R34">
+        <v>32</v>
+      </c>
+      <c r="S34" t="s">
+        <v>56</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3054,11 +3156,14 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="X34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3110,11 +3215,11 @@
       <c r="Q35">
         <v>33</v>
       </c>
-      <c r="R35" t="s">
-        <v>56</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
+      <c r="R35">
+        <v>33</v>
+      </c>
+      <c r="S35" t="s">
+        <v>57</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3125,11 +3230,14 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="X35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3181,11 +3289,14 @@
       <c r="Q36">
         <v>34</v>
       </c>
-      <c r="R36" t="s">
-        <v>57</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="R36">
+        <v>34</v>
+      </c>
+      <c r="S36" t="s">
         <v>58</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -557,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +639,11 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -692,29 +698,32 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2">
         <v>44.3</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1253.5</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>152.92</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>1450.72</v>
       </c>
-      <c r="Y2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -769,29 +778,32 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3">
         <v>223.8</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>49.96</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>273.76</v>
       </c>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -846,29 +858,32 @@
       <c r="R4">
         <v>2</v>
       </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4">
         <v>92.5</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>108</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>45</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>245.5</v>
       </c>
-      <c r="Y4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -923,15 +938,15 @@
       <c r="R5">
         <v>3</v>
       </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5">
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5">
         <v>93.54999999999998</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
@@ -939,13 +954,16 @@
         <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>93.54999999999998</v>
       </c>
-      <c r="Y5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1000,29 +1018,32 @@
       <c r="R6">
         <v>4</v>
       </c>
-      <c r="S6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6">
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6">
         <v>20</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>45</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>65</v>
       </c>
-      <c r="Y6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1077,11 +1098,11 @@
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>30</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1090,16 +1111,19 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>10</v>
       </c>
-      <c r="Y7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1154,15 +1178,15 @@
       <c r="R8">
         <v>6</v>
       </c>
-      <c r="S8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8">
         <v>9.9</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
         <v>0</v>
       </c>
@@ -1170,13 +1194,16 @@
         <v>0</v>
       </c>
       <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>9.9</v>
       </c>
-      <c r="Y8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1231,11 +1258,11 @@
       <c r="R9">
         <v>7</v>
       </c>
-      <c r="S9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1249,11 +1276,14 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1308,11 +1338,11 @@
       <c r="R10">
         <v>8</v>
       </c>
-      <c r="S10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>33</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1326,11 +1356,14 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1385,11 +1418,11 @@
       <c r="R11">
         <v>9</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1400,11 +1433,14 @@
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="Y11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1459,29 +1495,32 @@
       <c r="R12">
         <v>10</v>
       </c>
-      <c r="S12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>1199.98</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
       <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>1199.98</v>
       </c>
-      <c r="Y12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1536,29 +1575,32 @@
       <c r="R13">
         <v>11</v>
       </c>
-      <c r="S13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13">
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13">
         <v>94.2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>230.1</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>324.3</v>
       </c>
-      <c r="Y13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1613,29 +1655,32 @@
       <c r="R14">
         <v>12</v>
       </c>
-      <c r="S14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14">
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14">
         <v>177.8</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>22.5</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>200.3</v>
       </c>
-      <c r="Y14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1690,29 +1735,32 @@
       <c r="R15">
         <v>13</v>
       </c>
-      <c r="S15" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>100.7</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>100.7</v>
       </c>
-      <c r="Y15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1767,29 +1815,32 @@
       <c r="R16">
         <v>14</v>
       </c>
-      <c r="S16" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16" t="s">
+        <v>39</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>64.40000000000001</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>64.40000000000001</v>
       </c>
-      <c r="Y16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1844,29 +1895,32 @@
       <c r="R17">
         <v>15</v>
       </c>
-      <c r="S17" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17" t="s">
+        <v>40</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>36.4</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>36.4</v>
       </c>
-      <c r="Y17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1921,15 +1975,15 @@
       <c r="R18">
         <v>16</v>
       </c>
-      <c r="S18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18">
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18">
         <v>3.7</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
       <c r="V18">
         <v>0</v>
       </c>
@@ -1937,13 +1991,16 @@
         <v>0</v>
       </c>
       <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>3.7</v>
       </c>
-      <c r="Y18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1998,11 +2055,11 @@
       <c r="R19">
         <v>17</v>
       </c>
-      <c r="S19" t="s">
-        <v>41</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19" t="s">
+        <v>42</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2016,11 +2073,14 @@
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2075,11 +2135,11 @@
       <c r="R20">
         <v>18</v>
       </c>
-      <c r="S20" t="s">
-        <v>42</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2093,11 +2153,14 @@
       <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2152,11 +2215,11 @@
       <c r="R21">
         <v>19</v>
       </c>
-      <c r="S21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s">
+        <v>44</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2167,11 +2230,14 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="Y21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2226,11 +2292,11 @@
       <c r="R22">
         <v>20</v>
       </c>
-      <c r="S22" t="s">
-        <v>44</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22" t="s">
+        <v>45</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2241,11 +2307,14 @@
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="Y22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2300,29 +2369,32 @@
       <c r="R23">
         <v>21</v>
       </c>
-      <c r="S23" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23">
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23">
         <v>36.85</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>550.9</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>65.16</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>652.91</v>
       </c>
-      <c r="Y23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2377,15 +2449,15 @@
       <c r="R24">
         <v>22</v>
       </c>
-      <c r="S24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T24">
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24">
         <v>555.2500000000001</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -2393,13 +2465,16 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>555.2500000000001</v>
       </c>
-      <c r="Y24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2454,29 +2529,32 @@
       <c r="R25">
         <v>23</v>
       </c>
-      <c r="S25" t="s">
-        <v>47</v>
-      </c>
-      <c r="T25">
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25">
         <v>10</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>60</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>90</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>160</v>
       </c>
-      <c r="Y25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2531,29 +2609,32 @@
       <c r="R26">
         <v>24</v>
       </c>
-      <c r="S26" t="s">
-        <v>48</v>
-      </c>
-      <c r="T26">
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U26">
         <v>24.05</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>79</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
       <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>103.05</v>
       </c>
-      <c r="Y26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2608,29 +2689,32 @@
       <c r="R27">
         <v>25</v>
       </c>
-      <c r="S27" t="s">
-        <v>49</v>
-      </c>
-      <c r="T27">
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27">
         <v>12.5</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
         <v>32</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>44.5</v>
       </c>
-      <c r="Y27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2685,29 +2769,32 @@
       <c r="R28">
         <v>26</v>
       </c>
-      <c r="S28" t="s">
-        <v>50</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28" t="s">
+        <v>51</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>1.78</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>40</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>41.78</v>
       </c>
-      <c r="Y28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2762,11 +2849,11 @@
       <c r="R29">
         <v>27</v>
       </c>
-      <c r="S29" t="s">
-        <v>51</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29" t="s">
+        <v>52</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2780,11 +2867,14 @@
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2839,11 +2929,11 @@
       <c r="R30">
         <v>28</v>
       </c>
-      <c r="S30" t="s">
-        <v>52</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30" t="s">
+        <v>53</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2857,11 +2947,14 @@
       <c r="X30">
         <v>0</v>
       </c>
-      <c r="Y30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2916,11 +3009,11 @@
       <c r="R31">
         <v>29</v>
       </c>
-      <c r="S31" t="s">
-        <v>53</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31" t="s">
+        <v>54</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -2934,11 +3027,14 @@
       <c r="X31">
         <v>0</v>
       </c>
-      <c r="Y31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2993,11 +3089,11 @@
       <c r="R32">
         <v>30</v>
       </c>
-      <c r="S32" t="s">
-        <v>54</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32" t="s">
+        <v>55</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3011,11 +3107,14 @@
       <c r="X32">
         <v>0</v>
       </c>
-      <c r="Y32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3070,11 +3169,11 @@
       <c r="R33">
         <v>31</v>
       </c>
-      <c r="S33" t="s">
-        <v>55</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33" t="s">
+        <v>56</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3085,11 +3184,14 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="Y33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3144,11 +3246,11 @@
       <c r="R34">
         <v>32</v>
       </c>
-      <c r="S34" t="s">
-        <v>56</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="T34" t="s">
+        <v>57</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3159,11 +3261,14 @@
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="Y34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3218,11 +3323,11 @@
       <c r="R35">
         <v>33</v>
       </c>
-      <c r="S35" t="s">
-        <v>57</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3233,11 +3338,14 @@
       <c r="W35">
         <v>0</v>
       </c>
-      <c r="Y35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3292,11 +3400,14 @@
       <c r="R36">
         <v>34</v>
       </c>
-      <c r="S36" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y36" t="s">
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="T36" t="s">
         <v>59</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -560,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +648,14 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -701,29 +713,35 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
-        <v>25</v>
+      <c r="T2">
+        <v>0</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2">
         <v>44.3</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>1253.5</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>152.92</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>1450.72</v>
       </c>
-      <c r="Z2" t="s">
-        <v>60</v>
+      <c r="AB2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -781,29 +799,35 @@
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="T3" t="s">
-        <v>26</v>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3">
         <v>223.8</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>49.96</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>273.76</v>
       </c>
-      <c r="Z3" t="s">
-        <v>60</v>
+      <c r="AB3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -861,29 +885,35 @@
       <c r="S4">
         <v>2</v>
       </c>
-      <c r="T4" t="s">
-        <v>27</v>
+      <c r="T4">
+        <v>2</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4">
         <v>92.5</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>108</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>45</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>245.5</v>
       </c>
-      <c r="Z4" t="s">
-        <v>60</v>
+      <c r="AB4" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -941,29 +971,35 @@
       <c r="S5">
         <v>3</v>
       </c>
-      <c r="T5" t="s">
-        <v>28</v>
+      <c r="T5">
+        <v>3</v>
       </c>
       <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5">
         <v>93.54999999999998</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>93.54999999999998</v>
       </c>
-      <c r="Z5" t="s">
-        <v>60</v>
+      <c r="AB5" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1021,29 +1057,35 @@
       <c r="S6">
         <v>4</v>
       </c>
-      <c r="T6" t="s">
-        <v>29</v>
+      <c r="T6">
+        <v>4</v>
       </c>
       <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6">
         <v>20</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>45</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>65</v>
       </c>
-      <c r="Z6" t="s">
-        <v>60</v>
+      <c r="AB6" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1101,29 +1143,35 @@
       <c r="S7">
         <v>5</v>
       </c>
-      <c r="T7" t="s">
-        <v>30</v>
+      <c r="T7">
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>10</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>10</v>
       </c>
-      <c r="Z7" t="s">
-        <v>60</v>
+      <c r="AB7" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1181,29 +1229,35 @@
       <c r="S8">
         <v>6</v>
       </c>
-      <c r="T8" t="s">
-        <v>31</v>
+      <c r="T8">
+        <v>6</v>
       </c>
       <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8">
         <v>9.9</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
         <v>9.9</v>
       </c>
-      <c r="Z8" t="s">
-        <v>60</v>
+      <c r="AB8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1261,14 +1315,14 @@
       <c r="S9">
         <v>7</v>
       </c>
-      <c r="T9" t="s">
-        <v>32</v>
+      <c r="T9">
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>34</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1279,11 +1333,17 @@
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9" t="s">
-        <v>60</v>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1341,14 +1401,14 @@
       <c r="S10">
         <v>8</v>
       </c>
-      <c r="T10" t="s">
-        <v>33</v>
+      <c r="T10">
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>35</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1359,11 +1419,17 @@
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10" t="s">
-        <v>60</v>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1421,14 +1487,14 @@
       <c r="S11">
         <v>9</v>
       </c>
-      <c r="T11" t="s">
-        <v>34</v>
+      <c r="T11">
+        <v>9</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1436,11 +1502,17 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Z11" t="s">
-        <v>60</v>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1498,17 +1570,17 @@
       <c r="S12">
         <v>10</v>
       </c>
-      <c r="T12" t="s">
-        <v>35</v>
+      <c r="T12">
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="V12" t="s">
+        <v>37</v>
       </c>
       <c r="W12">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1516,11 +1588,17 @@
       <c r="Y12">
         <v>1199.98</v>
       </c>
-      <c r="Z12" t="s">
-        <v>61</v>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>1199.98</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1578,29 +1656,35 @@
       <c r="S13">
         <v>11</v>
       </c>
-      <c r="T13" t="s">
-        <v>36</v>
+      <c r="T13">
+        <v>11</v>
       </c>
       <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13">
         <v>94.2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>230.1</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
         <v>324.3</v>
       </c>
-      <c r="Z13" t="s">
-        <v>61</v>
+      <c r="AB13" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1658,29 +1742,35 @@
       <c r="S14">
         <v>12</v>
       </c>
-      <c r="T14" t="s">
-        <v>37</v>
+      <c r="T14">
+        <v>12</v>
       </c>
       <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14">
         <v>177.8</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>22.5</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>200.3</v>
       </c>
-      <c r="Z14" t="s">
-        <v>61</v>
+      <c r="AB14" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1738,29 +1828,35 @@
       <c r="S15">
         <v>13</v>
       </c>
-      <c r="T15" t="s">
-        <v>38</v>
+      <c r="T15">
+        <v>13</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="V15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>100.7</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
         <v>100.7</v>
       </c>
-      <c r="Z15" t="s">
-        <v>61</v>
+      <c r="AB15" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1818,29 +1914,35 @@
       <c r="S16">
         <v>14</v>
       </c>
-      <c r="T16" t="s">
-        <v>39</v>
+      <c r="T16">
+        <v>14</v>
       </c>
       <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="V16" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>64.40000000000001</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>64.40000000000001</v>
       </c>
-      <c r="Z16" t="s">
-        <v>61</v>
+      <c r="AB16" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1898,29 +2000,35 @@
       <c r="S17">
         <v>15</v>
       </c>
-      <c r="T17" t="s">
-        <v>40</v>
+      <c r="T17">
+        <v>15</v>
       </c>
       <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="V17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>36.4</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>36.4</v>
       </c>
-      <c r="Z17" t="s">
-        <v>61</v>
+      <c r="AB17" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1978,29 +2086,35 @@
       <c r="S18">
         <v>16</v>
       </c>
-      <c r="T18" t="s">
-        <v>41</v>
+      <c r="T18">
+        <v>16</v>
       </c>
       <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18">
         <v>3.7</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>3.7</v>
       </c>
-      <c r="Z18" t="s">
-        <v>61</v>
+      <c r="AB18" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2058,14 +2172,14 @@
       <c r="S19">
         <v>17</v>
       </c>
-      <c r="T19" t="s">
-        <v>42</v>
+      <c r="T19">
+        <v>17</v>
       </c>
       <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="V19" t="s">
+        <v>44</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2076,11 +2190,17 @@
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19" t="s">
-        <v>61</v>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2138,14 +2258,14 @@
       <c r="S20">
         <v>18</v>
       </c>
-      <c r="T20" t="s">
-        <v>43</v>
+      <c r="T20">
+        <v>18</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="V20" t="s">
+        <v>45</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2156,11 +2276,17 @@
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20" t="s">
-        <v>61</v>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2218,14 +2344,14 @@
       <c r="S21">
         <v>19</v>
       </c>
-      <c r="T21" t="s">
-        <v>44</v>
+      <c r="T21">
+        <v>19</v>
       </c>
       <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2233,11 +2359,17 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Z21" t="s">
-        <v>61</v>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2295,14 +2427,14 @@
       <c r="S22">
         <v>20</v>
       </c>
-      <c r="T22" t="s">
-        <v>45</v>
+      <c r="T22">
+        <v>20</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="V22" t="s">
+        <v>47</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -2310,11 +2442,17 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Z22" t="s">
-        <v>62</v>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2372,29 +2510,35 @@
       <c r="S23">
         <v>21</v>
       </c>
-      <c r="T23" t="s">
-        <v>46</v>
+      <c r="T23">
+        <v>21</v>
       </c>
       <c r="U23">
+        <v>21</v>
+      </c>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23">
         <v>36.85</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>550.9</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>65.16</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <v>652.91</v>
       </c>
-      <c r="Z23" t="s">
-        <v>62</v>
+      <c r="AB23" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2452,29 +2596,35 @@
       <c r="S24">
         <v>22</v>
       </c>
-      <c r="T24" t="s">
-        <v>47</v>
+      <c r="T24">
+        <v>22</v>
       </c>
       <c r="U24">
+        <v>22</v>
+      </c>
+      <c r="V24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W24">
         <v>555.2500000000001</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
         <v>555.2500000000001</v>
       </c>
-      <c r="Z24" t="s">
-        <v>62</v>
+      <c r="AB24" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2532,29 +2682,35 @@
       <c r="S25">
         <v>23</v>
       </c>
-      <c r="T25" t="s">
-        <v>48</v>
+      <c r="T25">
+        <v>23</v>
       </c>
       <c r="U25">
+        <v>23</v>
+      </c>
+      <c r="V25" t="s">
+        <v>50</v>
+      </c>
+      <c r="W25">
         <v>10</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>60</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>90</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>160</v>
       </c>
-      <c r="Z25" t="s">
-        <v>62</v>
+      <c r="AB25" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2612,29 +2768,35 @@
       <c r="S26">
         <v>24</v>
       </c>
-      <c r="T26" t="s">
-        <v>49</v>
+      <c r="T26">
+        <v>24</v>
       </c>
       <c r="U26">
+        <v>24</v>
+      </c>
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26">
         <v>24.05</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>79</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>103.05</v>
       </c>
-      <c r="Z26" t="s">
-        <v>62</v>
+      <c r="AB26" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2692,29 +2854,35 @@
       <c r="S27">
         <v>25</v>
       </c>
-      <c r="T27" t="s">
-        <v>50</v>
+      <c r="T27">
+        <v>25</v>
       </c>
       <c r="U27">
+        <v>25</v>
+      </c>
+      <c r="V27" t="s">
+        <v>52</v>
+      </c>
+      <c r="W27">
         <v>12.5</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>32</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>44.5</v>
       </c>
-      <c r="Z27" t="s">
-        <v>62</v>
+      <c r="AB27" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2772,29 +2940,35 @@
       <c r="S28">
         <v>26</v>
       </c>
-      <c r="T28" t="s">
-        <v>51</v>
+      <c r="T28">
+        <v>26</v>
       </c>
       <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="V28" t="s">
+        <v>53</v>
       </c>
       <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>1.78</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>40</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>41.78</v>
       </c>
-      <c r="Z28" t="s">
-        <v>62</v>
+      <c r="AB28" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2852,14 +3026,14 @@
       <c r="S29">
         <v>27</v>
       </c>
-      <c r="T29" t="s">
-        <v>52</v>
+      <c r="T29">
+        <v>27</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="V29" t="s">
+        <v>54</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -2870,11 +3044,17 @@
       <c r="Y29">
         <v>0</v>
       </c>
-      <c r="Z29" t="s">
-        <v>62</v>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2932,14 +3112,14 @@
       <c r="S30">
         <v>28</v>
       </c>
-      <c r="T30" t="s">
-        <v>53</v>
+      <c r="T30">
+        <v>28</v>
       </c>
       <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="V30" t="s">
+        <v>55</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -2950,11 +3130,17 @@
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Z30" t="s">
-        <v>62</v>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3012,14 +3198,14 @@
       <c r="S31">
         <v>29</v>
       </c>
-      <c r="T31" t="s">
-        <v>54</v>
+      <c r="T31">
+        <v>29</v>
       </c>
       <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="V31" t="s">
+        <v>56</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3030,11 +3216,17 @@
       <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Z31" t="s">
-        <v>62</v>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3092,14 +3284,14 @@
       <c r="S32">
         <v>30</v>
       </c>
-      <c r="T32" t="s">
-        <v>55</v>
+      <c r="T32">
+        <v>30</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="V32" t="s">
+        <v>57</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3110,11 +3302,17 @@
       <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Z32" t="s">
-        <v>62</v>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3172,14 +3370,14 @@
       <c r="S33">
         <v>31</v>
       </c>
-      <c r="T33" t="s">
-        <v>56</v>
+      <c r="T33">
+        <v>31</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="V33" t="s">
+        <v>58</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3187,11 +3385,17 @@
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Z33" t="s">
-        <v>62</v>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3249,14 +3453,14 @@
       <c r="S34">
         <v>32</v>
       </c>
-      <c r="T34" t="s">
-        <v>57</v>
+      <c r="T34">
+        <v>32</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="V34" t="s">
+        <v>59</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3264,11 +3468,17 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Z34" t="s">
-        <v>62</v>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3326,14 +3536,14 @@
       <c r="S35">
         <v>33</v>
       </c>
-      <c r="T35" t="s">
-        <v>58</v>
+      <c r="T35">
+        <v>33</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="V35" t="s">
+        <v>60</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3341,11 +3551,17 @@
       <c r="X35">
         <v>0</v>
       </c>
-      <c r="Z35" t="s">
-        <v>62</v>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3403,11 +3619,17 @@
       <c r="S36">
         <v>34</v>
       </c>
-      <c r="T36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>60</v>
+      <c r="T36">
+        <v>34</v>
+      </c>
+      <c r="U36">
+        <v>34</v>
+      </c>
+      <c r="V36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -566,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,8 +657,11 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -719,29 +725,32 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2">
         <v>44.3</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1253.5</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>152.92</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>1450.72</v>
       </c>
-      <c r="AB2" t="s">
-        <v>62</v>
+      <c r="AC2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -805,29 +814,32 @@
       <c r="U3">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3">
         <v>223.8</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>49.96</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>273.76</v>
       </c>
-      <c r="AB3" t="s">
-        <v>62</v>
+      <c r="AC3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -891,29 +903,32 @@
       <c r="U4">
         <v>2</v>
       </c>
-      <c r="V4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4">
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4">
         <v>92.5</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>108</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>45</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>245.5</v>
       </c>
-      <c r="AB4" t="s">
-        <v>62</v>
+      <c r="AC4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -977,15 +992,15 @@
       <c r="U5">
         <v>3</v>
       </c>
-      <c r="V5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5">
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5">
         <v>93.54999999999998</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
@@ -993,13 +1008,16 @@
         <v>0</v>
       </c>
       <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AB5" t="s">
-        <v>62</v>
+      <c r="AC5" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1063,29 +1081,32 @@
       <c r="U6">
         <v>4</v>
       </c>
-      <c r="V6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6">
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6">
         <v>20</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>45</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>65</v>
       </c>
-      <c r="AB6" t="s">
-        <v>62</v>
+      <c r="AC6" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1149,11 +1170,11 @@
       <c r="U7">
         <v>5</v>
       </c>
-      <c r="V7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1162,16 +1183,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>10</v>
       </c>
-      <c r="AB7" t="s">
-        <v>62</v>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1235,15 +1259,15 @@
       <c r="U8">
         <v>6</v>
       </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8">
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8">
         <v>9.9</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>0</v>
       </c>
@@ -1251,13 +1275,16 @@
         <v>0</v>
       </c>
       <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>9.9</v>
       </c>
-      <c r="AB8" t="s">
-        <v>62</v>
+      <c r="AC8" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1321,11 +1348,11 @@
       <c r="U9">
         <v>7</v>
       </c>
-      <c r="V9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9" t="s">
+        <v>35</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1339,11 +1366,14 @@
       <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AB9" t="s">
-        <v>62</v>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1407,11 +1437,11 @@
       <c r="U10">
         <v>8</v>
       </c>
-      <c r="V10" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>36</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1425,11 +1455,14 @@
       <c r="AA10">
         <v>0</v>
       </c>
-      <c r="AB10" t="s">
-        <v>62</v>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1493,11 +1526,11 @@
       <c r="U11">
         <v>9</v>
       </c>
-      <c r="V11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>37</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1508,11 +1541,14 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AB11" t="s">
-        <v>62</v>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1576,29 +1612,32 @@
       <c r="U12">
         <v>10</v>
       </c>
-      <c r="V12" t="s">
-        <v>37</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>38</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>1199.98</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>1199.98</v>
       </c>
-      <c r="AB12" t="s">
-        <v>63</v>
+      <c r="AC12" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1662,29 +1701,32 @@
       <c r="U13">
         <v>11</v>
       </c>
-      <c r="V13" t="s">
-        <v>38</v>
-      </c>
-      <c r="W13">
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13">
         <v>94.2</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>230.1</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>324.3</v>
       </c>
-      <c r="AB13" t="s">
-        <v>63</v>
+      <c r="AC13" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1748,29 +1790,32 @@
       <c r="U14">
         <v>12</v>
       </c>
-      <c r="V14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W14">
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14">
         <v>177.8</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>22.5</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>200.3</v>
       </c>
-      <c r="AB14" t="s">
-        <v>63</v>
+      <c r="AC14" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1834,29 +1879,32 @@
       <c r="U15">
         <v>13</v>
       </c>
-      <c r="V15" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="W15" t="s">
+        <v>41</v>
       </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>100.7</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>100.7</v>
       </c>
-      <c r="AB15" t="s">
-        <v>63</v>
+      <c r="AC15" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1920,29 +1968,32 @@
       <c r="U16">
         <v>14</v>
       </c>
-      <c r="V16" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16" t="s">
+        <v>42</v>
       </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>64.40000000000001</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AB16" t="s">
-        <v>63</v>
+      <c r="AC16" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2006,29 +2057,32 @@
       <c r="U17">
         <v>15</v>
       </c>
-      <c r="V17" t="s">
-        <v>42</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17" t="s">
+        <v>43</v>
       </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>36.4</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>36.4</v>
       </c>
-      <c r="AB17" t="s">
-        <v>63</v>
+      <c r="AC17" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2092,15 +2146,15 @@
       <c r="U18">
         <v>16</v>
       </c>
-      <c r="V18" t="s">
-        <v>43</v>
-      </c>
-      <c r="W18">
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18" t="s">
+        <v>44</v>
+      </c>
+      <c r="X18">
         <v>3.7</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
       <c r="Y18">
         <v>0</v>
       </c>
@@ -2108,13 +2162,16 @@
         <v>0</v>
       </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>3.7</v>
       </c>
-      <c r="AB18" t="s">
-        <v>63</v>
+      <c r="AC18" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2178,11 +2235,11 @@
       <c r="U19">
         <v>17</v>
       </c>
-      <c r="V19" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19" t="s">
+        <v>45</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2196,11 +2253,14 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19" t="s">
-        <v>63</v>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2264,11 +2324,11 @@
       <c r="U20">
         <v>18</v>
       </c>
-      <c r="V20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>46</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -2282,11 +2342,14 @@
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" t="s">
-        <v>63</v>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2350,11 +2413,11 @@
       <c r="U21">
         <v>19</v>
       </c>
-      <c r="V21" t="s">
-        <v>46</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21" t="s">
+        <v>47</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -2365,11 +2428,14 @@
       <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
-        <v>63</v>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2433,11 +2499,11 @@
       <c r="U22">
         <v>20</v>
       </c>
-      <c r="V22" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22" t="s">
+        <v>48</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2448,11 +2514,14 @@
       <c r="Z22">
         <v>0</v>
       </c>
-      <c r="AB22" t="s">
-        <v>64</v>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2516,29 +2585,32 @@
       <c r="U23">
         <v>21</v>
       </c>
-      <c r="V23" t="s">
-        <v>48</v>
-      </c>
-      <c r="W23">
+      <c r="V23">
+        <v>21</v>
+      </c>
+      <c r="W23" t="s">
+        <v>49</v>
+      </c>
+      <c r="X23">
         <v>36.85</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>550.9</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>65.16</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>652.91</v>
       </c>
-      <c r="AB23" t="s">
-        <v>64</v>
+      <c r="AC23" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2602,15 +2674,15 @@
       <c r="U24">
         <v>22</v>
       </c>
-      <c r="V24" t="s">
-        <v>49</v>
-      </c>
-      <c r="W24">
+      <c r="V24">
+        <v>22</v>
+      </c>
+      <c r="W24" t="s">
+        <v>50</v>
+      </c>
+      <c r="X24">
         <v>555.2500000000001</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24">
         <v>0</v>
       </c>
@@ -2618,13 +2690,16 @@
         <v>0</v>
       </c>
       <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AB24" t="s">
-        <v>64</v>
+      <c r="AC24" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2688,29 +2763,32 @@
       <c r="U25">
         <v>23</v>
       </c>
-      <c r="V25" t="s">
-        <v>50</v>
-      </c>
-      <c r="W25">
+      <c r="V25">
+        <v>23</v>
+      </c>
+      <c r="W25" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25">
         <v>10</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>60</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
       <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <v>90</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>160</v>
       </c>
-      <c r="AB25" t="s">
-        <v>64</v>
+      <c r="AC25" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2774,29 +2852,32 @@
       <c r="U26">
         <v>24</v>
       </c>
-      <c r="V26" t="s">
-        <v>51</v>
-      </c>
-      <c r="W26">
+      <c r="V26">
+        <v>24</v>
+      </c>
+      <c r="W26" t="s">
+        <v>52</v>
+      </c>
+      <c r="X26">
         <v>24.05</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>79</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <v>103.05</v>
       </c>
-      <c r="AB26" t="s">
-        <v>64</v>
+      <c r="AC26" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2860,29 +2941,32 @@
       <c r="U27">
         <v>25</v>
       </c>
-      <c r="V27" t="s">
-        <v>52</v>
-      </c>
-      <c r="W27">
+      <c r="V27">
+        <v>25</v>
+      </c>
+      <c r="W27" t="s">
+        <v>53</v>
+      </c>
+      <c r="X27">
         <v>12.5</v>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
         <v>32</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>44.5</v>
       </c>
-      <c r="AB27" t="s">
-        <v>64</v>
+      <c r="AC27" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2946,29 +3030,32 @@
       <c r="U28">
         <v>26</v>
       </c>
-      <c r="V28" t="s">
-        <v>53</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28" t="s">
+        <v>54</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>1.78</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>40</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>41.78</v>
       </c>
-      <c r="AB28" t="s">
-        <v>64</v>
+      <c r="AC28" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3032,11 +3119,11 @@
       <c r="U29">
         <v>27</v>
       </c>
-      <c r="V29" t="s">
-        <v>54</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29" t="s">
+        <v>55</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3050,11 +3137,14 @@
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AB29" t="s">
-        <v>64</v>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:29">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3118,11 +3208,11 @@
       <c r="U30">
         <v>28</v>
       </c>
-      <c r="V30" t="s">
-        <v>55</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
+      <c r="V30">
+        <v>28</v>
+      </c>
+      <c r="W30" t="s">
+        <v>56</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3136,11 +3226,14 @@
       <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AB30" t="s">
-        <v>64</v>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:29">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3204,11 +3297,11 @@
       <c r="U31">
         <v>29</v>
       </c>
-      <c r="V31" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
+      <c r="V31">
+        <v>29</v>
+      </c>
+      <c r="W31" t="s">
+        <v>57</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -3222,11 +3315,14 @@
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AB31" t="s">
-        <v>64</v>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:29">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3290,11 +3386,11 @@
       <c r="U32">
         <v>30</v>
       </c>
-      <c r="V32" t="s">
-        <v>57</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
+      <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32" t="s">
+        <v>58</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3308,11 +3404,14 @@
       <c r="AA32">
         <v>0</v>
       </c>
-      <c r="AB32" t="s">
-        <v>64</v>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:29">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3376,11 +3475,11 @@
       <c r="U33">
         <v>31</v>
       </c>
-      <c r="V33" t="s">
-        <v>58</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
+      <c r="V33">
+        <v>31</v>
+      </c>
+      <c r="W33" t="s">
+        <v>59</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3391,11 +3490,14 @@
       <c r="Z33">
         <v>0</v>
       </c>
-      <c r="AB33" t="s">
-        <v>64</v>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:29">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3459,11 +3561,11 @@
       <c r="U34">
         <v>32</v>
       </c>
-      <c r="V34" t="s">
-        <v>59</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
+      <c r="V34">
+        <v>32</v>
+      </c>
+      <c r="W34" t="s">
+        <v>60</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3474,11 +3576,14 @@
       <c r="Z34">
         <v>0</v>
       </c>
-      <c r="AB34" t="s">
-        <v>64</v>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:29">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3542,11 +3647,11 @@
       <c r="U35">
         <v>33</v>
       </c>
-      <c r="V35" t="s">
-        <v>60</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
+      <c r="V35">
+        <v>33</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3557,11 +3662,14 @@
       <c r="Z35">
         <v>0</v>
       </c>
-      <c r="AB35" t="s">
-        <v>64</v>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:29">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3625,11 +3733,14 @@
       <c r="U36">
         <v>34</v>
       </c>
-      <c r="V36" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB36" t="s">
+      <c r="V36">
+        <v>34</v>
+      </c>
+      <c r="W36" t="s">
         <v>62</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -569,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +663,11 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -728,29 +734,32 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2">
         <v>44.3</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1253.5</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>152.92</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>1450.72</v>
       </c>
-      <c r="AC2" t="s">
-        <v>63</v>
+      <c r="AD2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -817,29 +826,32 @@
       <c r="V3">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3">
         <v>223.8</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>49.96</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
       <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>273.76</v>
       </c>
-      <c r="AC3" t="s">
-        <v>63</v>
+      <c r="AD3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -906,29 +918,32 @@
       <c r="V4">
         <v>2</v>
       </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4">
         <v>92.5</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>108</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>45</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>245.5</v>
       </c>
-      <c r="AC4" t="s">
-        <v>63</v>
+      <c r="AD4" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -995,15 +1010,15 @@
       <c r="V5">
         <v>3</v>
       </c>
-      <c r="W5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5">
         <v>93.54999999999998</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
         <v>0</v>
       </c>
@@ -1011,13 +1026,16 @@
         <v>0</v>
       </c>
       <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AC5" t="s">
-        <v>63</v>
+      <c r="AD5" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1084,29 +1102,32 @@
       <c r="V6">
         <v>4</v>
       </c>
-      <c r="W6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6">
         <v>20</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>45</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>65</v>
       </c>
-      <c r="AC6" t="s">
-        <v>63</v>
+      <c r="AD6" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1173,11 +1194,11 @@
       <c r="V7">
         <v>5</v>
       </c>
-      <c r="W7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>34</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1186,16 +1207,19 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>10</v>
       </c>
-      <c r="AC7" t="s">
-        <v>63</v>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1262,15 +1286,15 @@
       <c r="V8">
         <v>6</v>
       </c>
-      <c r="W8" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8">
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8">
         <v>9.9</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
         <v>0</v>
       </c>
@@ -1278,13 +1302,16 @@
         <v>0</v>
       </c>
       <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>9.9</v>
       </c>
-      <c r="AC8" t="s">
-        <v>63</v>
+      <c r="AD8" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1351,11 +1378,11 @@
       <c r="V9">
         <v>7</v>
       </c>
-      <c r="W9" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9" t="s">
+        <v>36</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1369,11 +1396,14 @@
       <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AC9" t="s">
-        <v>63</v>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1440,11 +1470,11 @@
       <c r="V10">
         <v>8</v>
       </c>
-      <c r="W10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10" t="s">
+        <v>37</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1458,11 +1488,14 @@
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10" t="s">
-        <v>63</v>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1529,11 +1562,11 @@
       <c r="V11">
         <v>9</v>
       </c>
-      <c r="W11" t="s">
-        <v>37</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11" t="s">
+        <v>38</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1544,11 +1577,14 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AC11" t="s">
-        <v>63</v>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1615,29 +1651,32 @@
       <c r="V12">
         <v>10</v>
       </c>
-      <c r="W12" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>39</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <v>1199.98</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>1199.98</v>
       </c>
-      <c r="AC12" t="s">
-        <v>64</v>
+      <c r="AD12" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1704,29 +1743,32 @@
       <c r="V13">
         <v>11</v>
       </c>
-      <c r="W13" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13">
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13">
         <v>94.2</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>230.1</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>324.3</v>
       </c>
-      <c r="AC13" t="s">
-        <v>64</v>
+      <c r="AD13" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1793,29 +1835,32 @@
       <c r="V14">
         <v>12</v>
       </c>
-      <c r="W14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X14">
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14">
         <v>177.8</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>22.5</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>200.3</v>
       </c>
-      <c r="AC14" t="s">
-        <v>64</v>
+      <c r="AD14" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1882,29 +1927,32 @@
       <c r="V15">
         <v>13</v>
       </c>
-      <c r="W15" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15" t="s">
+        <v>42</v>
       </c>
       <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>100.7</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>100.7</v>
       </c>
-      <c r="AC15" t="s">
-        <v>64</v>
+      <c r="AD15" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1971,29 +2019,32 @@
       <c r="V16">
         <v>14</v>
       </c>
-      <c r="W16" t="s">
-        <v>42</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
+      <c r="W16">
+        <v>14</v>
+      </c>
+      <c r="X16" t="s">
+        <v>43</v>
       </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>64.40000000000001</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AC16" t="s">
-        <v>64</v>
+      <c r="AD16" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2060,29 +2111,32 @@
       <c r="V17">
         <v>15</v>
       </c>
-      <c r="W17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
+      <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
       </c>
       <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>36.4</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
         <v>36.4</v>
       </c>
-      <c r="AC17" t="s">
-        <v>64</v>
+      <c r="AD17" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2149,15 +2203,15 @@
       <c r="V18">
         <v>16</v>
       </c>
-      <c r="W18" t="s">
-        <v>44</v>
-      </c>
-      <c r="X18">
+      <c r="W18">
+        <v>16</v>
+      </c>
+      <c r="X18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18">
         <v>3.7</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
       <c r="Z18">
         <v>0</v>
       </c>
@@ -2165,13 +2219,16 @@
         <v>0</v>
       </c>
       <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
         <v>3.7</v>
       </c>
-      <c r="AC18" t="s">
-        <v>64</v>
+      <c r="AD18" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2238,11 +2295,11 @@
       <c r="V19">
         <v>17</v>
       </c>
-      <c r="W19" t="s">
-        <v>45</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
+      <c r="W19">
+        <v>17</v>
+      </c>
+      <c r="X19" t="s">
+        <v>46</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2256,11 +2313,14 @@
       <c r="AB19">
         <v>0</v>
       </c>
-      <c r="AC19" t="s">
-        <v>64</v>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2327,11 +2387,11 @@
       <c r="V20">
         <v>18</v>
       </c>
-      <c r="W20" t="s">
-        <v>46</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+      <c r="W20">
+        <v>18</v>
+      </c>
+      <c r="X20" t="s">
+        <v>47</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2345,11 +2405,14 @@
       <c r="AB20">
         <v>0</v>
       </c>
-      <c r="AC20" t="s">
-        <v>64</v>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2416,11 +2479,11 @@
       <c r="V21">
         <v>19</v>
       </c>
-      <c r="W21" t="s">
-        <v>47</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
+      <c r="W21">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s">
+        <v>48</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2431,11 +2494,14 @@
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AC21" t="s">
-        <v>64</v>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2502,11 +2568,11 @@
       <c r="V22">
         <v>20</v>
       </c>
-      <c r="W22" t="s">
-        <v>48</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22" t="s">
+        <v>49</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2517,11 +2583,14 @@
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AC22" t="s">
-        <v>65</v>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2588,29 +2657,32 @@
       <c r="V23">
         <v>21</v>
       </c>
-      <c r="W23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X23">
+      <c r="W23">
+        <v>21</v>
+      </c>
+      <c r="X23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y23">
         <v>36.85</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>550.9</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>65.16</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>652.91</v>
       </c>
-      <c r="AC23" t="s">
-        <v>65</v>
+      <c r="AD23" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2677,15 +2749,15 @@
       <c r="V24">
         <v>22</v>
       </c>
-      <c r="W24" t="s">
-        <v>50</v>
-      </c>
-      <c r="X24">
+      <c r="W24">
+        <v>22</v>
+      </c>
+      <c r="X24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24">
         <v>555.2500000000001</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -2693,13 +2765,16 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AC24" t="s">
-        <v>65</v>
+      <c r="AD24" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2766,29 +2841,32 @@
       <c r="V25">
         <v>23</v>
       </c>
-      <c r="W25" t="s">
-        <v>51</v>
-      </c>
-      <c r="X25">
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25">
         <v>10</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>60</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
       <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <v>90</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>160</v>
       </c>
-      <c r="AC25" t="s">
-        <v>65</v>
+      <c r="AD25" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2855,29 +2933,32 @@
       <c r="V26">
         <v>24</v>
       </c>
-      <c r="W26" t="s">
-        <v>52</v>
-      </c>
-      <c r="X26">
+      <c r="W26">
+        <v>24</v>
+      </c>
+      <c r="X26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y26">
         <v>24.05</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>79</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
       <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>103.05</v>
       </c>
-      <c r="AC26" t="s">
-        <v>65</v>
+      <c r="AD26" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2944,29 +3025,32 @@
       <c r="V27">
         <v>25</v>
       </c>
-      <c r="W27" t="s">
-        <v>53</v>
-      </c>
-      <c r="X27">
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y27">
         <v>12.5</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <v>32</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>44.5</v>
       </c>
-      <c r="AC27" t="s">
-        <v>65</v>
+      <c r="AD27" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3033,29 +3117,32 @@
       <c r="V28">
         <v>26</v>
       </c>
-      <c r="W28" t="s">
-        <v>54</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
+      <c r="W28">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
+        <v>55</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
         <v>1.78</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>40</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>41.78</v>
       </c>
-      <c r="AC28" t="s">
-        <v>65</v>
+      <c r="AD28" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3122,11 +3209,11 @@
       <c r="V29">
         <v>27</v>
       </c>
-      <c r="W29" t="s">
-        <v>55</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
+      <c r="W29">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>56</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3140,11 +3227,14 @@
       <c r="AB29">
         <v>0</v>
       </c>
-      <c r="AC29" t="s">
-        <v>65</v>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3211,11 +3301,11 @@
       <c r="V30">
         <v>28</v>
       </c>
-      <c r="W30" t="s">
-        <v>56</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
+      <c r="W30">
+        <v>28</v>
+      </c>
+      <c r="X30" t="s">
+        <v>57</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3229,11 +3319,14 @@
       <c r="AB30">
         <v>0</v>
       </c>
-      <c r="AC30" t="s">
-        <v>65</v>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3300,11 +3393,11 @@
       <c r="V31">
         <v>29</v>
       </c>
-      <c r="W31" t="s">
-        <v>57</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
+      <c r="W31">
+        <v>29</v>
+      </c>
+      <c r="X31" t="s">
+        <v>58</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3318,11 +3411,14 @@
       <c r="AB31">
         <v>0</v>
       </c>
-      <c r="AC31" t="s">
-        <v>65</v>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3389,11 +3485,11 @@
       <c r="V32">
         <v>30</v>
       </c>
-      <c r="W32" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
+      <c r="W32">
+        <v>30</v>
+      </c>
+      <c r="X32" t="s">
+        <v>59</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3407,11 +3503,14 @@
       <c r="AB32">
         <v>0</v>
       </c>
-      <c r="AC32" t="s">
-        <v>65</v>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3478,11 +3577,11 @@
       <c r="V33">
         <v>31</v>
       </c>
-      <c r="W33" t="s">
-        <v>59</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
+      <c r="W33">
+        <v>31</v>
+      </c>
+      <c r="X33" t="s">
+        <v>60</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3493,11 +3592,14 @@
       <c r="AA33">
         <v>0</v>
       </c>
-      <c r="AC33" t="s">
-        <v>65</v>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3564,11 +3666,11 @@
       <c r="V34">
         <v>32</v>
       </c>
-      <c r="W34" t="s">
-        <v>60</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+      <c r="W34">
+        <v>32</v>
+      </c>
+      <c r="X34" t="s">
+        <v>61</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3579,11 +3681,14 @@
       <c r="AA34">
         <v>0</v>
       </c>
-      <c r="AC34" t="s">
-        <v>65</v>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3650,11 +3755,11 @@
       <c r="V35">
         <v>33</v>
       </c>
-      <c r="W35" t="s">
-        <v>61</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
+      <c r="W35">
+        <v>33</v>
+      </c>
+      <c r="X35" t="s">
+        <v>62</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3665,11 +3770,14 @@
       <c r="AA35">
         <v>0</v>
       </c>
-      <c r="AC35" t="s">
-        <v>65</v>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3736,11 +3844,14 @@
       <c r="V36">
         <v>34</v>
       </c>
-      <c r="W36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC36" t="s">
+      <c r="W36">
+        <v>34</v>
+      </c>
+      <c r="X36" t="s">
         <v>63</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -572,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +669,11 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -737,29 +743,32 @@
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2">
         <v>44.3</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1253.5</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>152.92</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>1450.72</v>
       </c>
-      <c r="AD2" t="s">
-        <v>64</v>
+      <c r="AE2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -829,29 +838,32 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3">
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3">
         <v>223.8</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>49.96</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>273.76</v>
       </c>
-      <c r="AD3" t="s">
-        <v>64</v>
+      <c r="AE3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -921,29 +933,32 @@
       <c r="W4">
         <v>2</v>
       </c>
-      <c r="X4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4">
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4">
         <v>92.5</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>108</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
       <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>45</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>245.5</v>
       </c>
-      <c r="AD4" t="s">
-        <v>64</v>
+      <c r="AE4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1013,15 +1028,15 @@
       <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5">
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5">
         <v>93.54999999999998</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
       <c r="AA5">
         <v>0</v>
       </c>
@@ -1029,13 +1044,16 @@
         <v>0</v>
       </c>
       <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AD5" t="s">
-        <v>64</v>
+      <c r="AE5" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1105,29 +1123,32 @@
       <c r="W6">
         <v>4</v>
       </c>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6">
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6">
         <v>20</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>45</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>65</v>
       </c>
-      <c r="AD6" t="s">
-        <v>64</v>
+      <c r="AE6" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1197,11 +1218,11 @@
       <c r="W7">
         <v>5</v>
       </c>
-      <c r="X7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1210,16 +1231,19 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>10</v>
       </c>
-      <c r="AD7" t="s">
-        <v>64</v>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1289,15 +1313,15 @@
       <c r="W8">
         <v>6</v>
       </c>
-      <c r="X8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8">
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8">
         <v>9.9</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
       <c r="AA8">
         <v>0</v>
       </c>
@@ -1305,13 +1329,16 @@
         <v>0</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>9.9</v>
       </c>
-      <c r="AD8" t="s">
-        <v>64</v>
+      <c r="AE8" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1381,11 +1408,11 @@
       <c r="W9">
         <v>7</v>
       </c>
-      <c r="X9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>37</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1399,11 +1426,14 @@
       <c r="AC9">
         <v>0</v>
       </c>
-      <c r="AD9" t="s">
-        <v>64</v>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1473,11 +1503,11 @@
       <c r="W10">
         <v>8</v>
       </c>
-      <c r="X10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>38</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1491,11 +1521,14 @@
       <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AD10" t="s">
-        <v>64</v>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1565,11 +1598,11 @@
       <c r="W11">
         <v>9</v>
       </c>
-      <c r="X11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1580,11 +1613,14 @@
       <c r="AB11">
         <v>0</v>
       </c>
-      <c r="AD11" t="s">
-        <v>64</v>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1654,29 +1690,32 @@
       <c r="W12">
         <v>10</v>
       </c>
-      <c r="X12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>40</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>1199.98</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>1199.98</v>
       </c>
-      <c r="AD12" t="s">
-        <v>65</v>
+      <c r="AE12" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1746,29 +1785,32 @@
       <c r="W13">
         <v>11</v>
       </c>
-      <c r="X13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13">
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13">
         <v>94.2</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>230.1</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
       <c r="AB13">
         <v>0</v>
       </c>
       <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <v>324.3</v>
       </c>
-      <c r="AD13" t="s">
-        <v>65</v>
+      <c r="AE13" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1838,29 +1880,32 @@
       <c r="W14">
         <v>12</v>
       </c>
-      <c r="X14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14">
+      <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14">
         <v>177.8</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>22.5</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>200.3</v>
       </c>
-      <c r="AD14" t="s">
-        <v>65</v>
+      <c r="AE14" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1930,29 +1975,32 @@
       <c r="W15">
         <v>13</v>
       </c>
-      <c r="X15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
+      <c r="X15">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>43</v>
       </c>
       <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
         <v>100.7</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>0</v>
       </c>
       <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>100.7</v>
       </c>
-      <c r="AD15" t="s">
-        <v>65</v>
+      <c r="AE15" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2022,29 +2070,32 @@
       <c r="W16">
         <v>14</v>
       </c>
-      <c r="X16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
+      <c r="X16">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>44</v>
       </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AD16" t="s">
-        <v>65</v>
+      <c r="AE16" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2114,29 +2165,32 @@
       <c r="W17">
         <v>15</v>
       </c>
-      <c r="X17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
+      <c r="X17">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>45</v>
       </c>
       <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>36.4</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>0</v>
       </c>
       <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>36.4</v>
       </c>
-      <c r="AD17" t="s">
-        <v>65</v>
+      <c r="AE17" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2206,15 +2260,15 @@
       <c r="W18">
         <v>16</v>
       </c>
-      <c r="X18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y18">
+      <c r="X18">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18">
         <v>3.7</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
       <c r="AA18">
         <v>0</v>
       </c>
@@ -2222,13 +2276,16 @@
         <v>0</v>
       </c>
       <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>3.7</v>
       </c>
-      <c r="AD18" t="s">
-        <v>65</v>
+      <c r="AE18" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2298,11 +2355,11 @@
       <c r="W19">
         <v>17</v>
       </c>
-      <c r="X19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
+      <c r="X19">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>47</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2316,11 +2373,14 @@
       <c r="AC19">
         <v>0</v>
       </c>
-      <c r="AD19" t="s">
-        <v>65</v>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2390,11 +2450,11 @@
       <c r="W20">
         <v>18</v>
       </c>
-      <c r="X20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
+      <c r="X20">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>48</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2408,11 +2468,14 @@
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AD20" t="s">
-        <v>65</v>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2482,11 +2545,11 @@
       <c r="W21">
         <v>19</v>
       </c>
-      <c r="X21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
+      <c r="X21">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>49</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2497,11 +2560,14 @@
       <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AD21" t="s">
-        <v>65</v>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2571,11 +2637,11 @@
       <c r="W22">
         <v>20</v>
       </c>
-      <c r="X22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
+      <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>50</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2586,11 +2652,14 @@
       <c r="AB22">
         <v>0</v>
       </c>
-      <c r="AD22" t="s">
-        <v>66</v>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2660,29 +2729,32 @@
       <c r="W23">
         <v>21</v>
       </c>
-      <c r="X23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y23">
+      <c r="X23">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z23">
         <v>36.85</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>550.9</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>65.16</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>652.91</v>
       </c>
-      <c r="AD23" t="s">
-        <v>66</v>
+      <c r="AE23" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2752,15 +2824,15 @@
       <c r="W24">
         <v>22</v>
       </c>
-      <c r="X24" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y24">
+      <c r="X24">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z24">
         <v>555.2500000000001</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
       <c r="AA24">
         <v>0</v>
       </c>
@@ -2768,13 +2840,16 @@
         <v>0</v>
       </c>
       <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AD24" t="s">
-        <v>66</v>
+      <c r="AE24" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2844,29 +2919,32 @@
       <c r="W25">
         <v>23</v>
       </c>
-      <c r="X25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y25">
+      <c r="X25">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z25">
         <v>10</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>60</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>90</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>160</v>
       </c>
-      <c r="AD25" t="s">
-        <v>66</v>
+      <c r="AE25" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2936,29 +3014,32 @@
       <c r="W26">
         <v>24</v>
       </c>
-      <c r="X26" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y26">
+      <c r="X26">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z26">
         <v>24.05</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <v>79</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>103.05</v>
       </c>
-      <c r="AD26" t="s">
-        <v>66</v>
+      <c r="AE26" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3028,29 +3109,32 @@
       <c r="W27">
         <v>25</v>
       </c>
-      <c r="X27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y27">
+      <c r="X27">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z27">
         <v>12.5</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <v>32</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>44.5</v>
       </c>
-      <c r="AD27" t="s">
-        <v>66</v>
+      <c r="AE27" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3120,29 +3204,32 @@
       <c r="W28">
         <v>26</v>
       </c>
-      <c r="X28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
+      <c r="X28">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>56</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <v>1.78</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>40</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>41.78</v>
       </c>
-      <c r="AD28" t="s">
-        <v>66</v>
+      <c r="AE28" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3212,11 +3299,11 @@
       <c r="W29">
         <v>27</v>
       </c>
-      <c r="X29" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
+      <c r="X29">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>57</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3230,11 +3317,14 @@
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29" t="s">
-        <v>66</v>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3304,11 +3394,11 @@
       <c r="W30">
         <v>28</v>
       </c>
-      <c r="X30" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
+      <c r="X30">
+        <v>28</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>58</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3322,11 +3412,14 @@
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AD30" t="s">
-        <v>66</v>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3396,11 +3489,11 @@
       <c r="W31">
         <v>29</v>
       </c>
-      <c r="X31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
+      <c r="X31">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>59</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3414,11 +3507,14 @@
       <c r="AC31">
         <v>0</v>
       </c>
-      <c r="AD31" t="s">
-        <v>66</v>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3488,11 +3584,11 @@
       <c r="W32">
         <v>30</v>
       </c>
-      <c r="X32" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
+      <c r="X32">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>60</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3506,11 +3602,14 @@
       <c r="AC32">
         <v>0</v>
       </c>
-      <c r="AD32" t="s">
-        <v>66</v>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3580,11 +3679,11 @@
       <c r="W33">
         <v>31</v>
       </c>
-      <c r="X33" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
+      <c r="X33">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>61</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3595,11 +3694,14 @@
       <c r="AB33">
         <v>0</v>
       </c>
-      <c r="AD33" t="s">
-        <v>66</v>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3669,11 +3771,11 @@
       <c r="W34">
         <v>32</v>
       </c>
-      <c r="X34" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
+      <c r="X34">
+        <v>32</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>62</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3684,11 +3786,14 @@
       <c r="AB34">
         <v>0</v>
       </c>
-      <c r="AD34" t="s">
-        <v>66</v>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3758,11 +3863,11 @@
       <c r="W35">
         <v>33</v>
       </c>
-      <c r="X35" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
+      <c r="X35">
+        <v>33</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>63</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -3773,11 +3878,14 @@
       <c r="AB35">
         <v>0</v>
       </c>
-      <c r="AD35" t="s">
-        <v>66</v>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3847,11 +3955,14 @@
       <c r="W36">
         <v>34</v>
       </c>
-      <c r="X36" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD36" t="s">
+      <c r="X36">
+        <v>34</v>
+      </c>
+      <c r="Y36" t="s">
         <v>64</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -575,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +690,26 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -746,29 +782,47 @@
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" t="s">
-        <v>30</v>
+      <c r="Y2">
+        <v>0</v>
       </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2">
         <v>44.3</v>
       </c>
-      <c r="AA2">
+      <c r="AG2">
         <v>1253.5</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>152.92</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>1450.72</v>
       </c>
-      <c r="AE2" t="s">
-        <v>65</v>
+      <c r="AK2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -841,29 +895,47 @@
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3" t="s">
-        <v>31</v>
+      <c r="Y3">
+        <v>1</v>
       </c>
       <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3">
         <v>223.8</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>49.96</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>273.76</v>
       </c>
-      <c r="AE3" t="s">
-        <v>65</v>
+      <c r="AK3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -936,29 +1008,47 @@
       <c r="X4">
         <v>2</v>
       </c>
-      <c r="Y4" t="s">
-        <v>32</v>
+      <c r="Y4">
+        <v>2</v>
       </c>
       <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4">
         <v>92.5</v>
       </c>
-      <c r="AA4">
+      <c r="AG4">
         <v>108</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>45</v>
       </c>
-      <c r="AD4">
+      <c r="AJ4">
         <v>245.5</v>
       </c>
-      <c r="AE4" t="s">
-        <v>65</v>
+      <c r="AK4" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1031,29 +1121,47 @@
       <c r="X5">
         <v>3</v>
       </c>
-      <c r="Y5" t="s">
-        <v>33</v>
+      <c r="Y5">
+        <v>3</v>
       </c>
       <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AE5" t="s">
-        <v>65</v>
+      <c r="AK5" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1126,29 +1234,47 @@
       <c r="X6">
         <v>4</v>
       </c>
-      <c r="Y6" t="s">
-        <v>34</v>
+      <c r="Y6">
+        <v>4</v>
       </c>
       <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6">
         <v>20</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <v>45</v>
       </c>
-      <c r="AD6">
+      <c r="AJ6">
         <v>65</v>
       </c>
-      <c r="AE6" t="s">
-        <v>65</v>
+      <c r="AK6" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1221,29 +1347,47 @@
       <c r="X7">
         <v>5</v>
       </c>
-      <c r="Y7" t="s">
-        <v>35</v>
+      <c r="Y7">
+        <v>5</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>10</v>
       </c>
-      <c r="AD7">
+      <c r="AJ7">
         <v>10</v>
       </c>
-      <c r="AE7" t="s">
-        <v>65</v>
+      <c r="AK7" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1316,29 +1460,47 @@
       <c r="X8">
         <v>6</v>
       </c>
-      <c r="Y8" t="s">
-        <v>36</v>
+      <c r="Y8">
+        <v>6</v>
       </c>
       <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF8">
         <v>9.9</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>9.9</v>
       </c>
-      <c r="AE8" t="s">
-        <v>65</v>
+      <c r="AK8" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1411,29 +1573,47 @@
       <c r="X9">
         <v>7</v>
       </c>
-      <c r="Y9" t="s">
-        <v>37</v>
+      <c r="Y9">
+        <v>7</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1506,29 +1686,47 @@
       <c r="X10">
         <v>8</v>
       </c>
-      <c r="Y10" t="s">
-        <v>38</v>
+      <c r="Y10">
+        <v>8</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1601,26 +1799,44 @@
       <c r="X11">
         <v>9</v>
       </c>
-      <c r="Y11" t="s">
-        <v>39</v>
+      <c r="Y11">
+        <v>9</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
       </c>
       <c r="AE11" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1693,29 +1909,47 @@
       <c r="X12">
         <v>10</v>
       </c>
-      <c r="Y12" t="s">
-        <v>40</v>
+      <c r="Y12">
+        <v>10</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <v>1199.98</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1199.98</v>
       </c>
-      <c r="AE12" t="s">
-        <v>66</v>
+      <c r="AK12" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1788,29 +2022,47 @@
       <c r="X13">
         <v>11</v>
       </c>
-      <c r="Y13" t="s">
-        <v>41</v>
+      <c r="Y13">
+        <v>11</v>
       </c>
       <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>11</v>
+      </c>
+      <c r="AC13">
+        <v>11</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF13">
         <v>94.2</v>
       </c>
-      <c r="AA13">
+      <c r="AG13">
         <v>230.1</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>324.3</v>
       </c>
-      <c r="AE13" t="s">
-        <v>66</v>
+      <c r="AK13" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1883,29 +2135,47 @@
       <c r="X14">
         <v>12</v>
       </c>
-      <c r="Y14" t="s">
-        <v>42</v>
+      <c r="Y14">
+        <v>12</v>
       </c>
       <c r="Z14">
+        <v>12</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <v>12</v>
+      </c>
+      <c r="AC14">
+        <v>12</v>
+      </c>
+      <c r="AD14">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF14">
         <v>177.8</v>
       </c>
-      <c r="AA14">
+      <c r="AG14">
         <v>22.5</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>200.3</v>
       </c>
-      <c r="AE14" t="s">
-        <v>66</v>
+      <c r="AK14" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1978,29 +2248,47 @@
       <c r="X15">
         <v>13</v>
       </c>
-      <c r="Y15" t="s">
-        <v>43</v>
+      <c r="Y15">
+        <v>13</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15">
+        <v>13</v>
+      </c>
+      <c r="AC15">
+        <v>13</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>100.7</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>100.7</v>
       </c>
-      <c r="AE15" t="s">
-        <v>66</v>
+      <c r="AK15" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2073,29 +2361,47 @@
       <c r="X16">
         <v>14</v>
       </c>
-      <c r="Y16" t="s">
-        <v>44</v>
+      <c r="Y16">
+        <v>14</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16">
+        <v>14</v>
+      </c>
+      <c r="AC16">
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AE16" t="s">
-        <v>66</v>
+      <c r="AK16" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2168,29 +2474,47 @@
       <c r="X17">
         <v>15</v>
       </c>
-      <c r="Y17" t="s">
-        <v>45</v>
+      <c r="Y17">
+        <v>15</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA17">
+        <v>15</v>
+      </c>
+      <c r="AB17">
+        <v>15</v>
+      </c>
+      <c r="AC17">
+        <v>15</v>
+      </c>
+      <c r="AD17">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>36.4</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>36.4</v>
       </c>
-      <c r="AE17" t="s">
-        <v>66</v>
+      <c r="AK17" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:37">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2263,29 +2587,47 @@
       <c r="X18">
         <v>16</v>
       </c>
-      <c r="Y18" t="s">
-        <v>46</v>
+      <c r="Y18">
+        <v>16</v>
       </c>
       <c r="Z18">
+        <v>16</v>
+      </c>
+      <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AB18">
+        <v>16</v>
+      </c>
+      <c r="AC18">
+        <v>16</v>
+      </c>
+      <c r="AD18">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF18">
         <v>3.7</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>3.7</v>
       </c>
-      <c r="AE18" t="s">
-        <v>66</v>
+      <c r="AK18" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:37">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2358,29 +2700,47 @@
       <c r="X19">
         <v>17</v>
       </c>
-      <c r="Y19" t="s">
-        <v>47</v>
+      <c r="Y19">
+        <v>17</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:37">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2453,29 +2813,47 @@
       <c r="X20">
         <v>18</v>
       </c>
-      <c r="Y20" t="s">
-        <v>48</v>
+      <c r="Y20">
+        <v>18</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:37">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2548,26 +2926,44 @@
       <c r="X21">
         <v>19</v>
       </c>
-      <c r="Y21" t="s">
-        <v>49</v>
+      <c r="Y21">
+        <v>19</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="AD21">
+        <v>19</v>
       </c>
       <c r="AE21" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2640,26 +3036,44 @@
       <c r="X22">
         <v>20</v>
       </c>
-      <c r="Y22" t="s">
-        <v>50</v>
+      <c r="Y22">
+        <v>20</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AD22">
+        <v>20</v>
       </c>
       <c r="AE22" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:37">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2732,29 +3146,47 @@
       <c r="X23">
         <v>21</v>
       </c>
-      <c r="Y23" t="s">
-        <v>51</v>
+      <c r="Y23">
+        <v>21</v>
       </c>
       <c r="Z23">
+        <v>21</v>
+      </c>
+      <c r="AA23">
+        <v>21</v>
+      </c>
+      <c r="AB23">
+        <v>21</v>
+      </c>
+      <c r="AC23">
+        <v>21</v>
+      </c>
+      <c r="AD23">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF23">
         <v>36.85</v>
       </c>
-      <c r="AA23">
+      <c r="AG23">
         <v>550.9</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>65.16</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>652.91</v>
       </c>
-      <c r="AE23" t="s">
-        <v>67</v>
+      <c r="AK23" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:37">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2827,29 +3259,47 @@
       <c r="X24">
         <v>22</v>
       </c>
-      <c r="Y24" t="s">
-        <v>52</v>
+      <c r="Y24">
+        <v>22</v>
       </c>
       <c r="Z24">
+        <v>22</v>
+      </c>
+      <c r="AA24">
+        <v>22</v>
+      </c>
+      <c r="AB24">
+        <v>22</v>
+      </c>
+      <c r="AC24">
+        <v>22</v>
+      </c>
+      <c r="AD24">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AE24" t="s">
-        <v>67</v>
+      <c r="AK24" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:37">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2922,29 +3372,47 @@
       <c r="X25">
         <v>23</v>
       </c>
-      <c r="Y25" t="s">
-        <v>53</v>
+      <c r="Y25">
+        <v>23</v>
       </c>
       <c r="Z25">
+        <v>23</v>
+      </c>
+      <c r="AA25">
+        <v>23</v>
+      </c>
+      <c r="AB25">
+        <v>23</v>
+      </c>
+      <c r="AC25">
+        <v>23</v>
+      </c>
+      <c r="AD25">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF25">
         <v>10</v>
       </c>
-      <c r="AA25">
+      <c r="AG25">
         <v>60</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
         <v>90</v>
       </c>
-      <c r="AD25">
+      <c r="AJ25">
         <v>160</v>
       </c>
-      <c r="AE25" t="s">
-        <v>67</v>
+      <c r="AK25" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:37">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3017,29 +3485,47 @@
       <c r="X26">
         <v>24</v>
       </c>
-      <c r="Y26" t="s">
-        <v>54</v>
+      <c r="Y26">
+        <v>24</v>
       </c>
       <c r="Z26">
+        <v>24</v>
+      </c>
+      <c r="AA26">
+        <v>24</v>
+      </c>
+      <c r="AB26">
+        <v>24</v>
+      </c>
+      <c r="AC26">
+        <v>24</v>
+      </c>
+      <c r="AD26">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF26">
         <v>24.05</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>79</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>103.05</v>
       </c>
-      <c r="AE26" t="s">
-        <v>67</v>
+      <c r="AK26" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:37">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3112,29 +3598,47 @@
       <c r="X27">
         <v>25</v>
       </c>
-      <c r="Y27" t="s">
-        <v>55</v>
+      <c r="Y27">
+        <v>25</v>
       </c>
       <c r="Z27">
+        <v>25</v>
+      </c>
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>25</v>
+      </c>
+      <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF27">
         <v>12.5</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
         <v>32</v>
       </c>
-      <c r="AD27">
+      <c r="AJ27">
         <v>44.5</v>
       </c>
-      <c r="AE27" t="s">
-        <v>67</v>
+      <c r="AK27" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:37">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3207,29 +3711,47 @@
       <c r="X28">
         <v>26</v>
       </c>
-      <c r="Y28" t="s">
-        <v>56</v>
+      <c r="Y28">
+        <v>26</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB28">
+        <v>26</v>
+      </c>
+      <c r="AC28">
+        <v>26</v>
+      </c>
+      <c r="AD28">
+        <v>26</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>1.78</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
         <v>40</v>
       </c>
-      <c r="AD28">
+      <c r="AJ28">
         <v>41.78</v>
       </c>
-      <c r="AE28" t="s">
-        <v>67</v>
+      <c r="AK28" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:37">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3302,29 +3824,47 @@
       <c r="X29">
         <v>27</v>
       </c>
-      <c r="Y29" t="s">
-        <v>57</v>
+      <c r="Y29">
+        <v>27</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:37">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3397,29 +3937,47 @@
       <c r="X30">
         <v>28</v>
       </c>
-      <c r="Y30" t="s">
-        <v>58</v>
+      <c r="Y30">
+        <v>28</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:37">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3492,29 +4050,47 @@
       <c r="X31">
         <v>29</v>
       </c>
-      <c r="Y31" t="s">
-        <v>59</v>
+      <c r="Y31">
+        <v>29</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:37">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3587,29 +4163,47 @@
       <c r="X32">
         <v>30</v>
       </c>
-      <c r="Y32" t="s">
-        <v>60</v>
+      <c r="Y32">
+        <v>30</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE32" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:37">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3682,26 +4276,44 @@
       <c r="X33">
         <v>31</v>
       </c>
-      <c r="Y33" t="s">
-        <v>61</v>
+      <c r="Y33">
+        <v>31</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AD33">
+        <v>31</v>
       </c>
       <c r="AE33" t="s">
         <v>67</v>
       </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:37">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3774,26 +4386,44 @@
       <c r="X34">
         <v>32</v>
       </c>
-      <c r="Y34" t="s">
-        <v>62</v>
+      <c r="Y34">
+        <v>32</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="AD34">
+        <v>32</v>
       </c>
       <c r="AE34" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:37">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3866,26 +4496,44 @@
       <c r="X35">
         <v>33</v>
       </c>
-      <c r="Y35" t="s">
-        <v>63</v>
+      <c r="Y35">
+        <v>33</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="AD35">
+        <v>33</v>
       </c>
       <c r="AE35" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:37">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3958,11 +4606,29 @@
       <c r="X36">
         <v>34</v>
       </c>
-      <c r="Y36" t="s">
-        <v>64</v>
+      <c r="Y36">
+        <v>34</v>
+      </c>
+      <c r="Z36">
+        <v>34</v>
+      </c>
+      <c r="AA36">
+        <v>34</v>
+      </c>
+      <c r="AB36">
+        <v>34</v>
+      </c>
+      <c r="AC36">
+        <v>34</v>
+      </c>
+      <c r="AD36">
+        <v>34</v>
       </c>
       <c r="AE36" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -593,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK36"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +711,11 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -800,29 +806,32 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2">
         <v>44.3</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1253.5</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>152.92</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
         <v>1450.72</v>
       </c>
-      <c r="AK2" t="s">
-        <v>71</v>
+      <c r="AL2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -913,29 +922,32 @@
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AE3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3">
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3">
         <v>223.8</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
       <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>49.96</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>273.76</v>
       </c>
-      <c r="AK3" t="s">
-        <v>71</v>
+      <c r="AL3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1026,29 +1038,32 @@
       <c r="AD4">
         <v>2</v>
       </c>
-      <c r="AE4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF4">
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4">
         <v>92.5</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>108</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>45</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>245.5</v>
       </c>
-      <c r="AK4" t="s">
-        <v>71</v>
+      <c r="AL4" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1139,15 +1154,15 @@
       <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AE5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5">
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
       <c r="AH5">
         <v>0</v>
       </c>
@@ -1155,13 +1170,16 @@
         <v>0</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AK5" t="s">
-        <v>71</v>
+      <c r="AL5" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1252,29 +1270,32 @@
       <c r="AD6">
         <v>4</v>
       </c>
-      <c r="AE6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6">
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG6">
         <v>20</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>45</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>65</v>
       </c>
-      <c r="AK6" t="s">
-        <v>71</v>
+      <c r="AL6" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1365,11 +1386,11 @@
       <c r="AD7">
         <v>5</v>
       </c>
-      <c r="AE7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
+      <c r="AE7">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>42</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1378,16 +1399,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>10</v>
       </c>
-      <c r="AK7" t="s">
-        <v>71</v>
+      <c r="AK7">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:38">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1478,15 +1502,15 @@
       <c r="AD8">
         <v>6</v>
       </c>
-      <c r="AE8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8">
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG8">
         <v>9.9</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
         <v>0</v>
       </c>
@@ -1494,13 +1518,16 @@
         <v>0</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
         <v>9.9</v>
       </c>
-      <c r="AK8" t="s">
-        <v>71</v>
+      <c r="AL8" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:38">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1591,11 +1618,11 @@
       <c r="AD9">
         <v>7</v>
       </c>
-      <c r="AE9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>44</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1609,11 +1636,14 @@
       <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AK9" t="s">
-        <v>71</v>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:38">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1704,11 +1734,11 @@
       <c r="AD10">
         <v>8</v>
       </c>
-      <c r="AE10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
+      <c r="AE10">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>45</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1722,11 +1752,14 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-      <c r="AK10" t="s">
-        <v>71</v>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:38">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1817,11 +1850,11 @@
       <c r="AD11">
         <v>9</v>
       </c>
-      <c r="AE11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
+      <c r="AE11">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>46</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1832,11 +1865,14 @@
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AK11" t="s">
-        <v>71</v>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:38">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1927,29 +1963,32 @@
       <c r="AD12">
         <v>10</v>
       </c>
-      <c r="AE12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>47</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>1199.98</v>
       </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>1199.98</v>
       </c>
-      <c r="AK12" t="s">
-        <v>72</v>
+      <c r="AL12" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:38">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2040,29 +2079,32 @@
       <c r="AD13">
         <v>11</v>
       </c>
-      <c r="AE13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF13">
+      <c r="AE13">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG13">
         <v>94.2</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>230.1</v>
       </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
         <v>0</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>324.3</v>
       </c>
-      <c r="AK13" t="s">
-        <v>72</v>
+      <c r="AL13" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:38">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2153,29 +2195,32 @@
       <c r="AD14">
         <v>12</v>
       </c>
-      <c r="AE14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF14">
+      <c r="AE14">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG14">
         <v>177.8</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>22.5</v>
       </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>200.3</v>
       </c>
-      <c r="AK14" t="s">
-        <v>72</v>
+      <c r="AL14" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:38">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2266,29 +2311,32 @@
       <c r="AD15">
         <v>13</v>
       </c>
-      <c r="AE15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
+      <c r="AE15">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>50</v>
       </c>
       <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>100.7</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
       <c r="AI15">
         <v>0</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
         <v>100.7</v>
       </c>
-      <c r="AK15" t="s">
-        <v>72</v>
+      <c r="AL15" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:38">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2379,29 +2427,32 @@
       <c r="AD16">
         <v>14</v>
       </c>
-      <c r="AE16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
+      <c r="AE16">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>51</v>
       </c>
       <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
       <c r="AI16">
         <v>0</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AK16" t="s">
-        <v>72</v>
+      <c r="AL16" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:38">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2492,29 +2543,32 @@
       <c r="AD17">
         <v>15</v>
       </c>
-      <c r="AE17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
+      <c r="AE17">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>52</v>
       </c>
       <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <v>36.4</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
       <c r="AI17">
         <v>0</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>36.4</v>
       </c>
-      <c r="AK17" t="s">
-        <v>72</v>
+      <c r="AL17" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:38">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2605,15 +2659,15 @@
       <c r="AD18">
         <v>16</v>
       </c>
-      <c r="AE18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF18">
+      <c r="AE18">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG18">
         <v>3.7</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
       <c r="AH18">
         <v>0</v>
       </c>
@@ -2621,13 +2675,16 @@
         <v>0</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
         <v>3.7</v>
       </c>
-      <c r="AK18" t="s">
-        <v>72</v>
+      <c r="AL18" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:38">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2718,11 +2775,11 @@
       <c r="AD19">
         <v>17</v>
       </c>
-      <c r="AE19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
+      <c r="AE19">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>54</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -2736,11 +2793,14 @@
       <c r="AJ19">
         <v>0</v>
       </c>
-      <c r="AK19" t="s">
-        <v>72</v>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:38">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2831,11 +2891,11 @@
       <c r="AD20">
         <v>18</v>
       </c>
-      <c r="AE20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
+      <c r="AE20">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>55</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2849,11 +2909,14 @@
       <c r="AJ20">
         <v>0</v>
       </c>
-      <c r="AK20" t="s">
-        <v>72</v>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:38">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2944,11 +3007,11 @@
       <c r="AD21">
         <v>19</v>
       </c>
-      <c r="AE21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
+      <c r="AE21">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -2959,11 +3022,14 @@
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AK21" t="s">
-        <v>72</v>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:38">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3054,11 +3120,11 @@
       <c r="AD22">
         <v>20</v>
       </c>
-      <c r="AE22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
+      <c r="AE22">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>57</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -3069,11 +3135,14 @@
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AK22" t="s">
-        <v>73</v>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:38">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3164,29 +3233,32 @@
       <c r="AD23">
         <v>21</v>
       </c>
-      <c r="AE23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF23">
+      <c r="AE23">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23">
         <v>36.85</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>550.9</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>65.16</v>
       </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>652.91</v>
       </c>
-      <c r="AK23" t="s">
-        <v>73</v>
+      <c r="AL23" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:38">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3277,15 +3349,15 @@
       <c r="AD24">
         <v>22</v>
       </c>
-      <c r="AE24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF24">
+      <c r="AE24">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
         <v>0</v>
       </c>
@@ -3293,13 +3365,16 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AK24" t="s">
-        <v>73</v>
+      <c r="AL24" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:38">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3390,29 +3465,32 @@
       <c r="AD25">
         <v>23</v>
       </c>
-      <c r="AE25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF25">
+      <c r="AE25">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG25">
         <v>10</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>60</v>
       </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>90</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>160</v>
       </c>
-      <c r="AK25" t="s">
-        <v>73</v>
+      <c r="AL25" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:38">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3503,29 +3581,32 @@
       <c r="AD26">
         <v>24</v>
       </c>
-      <c r="AE26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF26">
+      <c r="AE26">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG26">
         <v>24.05</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
       <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
         <v>79</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <v>103.05</v>
       </c>
-      <c r="AK26" t="s">
-        <v>73</v>
+      <c r="AL26" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:38">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3616,29 +3697,32 @@
       <c r="AD27">
         <v>25</v>
       </c>
-      <c r="AE27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF27">
+      <c r="AE27">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG27">
         <v>12.5</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>32</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>44.5</v>
       </c>
-      <c r="AK27" t="s">
-        <v>73</v>
+      <c r="AL27" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:38">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3729,29 +3813,32 @@
       <c r="AD28">
         <v>26</v>
       </c>
-      <c r="AE28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
+      <c r="AE28">
+        <v>26</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>63</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>1.78</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>40</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>41.78</v>
       </c>
-      <c r="AK28" t="s">
-        <v>73</v>
+      <c r="AL28" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:38">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3842,11 +3929,11 @@
       <c r="AD29">
         <v>27</v>
       </c>
-      <c r="AE29" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
+      <c r="AE29">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>64</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3860,11 +3947,14 @@
       <c r="AJ29">
         <v>0</v>
       </c>
-      <c r="AK29" t="s">
-        <v>73</v>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:38">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3955,11 +4045,11 @@
       <c r="AD30">
         <v>28</v>
       </c>
-      <c r="AE30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
+      <c r="AE30">
+        <v>28</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>65</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3973,11 +4063,14 @@
       <c r="AJ30">
         <v>0</v>
       </c>
-      <c r="AK30" t="s">
-        <v>73</v>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:38">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4068,11 +4161,11 @@
       <c r="AD31">
         <v>29</v>
       </c>
-      <c r="AE31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
+      <c r="AE31">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>66</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -4086,11 +4179,14 @@
       <c r="AJ31">
         <v>0</v>
       </c>
-      <c r="AK31" t="s">
-        <v>73</v>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:38">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4181,11 +4277,11 @@
       <c r="AD32">
         <v>30</v>
       </c>
-      <c r="AE32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
+      <c r="AE32">
+        <v>30</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>67</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -4199,11 +4295,14 @@
       <c r="AJ32">
         <v>0</v>
       </c>
-      <c r="AK32" t="s">
-        <v>73</v>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:38">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4294,11 +4393,11 @@
       <c r="AD33">
         <v>31</v>
       </c>
-      <c r="AE33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
+      <c r="AE33">
+        <v>31</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>68</v>
       </c>
       <c r="AG33">
         <v>0</v>
@@ -4309,11 +4408,14 @@
       <c r="AI33">
         <v>0</v>
       </c>
-      <c r="AK33" t="s">
-        <v>73</v>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:38">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4404,11 +4506,11 @@
       <c r="AD34">
         <v>32</v>
       </c>
-      <c r="AE34" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
+      <c r="AE34">
+        <v>32</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>69</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -4419,11 +4521,14 @@
       <c r="AI34">
         <v>0</v>
       </c>
-      <c r="AK34" t="s">
-        <v>73</v>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:38">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4514,11 +4619,11 @@
       <c r="AD35">
         <v>33</v>
       </c>
-      <c r="AE35" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
+      <c r="AE35">
+        <v>33</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>70</v>
       </c>
       <c r="AG35">
         <v>0</v>
@@ -4529,11 +4634,14 @@
       <c r="AI35">
         <v>0</v>
       </c>
-      <c r="AK35" t="s">
-        <v>73</v>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:38">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4624,11 +4732,14 @@
       <c r="AD36">
         <v>34</v>
       </c>
-      <c r="AE36" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK36" t="s">
+      <c r="AE36">
+        <v>34</v>
+      </c>
+      <c r="AF36" t="s">
         <v>71</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -596,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,8 +717,11 @@
       <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -809,29 +815,32 @@
       <c r="AE2">
         <v>0</v>
       </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2">
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2">
         <v>44.3</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1253.5</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>152.92</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>1450.72</v>
       </c>
-      <c r="AL2" t="s">
-        <v>72</v>
+      <c r="AM2" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -925,29 +934,32 @@
       <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AF3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3">
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3">
         <v>223.8</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>49.96</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
         <v>273.76</v>
       </c>
-      <c r="AL3" t="s">
-        <v>72</v>
+      <c r="AM3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1041,29 +1053,32 @@
       <c r="AE4">
         <v>2</v>
       </c>
-      <c r="AF4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG4">
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4">
         <v>92.5</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>108</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
         <v>45</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>245.5</v>
       </c>
-      <c r="AL4" t="s">
-        <v>72</v>
+      <c r="AM4" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1157,15 +1172,15 @@
       <c r="AE5">
         <v>3</v>
       </c>
-      <c r="AF5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5">
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
       <c r="AI5">
         <v>0</v>
       </c>
@@ -1173,13 +1188,16 @@
         <v>0</v>
       </c>
       <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AL5" t="s">
-        <v>72</v>
+      <c r="AM5" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1273,29 +1291,32 @@
       <c r="AE6">
         <v>4</v>
       </c>
-      <c r="AF6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG6">
+      <c r="AF6">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6">
         <v>20</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
         <v>45</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>65</v>
       </c>
-      <c r="AL6" t="s">
-        <v>72</v>
+      <c r="AM6" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1389,11 +1410,11 @@
       <c r="AE7">
         <v>5</v>
       </c>
-      <c r="AF7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
+      <c r="AF7">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>43</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1402,16 +1423,19 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>10</v>
       </c>
-      <c r="AL7" t="s">
-        <v>72</v>
+      <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1505,15 +1529,15 @@
       <c r="AE8">
         <v>6</v>
       </c>
-      <c r="AF8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG8">
+      <c r="AF8">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8">
         <v>9.9</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
         <v>0</v>
       </c>
@@ -1521,13 +1545,16 @@
         <v>0</v>
       </c>
       <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
         <v>9.9</v>
       </c>
-      <c r="AL8" t="s">
-        <v>72</v>
+      <c r="AM8" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1621,11 +1648,11 @@
       <c r="AE9">
         <v>7</v>
       </c>
-      <c r="AF9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>45</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1639,11 +1666,14 @@
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9" t="s">
-        <v>72</v>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1737,11 +1767,11 @@
       <c r="AE10">
         <v>8</v>
       </c>
-      <c r="AF10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
+      <c r="AF10">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>46</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1755,11 +1785,14 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10" t="s">
-        <v>72</v>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1853,11 +1886,11 @@
       <c r="AE11">
         <v>9</v>
       </c>
-      <c r="AF11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
+      <c r="AF11">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>47</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1868,11 +1901,14 @@
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AL11" t="s">
-        <v>72</v>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1966,29 +2002,32 @@
       <c r="AE12">
         <v>10</v>
       </c>
-      <c r="AF12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>48</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1199.98</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>1199.98</v>
       </c>
-      <c r="AL12" t="s">
-        <v>73</v>
+      <c r="AM12" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2082,29 +2121,32 @@
       <c r="AE13">
         <v>11</v>
       </c>
-      <c r="AF13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG13">
+      <c r="AF13">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH13">
         <v>94.2</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>230.1</v>
       </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
       <c r="AJ13">
         <v>0</v>
       </c>
       <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>324.3</v>
       </c>
-      <c r="AL13" t="s">
-        <v>73</v>
+      <c r="AM13" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2198,29 +2240,32 @@
       <c r="AE14">
         <v>12</v>
       </c>
-      <c r="AF14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG14">
+      <c r="AF14">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14">
         <v>177.8</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>22.5</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
       <c r="AJ14">
         <v>0</v>
       </c>
       <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>200.3</v>
       </c>
-      <c r="AL14" t="s">
-        <v>73</v>
+      <c r="AM14" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2314,29 +2359,32 @@
       <c r="AE15">
         <v>13</v>
       </c>
-      <c r="AF15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
+      <c r="AF15">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>51</v>
       </c>
       <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
         <v>100.7</v>
       </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
       <c r="AJ15">
         <v>0</v>
       </c>
       <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>100.7</v>
       </c>
-      <c r="AL15" t="s">
-        <v>73</v>
+      <c r="AM15" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2430,29 +2478,32 @@
       <c r="AE16">
         <v>14</v>
       </c>
-      <c r="AF16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
+      <c r="AF16">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>52</v>
       </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
       <c r="AJ16">
         <v>0</v>
       </c>
       <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AL16" t="s">
-        <v>73</v>
+      <c r="AM16" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2546,29 +2597,32 @@
       <c r="AE17">
         <v>15</v>
       </c>
-      <c r="AF17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
+      <c r="AF17">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>53</v>
       </c>
       <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>36.4</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
       <c r="AJ17">
         <v>0</v>
       </c>
       <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>36.4</v>
       </c>
-      <c r="AL17" t="s">
-        <v>73</v>
+      <c r="AM17" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2662,15 +2716,15 @@
       <c r="AE18">
         <v>16</v>
       </c>
-      <c r="AF18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG18">
+      <c r="AF18">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH18">
         <v>3.7</v>
       </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
       <c r="AI18">
         <v>0</v>
       </c>
@@ -2678,13 +2732,16 @@
         <v>0</v>
       </c>
       <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>3.7</v>
       </c>
-      <c r="AL18" t="s">
-        <v>73</v>
+      <c r="AM18" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2778,11 +2835,11 @@
       <c r="AE19">
         <v>17</v>
       </c>
-      <c r="AF19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
+      <c r="AF19">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>55</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -2796,11 +2853,14 @@
       <c r="AK19">
         <v>0</v>
       </c>
-      <c r="AL19" t="s">
-        <v>73</v>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2894,11 +2954,11 @@
       <c r="AE20">
         <v>18</v>
       </c>
-      <c r="AF20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
+      <c r="AF20">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>56</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2912,11 +2972,14 @@
       <c r="AK20">
         <v>0</v>
       </c>
-      <c r="AL20" t="s">
-        <v>73</v>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3010,11 +3073,11 @@
       <c r="AE21">
         <v>19</v>
       </c>
-      <c r="AF21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
+      <c r="AF21">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>57</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3025,11 +3088,14 @@
       <c r="AJ21">
         <v>0</v>
       </c>
-      <c r="AL21" t="s">
-        <v>73</v>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3123,11 +3189,11 @@
       <c r="AE22">
         <v>20</v>
       </c>
-      <c r="AF22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
+      <c r="AF22">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>58</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3138,11 +3204,14 @@
       <c r="AJ22">
         <v>0</v>
       </c>
-      <c r="AL22" t="s">
-        <v>74</v>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3236,29 +3305,32 @@
       <c r="AE23">
         <v>21</v>
       </c>
-      <c r="AF23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG23">
+      <c r="AF23">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH23">
         <v>36.85</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>550.9</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>65.16</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>652.91</v>
       </c>
-      <c r="AL23" t="s">
-        <v>74</v>
+      <c r="AM23" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3352,15 +3424,15 @@
       <c r="AE24">
         <v>22</v>
       </c>
-      <c r="AF24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG24">
+      <c r="AF24">
+        <v>22</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
       <c r="AI24">
         <v>0</v>
       </c>
@@ -3368,13 +3440,16 @@
         <v>0</v>
       </c>
       <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AL24" t="s">
-        <v>74</v>
+      <c r="AM24" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3468,29 +3543,32 @@
       <c r="AE25">
         <v>23</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH25">
+        <v>10</v>
+      </c>
+      <c r="AI25">
         <v>60</v>
       </c>
-      <c r="AG25">
-        <v>10</v>
-      </c>
-      <c r="AH25">
-        <v>60</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>90</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>160</v>
       </c>
-      <c r="AL25" t="s">
-        <v>74</v>
+      <c r="AM25" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3584,29 +3662,32 @@
       <c r="AE26">
         <v>24</v>
       </c>
-      <c r="AF26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG26">
+      <c r="AF26">
+        <v>24</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH26">
         <v>24.05</v>
       </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>79</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
         <v>103.05</v>
       </c>
-      <c r="AL26" t="s">
-        <v>74</v>
+      <c r="AM26" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3700,29 +3781,32 @@
       <c r="AE27">
         <v>25</v>
       </c>
-      <c r="AF27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG27">
+      <c r="AF27">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH27">
         <v>12.5</v>
       </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
       <c r="AI27">
         <v>0</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
         <v>32</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>44.5</v>
       </c>
-      <c r="AL27" t="s">
-        <v>74</v>
+      <c r="AM27" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3816,29 +3900,32 @@
       <c r="AE28">
         <v>26</v>
       </c>
-      <c r="AF28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
+      <c r="AF28">
+        <v>26</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>64</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1.78</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>40</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>41.78</v>
       </c>
-      <c r="AL28" t="s">
-        <v>74</v>
+      <c r="AM28" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3932,11 +4019,11 @@
       <c r="AE29">
         <v>27</v>
       </c>
-      <c r="AF29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
+      <c r="AF29">
+        <v>27</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>65</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -3950,11 +4037,14 @@
       <c r="AK29">
         <v>0</v>
       </c>
-      <c r="AL29" t="s">
-        <v>74</v>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:39">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4048,11 +4138,11 @@
       <c r="AE30">
         <v>28</v>
       </c>
-      <c r="AF30" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
+      <c r="AF30">
+        <v>28</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>66</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -4066,11 +4156,14 @@
       <c r="AK30">
         <v>0</v>
       </c>
-      <c r="AL30" t="s">
-        <v>74</v>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4164,11 +4257,11 @@
       <c r="AE31">
         <v>29</v>
       </c>
-      <c r="AF31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
+      <c r="AF31">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>67</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -4182,11 +4275,14 @@
       <c r="AK31">
         <v>0</v>
       </c>
-      <c r="AL31" t="s">
-        <v>74</v>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4280,11 +4376,11 @@
       <c r="AE32">
         <v>30</v>
       </c>
-      <c r="AF32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
+      <c r="AF32">
+        <v>30</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>68</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -4298,11 +4394,14 @@
       <c r="AK32">
         <v>0</v>
       </c>
-      <c r="AL32" t="s">
-        <v>74</v>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:39">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4396,11 +4495,11 @@
       <c r="AE33">
         <v>31</v>
       </c>
-      <c r="AF33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
+      <c r="AF33">
+        <v>31</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>69</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4411,11 +4510,14 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-      <c r="AL33" t="s">
-        <v>74</v>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4509,11 +4611,11 @@
       <c r="AE34">
         <v>32</v>
       </c>
-      <c r="AF34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
+      <c r="AF34">
+        <v>32</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>70</v>
       </c>
       <c r="AH34">
         <v>0</v>
@@ -4524,11 +4626,14 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AL34" t="s">
-        <v>74</v>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:39">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4622,11 +4727,11 @@
       <c r="AE35">
         <v>33</v>
       </c>
-      <c r="AF35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
+      <c r="AF35">
+        <v>33</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>71</v>
       </c>
       <c r="AH35">
         <v>0</v>
@@ -4637,11 +4742,14 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AL35" t="s">
-        <v>74</v>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4735,11 +4843,14 @@
       <c r="AE36">
         <v>34</v>
       </c>
-      <c r="AF36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL36" t="s">
+      <c r="AF36">
+        <v>34</v>
+      </c>
+      <c r="AG36" t="s">
         <v>72</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -599,13 +602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +723,11 @@
       <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -818,29 +824,32 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2">
         <v>44.3</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1253.5</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>152.92</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
       <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>1450.72</v>
       </c>
-      <c r="AM2" t="s">
-        <v>73</v>
+      <c r="AN2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -937,29 +946,32 @@
       <c r="AF3">
         <v>1</v>
       </c>
-      <c r="AG3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3">
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3">
         <v>223.8</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>49.96</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
       <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
         <v>273.76</v>
       </c>
-      <c r="AM3" t="s">
-        <v>73</v>
+      <c r="AN3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1056,29 +1068,32 @@
       <c r="AF4">
         <v>2</v>
       </c>
-      <c r="AG4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4">
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4">
         <v>92.5</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>108</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
         <v>45</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>245.5</v>
       </c>
-      <c r="AM4" t="s">
-        <v>73</v>
+      <c r="AN4" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1175,15 +1190,15 @@
       <c r="AF5">
         <v>3</v>
       </c>
-      <c r="AG5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH5">
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
       <c r="AJ5">
         <v>0</v>
       </c>
@@ -1191,13 +1206,16 @@
         <v>0</v>
       </c>
       <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AM5" t="s">
-        <v>73</v>
+      <c r="AN5" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1294,29 +1312,32 @@
       <c r="AF6">
         <v>4</v>
       </c>
-      <c r="AG6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH6">
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6">
         <v>20</v>
       </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>45</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>65</v>
       </c>
-      <c r="AM6" t="s">
-        <v>73</v>
+      <c r="AN6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1413,11 +1434,11 @@
       <c r="AF7">
         <v>5</v>
       </c>
-      <c r="AG7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>44</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1426,16 +1447,19 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>10</v>
       </c>
-      <c r="AM7" t="s">
-        <v>73</v>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1532,15 +1556,15 @@
       <c r="AF8">
         <v>6</v>
       </c>
-      <c r="AG8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH8">
+      <c r="AG8">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI8">
         <v>9.9</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
       <c r="AJ8">
         <v>0</v>
       </c>
@@ -1548,13 +1572,16 @@
         <v>0</v>
       </c>
       <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>9.9</v>
       </c>
-      <c r="AM8" t="s">
-        <v>73</v>
+      <c r="AN8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1651,11 +1678,11 @@
       <c r="AF9">
         <v>7</v>
       </c>
-      <c r="AG9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
+      <c r="AG9">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>46</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1669,11 +1696,14 @@
       <c r="AL9">
         <v>0</v>
       </c>
-      <c r="AM9" t="s">
-        <v>73</v>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1770,11 +1800,11 @@
       <c r="AF10">
         <v>8</v>
       </c>
-      <c r="AG10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
+      <c r="AG10">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>47</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1788,11 +1818,14 @@
       <c r="AL10">
         <v>0</v>
       </c>
-      <c r="AM10" t="s">
-        <v>73</v>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1889,11 +1922,11 @@
       <c r="AF11">
         <v>9</v>
       </c>
-      <c r="AG11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
+      <c r="AG11">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>48</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1904,11 +1937,14 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AM11" t="s">
-        <v>73</v>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2005,29 +2041,32 @@
       <c r="AF12">
         <v>10</v>
       </c>
-      <c r="AG12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>49</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>1199.98</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
       <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>1199.98</v>
       </c>
-      <c r="AM12" t="s">
-        <v>74</v>
+      <c r="AN12" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2124,29 +2163,32 @@
       <c r="AF13">
         <v>11</v>
       </c>
-      <c r="AG13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH13">
+      <c r="AG13">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI13">
         <v>94.2</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>230.1</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>324.3</v>
       </c>
-      <c r="AM13" t="s">
-        <v>74</v>
+      <c r="AN13" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2243,29 +2285,32 @@
       <c r="AF14">
         <v>12</v>
       </c>
-      <c r="AG14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH14">
+      <c r="AG14">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI14">
         <v>177.8</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>22.5</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <v>200.3</v>
       </c>
-      <c r="AM14" t="s">
-        <v>74</v>
+      <c r="AN14" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2362,29 +2407,32 @@
       <c r="AF15">
         <v>13</v>
       </c>
-      <c r="AG15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
+      <c r="AG15">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>52</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>100.7</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <v>100.7</v>
       </c>
-      <c r="AM15" t="s">
-        <v>74</v>
+      <c r="AN15" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2481,29 +2529,32 @@
       <c r="AF16">
         <v>14</v>
       </c>
-      <c r="AG16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
+      <c r="AG16">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>53</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AM16" t="s">
-        <v>74</v>
+      <c r="AN16" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:40">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2600,29 +2651,32 @@
       <c r="AF17">
         <v>15</v>
       </c>
-      <c r="AG17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
+      <c r="AG17">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>54</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>36.4</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <v>36.4</v>
       </c>
-      <c r="AM17" t="s">
-        <v>74</v>
+      <c r="AN17" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:40">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2719,15 +2773,15 @@
       <c r="AF18">
         <v>16</v>
       </c>
-      <c r="AG18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH18">
+      <c r="AG18">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI18">
         <v>3.7</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
       <c r="AJ18">
         <v>0</v>
       </c>
@@ -2735,13 +2789,16 @@
         <v>0</v>
       </c>
       <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>3.7</v>
       </c>
-      <c r="AM18" t="s">
-        <v>74</v>
+      <c r="AN18" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:40">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2838,11 +2895,11 @@
       <c r="AF19">
         <v>17</v>
       </c>
-      <c r="AG19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
+      <c r="AG19">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2856,11 +2913,14 @@
       <c r="AL19">
         <v>0</v>
       </c>
-      <c r="AM19" t="s">
-        <v>74</v>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:40">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2957,11 +3017,11 @@
       <c r="AF20">
         <v>18</v>
       </c>
-      <c r="AG20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
+      <c r="AG20">
+        <v>18</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>57</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2975,11 +3035,14 @@
       <c r="AL20">
         <v>0</v>
       </c>
-      <c r="AM20" t="s">
-        <v>74</v>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:40">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3076,11 +3139,11 @@
       <c r="AF21">
         <v>19</v>
       </c>
-      <c r="AG21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
+      <c r="AG21">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>58</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3091,11 +3154,14 @@
       <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AM21" t="s">
-        <v>74</v>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:40">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3192,11 +3258,11 @@
       <c r="AF22">
         <v>20</v>
       </c>
-      <c r="AG22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
+      <c r="AG22">
+        <v>20</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>59</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -3207,11 +3273,14 @@
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AM22" t="s">
-        <v>75</v>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:40">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3308,29 +3377,32 @@
       <c r="AF23">
         <v>21</v>
       </c>
-      <c r="AG23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH23">
+      <c r="AG23">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI23">
         <v>36.85</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>550.9</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>65.16</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
       <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>652.91</v>
       </c>
-      <c r="AM23" t="s">
-        <v>75</v>
+      <c r="AN23" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:40">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3427,15 +3499,15 @@
       <c r="AF24">
         <v>22</v>
       </c>
-      <c r="AG24" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH24">
+      <c r="AG24">
+        <v>22</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
       <c r="AJ24">
         <v>0</v>
       </c>
@@ -3443,13 +3515,16 @@
         <v>0</v>
       </c>
       <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AM24" t="s">
-        <v>75</v>
+      <c r="AN24" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:40">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3546,29 +3621,32 @@
       <c r="AF25">
         <v>23</v>
       </c>
-      <c r="AG25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH25">
+      <c r="AG25">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI25">
         <v>10</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>60</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>90</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>160</v>
       </c>
-      <c r="AM25" t="s">
-        <v>75</v>
+      <c r="AN25" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:40">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3665,29 +3743,32 @@
       <c r="AF26">
         <v>24</v>
       </c>
-      <c r="AG26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH26">
+      <c r="AG26">
+        <v>24</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI26">
         <v>24.05</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <v>79</v>
       </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
       <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
         <v>103.05</v>
       </c>
-      <c r="AM26" t="s">
-        <v>75</v>
+      <c r="AN26" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:40">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3784,29 +3865,32 @@
       <c r="AF27">
         <v>25</v>
       </c>
-      <c r="AG27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH27">
+      <c r="AG27">
+        <v>25</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI27">
         <v>12.5</v>
       </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
       <c r="AJ27">
         <v>0</v>
       </c>
       <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
         <v>32</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>44.5</v>
       </c>
-      <c r="AM27" t="s">
-        <v>75</v>
+      <c r="AN27" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:40">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3903,29 +3987,32 @@
       <c r="AF28">
         <v>26</v>
       </c>
-      <c r="AG28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
+      <c r="AG28">
+        <v>26</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>65</v>
       </c>
       <c r="AI28">
         <v>0</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
         <v>1.78</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>40</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>41.78</v>
       </c>
-      <c r="AM28" t="s">
-        <v>75</v>
+      <c r="AN28" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:40">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4022,11 +4109,11 @@
       <c r="AF29">
         <v>27</v>
       </c>
-      <c r="AG29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
+      <c r="AG29">
+        <v>27</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>66</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -4040,11 +4127,14 @@
       <c r="AL29">
         <v>0</v>
       </c>
-      <c r="AM29" t="s">
-        <v>75</v>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:40">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4141,11 +4231,11 @@
       <c r="AF30">
         <v>28</v>
       </c>
-      <c r="AG30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
+      <c r="AG30">
+        <v>28</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>67</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -4159,11 +4249,14 @@
       <c r="AL30">
         <v>0</v>
       </c>
-      <c r="AM30" t="s">
-        <v>75</v>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:40">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4260,11 +4353,11 @@
       <c r="AF31">
         <v>29</v>
       </c>
-      <c r="AG31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
+      <c r="AG31">
+        <v>29</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>68</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4278,11 +4371,14 @@
       <c r="AL31">
         <v>0</v>
       </c>
-      <c r="AM31" t="s">
-        <v>75</v>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:40">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4379,11 +4475,11 @@
       <c r="AF32">
         <v>30</v>
       </c>
-      <c r="AG32" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
+      <c r="AG32">
+        <v>30</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>69</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -4397,11 +4493,14 @@
       <c r="AL32">
         <v>0</v>
       </c>
-      <c r="AM32" t="s">
-        <v>75</v>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:40">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4498,11 +4597,11 @@
       <c r="AF33">
         <v>31</v>
       </c>
-      <c r="AG33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
+      <c r="AG33">
+        <v>31</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>70</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4513,11 +4612,14 @@
       <c r="AK33">
         <v>0</v>
       </c>
-      <c r="AM33" t="s">
-        <v>75</v>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:40">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4614,11 +4716,11 @@
       <c r="AF34">
         <v>32</v>
       </c>
-      <c r="AG34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
+      <c r="AG34">
+        <v>32</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>71</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -4629,11 +4731,14 @@
       <c r="AK34">
         <v>0</v>
       </c>
-      <c r="AM34" t="s">
-        <v>75</v>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:40">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4730,11 +4835,11 @@
       <c r="AF35">
         <v>33</v>
       </c>
-      <c r="AG35" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
+      <c r="AG35">
+        <v>33</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>72</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -4745,11 +4850,14 @@
       <c r="AK35">
         <v>0</v>
       </c>
-      <c r="AM35" t="s">
-        <v>75</v>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:40">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4846,11 +4954,14 @@
       <c r="AF36">
         <v>34</v>
       </c>
-      <c r="AG36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM36" t="s">
+      <c r="AG36">
+        <v>34</v>
+      </c>
+      <c r="AH36" t="s">
         <v>73</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -602,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,8 +732,14 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:42">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -827,29 +839,35 @@
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AH2" t="s">
-        <v>39</v>
+      <c r="AH2">
+        <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2">
         <v>44.3</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>1253.5</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>152.92</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>1450.72</v>
       </c>
-      <c r="AN2" t="s">
-        <v>74</v>
+      <c r="AP2" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:42">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -949,29 +967,35 @@
       <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AH3" t="s">
-        <v>40</v>
+      <c r="AH3">
+        <v>1</v>
       </c>
       <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3">
         <v>223.8</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
         <v>49.96</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
         <v>273.76</v>
       </c>
-      <c r="AN3" t="s">
-        <v>74</v>
+      <c r="AP3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:42">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1071,29 +1095,35 @@
       <c r="AG4">
         <v>2</v>
       </c>
-      <c r="AH4" t="s">
-        <v>41</v>
+      <c r="AH4">
+        <v>2</v>
       </c>
       <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4">
         <v>92.5</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>108</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>45</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>245.5</v>
       </c>
-      <c r="AN4" t="s">
-        <v>74</v>
+      <c r="AP4" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:42">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1193,29 +1223,35 @@
       <c r="AG5">
         <v>3</v>
       </c>
-      <c r="AH5" t="s">
-        <v>42</v>
+      <c r="AH5">
+        <v>3</v>
       </c>
       <c r="AI5">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AN5" t="s">
-        <v>74</v>
+      <c r="AP5" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:42">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1315,29 +1351,35 @@
       <c r="AG6">
         <v>4</v>
       </c>
-      <c r="AH6" t="s">
-        <v>43</v>
+      <c r="AH6">
+        <v>4</v>
       </c>
       <c r="AI6">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK6">
         <v>20</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
       <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>45</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>65</v>
       </c>
-      <c r="AN6" t="s">
-        <v>74</v>
+      <c r="AP6" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1437,29 +1479,35 @@
       <c r="AG7">
         <v>5</v>
       </c>
-      <c r="AH7" t="s">
-        <v>44</v>
+      <c r="AH7">
+        <v>5</v>
       </c>
       <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>46</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
         <v>10</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>10</v>
       </c>
-      <c r="AN7" t="s">
-        <v>74</v>
+      <c r="AP7" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1559,29 +1607,35 @@
       <c r="AG8">
         <v>6</v>
       </c>
-      <c r="AH8" t="s">
-        <v>45</v>
+      <c r="AH8">
+        <v>6</v>
       </c>
       <c r="AI8">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK8">
         <v>9.9</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>9.9</v>
       </c>
-      <c r="AN8" t="s">
-        <v>74</v>
+      <c r="AP8" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1681,14 +1735,14 @@
       <c r="AG9">
         <v>7</v>
       </c>
-      <c r="AH9" t="s">
-        <v>46</v>
+      <c r="AH9">
+        <v>7</v>
       </c>
       <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>48</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1699,11 +1753,17 @@
       <c r="AM9">
         <v>0</v>
       </c>
-      <c r="AN9" t="s">
-        <v>74</v>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1803,14 +1863,14 @@
       <c r="AG10">
         <v>8</v>
       </c>
-      <c r="AH10" t="s">
-        <v>47</v>
+      <c r="AH10">
+        <v>8</v>
       </c>
       <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>49</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1821,11 +1881,17 @@
       <c r="AM10">
         <v>0</v>
       </c>
-      <c r="AN10" t="s">
-        <v>74</v>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1925,14 +1991,14 @@
       <c r="AG11">
         <v>9</v>
       </c>
-      <c r="AH11" t="s">
-        <v>48</v>
+      <c r="AH11">
+        <v>9</v>
       </c>
       <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>50</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -1940,11 +2006,17 @@
       <c r="AL11">
         <v>0</v>
       </c>
-      <c r="AN11" t="s">
-        <v>74</v>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2044,17 +2116,17 @@
       <c r="AG12">
         <v>10</v>
       </c>
-      <c r="AH12" t="s">
-        <v>49</v>
+      <c r="AH12">
+        <v>10</v>
       </c>
       <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>51</v>
       </c>
       <c r="AK12">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2062,11 +2134,17 @@
       <c r="AM12">
         <v>1199.98</v>
       </c>
-      <c r="AN12" t="s">
-        <v>75</v>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1199.98</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2166,29 +2244,35 @@
       <c r="AG13">
         <v>11</v>
       </c>
-      <c r="AH13" t="s">
-        <v>50</v>
+      <c r="AH13">
+        <v>11</v>
       </c>
       <c r="AI13">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK13">
         <v>94.2</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>230.1</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>324.3</v>
       </c>
-      <c r="AN13" t="s">
-        <v>75</v>
+      <c r="AP13" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2288,29 +2372,35 @@
       <c r="AG14">
         <v>12</v>
       </c>
-      <c r="AH14" t="s">
-        <v>51</v>
+      <c r="AH14">
+        <v>12</v>
       </c>
       <c r="AI14">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK14">
         <v>177.8</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>22.5</v>
       </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
         <v>200.3</v>
       </c>
-      <c r="AN14" t="s">
-        <v>75</v>
+      <c r="AP14" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2410,29 +2500,35 @@
       <c r="AG15">
         <v>13</v>
       </c>
-      <c r="AH15" t="s">
-        <v>52</v>
+      <c r="AH15">
+        <v>13</v>
       </c>
       <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>100.7</v>
       </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>100.7</v>
       </c>
-      <c r="AN15" t="s">
-        <v>75</v>
+      <c r="AP15" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2532,29 +2628,35 @@
       <c r="AG16">
         <v>14</v>
       </c>
-      <c r="AH16" t="s">
-        <v>53</v>
+      <c r="AH16">
+        <v>14</v>
       </c>
       <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AN16" t="s">
-        <v>75</v>
+      <c r="AP16" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:42">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2654,29 +2756,35 @@
       <c r="AG17">
         <v>15</v>
       </c>
-      <c r="AH17" t="s">
-        <v>54</v>
+      <c r="AH17">
+        <v>15</v>
       </c>
       <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>36.4</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
         <v>36.4</v>
       </c>
-      <c r="AN17" t="s">
-        <v>75</v>
+      <c r="AP17" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:42">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2776,29 +2884,35 @@
       <c r="AG18">
         <v>16</v>
       </c>
-      <c r="AH18" t="s">
-        <v>55</v>
+      <c r="AH18">
+        <v>16</v>
       </c>
       <c r="AI18">
+        <v>16</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK18">
         <v>3.7</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
         <v>3.7</v>
       </c>
-      <c r="AN18" t="s">
-        <v>75</v>
+      <c r="AP18" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:42">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2898,14 +3012,14 @@
       <c r="AG19">
         <v>17</v>
       </c>
-      <c r="AH19" t="s">
-        <v>56</v>
+      <c r="AH19">
+        <v>17</v>
       </c>
       <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -2916,11 +3030,17 @@
       <c r="AM19">
         <v>0</v>
       </c>
-      <c r="AN19" t="s">
-        <v>75</v>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:42">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3020,14 +3140,14 @@
       <c r="AG20">
         <v>18</v>
       </c>
-      <c r="AH20" t="s">
-        <v>57</v>
+      <c r="AH20">
+        <v>18</v>
       </c>
       <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>59</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -3038,11 +3158,17 @@
       <c r="AM20">
         <v>0</v>
       </c>
-      <c r="AN20" t="s">
-        <v>75</v>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:42">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3142,14 +3268,14 @@
       <c r="AG21">
         <v>19</v>
       </c>
-      <c r="AH21" t="s">
-        <v>58</v>
+      <c r="AH21">
+        <v>19</v>
       </c>
       <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>60</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -3157,11 +3283,17 @@
       <c r="AL21">
         <v>0</v>
       </c>
-      <c r="AN21" t="s">
-        <v>75</v>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:42">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3261,14 +3393,14 @@
       <c r="AG22">
         <v>20</v>
       </c>
-      <c r="AH22" t="s">
-        <v>59</v>
+      <c r="AH22">
+        <v>20</v>
       </c>
       <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>61</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -3276,11 +3408,17 @@
       <c r="AL22">
         <v>0</v>
       </c>
-      <c r="AN22" t="s">
-        <v>76</v>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:42">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3380,29 +3518,35 @@
       <c r="AG23">
         <v>21</v>
       </c>
-      <c r="AH23" t="s">
-        <v>60</v>
+      <c r="AH23">
+        <v>21</v>
       </c>
       <c r="AI23">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK23">
         <v>36.85</v>
       </c>
-      <c r="AJ23">
+      <c r="AL23">
         <v>550.9</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>65.16</v>
       </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>652.91</v>
       </c>
-      <c r="AN23" t="s">
-        <v>76</v>
+      <c r="AP23" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:42">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3502,29 +3646,35 @@
       <c r="AG24">
         <v>22</v>
       </c>
-      <c r="AH24" t="s">
-        <v>61</v>
+      <c r="AH24">
+        <v>22</v>
       </c>
       <c r="AI24">
+        <v>22</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AN24" t="s">
-        <v>76</v>
+      <c r="AP24" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:42">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3624,29 +3774,35 @@
       <c r="AG25">
         <v>23</v>
       </c>
-      <c r="AH25" t="s">
-        <v>62</v>
+      <c r="AH25">
+        <v>23</v>
       </c>
       <c r="AI25">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK25">
         <v>10</v>
       </c>
-      <c r="AJ25">
+      <c r="AL25">
         <v>60</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
         <v>90</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>160</v>
       </c>
-      <c r="AN25" t="s">
-        <v>76</v>
+      <c r="AP25" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:42">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3746,29 +3902,35 @@
       <c r="AG26">
         <v>24</v>
       </c>
-      <c r="AH26" t="s">
-        <v>63</v>
+      <c r="AH26">
+        <v>24</v>
       </c>
       <c r="AI26">
+        <v>24</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK26">
         <v>24.05</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
         <v>79</v>
       </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
         <v>103.05</v>
       </c>
-      <c r="AN26" t="s">
-        <v>76</v>
+      <c r="AP26" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:42">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3868,29 +4030,35 @@
       <c r="AG27">
         <v>25</v>
       </c>
-      <c r="AH27" t="s">
-        <v>64</v>
+      <c r="AH27">
+        <v>25</v>
       </c>
       <c r="AI27">
+        <v>25</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK27">
         <v>12.5</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
       <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
         <v>32</v>
       </c>
-      <c r="AM27">
+      <c r="AO27">
         <v>44.5</v>
       </c>
-      <c r="AN27" t="s">
-        <v>76</v>
+      <c r="AP27" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:42">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3990,29 +4158,35 @@
       <c r="AG28">
         <v>26</v>
       </c>
-      <c r="AH28" t="s">
-        <v>65</v>
+      <c r="AH28">
+        <v>26</v>
       </c>
       <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>67</v>
       </c>
       <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
         <v>1.78</v>
       </c>
-      <c r="AL28">
+      <c r="AN28">
         <v>40</v>
       </c>
-      <c r="AM28">
+      <c r="AO28">
         <v>41.78</v>
       </c>
-      <c r="AN28" t="s">
-        <v>76</v>
+      <c r="AP28" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:42">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4112,14 +4286,14 @@
       <c r="AG29">
         <v>27</v>
       </c>
-      <c r="AH29" t="s">
-        <v>66</v>
+      <c r="AH29">
+        <v>27</v>
       </c>
       <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>68</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -4130,11 +4304,17 @@
       <c r="AM29">
         <v>0</v>
       </c>
-      <c r="AN29" t="s">
-        <v>76</v>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:42">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4234,14 +4414,14 @@
       <c r="AG30">
         <v>28</v>
       </c>
-      <c r="AH30" t="s">
-        <v>67</v>
+      <c r="AH30">
+        <v>28</v>
       </c>
       <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>69</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -4252,11 +4432,17 @@
       <c r="AM30">
         <v>0</v>
       </c>
-      <c r="AN30" t="s">
-        <v>76</v>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:42">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4356,14 +4542,14 @@
       <c r="AG31">
         <v>29</v>
       </c>
-      <c r="AH31" t="s">
-        <v>68</v>
+      <c r="AH31">
+        <v>29</v>
       </c>
       <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>70</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -4374,11 +4560,17 @@
       <c r="AM31">
         <v>0</v>
       </c>
-      <c r="AN31" t="s">
-        <v>76</v>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:42">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4478,14 +4670,14 @@
       <c r="AG32">
         <v>30</v>
       </c>
-      <c r="AH32" t="s">
-        <v>69</v>
+      <c r="AH32">
+        <v>30</v>
       </c>
       <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>71</v>
       </c>
       <c r="AK32">
         <v>0</v>
@@ -4496,11 +4688,17 @@
       <c r="AM32">
         <v>0</v>
       </c>
-      <c r="AN32" t="s">
-        <v>76</v>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:42">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4600,14 +4798,14 @@
       <c r="AG33">
         <v>31</v>
       </c>
-      <c r="AH33" t="s">
-        <v>70</v>
+      <c r="AH33">
+        <v>31</v>
       </c>
       <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>72</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -4615,11 +4813,17 @@
       <c r="AL33">
         <v>0</v>
       </c>
-      <c r="AN33" t="s">
-        <v>76</v>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:42">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4719,14 +4923,14 @@
       <c r="AG34">
         <v>32</v>
       </c>
-      <c r="AH34" t="s">
-        <v>71</v>
+      <c r="AH34">
+        <v>32</v>
       </c>
       <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>73</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -4734,11 +4938,17 @@
       <c r="AL34">
         <v>0</v>
       </c>
-      <c r="AN34" t="s">
-        <v>76</v>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:42">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4838,14 +5048,14 @@
       <c r="AG35">
         <v>33</v>
       </c>
-      <c r="AH35" t="s">
-        <v>72</v>
+      <c r="AH35">
+        <v>33</v>
       </c>
       <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>74</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -4853,11 +5063,17 @@
       <c r="AL35">
         <v>0</v>
       </c>
-      <c r="AN35" t="s">
-        <v>76</v>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:42">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4957,11 +5173,17 @@
       <c r="AG36">
         <v>34</v>
       </c>
-      <c r="AH36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>74</v>
+      <c r="AH36">
+        <v>34</v>
+      </c>
+      <c r="AI36">
+        <v>34</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -608,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP36"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:44">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +744,14 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -845,29 +857,35 @@
       <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>41</v>
+      <c r="AJ2">
+        <v>0</v>
       </c>
       <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2">
         <v>44.3</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>1253.5</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>152.92</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>1450.72</v>
       </c>
-      <c r="AP2" t="s">
-        <v>76</v>
+      <c r="AR2" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:44">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -973,29 +991,35 @@
       <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>42</v>
+      <c r="AJ3">
+        <v>1</v>
       </c>
       <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3">
         <v>223.8</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
         <v>49.96</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>273.76</v>
       </c>
-      <c r="AP3" t="s">
-        <v>76</v>
+      <c r="AR3" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:44">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1101,29 +1125,35 @@
       <c r="AI4">
         <v>2</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>43</v>
+      <c r="AJ4">
+        <v>2</v>
       </c>
       <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM4">
         <v>92.5</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>108</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
         <v>45</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>245.5</v>
       </c>
-      <c r="AP4" t="s">
-        <v>76</v>
+      <c r="AR4" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1229,29 +1259,35 @@
       <c r="AI5">
         <v>3</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>44</v>
+      <c r="AJ5">
+        <v>3</v>
       </c>
       <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AP5" t="s">
-        <v>76</v>
+      <c r="AR5" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1357,29 +1393,35 @@
       <c r="AI6">
         <v>4</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM6">
+        <v>20</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>45</v>
       </c>
-      <c r="AK6">
-        <v>20</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>45</v>
-      </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>65</v>
       </c>
-      <c r="AP6" t="s">
-        <v>76</v>
+      <c r="AR6" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1485,29 +1527,35 @@
       <c r="AI7">
         <v>5</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>46</v>
+      <c r="AJ7">
+        <v>5</v>
       </c>
       <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>48</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
         <v>10</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>10</v>
       </c>
-      <c r="AP7" t="s">
-        <v>76</v>
+      <c r="AR7" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1613,29 +1661,35 @@
       <c r="AI8">
         <v>6</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>47</v>
+      <c r="AJ8">
+        <v>6</v>
       </c>
       <c r="AK8">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8">
         <v>9.9</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
       <c r="AN8">
         <v>0</v>
       </c>
       <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>9.9</v>
       </c>
-      <c r="AP8" t="s">
-        <v>76</v>
+      <c r="AR8" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1741,14 +1795,14 @@
       <c r="AI9">
         <v>7</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>48</v>
+      <c r="AJ9">
+        <v>7</v>
       </c>
       <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>50</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1759,11 +1813,17 @@
       <c r="AO9">
         <v>0</v>
       </c>
-      <c r="AP9" t="s">
-        <v>76</v>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:44">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1869,14 +1929,14 @@
       <c r="AI10">
         <v>8</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>49</v>
+      <c r="AJ10">
+        <v>8</v>
       </c>
       <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>51</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -1887,11 +1947,17 @@
       <c r="AO10">
         <v>0</v>
       </c>
-      <c r="AP10" t="s">
-        <v>76</v>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1997,14 +2063,14 @@
       <c r="AI11">
         <v>9</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>50</v>
+      <c r="AJ11">
+        <v>9</v>
       </c>
       <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>52</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2012,11 +2078,17 @@
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AP11" t="s">
-        <v>76</v>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:44">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2122,17 +2194,17 @@
       <c r="AI12">
         <v>10</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>51</v>
+      <c r="AJ12">
+        <v>10</v>
       </c>
       <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>53</v>
       </c>
       <c r="AM12">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -2140,11 +2212,17 @@
       <c r="AO12">
         <v>1199.98</v>
       </c>
-      <c r="AP12" t="s">
-        <v>77</v>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>1199.98</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:44">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2250,29 +2328,35 @@
       <c r="AI13">
         <v>11</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>52</v>
+      <c r="AJ13">
+        <v>11</v>
       </c>
       <c r="AK13">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM13">
         <v>94.2</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>230.1</v>
       </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
       <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
         <v>324.3</v>
       </c>
-      <c r="AP13" t="s">
-        <v>77</v>
+      <c r="AR13" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:44">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2378,29 +2462,35 @@
       <c r="AI14">
         <v>12</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>53</v>
+      <c r="AJ14">
+        <v>12</v>
       </c>
       <c r="AK14">
+        <v>12</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM14">
         <v>177.8</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>22.5</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
       <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
         <v>200.3</v>
       </c>
-      <c r="AP14" t="s">
-        <v>77</v>
+      <c r="AR14" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:44">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2506,29 +2596,35 @@
       <c r="AI15">
         <v>13</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>54</v>
+      <c r="AJ15">
+        <v>13</v>
       </c>
       <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
+        <v>13</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
         <v>100.7</v>
       </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
       <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
         <v>100.7</v>
       </c>
-      <c r="AP15" t="s">
-        <v>77</v>
+      <c r="AR15" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:44">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2634,29 +2730,35 @@
       <c r="AI16">
         <v>14</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>55</v>
+      <c r="AJ16">
+        <v>14</v>
       </c>
       <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
+        <v>14</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
       <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AP16" t="s">
-        <v>77</v>
+      <c r="AR16" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:44">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2762,29 +2864,35 @@
       <c r="AI17">
         <v>15</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>56</v>
+      <c r="AJ17">
+        <v>15</v>
       </c>
       <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
         <v>36.4</v>
       </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
       <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
         <v>36.4</v>
       </c>
-      <c r="AP17" t="s">
-        <v>77</v>
+      <c r="AR17" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:44">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2890,29 +2998,35 @@
       <c r="AI18">
         <v>16</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>57</v>
+      <c r="AJ18">
+        <v>16</v>
       </c>
       <c r="AK18">
+        <v>16</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM18">
         <v>3.7</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
       <c r="AN18">
         <v>0</v>
       </c>
       <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
         <v>3.7</v>
       </c>
-      <c r="AP18" t="s">
-        <v>77</v>
+      <c r="AR18" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:44">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3018,14 +3132,14 @@
       <c r="AI19">
         <v>17</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>58</v>
+      <c r="AJ19">
+        <v>17</v>
       </c>
       <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>60</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -3036,11 +3150,17 @@
       <c r="AO19">
         <v>0</v>
       </c>
-      <c r="AP19" t="s">
-        <v>77</v>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:44">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3146,14 +3266,14 @@
       <c r="AI20">
         <v>18</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>59</v>
+      <c r="AJ20">
+        <v>18</v>
       </c>
       <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>61</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -3164,11 +3284,17 @@
       <c r="AO20">
         <v>0</v>
       </c>
-      <c r="AP20" t="s">
-        <v>77</v>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:44">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3274,14 +3400,14 @@
       <c r="AI21">
         <v>19</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>60</v>
+      <c r="AJ21">
+        <v>19</v>
       </c>
       <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>62</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -3289,11 +3415,17 @@
       <c r="AN21">
         <v>0</v>
       </c>
-      <c r="AP21" t="s">
-        <v>77</v>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:44">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3399,14 +3531,14 @@
       <c r="AI22">
         <v>20</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>61</v>
+      <c r="AJ22">
+        <v>20</v>
       </c>
       <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>63</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -3414,11 +3546,17 @@
       <c r="AN22">
         <v>0</v>
       </c>
-      <c r="AP22" t="s">
-        <v>78</v>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:44">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3524,29 +3662,35 @@
       <c r="AI23">
         <v>21</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>62</v>
+      <c r="AJ23">
+        <v>21</v>
       </c>
       <c r="AK23">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM23">
         <v>36.85</v>
       </c>
-      <c r="AL23">
+      <c r="AN23">
         <v>550.9</v>
       </c>
-      <c r="AM23">
+      <c r="AO23">
         <v>65.16</v>
       </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
         <v>652.91</v>
       </c>
-      <c r="AP23" t="s">
-        <v>78</v>
+      <c r="AR23" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:44">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3652,29 +3796,35 @@
       <c r="AI24">
         <v>22</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>63</v>
+      <c r="AJ24">
+        <v>22</v>
       </c>
       <c r="AK24">
+        <v>22</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
       <c r="AN24">
         <v>0</v>
       </c>
       <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AP24" t="s">
-        <v>78</v>
+      <c r="AR24" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:44">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3780,29 +3930,35 @@
       <c r="AI25">
         <v>23</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>64</v>
+      <c r="AJ25">
+        <v>23</v>
       </c>
       <c r="AK25">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM25">
         <v>10</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>60</v>
       </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
         <v>90</v>
       </c>
-      <c r="AO25">
+      <c r="AQ25">
         <v>160</v>
       </c>
-      <c r="AP25" t="s">
-        <v>78</v>
+      <c r="AR25" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:44">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3908,29 +4064,35 @@
       <c r="AI26">
         <v>24</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>65</v>
+      <c r="AJ26">
+        <v>24</v>
       </c>
       <c r="AK26">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM26">
         <v>24.05</v>
       </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
         <v>79</v>
       </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
         <v>103.05</v>
       </c>
-      <c r="AP26" t="s">
-        <v>78</v>
+      <c r="AR26" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:44">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4036,29 +4198,35 @@
       <c r="AI27">
         <v>25</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>66</v>
+      <c r="AJ27">
+        <v>25</v>
       </c>
       <c r="AK27">
+        <v>25</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM27">
         <v>12.5</v>
       </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
       <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
         <v>32</v>
       </c>
-      <c r="AO27">
+      <c r="AQ27">
         <v>44.5</v>
       </c>
-      <c r="AP27" t="s">
-        <v>78</v>
+      <c r="AR27" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:44">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4164,29 +4332,35 @@
       <c r="AI28">
         <v>26</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>67</v>
+      <c r="AJ28">
+        <v>26</v>
       </c>
       <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>69</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>1.78</v>
       </c>
-      <c r="AN28">
+      <c r="AP28">
         <v>40</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <v>41.78</v>
       </c>
-      <c r="AP28" t="s">
-        <v>78</v>
+      <c r="AR28" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:44">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4292,14 +4466,14 @@
       <c r="AI29">
         <v>27</v>
       </c>
-      <c r="AJ29" t="s">
-        <v>68</v>
+      <c r="AJ29">
+        <v>27</v>
       </c>
       <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>70</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -4310,11 +4484,17 @@
       <c r="AO29">
         <v>0</v>
       </c>
-      <c r="AP29" t="s">
-        <v>78</v>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:44">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4420,14 +4600,14 @@
       <c r="AI30">
         <v>28</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>69</v>
+      <c r="AJ30">
+        <v>28</v>
       </c>
       <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>71</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -4438,11 +4618,17 @@
       <c r="AO30">
         <v>0</v>
       </c>
-      <c r="AP30" t="s">
-        <v>78</v>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:44">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4548,14 +4734,14 @@
       <c r="AI31">
         <v>29</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>70</v>
+      <c r="AJ31">
+        <v>29</v>
       </c>
       <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>72</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -4566,11 +4752,17 @@
       <c r="AO31">
         <v>0</v>
       </c>
-      <c r="AP31" t="s">
-        <v>78</v>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:44">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4676,14 +4868,14 @@
       <c r="AI32">
         <v>30</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>71</v>
+      <c r="AJ32">
+        <v>30</v>
       </c>
       <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>73</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -4694,11 +4886,17 @@
       <c r="AO32">
         <v>0</v>
       </c>
-      <c r="AP32" t="s">
-        <v>78</v>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:44">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4804,14 +5002,14 @@
       <c r="AI33">
         <v>31</v>
       </c>
-      <c r="AJ33" t="s">
-        <v>72</v>
+      <c r="AJ33">
+        <v>31</v>
       </c>
       <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>74</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -4819,11 +5017,17 @@
       <c r="AN33">
         <v>0</v>
       </c>
-      <c r="AP33" t="s">
-        <v>78</v>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:44">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4929,14 +5133,14 @@
       <c r="AI34">
         <v>32</v>
       </c>
-      <c r="AJ34" t="s">
-        <v>73</v>
+      <c r="AJ34">
+        <v>32</v>
       </c>
       <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>75</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -4944,11 +5148,17 @@
       <c r="AN34">
         <v>0</v>
       </c>
-      <c r="AP34" t="s">
-        <v>78</v>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:44">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5054,14 +5264,14 @@
       <c r="AI35">
         <v>33</v>
       </c>
-      <c r="AJ35" t="s">
-        <v>74</v>
+      <c r="AJ35">
+        <v>33</v>
       </c>
       <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>76</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -5069,11 +5279,17 @@
       <c r="AN35">
         <v>0</v>
       </c>
-      <c r="AP35" t="s">
-        <v>78</v>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:44">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5179,11 +5395,17 @@
       <c r="AI36">
         <v>34</v>
       </c>
-      <c r="AJ36" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>76</v>
+      <c r="AJ36">
+        <v>34</v>
+      </c>
+      <c r="AK36">
+        <v>34</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -614,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR36"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,8 +753,11 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -863,29 +869,32 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM2">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2">
         <v>44.3</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1253.5</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>152.92</v>
       </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
       <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
         <v>1450.72</v>
       </c>
-      <c r="AR2" t="s">
-        <v>78</v>
+      <c r="AS2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -997,29 +1006,32 @@
       <c r="AK3">
         <v>1</v>
       </c>
-      <c r="AL3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM3">
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN3">
         <v>223.8</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
       <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
         <v>49.96</v>
       </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
       <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
         <v>273.76</v>
       </c>
-      <c r="AR3" t="s">
-        <v>78</v>
+      <c r="AS3" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1131,29 +1143,32 @@
       <c r="AK4">
         <v>2</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4">
+        <v>92.5</v>
+      </c>
+      <c r="AO4">
+        <v>108</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
         <v>45</v>
       </c>
-      <c r="AM4">
-        <v>92.5</v>
-      </c>
-      <c r="AN4">
-        <v>108</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>45</v>
-      </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>245.5</v>
       </c>
-      <c r="AR4" t="s">
-        <v>78</v>
+      <c r="AS4" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1265,15 +1280,15 @@
       <c r="AK5">
         <v>3</v>
       </c>
-      <c r="AL5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM5">
+      <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
       <c r="AO5">
         <v>0</v>
       </c>
@@ -1281,13 +1296,16 @@
         <v>0</v>
       </c>
       <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AR5" t="s">
-        <v>78</v>
+      <c r="AS5" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1399,29 +1417,32 @@
       <c r="AK6">
         <v>4</v>
       </c>
-      <c r="AL6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM6">
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN6">
         <v>20</v>
       </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>45</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>65</v>
       </c>
-      <c r="AR6" t="s">
-        <v>78</v>
+      <c r="AS6" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1533,11 +1554,11 @@
       <c r="AK7">
         <v>5</v>
       </c>
-      <c r="AL7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
+      <c r="AL7">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>49</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -1546,16 +1567,19 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>10</v>
       </c>
-      <c r="AR7" t="s">
-        <v>78</v>
+      <c r="AR7">
+        <v>10</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1667,15 +1691,15 @@
       <c r="AK8">
         <v>6</v>
       </c>
-      <c r="AL8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM8">
+      <c r="AL8">
+        <v>6</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN8">
         <v>9.9</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
       <c r="AO8">
         <v>0</v>
       </c>
@@ -1683,13 +1707,16 @@
         <v>0</v>
       </c>
       <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
         <v>9.9</v>
       </c>
-      <c r="AR8" t="s">
-        <v>78</v>
+      <c r="AS8" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1801,11 +1828,11 @@
       <c r="AK9">
         <v>7</v>
       </c>
-      <c r="AL9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
+      <c r="AL9">
+        <v>7</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>51</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -1819,11 +1846,14 @@
       <c r="AQ9">
         <v>0</v>
       </c>
-      <c r="AR9" t="s">
-        <v>78</v>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1935,11 +1965,11 @@
       <c r="AK10">
         <v>8</v>
       </c>
-      <c r="AL10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
+      <c r="AL10">
+        <v>8</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>52</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -1953,11 +1983,14 @@
       <c r="AQ10">
         <v>0</v>
       </c>
-      <c r="AR10" t="s">
-        <v>78</v>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2069,11 +2102,11 @@
       <c r="AK11">
         <v>9</v>
       </c>
-      <c r="AL11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
+      <c r="AL11">
+        <v>9</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>53</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -2084,11 +2117,14 @@
       <c r="AP11">
         <v>0</v>
       </c>
-      <c r="AR11" t="s">
-        <v>78</v>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2200,29 +2236,32 @@
       <c r="AK12">
         <v>10</v>
       </c>
-      <c r="AL12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>54</v>
       </c>
       <c r="AN12">
         <v>0</v>
       </c>
       <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
         <v>1199.98</v>
       </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
       <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>1199.98</v>
       </c>
-      <c r="AR12" t="s">
-        <v>79</v>
+      <c r="AS12" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2334,29 +2373,32 @@
       <c r="AK13">
         <v>11</v>
       </c>
-      <c r="AL13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM13">
+      <c r="AL13">
+        <v>11</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN13">
         <v>94.2</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>230.1</v>
       </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
       <c r="AP13">
         <v>0</v>
       </c>
       <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
         <v>324.3</v>
       </c>
-      <c r="AR13" t="s">
-        <v>79</v>
+      <c r="AS13" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2468,29 +2510,32 @@
       <c r="AK14">
         <v>12</v>
       </c>
-      <c r="AL14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM14">
+      <c r="AL14">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN14">
         <v>177.8</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>22.5</v>
       </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
         <v>200.3</v>
       </c>
-      <c r="AR14" t="s">
-        <v>79</v>
+      <c r="AS14" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2602,29 +2647,32 @@
       <c r="AK15">
         <v>13</v>
       </c>
-      <c r="AL15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
+      <c r="AL15">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>57</v>
       </c>
       <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>100.7</v>
       </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
       <c r="AP15">
         <v>0</v>
       </c>
       <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
         <v>100.7</v>
       </c>
-      <c r="AR15" t="s">
-        <v>79</v>
+      <c r="AS15" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2736,29 +2784,32 @@
       <c r="AK16">
         <v>14</v>
       </c>
-      <c r="AL16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
+      <c r="AL16">
+        <v>14</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>58</v>
       </c>
       <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
       <c r="AP16">
         <v>0</v>
       </c>
       <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AR16" t="s">
-        <v>79</v>
+      <c r="AS16" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2870,29 +2921,32 @@
       <c r="AK17">
         <v>15</v>
       </c>
-      <c r="AL17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
+      <c r="AL17">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>59</v>
       </c>
       <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
         <v>36.4</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
       <c r="AP17">
         <v>0</v>
       </c>
       <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
         <v>36.4</v>
       </c>
-      <c r="AR17" t="s">
-        <v>79</v>
+      <c r="AS17" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3004,15 +3058,15 @@
       <c r="AK18">
         <v>16</v>
       </c>
-      <c r="AL18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM18">
+      <c r="AL18">
+        <v>16</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN18">
         <v>3.7</v>
       </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
       <c r="AO18">
         <v>0</v>
       </c>
@@ -3020,13 +3074,16 @@
         <v>0</v>
       </c>
       <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
         <v>3.7</v>
       </c>
-      <c r="AR18" t="s">
-        <v>79</v>
+      <c r="AS18" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3138,11 +3195,11 @@
       <c r="AK19">
         <v>17</v>
       </c>
-      <c r="AL19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
+      <c r="AL19">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>61</v>
       </c>
       <c r="AN19">
         <v>0</v>
@@ -3156,11 +3213,14 @@
       <c r="AQ19">
         <v>0</v>
       </c>
-      <c r="AR19" t="s">
-        <v>79</v>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3272,11 +3332,11 @@
       <c r="AK20">
         <v>18</v>
       </c>
-      <c r="AL20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
+      <c r="AL20">
+        <v>18</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>62</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -3290,11 +3350,14 @@
       <c r="AQ20">
         <v>0</v>
       </c>
-      <c r="AR20" t="s">
-        <v>79</v>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3406,11 +3469,11 @@
       <c r="AK21">
         <v>19</v>
       </c>
-      <c r="AL21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
+      <c r="AL21">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>63</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -3421,11 +3484,14 @@
       <c r="AP21">
         <v>0</v>
       </c>
-      <c r="AR21" t="s">
-        <v>79</v>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3537,11 +3603,11 @@
       <c r="AK22">
         <v>20</v>
       </c>
-      <c r="AL22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
+      <c r="AL22">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>64</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -3552,11 +3618,14 @@
       <c r="AP22">
         <v>0</v>
       </c>
-      <c r="AR22" t="s">
-        <v>80</v>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3668,29 +3737,32 @@
       <c r="AK23">
         <v>21</v>
       </c>
-      <c r="AL23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM23">
+      <c r="AL23">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN23">
         <v>36.85</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>550.9</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>65.16</v>
       </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
       <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>652.91</v>
       </c>
-      <c r="AR23" t="s">
-        <v>80</v>
+      <c r="AS23" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3802,15 +3874,15 @@
       <c r="AK24">
         <v>22</v>
       </c>
-      <c r="AL24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM24">
+      <c r="AL24">
+        <v>22</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
       <c r="AO24">
         <v>0</v>
       </c>
@@ -3818,13 +3890,16 @@
         <v>0</v>
       </c>
       <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AR24" t="s">
-        <v>80</v>
+      <c r="AS24" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3936,29 +4011,32 @@
       <c r="AK25">
         <v>23</v>
       </c>
-      <c r="AL25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM25">
+      <c r="AL25">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN25">
         <v>10</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>60</v>
       </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
       <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
         <v>90</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>160</v>
       </c>
-      <c r="AR25" t="s">
-        <v>80</v>
+      <c r="AS25" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4070,29 +4148,32 @@
       <c r="AK26">
         <v>24</v>
       </c>
-      <c r="AL26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM26">
+      <c r="AL26">
+        <v>24</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN26">
         <v>24.05</v>
       </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
       <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
         <v>79</v>
       </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
       <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
         <v>103.05</v>
       </c>
-      <c r="AR26" t="s">
-        <v>80</v>
+      <c r="AS26" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4204,29 +4285,32 @@
       <c r="AK27">
         <v>25</v>
       </c>
-      <c r="AL27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM27">
+      <c r="AL27">
+        <v>25</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN27">
         <v>12.5</v>
       </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
         <v>32</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>44.5</v>
       </c>
-      <c r="AR27" t="s">
-        <v>80</v>
+      <c r="AS27" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4338,29 +4422,32 @@
       <c r="AK28">
         <v>26</v>
       </c>
-      <c r="AL28" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
+      <c r="AL28">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>70</v>
       </c>
       <c r="AN28">
         <v>0</v>
       </c>
       <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
         <v>1.78</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <v>40</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>41.78</v>
       </c>
-      <c r="AR28" t="s">
-        <v>80</v>
+      <c r="AS28" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4472,11 +4559,11 @@
       <c r="AK29">
         <v>27</v>
       </c>
-      <c r="AL29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
+      <c r="AL29">
+        <v>27</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>71</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -4490,11 +4577,14 @@
       <c r="AQ29">
         <v>0</v>
       </c>
-      <c r="AR29" t="s">
-        <v>80</v>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4606,11 +4696,11 @@
       <c r="AK30">
         <v>28</v>
       </c>
-      <c r="AL30" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
+      <c r="AL30">
+        <v>28</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>72</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -4624,11 +4714,14 @@
       <c r="AQ30">
         <v>0</v>
       </c>
-      <c r="AR30" t="s">
-        <v>80</v>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4740,11 +4833,11 @@
       <c r="AK31">
         <v>29</v>
       </c>
-      <c r="AL31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
+      <c r="AL31">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>73</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -4758,11 +4851,14 @@
       <c r="AQ31">
         <v>0</v>
       </c>
-      <c r="AR31" t="s">
-        <v>80</v>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4874,11 +4970,11 @@
       <c r="AK32">
         <v>30</v>
       </c>
-      <c r="AL32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
+      <c r="AL32">
+        <v>30</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>74</v>
       </c>
       <c r="AN32">
         <v>0</v>
@@ -4892,11 +4988,14 @@
       <c r="AQ32">
         <v>0</v>
       </c>
-      <c r="AR32" t="s">
-        <v>80</v>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5008,11 +5107,11 @@
       <c r="AK33">
         <v>31</v>
       </c>
-      <c r="AL33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
+      <c r="AL33">
+        <v>31</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>75</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -5023,11 +5122,14 @@
       <c r="AP33">
         <v>0</v>
       </c>
-      <c r="AR33" t="s">
-        <v>80</v>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5139,11 +5241,11 @@
       <c r="AK34">
         <v>32</v>
       </c>
-      <c r="AL34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
+      <c r="AL34">
+        <v>32</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>76</v>
       </c>
       <c r="AN34">
         <v>0</v>
@@ -5154,11 +5256,14 @@
       <c r="AP34">
         <v>0</v>
       </c>
-      <c r="AR34" t="s">
-        <v>80</v>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5270,11 +5375,11 @@
       <c r="AK35">
         <v>33</v>
       </c>
-      <c r="AL35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
+      <c r="AL35">
+        <v>33</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>77</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -5285,11 +5390,14 @@
       <c r="AP35">
         <v>0</v>
       </c>
-      <c r="AR35" t="s">
-        <v>80</v>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5401,11 +5509,14 @@
       <c r="AK36">
         <v>34</v>
       </c>
-      <c r="AL36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR36" t="s">
+      <c r="AL36">
+        <v>34</v>
+      </c>
+      <c r="AM36" t="s">
         <v>78</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -617,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AT36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,8 +759,11 @@
       <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -872,29 +878,32 @@
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AM2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN2">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2">
         <v>44.3</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>1253.5</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>152.92</v>
       </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
       <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>1450.72</v>
       </c>
-      <c r="AS2" t="s">
-        <v>79</v>
+      <c r="AT2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1009,29 +1018,32 @@
       <c r="AL3">
         <v>1</v>
       </c>
-      <c r="AM3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN3">
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3">
         <v>223.8</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
       <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>49.96</v>
       </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
       <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>273.76</v>
       </c>
-      <c r="AS3" t="s">
-        <v>79</v>
+      <c r="AT3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1146,29 +1158,32 @@
       <c r="AL4">
         <v>2</v>
       </c>
-      <c r="AM4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN4">
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO4">
         <v>92.5</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>108</v>
       </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
       <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
         <v>45</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>245.5</v>
       </c>
-      <c r="AS4" t="s">
-        <v>79</v>
+      <c r="AT4" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:46">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1283,15 +1298,15 @@
       <c r="AL5">
         <v>3</v>
       </c>
-      <c r="AM5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN5">
+      <c r="AM5">
+        <v>3</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
       <c r="AP5">
         <v>0</v>
       </c>
@@ -1299,13 +1314,16 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AS5" t="s">
-        <v>79</v>
+      <c r="AT5" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:46">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1420,29 +1438,32 @@
       <c r="AL6">
         <v>4</v>
       </c>
-      <c r="AM6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN6">
+      <c r="AM6">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6">
         <v>20</v>
       </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
         <v>45</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>65</v>
       </c>
-      <c r="AS6" t="s">
-        <v>79</v>
+      <c r="AT6" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:46">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1557,11 +1578,11 @@
       <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AM7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
+      <c r="AM7">
+        <v>5</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>50</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1570,16 +1591,19 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>10</v>
       </c>
-      <c r="AS7" t="s">
-        <v>79</v>
+      <c r="AS7">
+        <v>10</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:46">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1694,15 +1718,15 @@
       <c r="AL8">
         <v>6</v>
       </c>
-      <c r="AM8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN8">
+      <c r="AM8">
+        <v>6</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO8">
         <v>9.9</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
       <c r="AP8">
         <v>0</v>
       </c>
@@ -1710,13 +1734,16 @@
         <v>0</v>
       </c>
       <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>9.9</v>
       </c>
-      <c r="AS8" t="s">
-        <v>79</v>
+      <c r="AT8" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:46">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1831,11 +1858,11 @@
       <c r="AL9">
         <v>7</v>
       </c>
-      <c r="AM9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
+      <c r="AM9">
+        <v>7</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>52</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -1849,11 +1876,14 @@
       <c r="AR9">
         <v>0</v>
       </c>
-      <c r="AS9" t="s">
-        <v>79</v>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:46">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1968,11 +1998,11 @@
       <c r="AL10">
         <v>8</v>
       </c>
-      <c r="AM10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
+      <c r="AM10">
+        <v>8</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>53</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -1986,11 +2016,14 @@
       <c r="AR10">
         <v>0</v>
       </c>
-      <c r="AS10" t="s">
-        <v>79</v>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:46">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2105,11 +2138,11 @@
       <c r="AL11">
         <v>9</v>
       </c>
-      <c r="AM11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
+      <c r="AM11">
+        <v>9</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>54</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2120,11 +2153,14 @@
       <c r="AQ11">
         <v>0</v>
       </c>
-      <c r="AS11" t="s">
-        <v>79</v>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:46">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2239,29 +2275,32 @@
       <c r="AL12">
         <v>10</v>
       </c>
-      <c r="AM12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>55</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>1199.98</v>
       </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
       <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>1199.98</v>
       </c>
-      <c r="AS12" t="s">
-        <v>80</v>
+      <c r="AT12" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:46">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2376,29 +2415,32 @@
       <c r="AL13">
         <v>11</v>
       </c>
-      <c r="AM13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN13">
+      <c r="AM13">
+        <v>11</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13">
         <v>94.2</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>230.1</v>
       </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
       <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>324.3</v>
       </c>
-      <c r="AS13" t="s">
-        <v>80</v>
+      <c r="AT13" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:46">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2513,29 +2555,32 @@
       <c r="AL14">
         <v>12</v>
       </c>
-      <c r="AM14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN14">
+      <c r="AM14">
+        <v>12</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO14">
         <v>177.8</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>22.5</v>
       </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
       <c r="AQ14">
         <v>0</v>
       </c>
       <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>200.3</v>
       </c>
-      <c r="AS14" t="s">
-        <v>80</v>
+      <c r="AT14" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:46">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2650,29 +2695,32 @@
       <c r="AL15">
         <v>13</v>
       </c>
-      <c r="AM15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
+      <c r="AM15">
+        <v>13</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>58</v>
       </c>
       <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
         <v>100.7</v>
       </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
       <c r="AQ15">
         <v>0</v>
       </c>
       <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>100.7</v>
       </c>
-      <c r="AS15" t="s">
-        <v>80</v>
+      <c r="AT15" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:46">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2787,29 +2835,32 @@
       <c r="AL16">
         <v>14</v>
       </c>
-      <c r="AM16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
+      <c r="AM16">
+        <v>14</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>59</v>
       </c>
       <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
       <c r="AQ16">
         <v>0</v>
       </c>
       <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AS16" t="s">
-        <v>80</v>
+      <c r="AT16" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:46">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2924,29 +2975,32 @@
       <c r="AL17">
         <v>15</v>
       </c>
-      <c r="AM17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
+      <c r="AM17">
+        <v>15</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>60</v>
       </c>
       <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
         <v>36.4</v>
       </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
       <c r="AQ17">
         <v>0</v>
       </c>
       <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>36.4</v>
       </c>
-      <c r="AS17" t="s">
-        <v>80</v>
+      <c r="AT17" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:46">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3061,15 +3115,15 @@
       <c r="AL18">
         <v>16</v>
       </c>
-      <c r="AM18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN18">
+      <c r="AM18">
+        <v>16</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO18">
         <v>3.7</v>
       </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
       <c r="AP18">
         <v>0</v>
       </c>
@@ -3077,13 +3131,16 @@
         <v>0</v>
       </c>
       <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>3.7</v>
       </c>
-      <c r="AS18" t="s">
-        <v>80</v>
+      <c r="AT18" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:46">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3198,11 +3255,11 @@
       <c r="AL19">
         <v>17</v>
       </c>
-      <c r="AM19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
+      <c r="AM19">
+        <v>17</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>62</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -3216,11 +3273,14 @@
       <c r="AR19">
         <v>0</v>
       </c>
-      <c r="AS19" t="s">
-        <v>80</v>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:46">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3335,11 +3395,11 @@
       <c r="AL20">
         <v>18</v>
       </c>
-      <c r="AM20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
+      <c r="AM20">
+        <v>18</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>63</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -3353,11 +3413,14 @@
       <c r="AR20">
         <v>0</v>
       </c>
-      <c r="AS20" t="s">
-        <v>80</v>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:46">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3472,11 +3535,11 @@
       <c r="AL21">
         <v>19</v>
       </c>
-      <c r="AM21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
+      <c r="AM21">
+        <v>19</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>64</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -3487,11 +3550,14 @@
       <c r="AQ21">
         <v>0</v>
       </c>
-      <c r="AS21" t="s">
-        <v>80</v>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:46">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3606,11 +3672,11 @@
       <c r="AL22">
         <v>20</v>
       </c>
-      <c r="AM22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
+      <c r="AM22">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>65</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -3621,11 +3687,14 @@
       <c r="AQ22">
         <v>0</v>
       </c>
-      <c r="AS22" t="s">
-        <v>81</v>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:46">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3740,29 +3809,32 @@
       <c r="AL23">
         <v>21</v>
       </c>
-      <c r="AM23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN23">
+      <c r="AM23">
+        <v>21</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO23">
         <v>36.85</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>550.9</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>65.16</v>
       </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
       <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>652.91</v>
       </c>
-      <c r="AS23" t="s">
-        <v>81</v>
+      <c r="AT23" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:46">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3877,15 +3949,15 @@
       <c r="AL24">
         <v>22</v>
       </c>
-      <c r="AM24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN24">
+      <c r="AM24">
+        <v>22</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
       <c r="AP24">
         <v>0</v>
       </c>
@@ -3893,13 +3965,16 @@
         <v>0</v>
       </c>
       <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AS24" t="s">
-        <v>81</v>
+      <c r="AT24" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:46">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4014,29 +4089,32 @@
       <c r="AL25">
         <v>23</v>
       </c>
-      <c r="AM25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN25">
+      <c r="AM25">
+        <v>23</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO25">
         <v>10</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>60</v>
       </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
       <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
         <v>90</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>160</v>
       </c>
-      <c r="AS25" t="s">
-        <v>81</v>
+      <c r="AT25" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:46">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4151,29 +4229,32 @@
       <c r="AL26">
         <v>24</v>
       </c>
-      <c r="AM26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN26">
+      <c r="AM26">
+        <v>24</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO26">
         <v>24.05</v>
       </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
       <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
         <v>79</v>
       </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
       <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>103.05</v>
       </c>
-      <c r="AS26" t="s">
-        <v>81</v>
+      <c r="AT26" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:46">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4288,29 +4369,32 @@
       <c r="AL27">
         <v>25</v>
       </c>
-      <c r="AM27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN27">
+      <c r="AM27">
+        <v>25</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO27">
         <v>12.5</v>
       </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
       <c r="AP27">
         <v>0</v>
       </c>
       <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
         <v>32</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>44.5</v>
       </c>
-      <c r="AS27" t="s">
-        <v>81</v>
+      <c r="AT27" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:46">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4425,29 +4509,32 @@
       <c r="AL28">
         <v>26</v>
       </c>
-      <c r="AM28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
+      <c r="AM28">
+        <v>26</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>71</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
         <v>1.78</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>40</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>41.78</v>
       </c>
-      <c r="AS28" t="s">
-        <v>81</v>
+      <c r="AT28" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:46">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4562,11 +4649,11 @@
       <c r="AL29">
         <v>27</v>
       </c>
-      <c r="AM29" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
+      <c r="AM29">
+        <v>27</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>72</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -4580,11 +4667,14 @@
       <c r="AR29">
         <v>0</v>
       </c>
-      <c r="AS29" t="s">
-        <v>81</v>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:46">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4699,11 +4789,11 @@
       <c r="AL30">
         <v>28</v>
       </c>
-      <c r="AM30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
+      <c r="AM30">
+        <v>28</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>73</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -4717,11 +4807,14 @@
       <c r="AR30">
         <v>0</v>
       </c>
-      <c r="AS30" t="s">
-        <v>81</v>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:46">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4836,11 +4929,11 @@
       <c r="AL31">
         <v>29</v>
       </c>
-      <c r="AM31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
+      <c r="AM31">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>74</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -4854,11 +4947,14 @@
       <c r="AR31">
         <v>0</v>
       </c>
-      <c r="AS31" t="s">
-        <v>81</v>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:46">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4973,11 +5069,11 @@
       <c r="AL32">
         <v>30</v>
       </c>
-      <c r="AM32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
+      <c r="AM32">
+        <v>30</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>75</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -4991,11 +5087,14 @@
       <c r="AR32">
         <v>0</v>
       </c>
-      <c r="AS32" t="s">
-        <v>81</v>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:46">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5110,11 +5209,11 @@
       <c r="AL33">
         <v>31</v>
       </c>
-      <c r="AM33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
+      <c r="AM33">
+        <v>31</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>76</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -5125,11 +5224,14 @@
       <c r="AQ33">
         <v>0</v>
       </c>
-      <c r="AS33" t="s">
-        <v>81</v>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:46">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5244,11 +5346,11 @@
       <c r="AL34">
         <v>32</v>
       </c>
-      <c r="AM34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
+      <c r="AM34">
+        <v>32</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>77</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -5259,11 +5361,14 @@
       <c r="AQ34">
         <v>0</v>
       </c>
-      <c r="AS34" t="s">
-        <v>81</v>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:46">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5378,11 +5483,11 @@
       <c r="AL35">
         <v>33</v>
       </c>
-      <c r="AM35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
+      <c r="AM35">
+        <v>33</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>78</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -5393,11 +5498,14 @@
       <c r="AQ35">
         <v>0</v>
       </c>
-      <c r="AS35" t="s">
-        <v>81</v>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:46">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5512,11 +5620,14 @@
       <c r="AL36">
         <v>34</v>
       </c>
-      <c r="AM36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS36" t="s">
+      <c r="AM36">
+        <v>34</v>
+      </c>
+      <c r="AN36" t="s">
         <v>79</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -620,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT36"/>
+  <dimension ref="A1:AU36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:47">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -881,29 +887,32 @@
       <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AN2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO2">
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2">
         <v>44.3</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>1253.5</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>152.92</v>
       </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
       <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
         <v>1450.72</v>
       </c>
-      <c r="AT2" t="s">
-        <v>80</v>
+      <c r="AU2" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1021,29 +1030,32 @@
       <c r="AM3">
         <v>1</v>
       </c>
-      <c r="AN3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO3">
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3">
         <v>223.8</v>
       </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
       <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
         <v>49.96</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>273.76</v>
       </c>
-      <c r="AT3" t="s">
-        <v>80</v>
+      <c r="AU3" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1161,29 +1173,32 @@
       <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AN4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO4">
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP4">
         <v>92.5</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>108</v>
       </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
       <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>45</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>245.5</v>
       </c>
-      <c r="AT4" t="s">
-        <v>80</v>
+      <c r="AU4" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:47">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1301,15 +1316,15 @@
       <c r="AM5">
         <v>3</v>
       </c>
-      <c r="AN5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO5">
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
       <c r="AQ5">
         <v>0</v>
       </c>
@@ -1317,13 +1332,16 @@
         <v>0</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AT5" t="s">
-        <v>80</v>
+      <c r="AU5" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1441,29 +1459,32 @@
       <c r="AM6">
         <v>4</v>
       </c>
-      <c r="AN6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO6">
+      <c r="AN6">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP6">
         <v>20</v>
       </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>45</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>65</v>
       </c>
-      <c r="AT6" t="s">
-        <v>80</v>
+      <c r="AU6" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:47">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1581,11 +1602,11 @@
       <c r="AM7">
         <v>5</v>
       </c>
-      <c r="AN7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
+      <c r="AN7">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>51</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -1594,16 +1615,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <v>10</v>
       </c>
-      <c r="AT7" t="s">
-        <v>80</v>
+      <c r="AT7">
+        <v>10</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:47">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1721,15 +1745,15 @@
       <c r="AM8">
         <v>6</v>
       </c>
-      <c r="AN8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO8">
+      <c r="AN8">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP8">
         <v>9.9</v>
       </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
       <c r="AQ8">
         <v>0</v>
       </c>
@@ -1737,13 +1761,16 @@
         <v>0</v>
       </c>
       <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
         <v>9.9</v>
       </c>
-      <c r="AT8" t="s">
-        <v>80</v>
+      <c r="AU8" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:47">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1861,11 +1888,11 @@
       <c r="AM9">
         <v>7</v>
       </c>
-      <c r="AN9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
+      <c r="AN9">
+        <v>7</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>53</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -1879,11 +1906,14 @@
       <c r="AS9">
         <v>0</v>
       </c>
-      <c r="AT9" t="s">
-        <v>80</v>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:47">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2001,11 +2031,11 @@
       <c r="AM10">
         <v>8</v>
       </c>
-      <c r="AN10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
+      <c r="AN10">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>54</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -2019,11 +2049,14 @@
       <c r="AS10">
         <v>0</v>
       </c>
-      <c r="AT10" t="s">
-        <v>80</v>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:47">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2141,11 +2174,11 @@
       <c r="AM11">
         <v>9</v>
       </c>
-      <c r="AN11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
+      <c r="AN11">
+        <v>9</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>55</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2156,11 +2189,14 @@
       <c r="AR11">
         <v>0</v>
       </c>
-      <c r="AT11" t="s">
-        <v>80</v>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:47">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2278,29 +2314,32 @@
       <c r="AM12">
         <v>10</v>
       </c>
-      <c r="AN12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
+      <c r="AN12">
+        <v>10</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>56</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>1199.98</v>
       </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
       <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
         <v>1199.98</v>
       </c>
-      <c r="AT12" t="s">
-        <v>81</v>
+      <c r="AU12" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:47">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2418,29 +2457,32 @@
       <c r="AM13">
         <v>11</v>
       </c>
-      <c r="AN13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO13">
+      <c r="AN13">
+        <v>11</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP13">
         <v>94.2</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>230.1</v>
       </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
       <c r="AR13">
         <v>0</v>
       </c>
       <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
         <v>324.3</v>
       </c>
-      <c r="AT13" t="s">
-        <v>81</v>
+      <c r="AU13" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:47">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2558,29 +2600,32 @@
       <c r="AM14">
         <v>12</v>
       </c>
-      <c r="AN14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO14">
+      <c r="AN14">
+        <v>12</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14">
         <v>177.8</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>22.5</v>
       </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
         <v>200.3</v>
       </c>
-      <c r="AT14" t="s">
-        <v>81</v>
+      <c r="AU14" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:47">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2698,29 +2743,32 @@
       <c r="AM15">
         <v>13</v>
       </c>
-      <c r="AN15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
+      <c r="AN15">
+        <v>13</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>59</v>
       </c>
       <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
         <v>100.7</v>
       </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
       <c r="AR15">
         <v>0</v>
       </c>
       <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
         <v>100.7</v>
       </c>
-      <c r="AT15" t="s">
-        <v>81</v>
+      <c r="AU15" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:47">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2838,29 +2886,32 @@
       <c r="AM16">
         <v>14</v>
       </c>
-      <c r="AN16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
+      <c r="AN16">
+        <v>14</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>60</v>
       </c>
       <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
       <c r="AR16">
         <v>0</v>
       </c>
       <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AT16" t="s">
-        <v>81</v>
+      <c r="AU16" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:47">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2978,29 +3029,32 @@
       <c r="AM17">
         <v>15</v>
       </c>
-      <c r="AN17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
+      <c r="AN17">
+        <v>15</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>61</v>
       </c>
       <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
         <v>36.4</v>
       </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
       <c r="AR17">
         <v>0</v>
       </c>
       <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
         <v>36.4</v>
       </c>
-      <c r="AT17" t="s">
-        <v>81</v>
+      <c r="AU17" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:47">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3118,15 +3172,15 @@
       <c r="AM18">
         <v>16</v>
       </c>
-      <c r="AN18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO18">
+      <c r="AN18">
+        <v>16</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP18">
         <v>3.7</v>
       </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
       <c r="AQ18">
         <v>0</v>
       </c>
@@ -3134,13 +3188,16 @@
         <v>0</v>
       </c>
       <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
         <v>3.7</v>
       </c>
-      <c r="AT18" t="s">
-        <v>81</v>
+      <c r="AU18" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:47">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3258,11 +3315,11 @@
       <c r="AM19">
         <v>17</v>
       </c>
-      <c r="AN19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
+      <c r="AN19">
+        <v>17</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>63</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -3276,11 +3333,14 @@
       <c r="AS19">
         <v>0</v>
       </c>
-      <c r="AT19" t="s">
-        <v>81</v>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:47">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3398,11 +3458,11 @@
       <c r="AM20">
         <v>18</v>
       </c>
-      <c r="AN20" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
+      <c r="AN20">
+        <v>18</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>64</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -3416,11 +3476,14 @@
       <c r="AS20">
         <v>0</v>
       </c>
-      <c r="AT20" t="s">
-        <v>81</v>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:47">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3538,11 +3601,11 @@
       <c r="AM21">
         <v>19</v>
       </c>
-      <c r="AN21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
+      <c r="AN21">
+        <v>19</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>65</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -3553,11 +3616,14 @@
       <c r="AR21">
         <v>0</v>
       </c>
-      <c r="AT21" t="s">
-        <v>81</v>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:47">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3675,11 +3741,11 @@
       <c r="AM22">
         <v>20</v>
       </c>
-      <c r="AN22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
+      <c r="AN22">
+        <v>20</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>66</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -3690,11 +3756,14 @@
       <c r="AR22">
         <v>0</v>
       </c>
-      <c r="AT22" t="s">
-        <v>82</v>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:47">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3812,29 +3881,32 @@
       <c r="AM23">
         <v>21</v>
       </c>
-      <c r="AN23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO23">
+      <c r="AN23">
+        <v>21</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP23">
         <v>36.85</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>550.9</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>65.16</v>
       </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
       <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
         <v>652.91</v>
       </c>
-      <c r="AT23" t="s">
-        <v>82</v>
+      <c r="AU23" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:47">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3952,15 +4024,15 @@
       <c r="AM24">
         <v>22</v>
       </c>
-      <c r="AN24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO24">
+      <c r="AN24">
+        <v>22</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
       <c r="AQ24">
         <v>0</v>
       </c>
@@ -3968,13 +4040,16 @@
         <v>0</v>
       </c>
       <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AT24" t="s">
-        <v>82</v>
+      <c r="AU24" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:47">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4092,29 +4167,32 @@
       <c r="AM25">
         <v>23</v>
       </c>
-      <c r="AN25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO25">
+      <c r="AN25">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP25">
         <v>10</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>60</v>
       </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
       <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>90</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>160</v>
       </c>
-      <c r="AT25" t="s">
-        <v>82</v>
+      <c r="AU25" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:47">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4232,29 +4310,32 @@
       <c r="AM26">
         <v>24</v>
       </c>
-      <c r="AN26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO26">
+      <c r="AN26">
+        <v>24</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP26">
         <v>24.05</v>
       </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
       <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
         <v>79</v>
       </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
       <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
         <v>103.05</v>
       </c>
-      <c r="AT26" t="s">
-        <v>82</v>
+      <c r="AU26" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:47">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4372,29 +4453,32 @@
       <c r="AM27">
         <v>25</v>
       </c>
-      <c r="AN27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO27">
+      <c r="AN27">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP27">
         <v>12.5</v>
       </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
       <c r="AQ27">
         <v>0</v>
       </c>
       <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>32</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>44.5</v>
       </c>
-      <c r="AT27" t="s">
-        <v>82</v>
+      <c r="AU27" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:47">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4512,29 +4596,32 @@
       <c r="AM28">
         <v>26</v>
       </c>
-      <c r="AN28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
+      <c r="AN28">
+        <v>26</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>72</v>
       </c>
       <c r="AP28">
         <v>0</v>
       </c>
       <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
         <v>1.78</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>40</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <v>41.78</v>
       </c>
-      <c r="AT28" t="s">
-        <v>82</v>
+      <c r="AU28" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:47">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4652,11 +4739,11 @@
       <c r="AM29">
         <v>27</v>
       </c>
-      <c r="AN29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
+      <c r="AN29">
+        <v>27</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>73</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -4670,11 +4757,14 @@
       <c r="AS29">
         <v>0</v>
       </c>
-      <c r="AT29" t="s">
-        <v>82</v>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:47">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4792,11 +4882,11 @@
       <c r="AM30">
         <v>28</v>
       </c>
-      <c r="AN30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
+      <c r="AN30">
+        <v>28</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>74</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -4810,11 +4900,14 @@
       <c r="AS30">
         <v>0</v>
       </c>
-      <c r="AT30" t="s">
-        <v>82</v>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:47">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4932,11 +5025,11 @@
       <c r="AM31">
         <v>29</v>
       </c>
-      <c r="AN31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
+      <c r="AN31">
+        <v>29</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>75</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -4950,11 +5043,14 @@
       <c r="AS31">
         <v>0</v>
       </c>
-      <c r="AT31" t="s">
-        <v>82</v>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:47">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5072,11 +5168,11 @@
       <c r="AM32">
         <v>30</v>
       </c>
-      <c r="AN32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
+      <c r="AN32">
+        <v>30</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>76</v>
       </c>
       <c r="AP32">
         <v>0</v>
@@ -5090,11 +5186,14 @@
       <c r="AS32">
         <v>0</v>
       </c>
-      <c r="AT32" t="s">
-        <v>82</v>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:47">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5212,11 +5311,11 @@
       <c r="AM33">
         <v>31</v>
       </c>
-      <c r="AN33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
+      <c r="AN33">
+        <v>31</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>77</v>
       </c>
       <c r="AP33">
         <v>0</v>
@@ -5227,11 +5326,14 @@
       <c r="AR33">
         <v>0</v>
       </c>
-      <c r="AT33" t="s">
-        <v>82</v>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:47">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5349,11 +5451,11 @@
       <c r="AM34">
         <v>32</v>
       </c>
-      <c r="AN34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
+      <c r="AN34">
+        <v>32</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>78</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -5364,11 +5466,14 @@
       <c r="AR34">
         <v>0</v>
       </c>
-      <c r="AT34" t="s">
-        <v>82</v>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:47">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5486,11 +5591,11 @@
       <c r="AM35">
         <v>33</v>
       </c>
-      <c r="AN35" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
+      <c r="AN35">
+        <v>33</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>79</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -5501,11 +5606,14 @@
       <c r="AR35">
         <v>0</v>
       </c>
-      <c r="AT35" t="s">
-        <v>82</v>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:47">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5623,11 +5731,14 @@
       <c r="AM36">
         <v>34</v>
       </c>
-      <c r="AN36" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT36" t="s">
+      <c r="AN36">
+        <v>34</v>
+      </c>
+      <c r="AO36" t="s">
         <v>80</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -623,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU36"/>
+  <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:50">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,8 +777,17 @@
       <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:50">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -890,29 +908,38 @@
       <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2" t="s">
-        <v>46</v>
+      <c r="AO2">
+        <v>0</v>
       </c>
       <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2">
         <v>44.3</v>
       </c>
-      <c r="AQ2">
+      <c r="AT2">
         <v>1253.5</v>
       </c>
-      <c r="AR2">
+      <c r="AU2">
         <v>152.92</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
         <v>1450.72</v>
       </c>
-      <c r="AU2" t="s">
-        <v>81</v>
+      <c r="AX2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:50">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1033,29 +1060,38 @@
       <c r="AN3">
         <v>1</v>
       </c>
-      <c r="AO3" t="s">
-        <v>47</v>
+      <c r="AO3">
+        <v>1</v>
       </c>
       <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3">
         <v>223.8</v>
       </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
         <v>49.96</v>
       </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>273.76</v>
       </c>
-      <c r="AU3" t="s">
-        <v>81</v>
+      <c r="AX3" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:50">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1176,29 +1212,38 @@
       <c r="AN4">
         <v>2</v>
       </c>
-      <c r="AO4" t="s">
-        <v>48</v>
+      <c r="AO4">
+        <v>2</v>
       </c>
       <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS4">
         <v>92.5</v>
       </c>
-      <c r="AQ4">
+      <c r="AT4">
         <v>108</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
         <v>45</v>
       </c>
-      <c r="AT4">
+      <c r="AW4">
         <v>245.5</v>
       </c>
-      <c r="AU4" t="s">
-        <v>81</v>
+      <c r="AX4" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:50">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1319,29 +1364,38 @@
       <c r="AN5">
         <v>3</v>
       </c>
-      <c r="AO5" t="s">
-        <v>49</v>
+      <c r="AO5">
+        <v>3</v>
       </c>
       <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
       <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AU5" t="s">
-        <v>81</v>
+      <c r="AX5" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:50">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1462,29 +1516,38 @@
       <c r="AN6">
         <v>4</v>
       </c>
-      <c r="AO6" t="s">
-        <v>50</v>
+      <c r="AO6">
+        <v>4</v>
       </c>
       <c r="AP6">
+        <v>4</v>
+      </c>
+      <c r="AQ6">
+        <v>4</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS6">
         <v>20</v>
       </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
         <v>45</v>
       </c>
-      <c r="AT6">
+      <c r="AW6">
         <v>65</v>
       </c>
-      <c r="AU6" t="s">
-        <v>81</v>
+      <c r="AX6" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:50">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1605,29 +1668,38 @@
       <c r="AN7">
         <v>5</v>
       </c>
-      <c r="AO7" t="s">
-        <v>51</v>
+      <c r="AO7">
+        <v>5</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>54</v>
       </c>
       <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
         <v>10</v>
       </c>
-      <c r="AT7">
+      <c r="AW7">
         <v>10</v>
       </c>
-      <c r="AU7" t="s">
-        <v>81</v>
+      <c r="AX7" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:50">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1748,29 +1820,38 @@
       <c r="AN8">
         <v>6</v>
       </c>
-      <c r="AO8" t="s">
-        <v>52</v>
+      <c r="AO8">
+        <v>6</v>
       </c>
       <c r="AP8">
+        <v>6</v>
+      </c>
+      <c r="AQ8">
+        <v>6</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS8">
         <v>9.9</v>
       </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
       <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
         <v>9.9</v>
       </c>
-      <c r="AU8" t="s">
-        <v>81</v>
+      <c r="AX8" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:50">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1891,17 +1972,17 @@
       <c r="AN9">
         <v>7</v>
       </c>
-      <c r="AO9" t="s">
-        <v>53</v>
+      <c r="AO9">
+        <v>7</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -1909,11 +1990,20 @@
       <c r="AT9">
         <v>0</v>
       </c>
-      <c r="AU9" t="s">
-        <v>81</v>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:50">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2034,17 +2124,17 @@
       <c r="AN10">
         <v>8</v>
       </c>
-      <c r="AO10" t="s">
-        <v>54</v>
+      <c r="AO10">
+        <v>8</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>57</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -2052,11 +2142,20 @@
       <c r="AT10">
         <v>0</v>
       </c>
-      <c r="AU10" t="s">
-        <v>81</v>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:50">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2177,26 +2276,35 @@
       <c r="AN11">
         <v>9</v>
       </c>
-      <c r="AO11" t="s">
-        <v>55</v>
+      <c r="AO11">
+        <v>9</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>58</v>
       </c>
       <c r="AS11">
         <v>0</v>
       </c>
-      <c r="AU11" t="s">
-        <v>81</v>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:50">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2317,29 +2425,38 @@
       <c r="AN12">
         <v>10</v>
       </c>
-      <c r="AO12" t="s">
-        <v>56</v>
+      <c r="AO12">
+        <v>10</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
+        <v>10</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>1199.98</v>
       </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>1199.98</v>
       </c>
-      <c r="AU12" t="s">
-        <v>82</v>
+      <c r="AX12" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:50">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2460,29 +2577,38 @@
       <c r="AN13">
         <v>11</v>
       </c>
-      <c r="AO13" t="s">
-        <v>57</v>
+      <c r="AO13">
+        <v>11</v>
       </c>
       <c r="AP13">
+        <v>11</v>
+      </c>
+      <c r="AQ13">
+        <v>11</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS13">
         <v>94.2</v>
       </c>
-      <c r="AQ13">
+      <c r="AT13">
         <v>230.1</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
         <v>324.3</v>
       </c>
-      <c r="AU13" t="s">
-        <v>82</v>
+      <c r="AX13" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:50">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2603,29 +2729,38 @@
       <c r="AN14">
         <v>12</v>
       </c>
-      <c r="AO14" t="s">
-        <v>58</v>
+      <c r="AO14">
+        <v>12</v>
       </c>
       <c r="AP14">
+        <v>12</v>
+      </c>
+      <c r="AQ14">
+        <v>12</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS14">
         <v>177.8</v>
       </c>
-      <c r="AQ14">
+      <c r="AT14">
         <v>22.5</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>200.3</v>
       </c>
-      <c r="AU14" t="s">
-        <v>82</v>
+      <c r="AX14" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:50">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2746,17 +2881,17 @@
       <c r="AN15">
         <v>13</v>
       </c>
-      <c r="AO15" t="s">
-        <v>59</v>
+      <c r="AO15">
+        <v>13</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ15">
-        <v>100.7</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>62</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -2764,11 +2899,20 @@
       <c r="AT15">
         <v>100.7</v>
       </c>
-      <c r="AU15" t="s">
-        <v>82</v>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>100.7</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:50">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2889,17 +3033,17 @@
       <c r="AN16">
         <v>14</v>
       </c>
-      <c r="AO16" t="s">
-        <v>60</v>
+      <c r="AO16">
+        <v>14</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ16">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>63</v>
       </c>
       <c r="AS16">
         <v>0</v>
@@ -2907,11 +3051,20 @@
       <c r="AT16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AU16" t="s">
-        <v>82</v>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:50">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3032,17 +3185,17 @@
       <c r="AN17">
         <v>15</v>
       </c>
-      <c r="AO17" t="s">
-        <v>61</v>
+      <c r="AO17">
+        <v>15</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ17">
-        <v>36.4</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>64</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -3050,11 +3203,20 @@
       <c r="AT17">
         <v>36.4</v>
       </c>
-      <c r="AU17" t="s">
-        <v>82</v>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>36.4</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:50">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3175,29 +3337,38 @@
       <c r="AN18">
         <v>16</v>
       </c>
-      <c r="AO18" t="s">
-        <v>62</v>
+      <c r="AO18">
+        <v>16</v>
       </c>
       <c r="AP18">
+        <v>16</v>
+      </c>
+      <c r="AQ18">
+        <v>16</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS18">
         <v>3.7</v>
       </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
       <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
         <v>3.7</v>
       </c>
-      <c r="AU18" t="s">
-        <v>82</v>
+      <c r="AX18" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:50">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3318,17 +3489,17 @@
       <c r="AN19">
         <v>17</v>
       </c>
-      <c r="AO19" t="s">
-        <v>63</v>
+      <c r="AO19">
+        <v>17</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>66</v>
       </c>
       <c r="AS19">
         <v>0</v>
@@ -3336,11 +3507,20 @@
       <c r="AT19">
         <v>0</v>
       </c>
-      <c r="AU19" t="s">
-        <v>82</v>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:50">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3461,17 +3641,17 @@
       <c r="AN20">
         <v>18</v>
       </c>
-      <c r="AO20" t="s">
-        <v>64</v>
+      <c r="AO20">
+        <v>18</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>67</v>
       </c>
       <c r="AS20">
         <v>0</v>
@@ -3479,11 +3659,20 @@
       <c r="AT20">
         <v>0</v>
       </c>
-      <c r="AU20" t="s">
-        <v>82</v>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:50">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3604,26 +3793,35 @@
       <c r="AN21">
         <v>19</v>
       </c>
-      <c r="AO21" t="s">
-        <v>65</v>
+      <c r="AO21">
+        <v>19</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>68</v>
       </c>
       <c r="AS21">
         <v>0</v>
       </c>
-      <c r="AU21" t="s">
-        <v>82</v>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:50">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3744,26 +3942,35 @@
       <c r="AN22">
         <v>20</v>
       </c>
-      <c r="AO22" t="s">
-        <v>66</v>
+      <c r="AO22">
+        <v>20</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>69</v>
       </c>
       <c r="AS22">
         <v>0</v>
       </c>
-      <c r="AU22" t="s">
-        <v>83</v>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:50">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3884,29 +4091,38 @@
       <c r="AN23">
         <v>21</v>
       </c>
-      <c r="AO23" t="s">
-        <v>67</v>
+      <c r="AO23">
+        <v>21</v>
       </c>
       <c r="AP23">
+        <v>21</v>
+      </c>
+      <c r="AQ23">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS23">
         <v>36.85</v>
       </c>
-      <c r="AQ23">
+      <c r="AT23">
         <v>550.9</v>
       </c>
-      <c r="AR23">
+      <c r="AU23">
         <v>65.16</v>
       </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
         <v>652.91</v>
       </c>
-      <c r="AU23" t="s">
-        <v>83</v>
+      <c r="AX23" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:50">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4027,29 +4243,38 @@
       <c r="AN24">
         <v>22</v>
       </c>
-      <c r="AO24" t="s">
-        <v>68</v>
+      <c r="AO24">
+        <v>22</v>
       </c>
       <c r="AP24">
+        <v>22</v>
+      </c>
+      <c r="AQ24">
+        <v>22</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
       <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AU24" t="s">
-        <v>83</v>
+      <c r="AX24" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:50">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4170,29 +4395,38 @@
       <c r="AN25">
         <v>23</v>
       </c>
-      <c r="AO25" t="s">
-        <v>69</v>
+      <c r="AO25">
+        <v>23</v>
       </c>
       <c r="AP25">
+        <v>23</v>
+      </c>
+      <c r="AQ25">
+        <v>23</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS25">
         <v>10</v>
       </c>
-      <c r="AQ25">
+      <c r="AT25">
         <v>60</v>
       </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>90</v>
       </c>
-      <c r="AT25">
+      <c r="AW25">
         <v>160</v>
       </c>
-      <c r="AU25" t="s">
-        <v>83</v>
+      <c r="AX25" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:50">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4313,29 +4547,38 @@
       <c r="AN26">
         <v>24</v>
       </c>
-      <c r="AO26" t="s">
-        <v>70</v>
+      <c r="AO26">
+        <v>24</v>
       </c>
       <c r="AP26">
+        <v>24</v>
+      </c>
+      <c r="AQ26">
+        <v>24</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS26">
         <v>24.05</v>
       </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
         <v>79</v>
       </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
         <v>103.05</v>
       </c>
-      <c r="AU26" t="s">
-        <v>83</v>
+      <c r="AX26" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:50">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4456,29 +4699,38 @@
       <c r="AN27">
         <v>25</v>
       </c>
-      <c r="AO27" t="s">
-        <v>71</v>
+      <c r="AO27">
+        <v>25</v>
       </c>
       <c r="AP27">
+        <v>25</v>
+      </c>
+      <c r="AQ27">
+        <v>25</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS27">
         <v>12.5</v>
       </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
         <v>32</v>
       </c>
-      <c r="AT27">
+      <c r="AW27">
         <v>44.5</v>
       </c>
-      <c r="AU27" t="s">
-        <v>83</v>
+      <c r="AX27" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:50">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4599,29 +4851,38 @@
       <c r="AN28">
         <v>26</v>
       </c>
-      <c r="AO28" t="s">
-        <v>72</v>
+      <c r="AO28">
+        <v>26</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
+        <v>26</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
         <v>1.78</v>
       </c>
-      <c r="AS28">
+      <c r="AV28">
         <v>40</v>
       </c>
-      <c r="AT28">
+      <c r="AW28">
         <v>41.78</v>
       </c>
-      <c r="AU28" t="s">
-        <v>83</v>
+      <c r="AX28" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:50">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4742,17 +5003,17 @@
       <c r="AN29">
         <v>27</v>
       </c>
-      <c r="AO29" t="s">
-        <v>73</v>
+      <c r="AO29">
+        <v>27</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>76</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -4760,11 +5021,20 @@
       <c r="AT29">
         <v>0</v>
       </c>
-      <c r="AU29" t="s">
-        <v>83</v>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:50">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4885,17 +5155,17 @@
       <c r="AN30">
         <v>28</v>
       </c>
-      <c r="AO30" t="s">
-        <v>74</v>
+      <c r="AO30">
+        <v>28</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>77</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -4903,11 +5173,20 @@
       <c r="AT30">
         <v>0</v>
       </c>
-      <c r="AU30" t="s">
-        <v>83</v>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:50">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5028,17 +5307,17 @@
       <c r="AN31">
         <v>29</v>
       </c>
-      <c r="AO31" t="s">
-        <v>75</v>
+      <c r="AO31">
+        <v>29</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>78</v>
       </c>
       <c r="AS31">
         <v>0</v>
@@ -5046,11 +5325,20 @@
       <c r="AT31">
         <v>0</v>
       </c>
-      <c r="AU31" t="s">
-        <v>83</v>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:50">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5171,17 +5459,17 @@
       <c r="AN32">
         <v>30</v>
       </c>
-      <c r="AO32" t="s">
-        <v>76</v>
+      <c r="AO32">
+        <v>30</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>79</v>
       </c>
       <c r="AS32">
         <v>0</v>
@@ -5189,11 +5477,20 @@
       <c r="AT32">
         <v>0</v>
       </c>
-      <c r="AU32" t="s">
-        <v>83</v>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:50">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5314,26 +5611,35 @@
       <c r="AN33">
         <v>31</v>
       </c>
-      <c r="AO33" t="s">
-        <v>77</v>
+      <c r="AO33">
+        <v>31</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>80</v>
       </c>
       <c r="AS33">
         <v>0</v>
       </c>
-      <c r="AU33" t="s">
-        <v>83</v>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:50">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5454,26 +5760,35 @@
       <c r="AN34">
         <v>32</v>
       </c>
-      <c r="AO34" t="s">
-        <v>78</v>
+      <c r="AO34">
+        <v>32</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>81</v>
       </c>
       <c r="AS34">
         <v>0</v>
       </c>
-      <c r="AU34" t="s">
-        <v>83</v>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:50">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5594,26 +5909,35 @@
       <c r="AN35">
         <v>33</v>
       </c>
-      <c r="AO35" t="s">
-        <v>79</v>
+      <c r="AO35">
+        <v>33</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>82</v>
       </c>
       <c r="AS35">
         <v>0</v>
       </c>
-      <c r="AU35" t="s">
-        <v>83</v>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:50">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5734,11 +6058,20 @@
       <c r="AN36">
         <v>34</v>
       </c>
-      <c r="AO36" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>81</v>
+      <c r="AO36">
+        <v>34</v>
+      </c>
+      <c r="AP36">
+        <v>34</v>
+      </c>
+      <c r="AQ36">
+        <v>34</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -632,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX36"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,8 +789,11 @@
       <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -917,29 +923,32 @@
       <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AR2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS2">
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2">
         <v>44.3</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>1253.5</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>152.92</v>
       </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
       <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
         <v>1450.72</v>
       </c>
-      <c r="AX2" t="s">
-        <v>84</v>
+      <c r="AY2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1069,29 +1078,32 @@
       <c r="AQ3">
         <v>1</v>
       </c>
-      <c r="AR3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS3">
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3">
         <v>223.8</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
       <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
         <v>49.96</v>
       </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
       <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>273.76</v>
       </c>
-      <c r="AX3" t="s">
-        <v>84</v>
+      <c r="AY3" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1221,29 +1233,32 @@
       <c r="AQ4">
         <v>2</v>
       </c>
-      <c r="AR4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS4">
+      <c r="AR4">
+        <v>2</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT4">
         <v>92.5</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>108</v>
       </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
       <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>45</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>245.5</v>
       </c>
-      <c r="AX4" t="s">
-        <v>84</v>
+      <c r="AY4" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1373,15 +1388,15 @@
       <c r="AQ5">
         <v>3</v>
       </c>
-      <c r="AR5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS5">
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
       <c r="AU5">
         <v>0</v>
       </c>
@@ -1389,13 +1404,16 @@
         <v>0</v>
       </c>
       <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AX5" t="s">
-        <v>84</v>
+      <c r="AY5" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1525,29 +1543,32 @@
       <c r="AQ6">
         <v>4</v>
       </c>
-      <c r="AR6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS6">
+      <c r="AR6">
+        <v>4</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT6">
         <v>20</v>
       </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>45</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>65</v>
       </c>
-      <c r="AX6" t="s">
-        <v>84</v>
+      <c r="AY6" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1677,11 +1698,11 @@
       <c r="AQ7">
         <v>5</v>
       </c>
-      <c r="AR7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
+      <c r="AR7">
+        <v>5</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>55</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -1690,16 +1711,19 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW7">
         <v>10</v>
       </c>
-      <c r="AX7" t="s">
-        <v>84</v>
+      <c r="AX7">
+        <v>10</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1829,15 +1853,15 @@
       <c r="AQ8">
         <v>6</v>
       </c>
-      <c r="AR8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS8">
+      <c r="AR8">
+        <v>6</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT8">
         <v>9.9</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
       <c r="AU8">
         <v>0</v>
       </c>
@@ -1845,13 +1869,16 @@
         <v>0</v>
       </c>
       <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>9.9</v>
       </c>
-      <c r="AX8" t="s">
-        <v>84</v>
+      <c r="AY8" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1981,11 +2008,11 @@
       <c r="AQ9">
         <v>7</v>
       </c>
-      <c r="AR9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
+      <c r="AR9">
+        <v>7</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>57</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -1999,11 +2026,14 @@
       <c r="AW9">
         <v>0</v>
       </c>
-      <c r="AX9" t="s">
-        <v>84</v>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2133,11 +2163,11 @@
       <c r="AQ10">
         <v>8</v>
       </c>
-      <c r="AR10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
+      <c r="AR10">
+        <v>8</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>58</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2151,11 +2181,14 @@
       <c r="AW10">
         <v>0</v>
       </c>
-      <c r="AX10" t="s">
-        <v>84</v>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2285,11 +2318,11 @@
       <c r="AQ11">
         <v>9</v>
       </c>
-      <c r="AR11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
+      <c r="AR11">
+        <v>9</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>59</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2300,11 +2333,14 @@
       <c r="AV11">
         <v>0</v>
       </c>
-      <c r="AX11" t="s">
-        <v>84</v>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2434,29 +2470,32 @@
       <c r="AQ12">
         <v>10</v>
       </c>
-      <c r="AR12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
+      <c r="AR12">
+        <v>10</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>60</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
       <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
         <v>1199.98</v>
       </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
       <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
         <v>1199.98</v>
       </c>
-      <c r="AX12" t="s">
-        <v>85</v>
+      <c r="AY12" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2586,29 +2625,32 @@
       <c r="AQ13">
         <v>11</v>
       </c>
-      <c r="AR13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS13">
+      <c r="AR13">
+        <v>11</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT13">
         <v>94.2</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>230.1</v>
       </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
       <c r="AV13">
         <v>0</v>
       </c>
       <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
         <v>324.3</v>
       </c>
-      <c r="AX13" t="s">
-        <v>85</v>
+      <c r="AY13" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2738,29 +2780,32 @@
       <c r="AQ14">
         <v>12</v>
       </c>
-      <c r="AR14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS14">
+      <c r="AR14">
+        <v>12</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14">
         <v>177.8</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>22.5</v>
       </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
       <c r="AV14">
         <v>0</v>
       </c>
       <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
         <v>200.3</v>
       </c>
-      <c r="AX14" t="s">
-        <v>85</v>
+      <c r="AY14" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2890,29 +2935,32 @@
       <c r="AQ15">
         <v>13</v>
       </c>
-      <c r="AR15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
+      <c r="AR15">
+        <v>13</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>63</v>
       </c>
       <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>100.7</v>
       </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
       <c r="AV15">
         <v>0</v>
       </c>
       <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>100.7</v>
       </c>
-      <c r="AX15" t="s">
-        <v>85</v>
+      <c r="AY15" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3042,29 +3090,32 @@
       <c r="AQ16">
         <v>14</v>
       </c>
-      <c r="AR16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
+      <c r="AR16">
+        <v>14</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>64</v>
       </c>
       <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
       <c r="AV16">
         <v>0</v>
       </c>
       <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AX16" t="s">
-        <v>85</v>
+      <c r="AY16" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3194,29 +3245,32 @@
       <c r="AQ17">
         <v>15</v>
       </c>
-      <c r="AR17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
+      <c r="AR17">
+        <v>15</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>65</v>
       </c>
       <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
         <v>36.4</v>
       </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
       <c r="AV17">
         <v>0</v>
       </c>
       <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
         <v>36.4</v>
       </c>
-      <c r="AX17" t="s">
-        <v>85</v>
+      <c r="AY17" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3346,15 +3400,15 @@
       <c r="AQ18">
         <v>16</v>
       </c>
-      <c r="AR18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS18">
+      <c r="AR18">
+        <v>16</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT18">
         <v>3.7</v>
       </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
       <c r="AU18">
         <v>0</v>
       </c>
@@ -3362,13 +3416,16 @@
         <v>0</v>
       </c>
       <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
         <v>3.7</v>
       </c>
-      <c r="AX18" t="s">
-        <v>85</v>
+      <c r="AY18" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3498,11 +3555,11 @@
       <c r="AQ19">
         <v>17</v>
       </c>
-      <c r="AR19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
+      <c r="AR19">
+        <v>17</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>67</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -3516,11 +3573,14 @@
       <c r="AW19">
         <v>0</v>
       </c>
-      <c r="AX19" t="s">
-        <v>85</v>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3650,11 +3710,11 @@
       <c r="AQ20">
         <v>18</v>
       </c>
-      <c r="AR20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
+      <c r="AR20">
+        <v>18</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>68</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -3668,11 +3728,14 @@
       <c r="AW20">
         <v>0</v>
       </c>
-      <c r="AX20" t="s">
-        <v>85</v>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3802,11 +3865,11 @@
       <c r="AQ21">
         <v>19</v>
       </c>
-      <c r="AR21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
+      <c r="AR21">
+        <v>19</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>69</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -3817,11 +3880,14 @@
       <c r="AV21">
         <v>0</v>
       </c>
-      <c r="AX21" t="s">
-        <v>85</v>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3951,11 +4017,11 @@
       <c r="AQ22">
         <v>20</v>
       </c>
-      <c r="AR22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
+      <c r="AR22">
+        <v>20</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>70</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -3966,11 +4032,14 @@
       <c r="AV22">
         <v>0</v>
       </c>
-      <c r="AX22" t="s">
-        <v>86</v>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4100,29 +4169,32 @@
       <c r="AQ23">
         <v>21</v>
       </c>
-      <c r="AR23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS23">
+      <c r="AR23">
+        <v>21</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT23">
         <v>36.85</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>550.9</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>65.16</v>
       </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
       <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
         <v>652.91</v>
       </c>
-      <c r="AX23" t="s">
-        <v>86</v>
+      <c r="AY23" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4252,15 +4324,15 @@
       <c r="AQ24">
         <v>22</v>
       </c>
-      <c r="AR24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS24">
+      <c r="AR24">
+        <v>22</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
       <c r="AU24">
         <v>0</v>
       </c>
@@ -4268,13 +4340,16 @@
         <v>0</v>
       </c>
       <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AX24" t="s">
-        <v>86</v>
+      <c r="AY24" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4404,29 +4479,32 @@
       <c r="AQ25">
         <v>23</v>
       </c>
-      <c r="AR25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS25">
+      <c r="AR25">
+        <v>23</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT25">
         <v>10</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>60</v>
       </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
       <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
         <v>90</v>
       </c>
-      <c r="AW25">
+      <c r="AX25">
         <v>160</v>
       </c>
-      <c r="AX25" t="s">
-        <v>86</v>
+      <c r="AY25" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4556,29 +4634,32 @@
       <c r="AQ26">
         <v>24</v>
       </c>
-      <c r="AR26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS26">
+      <c r="AR26">
+        <v>24</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT26">
         <v>24.05</v>
       </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
       <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
         <v>79</v>
       </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
       <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
         <v>103.05</v>
       </c>
-      <c r="AX26" t="s">
-        <v>86</v>
+      <c r="AY26" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4708,29 +4789,32 @@
       <c r="AQ27">
         <v>25</v>
       </c>
-      <c r="AR27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS27">
+      <c r="AR27">
+        <v>25</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT27">
         <v>12.5</v>
       </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
       <c r="AU27">
         <v>0</v>
       </c>
       <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
         <v>32</v>
       </c>
-      <c r="AW27">
+      <c r="AX27">
         <v>44.5</v>
       </c>
-      <c r="AX27" t="s">
-        <v>86</v>
+      <c r="AY27" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4860,29 +4944,32 @@
       <c r="AQ28">
         <v>26</v>
       </c>
-      <c r="AR28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
+      <c r="AR28">
+        <v>26</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>76</v>
       </c>
       <c r="AT28">
         <v>0</v>
       </c>
       <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
         <v>1.78</v>
       </c>
-      <c r="AV28">
+      <c r="AW28">
         <v>40</v>
       </c>
-      <c r="AW28">
+      <c r="AX28">
         <v>41.78</v>
       </c>
-      <c r="AX28" t="s">
-        <v>86</v>
+      <c r="AY28" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5012,11 +5099,11 @@
       <c r="AQ29">
         <v>27</v>
       </c>
-      <c r="AR29" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
+      <c r="AR29">
+        <v>27</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>77</v>
       </c>
       <c r="AT29">
         <v>0</v>
@@ -5030,11 +5117,14 @@
       <c r="AW29">
         <v>0</v>
       </c>
-      <c r="AX29" t="s">
-        <v>86</v>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5164,11 +5254,11 @@
       <c r="AQ30">
         <v>28</v>
       </c>
-      <c r="AR30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
+      <c r="AR30">
+        <v>28</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>78</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -5182,11 +5272,14 @@
       <c r="AW30">
         <v>0</v>
       </c>
-      <c r="AX30" t="s">
-        <v>86</v>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5316,11 +5409,11 @@
       <c r="AQ31">
         <v>29</v>
       </c>
-      <c r="AR31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS31">
-        <v>0</v>
+      <c r="AR31">
+        <v>29</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>79</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -5334,11 +5427,14 @@
       <c r="AW31">
         <v>0</v>
       </c>
-      <c r="AX31" t="s">
-        <v>86</v>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5468,11 +5564,11 @@
       <c r="AQ32">
         <v>30</v>
       </c>
-      <c r="AR32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
+      <c r="AR32">
+        <v>30</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>80</v>
       </c>
       <c r="AT32">
         <v>0</v>
@@ -5486,11 +5582,14 @@
       <c r="AW32">
         <v>0</v>
       </c>
-      <c r="AX32" t="s">
-        <v>86</v>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5620,11 +5719,11 @@
       <c r="AQ33">
         <v>31</v>
       </c>
-      <c r="AR33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS33">
-        <v>0</v>
+      <c r="AR33">
+        <v>31</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>81</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -5635,11 +5734,14 @@
       <c r="AV33">
         <v>0</v>
       </c>
-      <c r="AX33" t="s">
-        <v>86</v>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5769,11 +5871,11 @@
       <c r="AQ34">
         <v>32</v>
       </c>
-      <c r="AR34" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS34">
-        <v>0</v>
+      <c r="AR34">
+        <v>32</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>82</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -5784,11 +5886,14 @@
       <c r="AV34">
         <v>0</v>
       </c>
-      <c r="AX34" t="s">
-        <v>86</v>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5918,11 +6023,11 @@
       <c r="AQ35">
         <v>33</v>
       </c>
-      <c r="AR35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS35">
-        <v>0</v>
+      <c r="AR35">
+        <v>33</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>83</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -5933,11 +6038,14 @@
       <c r="AV35">
         <v>0</v>
       </c>
-      <c r="AX35" t="s">
-        <v>86</v>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6067,11 +6175,14 @@
       <c r="AQ36">
         <v>34</v>
       </c>
-      <c r="AR36" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX36" t="s">
+      <c r="AR36">
+        <v>34</v>
+      </c>
+      <c r="AS36" t="s">
         <v>84</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -635,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY36"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,8 +795,11 @@
       <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -926,29 +932,32 @@
       <c r="AR2">
         <v>0</v>
       </c>
-      <c r="AS2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT2">
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2">
         <v>44.3</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>1253.5</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>152.92</v>
       </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
       <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
         <v>1450.72</v>
       </c>
-      <c r="AY2" t="s">
-        <v>85</v>
+      <c r="AZ2" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1081,29 +1090,32 @@
       <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AS3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT3">
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3">
         <v>223.8</v>
       </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
       <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>49.96</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
       <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
         <v>273.76</v>
       </c>
-      <c r="AY3" t="s">
-        <v>85</v>
+      <c r="AZ3" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1236,29 +1248,32 @@
       <c r="AR4">
         <v>2</v>
       </c>
-      <c r="AS4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT4">
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU4">
         <v>92.5</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>108</v>
       </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
       <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>45</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>245.5</v>
       </c>
-      <c r="AY4" t="s">
-        <v>85</v>
+      <c r="AZ4" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1391,15 +1406,15 @@
       <c r="AR5">
         <v>3</v>
       </c>
-      <c r="AS5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT5">
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
       <c r="AV5">
         <v>0</v>
       </c>
@@ -1407,13 +1422,16 @@
         <v>0</v>
       </c>
       <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AY5" t="s">
-        <v>85</v>
+      <c r="AZ5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1546,29 +1564,32 @@
       <c r="AR6">
         <v>4</v>
       </c>
-      <c r="AS6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT6">
+      <c r="AS6">
+        <v>4</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU6">
         <v>20</v>
       </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
         <v>45</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>65</v>
       </c>
-      <c r="AY6" t="s">
-        <v>85</v>
+      <c r="AZ6" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1701,11 +1722,11 @@
       <c r="AR7">
         <v>5</v>
       </c>
-      <c r="AS7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>56</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -1714,16 +1735,19 @@
         <v>0</v>
       </c>
       <c r="AW7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX7">
         <v>10</v>
       </c>
-      <c r="AY7" t="s">
-        <v>85</v>
+      <c r="AY7">
+        <v>10</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1856,15 +1880,15 @@
       <c r="AR8">
         <v>6</v>
       </c>
-      <c r="AS8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT8">
+      <c r="AS8">
+        <v>6</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU8">
         <v>9.9</v>
       </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
       <c r="AV8">
         <v>0</v>
       </c>
@@ -1872,13 +1896,16 @@
         <v>0</v>
       </c>
       <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
         <v>9.9</v>
       </c>
-      <c r="AY8" t="s">
-        <v>85</v>
+      <c r="AZ8" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2011,11 +2038,11 @@
       <c r="AR9">
         <v>7</v>
       </c>
-      <c r="AS9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
+      <c r="AS9">
+        <v>7</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>58</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2029,11 +2056,14 @@
       <c r="AX9">
         <v>0</v>
       </c>
-      <c r="AY9" t="s">
-        <v>85</v>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2166,11 +2196,11 @@
       <c r="AR10">
         <v>8</v>
       </c>
-      <c r="AS10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
+      <c r="AS10">
+        <v>8</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>59</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2184,11 +2214,14 @@
       <c r="AX10">
         <v>0</v>
       </c>
-      <c r="AY10" t="s">
-        <v>85</v>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2321,11 +2354,11 @@
       <c r="AR11">
         <v>9</v>
       </c>
-      <c r="AS11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
+      <c r="AS11">
+        <v>9</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>60</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2336,11 +2369,14 @@
       <c r="AW11">
         <v>0</v>
       </c>
-      <c r="AY11" t="s">
-        <v>85</v>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2473,29 +2509,32 @@
       <c r="AR12">
         <v>10</v>
       </c>
-      <c r="AS12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
+      <c r="AS12">
+        <v>10</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>61</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>1199.98</v>
       </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
       <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
         <v>1199.98</v>
       </c>
-      <c r="AY12" t="s">
-        <v>86</v>
+      <c r="AZ12" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2628,29 +2667,32 @@
       <c r="AR13">
         <v>11</v>
       </c>
-      <c r="AS13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT13">
+      <c r="AS13">
+        <v>11</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU13">
         <v>94.2</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>230.1</v>
       </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
       <c r="AW13">
         <v>0</v>
       </c>
       <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
         <v>324.3</v>
       </c>
-      <c r="AY13" t="s">
-        <v>86</v>
+      <c r="AZ13" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2783,29 +2825,32 @@
       <c r="AR14">
         <v>12</v>
       </c>
-      <c r="AS14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT14">
+      <c r="AS14">
+        <v>12</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU14">
         <v>177.8</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>22.5</v>
       </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
         <v>200.3</v>
       </c>
-      <c r="AY14" t="s">
-        <v>86</v>
+      <c r="AZ14" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2938,29 +2983,32 @@
       <c r="AR15">
         <v>13</v>
       </c>
-      <c r="AS15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
+      <c r="AS15">
+        <v>13</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>64</v>
       </c>
       <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
         <v>100.7</v>
       </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
       <c r="AW15">
         <v>0</v>
       </c>
       <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
         <v>100.7</v>
       </c>
-      <c r="AY15" t="s">
-        <v>86</v>
+      <c r="AZ15" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3093,29 +3141,32 @@
       <c r="AR16">
         <v>14</v>
       </c>
-      <c r="AS16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
+      <c r="AS16">
+        <v>14</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>65</v>
       </c>
       <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
       <c r="AW16">
         <v>0</v>
       </c>
       <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AY16" t="s">
-        <v>86</v>
+      <c r="AZ16" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3248,29 +3299,32 @@
       <c r="AR17">
         <v>15</v>
       </c>
-      <c r="AS17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
+      <c r="AS17">
+        <v>15</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>66</v>
       </c>
       <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
         <v>36.4</v>
       </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
       <c r="AW17">
         <v>0</v>
       </c>
       <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
         <v>36.4</v>
       </c>
-      <c r="AY17" t="s">
-        <v>86</v>
+      <c r="AZ17" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3403,15 +3457,15 @@
       <c r="AR18">
         <v>16</v>
       </c>
-      <c r="AS18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT18">
+      <c r="AS18">
+        <v>16</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU18">
         <v>3.7</v>
       </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
       <c r="AV18">
         <v>0</v>
       </c>
@@ -3419,13 +3473,16 @@
         <v>0</v>
       </c>
       <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
         <v>3.7</v>
       </c>
-      <c r="AY18" t="s">
-        <v>86</v>
+      <c r="AZ18" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3558,11 +3615,11 @@
       <c r="AR19">
         <v>17</v>
       </c>
-      <c r="AS19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
+      <c r="AS19">
+        <v>17</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>68</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -3576,11 +3633,14 @@
       <c r="AX19">
         <v>0</v>
       </c>
-      <c r="AY19" t="s">
-        <v>86</v>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3713,11 +3773,11 @@
       <c r="AR20">
         <v>18</v>
       </c>
-      <c r="AS20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
+      <c r="AS20">
+        <v>18</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>69</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -3731,11 +3791,14 @@
       <c r="AX20">
         <v>0</v>
       </c>
-      <c r="AY20" t="s">
-        <v>86</v>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3868,11 +3931,11 @@
       <c r="AR21">
         <v>19</v>
       </c>
-      <c r="AS21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
+      <c r="AS21">
+        <v>19</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>70</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -3883,11 +3946,14 @@
       <c r="AW21">
         <v>0</v>
       </c>
-      <c r="AY21" t="s">
-        <v>86</v>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4020,11 +4086,11 @@
       <c r="AR22">
         <v>20</v>
       </c>
-      <c r="AS22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
+      <c r="AS22">
+        <v>20</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>71</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -4035,11 +4101,14 @@
       <c r="AW22">
         <v>0</v>
       </c>
-      <c r="AY22" t="s">
-        <v>87</v>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4172,29 +4241,32 @@
       <c r="AR23">
         <v>21</v>
       </c>
-      <c r="AS23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT23">
+      <c r="AS23">
+        <v>21</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU23">
         <v>36.85</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>550.9</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>65.16</v>
       </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
       <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
         <v>652.91</v>
       </c>
-      <c r="AY23" t="s">
-        <v>87</v>
+      <c r="AZ23" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4327,15 +4399,15 @@
       <c r="AR24">
         <v>22</v>
       </c>
-      <c r="AS24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT24">
+      <c r="AS24">
+        <v>22</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
       <c r="AV24">
         <v>0</v>
       </c>
@@ -4343,13 +4415,16 @@
         <v>0</v>
       </c>
       <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AY24" t="s">
-        <v>87</v>
+      <c r="AZ24" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4482,29 +4557,32 @@
       <c r="AR25">
         <v>23</v>
       </c>
-      <c r="AS25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT25">
+      <c r="AS25">
+        <v>23</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU25">
         <v>10</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>60</v>
       </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
       <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
         <v>90</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>160</v>
       </c>
-      <c r="AY25" t="s">
-        <v>87</v>
+      <c r="AZ25" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4637,29 +4715,32 @@
       <c r="AR26">
         <v>24</v>
       </c>
-      <c r="AS26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT26">
+      <c r="AS26">
+        <v>24</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU26">
         <v>24.05</v>
       </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
       <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
         <v>79</v>
       </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
       <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
         <v>103.05</v>
       </c>
-      <c r="AY26" t="s">
-        <v>87</v>
+      <c r="AZ26" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4792,29 +4873,32 @@
       <c r="AR27">
         <v>25</v>
       </c>
-      <c r="AS27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT27">
+      <c r="AS27">
+        <v>25</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU27">
         <v>12.5</v>
       </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
       <c r="AV27">
         <v>0</v>
       </c>
       <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
         <v>32</v>
       </c>
-      <c r="AX27">
+      <c r="AY27">
         <v>44.5</v>
       </c>
-      <c r="AY27" t="s">
-        <v>87</v>
+      <c r="AZ27" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4947,29 +5031,32 @@
       <c r="AR28">
         <v>26</v>
       </c>
-      <c r="AS28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
+      <c r="AS28">
+        <v>26</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>77</v>
       </c>
       <c r="AU28">
         <v>0</v>
       </c>
       <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
         <v>1.78</v>
       </c>
-      <c r="AW28">
+      <c r="AX28">
         <v>40</v>
       </c>
-      <c r="AX28">
+      <c r="AY28">
         <v>41.78</v>
       </c>
-      <c r="AY28" t="s">
-        <v>87</v>
+      <c r="AZ28" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5102,11 +5189,11 @@
       <c r="AR29">
         <v>27</v>
       </c>
-      <c r="AS29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
+      <c r="AS29">
+        <v>27</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>78</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -5120,11 +5207,14 @@
       <c r="AX29">
         <v>0</v>
       </c>
-      <c r="AY29" t="s">
-        <v>87</v>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5257,11 +5347,11 @@
       <c r="AR30">
         <v>28</v>
       </c>
-      <c r="AS30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
+      <c r="AS30">
+        <v>28</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>79</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -5275,11 +5365,14 @@
       <c r="AX30">
         <v>0</v>
       </c>
-      <c r="AY30" t="s">
-        <v>87</v>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5412,11 +5505,11 @@
       <c r="AR31">
         <v>29</v>
       </c>
-      <c r="AS31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
+      <c r="AS31">
+        <v>29</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>80</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -5430,11 +5523,14 @@
       <c r="AX31">
         <v>0</v>
       </c>
-      <c r="AY31" t="s">
-        <v>87</v>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5567,11 +5663,11 @@
       <c r="AR32">
         <v>30</v>
       </c>
-      <c r="AS32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
+      <c r="AS32">
+        <v>30</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>81</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -5585,11 +5681,14 @@
       <c r="AX32">
         <v>0</v>
       </c>
-      <c r="AY32" t="s">
-        <v>87</v>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5722,11 +5821,11 @@
       <c r="AR33">
         <v>31</v>
       </c>
-      <c r="AS33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
+      <c r="AS33">
+        <v>31</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>82</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -5737,11 +5836,14 @@
       <c r="AW33">
         <v>0</v>
       </c>
-      <c r="AY33" t="s">
-        <v>87</v>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5874,11 +5976,11 @@
       <c r="AR34">
         <v>32</v>
       </c>
-      <c r="AS34" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT34">
-        <v>0</v>
+      <c r="AS34">
+        <v>32</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>83</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -5889,11 +5991,14 @@
       <c r="AW34">
         <v>0</v>
       </c>
-      <c r="AY34" t="s">
-        <v>87</v>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6026,11 +6131,11 @@
       <c r="AR35">
         <v>33</v>
       </c>
-      <c r="AS35" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT35">
-        <v>0</v>
+      <c r="AS35">
+        <v>33</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>84</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -6041,11 +6146,14 @@
       <c r="AW35">
         <v>0</v>
       </c>
-      <c r="AY35" t="s">
-        <v>87</v>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6178,11 +6286,14 @@
       <c r="AR36">
         <v>34</v>
       </c>
-      <c r="AS36" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY36" t="s">
+      <c r="AS36">
+        <v>34</v>
+      </c>
+      <c r="AT36" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -638,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:BA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,8 +801,11 @@
       <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -935,29 +941,32 @@
       <c r="AS2">
         <v>0</v>
       </c>
-      <c r="AT2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2">
         <v>44.3</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>1253.5</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>152.92</v>
       </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
       <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
         <v>1450.72</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>86</v>
+      <c r="BA2" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:53">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1093,29 +1102,32 @@
       <c r="AS3">
         <v>1</v>
       </c>
-      <c r="AT3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU3">
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV3">
         <v>223.8</v>
       </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
       <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>49.96</v>
       </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
       <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
         <v>273.76</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>86</v>
+      <c r="BA3" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:53">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1251,29 +1263,32 @@
       <c r="AS4">
         <v>2</v>
       </c>
-      <c r="AT4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU4">
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV4">
         <v>92.5</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>108</v>
       </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
       <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
         <v>45</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>245.5</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>86</v>
+      <c r="BA4" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:53">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1409,15 +1424,15 @@
       <c r="AS5">
         <v>3</v>
       </c>
-      <c r="AT5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU5">
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
       <c r="AW5">
         <v>0</v>
       </c>
@@ -1425,13 +1440,16 @@
         <v>0</v>
       </c>
       <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>86</v>
+      <c r="BA5" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:53">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1567,29 +1585,32 @@
       <c r="AS6">
         <v>4</v>
       </c>
-      <c r="AT6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU6">
+      <c r="AT6">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6">
         <v>20</v>
       </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
         <v>45</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>65</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>86</v>
+      <c r="BA6" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:53">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1725,11 +1746,11 @@
       <c r="AS7">
         <v>5</v>
       </c>
-      <c r="AT7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
+      <c r="AT7">
+        <v>5</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>57</v>
       </c>
       <c r="AV7">
         <v>0</v>
@@ -1738,16 +1759,19 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY7">
         <v>10</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>86</v>
+      <c r="AZ7">
+        <v>10</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:53">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1883,15 +1907,15 @@
       <c r="AS8">
         <v>6</v>
       </c>
-      <c r="AT8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU8">
+      <c r="AT8">
+        <v>6</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV8">
         <v>9.9</v>
       </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
       <c r="AW8">
         <v>0</v>
       </c>
@@ -1899,13 +1923,16 @@
         <v>0</v>
       </c>
       <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
         <v>9.9</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>86</v>
+      <c r="BA8" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:53">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2041,11 +2068,11 @@
       <c r="AS9">
         <v>7</v>
       </c>
-      <c r="AT9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
+      <c r="AT9">
+        <v>7</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>59</v>
       </c>
       <c r="AV9">
         <v>0</v>
@@ -2059,11 +2086,14 @@
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>86</v>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:53">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2199,11 +2229,11 @@
       <c r="AS10">
         <v>8</v>
       </c>
-      <c r="AT10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
+      <c r="AT10">
+        <v>8</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>60</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -2217,11 +2247,14 @@
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>86</v>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:53">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2357,11 +2390,11 @@
       <c r="AS11">
         <v>9</v>
       </c>
-      <c r="AT11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
+      <c r="AT11">
+        <v>9</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>61</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -2372,11 +2405,14 @@
       <c r="AX11">
         <v>0</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>86</v>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:53">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2512,29 +2548,32 @@
       <c r="AS12">
         <v>10</v>
       </c>
-      <c r="AT12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
+      <c r="AT12">
+        <v>10</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>62</v>
       </c>
       <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
         <v>1199.98</v>
       </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
       <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
         <v>1199.98</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>87</v>
+      <c r="BA12" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:53">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2670,29 +2709,32 @@
       <c r="AS13">
         <v>11</v>
       </c>
-      <c r="AT13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU13">
+      <c r="AT13">
+        <v>11</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV13">
         <v>94.2</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>230.1</v>
       </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
       <c r="AX13">
         <v>0</v>
       </c>
       <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
         <v>324.3</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>87</v>
+      <c r="BA13" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:53">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2828,29 +2870,32 @@
       <c r="AS14">
         <v>12</v>
       </c>
-      <c r="AT14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU14">
+      <c r="AT14">
+        <v>12</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV14">
         <v>177.8</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>22.5</v>
       </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
       <c r="AX14">
         <v>0</v>
       </c>
       <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
         <v>200.3</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>87</v>
+      <c r="BA14" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:53">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2986,29 +3031,32 @@
       <c r="AS15">
         <v>13</v>
       </c>
-      <c r="AT15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
+      <c r="AT15">
+        <v>13</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>65</v>
       </c>
       <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
         <v>100.7</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
       <c r="AX15">
         <v>0</v>
       </c>
       <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
         <v>100.7</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>87</v>
+      <c r="BA15" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:53">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3144,29 +3192,32 @@
       <c r="AS16">
         <v>14</v>
       </c>
-      <c r="AT16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
+      <c r="AT16">
+        <v>14</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>66</v>
       </c>
       <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
       <c r="AX16">
         <v>0</v>
       </c>
       <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>87</v>
+      <c r="BA16" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:53">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3302,29 +3353,32 @@
       <c r="AS17">
         <v>15</v>
       </c>
-      <c r="AT17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
+      <c r="AT17">
+        <v>15</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>67</v>
       </c>
       <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
         <v>36.4</v>
       </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
       <c r="AX17">
         <v>0</v>
       </c>
       <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
         <v>36.4</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>87</v>
+      <c r="BA17" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:53">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3460,15 +3514,15 @@
       <c r="AS18">
         <v>16</v>
       </c>
-      <c r="AT18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU18">
+      <c r="AT18">
+        <v>16</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV18">
         <v>3.7</v>
       </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
       <c r="AW18">
         <v>0</v>
       </c>
@@ -3476,13 +3530,16 @@
         <v>0</v>
       </c>
       <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
         <v>3.7</v>
       </c>
-      <c r="AZ18" t="s">
-        <v>87</v>
+      <c r="BA18" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:53">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3618,11 +3675,11 @@
       <c r="AS19">
         <v>17</v>
       </c>
-      <c r="AT19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
+      <c r="AT19">
+        <v>17</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>69</v>
       </c>
       <c r="AV19">
         <v>0</v>
@@ -3636,11 +3693,14 @@
       <c r="AY19">
         <v>0</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>87</v>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:53">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3776,11 +3836,11 @@
       <c r="AS20">
         <v>18</v>
       </c>
-      <c r="AT20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
+      <c r="AT20">
+        <v>18</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>70</v>
       </c>
       <c r="AV20">
         <v>0</v>
@@ -3794,11 +3854,14 @@
       <c r="AY20">
         <v>0</v>
       </c>
-      <c r="AZ20" t="s">
-        <v>87</v>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:53">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3934,11 +3997,11 @@
       <c r="AS21">
         <v>19</v>
       </c>
-      <c r="AT21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
+      <c r="AT21">
+        <v>19</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>71</v>
       </c>
       <c r="AV21">
         <v>0</v>
@@ -3949,11 +4012,14 @@
       <c r="AX21">
         <v>0</v>
       </c>
-      <c r="AZ21" t="s">
-        <v>87</v>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:53">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4089,11 +4155,11 @@
       <c r="AS22">
         <v>20</v>
       </c>
-      <c r="AT22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
+      <c r="AT22">
+        <v>20</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>72</v>
       </c>
       <c r="AV22">
         <v>0</v>
@@ -4104,11 +4170,14 @@
       <c r="AX22">
         <v>0</v>
       </c>
-      <c r="AZ22" t="s">
-        <v>88</v>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4244,29 +4313,32 @@
       <c r="AS23">
         <v>21</v>
       </c>
-      <c r="AT23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU23">
+      <c r="AT23">
+        <v>21</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV23">
         <v>36.85</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>550.9</v>
       </c>
-      <c r="AW23">
+      <c r="AX23">
         <v>65.16</v>
       </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
       <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
         <v>652.91</v>
       </c>
-      <c r="AZ23" t="s">
-        <v>88</v>
+      <c r="BA23" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4402,15 +4474,15 @@
       <c r="AS24">
         <v>22</v>
       </c>
-      <c r="AT24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU24">
+      <c r="AT24">
+        <v>22</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
       <c r="AW24">
         <v>0</v>
       </c>
@@ -4418,13 +4490,16 @@
         <v>0</v>
       </c>
       <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AZ24" t="s">
-        <v>88</v>
+      <c r="BA24" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:53">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4560,29 +4635,32 @@
       <c r="AS25">
         <v>23</v>
       </c>
-      <c r="AT25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU25">
+      <c r="AT25">
+        <v>23</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV25">
         <v>10</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>60</v>
       </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
       <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
         <v>90</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>160</v>
       </c>
-      <c r="AZ25" t="s">
-        <v>88</v>
+      <c r="BA25" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:53">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4718,29 +4796,32 @@
       <c r="AS26">
         <v>24</v>
       </c>
-      <c r="AT26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU26">
+      <c r="AT26">
+        <v>24</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV26">
         <v>24.05</v>
       </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
       <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
         <v>79</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
       <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
         <v>103.05</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>88</v>
+      <c r="BA26" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:53">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4876,29 +4957,32 @@
       <c r="AS27">
         <v>25</v>
       </c>
-      <c r="AT27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU27">
+      <c r="AT27">
+        <v>25</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV27">
         <v>12.5</v>
       </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
       <c r="AW27">
         <v>0</v>
       </c>
       <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
         <v>32</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>44.5</v>
       </c>
-      <c r="AZ27" t="s">
-        <v>88</v>
+      <c r="BA27" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:53">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5034,29 +5118,32 @@
       <c r="AS28">
         <v>26</v>
       </c>
-      <c r="AT28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
+      <c r="AT28">
+        <v>26</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>78</v>
       </c>
       <c r="AV28">
         <v>0</v>
       </c>
       <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
         <v>1.78</v>
       </c>
-      <c r="AX28">
+      <c r="AY28">
         <v>40</v>
       </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>41.78</v>
       </c>
-      <c r="AZ28" t="s">
-        <v>88</v>
+      <c r="BA28" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:53">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5192,11 +5279,11 @@
       <c r="AS29">
         <v>27</v>
       </c>
-      <c r="AT29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
+      <c r="AT29">
+        <v>27</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>79</v>
       </c>
       <c r="AV29">
         <v>0</v>
@@ -5210,11 +5297,14 @@
       <c r="AY29">
         <v>0</v>
       </c>
-      <c r="AZ29" t="s">
-        <v>88</v>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:53">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5350,11 +5440,11 @@
       <c r="AS30">
         <v>28</v>
       </c>
-      <c r="AT30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
+      <c r="AT30">
+        <v>28</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>80</v>
       </c>
       <c r="AV30">
         <v>0</v>
@@ -5368,11 +5458,14 @@
       <c r="AY30">
         <v>0</v>
       </c>
-      <c r="AZ30" t="s">
-        <v>88</v>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:53">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5508,11 +5601,11 @@
       <c r="AS31">
         <v>29</v>
       </c>
-      <c r="AT31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
+      <c r="AT31">
+        <v>29</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>81</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -5526,11 +5619,14 @@
       <c r="AY31">
         <v>0</v>
       </c>
-      <c r="AZ31" t="s">
-        <v>88</v>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:53">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5666,11 +5762,11 @@
       <c r="AS32">
         <v>30</v>
       </c>
-      <c r="AT32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
+      <c r="AT32">
+        <v>30</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>82</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -5684,11 +5780,14 @@
       <c r="AY32">
         <v>0</v>
       </c>
-      <c r="AZ32" t="s">
-        <v>88</v>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:53">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5824,11 +5923,11 @@
       <c r="AS33">
         <v>31</v>
       </c>
-      <c r="AT33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
+      <c r="AT33">
+        <v>31</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>83</v>
       </c>
       <c r="AV33">
         <v>0</v>
@@ -5839,11 +5938,14 @@
       <c r="AX33">
         <v>0</v>
       </c>
-      <c r="AZ33" t="s">
-        <v>88</v>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:53">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5979,11 +6081,11 @@
       <c r="AS34">
         <v>32</v>
       </c>
-      <c r="AT34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
+      <c r="AT34">
+        <v>32</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>84</v>
       </c>
       <c r="AV34">
         <v>0</v>
@@ -5994,11 +6096,14 @@
       <c r="AX34">
         <v>0</v>
       </c>
-      <c r="AZ34" t="s">
-        <v>88</v>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:53">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6134,11 +6239,11 @@
       <c r="AS35">
         <v>33</v>
       </c>
-      <c r="AT35" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
+      <c r="AT35">
+        <v>33</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>85</v>
       </c>
       <c r="AV35">
         <v>0</v>
@@ -6149,11 +6254,14 @@
       <c r="AX35">
         <v>0</v>
       </c>
-      <c r="AZ35" t="s">
-        <v>88</v>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:53">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6289,11 +6397,14 @@
       <c r="AS36">
         <v>34</v>
       </c>
-      <c r="AT36" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ36" t="s">
+      <c r="AT36">
+        <v>34</v>
+      </c>
+      <c r="AU36" t="s">
         <v>86</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>athlete</t>
@@ -641,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA36"/>
+  <dimension ref="A1:BC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:55">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,8 +810,14 @@
       <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:55">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -944,29 +956,35 @@
       <c r="AT2">
         <v>0</v>
       </c>
-      <c r="AU2" t="s">
-        <v>52</v>
+      <c r="AU2">
+        <v>0</v>
       </c>
       <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2">
         <v>44.3</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>1253.5</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <v>152.92</v>
       </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
         <v>1450.72</v>
       </c>
-      <c r="BA2" t="s">
-        <v>87</v>
+      <c r="BC2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:55">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1105,29 +1123,35 @@
       <c r="AT3">
         <v>1</v>
       </c>
-      <c r="AU3" t="s">
-        <v>53</v>
+      <c r="AU3">
+        <v>1</v>
       </c>
       <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX3">
         <v>223.8</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
         <v>49.96</v>
       </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
         <v>273.76</v>
       </c>
-      <c r="BA3" t="s">
-        <v>87</v>
+      <c r="BC3" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:55">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1266,29 +1290,35 @@
       <c r="AT4">
         <v>2</v>
       </c>
-      <c r="AU4" t="s">
-        <v>54</v>
+      <c r="AU4">
+        <v>2</v>
       </c>
       <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX4">
         <v>92.5</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>108</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
         <v>45</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>245.5</v>
       </c>
-      <c r="BA4" t="s">
-        <v>87</v>
+      <c r="BC4" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:55">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1427,29 +1457,35 @@
       <c r="AT5">
         <v>3</v>
       </c>
-      <c r="AU5" t="s">
-        <v>55</v>
+      <c r="AU5">
+        <v>3</v>
       </c>
       <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX5">
         <v>93.54999999999998</v>
       </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
         <v>93.54999999999998</v>
       </c>
-      <c r="BA5" t="s">
-        <v>87</v>
+      <c r="BC5" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:55">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1588,29 +1624,35 @@
       <c r="AT6">
         <v>4</v>
       </c>
-      <c r="AU6" t="s">
-        <v>56</v>
+      <c r="AU6">
+        <v>4</v>
       </c>
       <c r="AV6">
+        <v>4</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX6">
         <v>20</v>
       </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
       <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
         <v>45</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>65</v>
       </c>
-      <c r="BA6" t="s">
-        <v>87</v>
+      <c r="BC6" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:55">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1749,29 +1791,35 @@
       <c r="AT7">
         <v>5</v>
       </c>
-      <c r="AU7" t="s">
-        <v>57</v>
+      <c r="AU7">
+        <v>5</v>
       </c>
       <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>59</v>
       </c>
       <c r="AX7">
         <v>0</v>
       </c>
       <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
         <v>10</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>10</v>
       </c>
-      <c r="BA7" t="s">
-        <v>87</v>
+      <c r="BC7" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:55">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1910,29 +1958,35 @@
       <c r="AT8">
         <v>6</v>
       </c>
-      <c r="AU8" t="s">
-        <v>58</v>
+      <c r="AU8">
+        <v>6</v>
       </c>
       <c r="AV8">
+        <v>6</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX8">
         <v>9.9</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
       <c r="AY8">
         <v>0</v>
       </c>
       <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
         <v>9.9</v>
       </c>
-      <c r="BA8" t="s">
-        <v>87</v>
+      <c r="BC8" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:55">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2071,14 +2125,14 @@
       <c r="AT9">
         <v>7</v>
       </c>
-      <c r="AU9" t="s">
-        <v>59</v>
+      <c r="AU9">
+        <v>7</v>
       </c>
       <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>61</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2089,11 +2143,17 @@
       <c r="AZ9">
         <v>0</v>
       </c>
-      <c r="BA9" t="s">
-        <v>87</v>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:55">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2232,14 +2292,14 @@
       <c r="AT10">
         <v>8</v>
       </c>
-      <c r="AU10" t="s">
-        <v>60</v>
+      <c r="AU10">
+        <v>8</v>
       </c>
       <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>62</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2250,11 +2310,17 @@
       <c r="AZ10">
         <v>0</v>
       </c>
-      <c r="BA10" t="s">
-        <v>87</v>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:55">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2393,14 +2459,14 @@
       <c r="AT11">
         <v>9</v>
       </c>
-      <c r="AU11" t="s">
-        <v>61</v>
+      <c r="AU11">
+        <v>9</v>
       </c>
       <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>63</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2408,11 +2474,17 @@
       <c r="AY11">
         <v>0</v>
       </c>
-      <c r="BA11" t="s">
-        <v>87</v>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:55">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2551,17 +2623,17 @@
       <c r="AT12">
         <v>10</v>
       </c>
-      <c r="AU12" t="s">
-        <v>62</v>
+      <c r="AU12">
+        <v>10</v>
       </c>
       <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>64</v>
       </c>
       <c r="AX12">
-        <v>1199.98</v>
+        <v>0</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -2569,11 +2641,17 @@
       <c r="AZ12">
         <v>1199.98</v>
       </c>
-      <c r="BA12" t="s">
-        <v>88</v>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>1199.98</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:55">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2712,29 +2790,35 @@
       <c r="AT13">
         <v>11</v>
       </c>
-      <c r="AU13" t="s">
-        <v>63</v>
+      <c r="AU13">
+        <v>11</v>
       </c>
       <c r="AV13">
+        <v>11</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX13">
         <v>94.2</v>
       </c>
-      <c r="AW13">
+      <c r="AY13">
         <v>230.1</v>
       </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
       <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
         <v>324.3</v>
       </c>
-      <c r="BA13" t="s">
-        <v>88</v>
+      <c r="BC13" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:55">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2873,29 +2957,35 @@
       <c r="AT14">
         <v>12</v>
       </c>
-      <c r="AU14" t="s">
-        <v>64</v>
+      <c r="AU14">
+        <v>12</v>
       </c>
       <c r="AV14">
+        <v>12</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14">
         <v>177.8</v>
       </c>
-      <c r="AW14">
+      <c r="AY14">
         <v>22.5</v>
       </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
       <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
         <v>200.3</v>
       </c>
-      <c r="BA14" t="s">
-        <v>88</v>
+      <c r="BC14" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:55">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3034,29 +3124,35 @@
       <c r="AT15">
         <v>13</v>
       </c>
-      <c r="AU15" t="s">
-        <v>65</v>
+      <c r="AU15">
+        <v>13</v>
       </c>
       <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
+        <v>13</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
         <v>100.7</v>
       </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
       <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
         <v>100.7</v>
       </c>
-      <c r="BA15" t="s">
-        <v>88</v>
+      <c r="BC15" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:55">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3195,29 +3291,35 @@
       <c r="AT16">
         <v>14</v>
       </c>
-      <c r="AU16" t="s">
-        <v>66</v>
+      <c r="AU16">
+        <v>14</v>
       </c>
       <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
+        <v>14</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
         <v>64.40000000000001</v>
       </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
       <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
         <v>64.40000000000001</v>
       </c>
-      <c r="BA16" t="s">
-        <v>88</v>
+      <c r="BC16" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:55">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3356,29 +3458,35 @@
       <c r="AT17">
         <v>15</v>
       </c>
-      <c r="AU17" t="s">
-        <v>67</v>
+      <c r="AU17">
+        <v>15</v>
       </c>
       <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
+        <v>15</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
         <v>36.4</v>
       </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
       <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
         <v>36.4</v>
       </c>
-      <c r="BA17" t="s">
-        <v>88</v>
+      <c r="BC17" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:55">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3517,29 +3625,35 @@
       <c r="AT18">
         <v>16</v>
       </c>
-      <c r="AU18" t="s">
-        <v>68</v>
+      <c r="AU18">
+        <v>16</v>
       </c>
       <c r="AV18">
+        <v>16</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX18">
         <v>3.7</v>
       </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
       <c r="AY18">
         <v>0</v>
       </c>
       <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
         <v>3.7</v>
       </c>
-      <c r="BA18" t="s">
-        <v>88</v>
+      <c r="BC18" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:55">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3678,14 +3792,14 @@
       <c r="AT19">
         <v>17</v>
       </c>
-      <c r="AU19" t="s">
-        <v>69</v>
+      <c r="AU19">
+        <v>17</v>
       </c>
       <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>71</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -3696,11 +3810,17 @@
       <c r="AZ19">
         <v>0</v>
       </c>
-      <c r="BA19" t="s">
-        <v>88</v>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:55">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3839,14 +3959,14 @@
       <c r="AT20">
         <v>18</v>
       </c>
-      <c r="AU20" t="s">
-        <v>70</v>
+      <c r="AU20">
+        <v>18</v>
       </c>
       <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>72</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -3857,11 +3977,17 @@
       <c r="AZ20">
         <v>0</v>
       </c>
-      <c r="BA20" t="s">
-        <v>88</v>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:55">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4000,14 +4126,14 @@
       <c r="AT21">
         <v>19</v>
       </c>
-      <c r="AU21" t="s">
-        <v>71</v>
+      <c r="AU21">
+        <v>19</v>
       </c>
       <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>73</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4015,11 +4141,17 @@
       <c r="AY21">
         <v>0</v>
       </c>
-      <c r="BA21" t="s">
-        <v>88</v>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:55">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4158,14 +4290,14 @@
       <c r="AT22">
         <v>20</v>
       </c>
-      <c r="AU22" t="s">
-        <v>72</v>
+      <c r="AU22">
+        <v>20</v>
       </c>
       <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>74</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -4173,11 +4305,17 @@
       <c r="AY22">
         <v>0</v>
       </c>
-      <c r="BA22" t="s">
-        <v>89</v>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:55">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4316,29 +4454,35 @@
       <c r="AT23">
         <v>21</v>
       </c>
-      <c r="AU23" t="s">
-        <v>73</v>
+      <c r="AU23">
+        <v>21</v>
       </c>
       <c r="AV23">
+        <v>21</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX23">
         <v>36.85</v>
       </c>
-      <c r="AW23">
+      <c r="AY23">
         <v>550.9</v>
       </c>
-      <c r="AX23">
+      <c r="AZ23">
         <v>65.16</v>
       </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
         <v>652.91</v>
       </c>
-      <c r="BA23" t="s">
-        <v>89</v>
+      <c r="BC23" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:55">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4477,29 +4621,35 @@
       <c r="AT24">
         <v>22</v>
       </c>
-      <c r="AU24" t="s">
-        <v>74</v>
+      <c r="AU24">
+        <v>22</v>
       </c>
       <c r="AV24">
+        <v>22</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX24">
         <v>555.2500000000001</v>
       </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
       <c r="AY24">
         <v>0</v>
       </c>
       <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
         <v>555.2500000000001</v>
       </c>
-      <c r="BA24" t="s">
-        <v>89</v>
+      <c r="BC24" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:55">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4638,29 +4788,35 @@
       <c r="AT25">
         <v>23</v>
       </c>
-      <c r="AU25" t="s">
-        <v>75</v>
+      <c r="AU25">
+        <v>23</v>
       </c>
       <c r="AV25">
+        <v>23</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX25">
         <v>10</v>
       </c>
-      <c r="AW25">
+      <c r="AY25">
         <v>60</v>
       </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
         <v>90</v>
       </c>
-      <c r="AZ25">
+      <c r="BB25">
         <v>160</v>
       </c>
-      <c r="BA25" t="s">
-        <v>89</v>
+      <c r="BC25" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:55">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4799,29 +4955,35 @@
       <c r="AT26">
         <v>24</v>
       </c>
-      <c r="AU26" t="s">
-        <v>76</v>
+      <c r="AU26">
+        <v>24</v>
       </c>
       <c r="AV26">
+        <v>24</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX26">
         <v>24.05</v>
       </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
         <v>79</v>
       </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
         <v>103.05</v>
       </c>
-      <c r="BA26" t="s">
-        <v>89</v>
+      <c r="BC26" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:55">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4960,29 +5122,35 @@
       <c r="AT27">
         <v>25</v>
       </c>
-      <c r="AU27" t="s">
-        <v>77</v>
+      <c r="AU27">
+        <v>25</v>
       </c>
       <c r="AV27">
+        <v>25</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX27">
         <v>12.5</v>
       </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
       <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
         <v>32</v>
       </c>
-      <c r="AZ27">
+      <c r="BB27">
         <v>44.5</v>
       </c>
-      <c r="BA27" t="s">
-        <v>89</v>
+      <c r="BC27" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:55">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5121,29 +5289,35 @@
       <c r="AT28">
         <v>26</v>
       </c>
-      <c r="AU28" t="s">
-        <v>78</v>
+      <c r="AU28">
+        <v>26</v>
       </c>
       <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>80</v>
       </c>
       <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
         <v>1.78</v>
       </c>
-      <c r="AY28">
+      <c r="BA28">
         <v>40</v>
       </c>
-      <c r="AZ28">
+      <c r="BB28">
         <v>41.78</v>
       </c>
-      <c r="BA28" t="s">
-        <v>89</v>
+      <c r="BC28" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:55">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5282,14 +5456,14 @@
       <c r="AT29">
         <v>27</v>
       </c>
-      <c r="AU29" t="s">
-        <v>79</v>
+      <c r="AU29">
+        <v>27</v>
       </c>
       <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>81</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -5300,11 +5474,17 @@
       <c r="AZ29">
         <v>0</v>
       </c>
-      <c r="BA29" t="s">
-        <v>89</v>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:55">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5443,14 +5623,14 @@
       <c r="AT30">
         <v>28</v>
       </c>
-      <c r="AU30" t="s">
-        <v>80</v>
+      <c r="AU30">
+        <v>28</v>
       </c>
       <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AW30">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>82</v>
       </c>
       <c r="AX30">
         <v>0</v>
@@ -5461,11 +5641,17 @@
       <c r="AZ30">
         <v>0</v>
       </c>
-      <c r="BA30" t="s">
-        <v>89</v>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:55">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5604,14 +5790,14 @@
       <c r="AT31">
         <v>29</v>
       </c>
-      <c r="AU31" t="s">
-        <v>81</v>
+      <c r="AU31">
+        <v>29</v>
       </c>
       <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>83</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -5622,11 +5808,17 @@
       <c r="AZ31">
         <v>0</v>
       </c>
-      <c r="BA31" t="s">
-        <v>89</v>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:55">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5765,14 +5957,14 @@
       <c r="AT32">
         <v>30</v>
       </c>
-      <c r="AU32" t="s">
-        <v>82</v>
+      <c r="AU32">
+        <v>30</v>
       </c>
       <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>84</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -5783,11 +5975,17 @@
       <c r="AZ32">
         <v>0</v>
       </c>
-      <c r="BA32" t="s">
-        <v>89</v>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:55">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5926,14 +6124,14 @@
       <c r="AT33">
         <v>31</v>
       </c>
-      <c r="AU33" t="s">
-        <v>83</v>
+      <c r="AU33">
+        <v>31</v>
       </c>
       <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>85</v>
       </c>
       <c r="AX33">
         <v>0</v>
@@ -5941,11 +6139,17 @@
       <c r="AY33">
         <v>0</v>
       </c>
-      <c r="BA33" t="s">
-        <v>89</v>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:55">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6084,14 +6288,14 @@
       <c r="AT34">
         <v>32</v>
       </c>
-      <c r="AU34" t="s">
-        <v>84</v>
+      <c r="AU34">
+        <v>32</v>
       </c>
       <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>86</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -6099,11 +6303,17 @@
       <c r="AY34">
         <v>0</v>
       </c>
-      <c r="BA34" t="s">
-        <v>89</v>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:55">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6242,14 +6452,14 @@
       <c r="AT35">
         <v>33</v>
       </c>
-      <c r="AU35" t="s">
-        <v>85</v>
+      <c r="AU35">
+        <v>33</v>
       </c>
       <c r="AV35">
-        <v>0</v>
-      </c>
-      <c r="AW35">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>87</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -6257,11 +6467,17 @@
       <c r="AY35">
         <v>0</v>
       </c>
-      <c r="BA35" t="s">
-        <v>89</v>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:55">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6400,11 +6616,17 @@
       <c r="AT36">
         <v>34</v>
       </c>
-      <c r="AU36" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>87</v>
+      <c r="AU36">
+        <v>34</v>
+      </c>
+      <c r="AV36">
+        <v>34</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/content/defi/equipes.xlsx
+++ b/content/defi/equipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Offline_data\Github\bcmb-site-hugo\content\defi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB82F4-5069-4DE4-B544-A86422399683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDCBEFF-D218-4734-8690-68D36DFE22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>athlete</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Equipe 3</t>
+  </si>
+  <si>
+    <t>Fred Z</t>
   </si>
 </sst>
 </file>
@@ -556,116 +559,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="A1:AX1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="50" width="40.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
         <v>44.3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1253.5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>152.91999999999999</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1450.72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>223.8</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>49.96</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>273.76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
         <v>92.5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>108</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>245.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
         <v>93.549999999999983</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -673,41 +681,41 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>93.549999999999983</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>42</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -716,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>42</v>
+      <c r="G7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
         <v>9.9</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -742,18 +750,18 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>9.9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -767,16 +775,16 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>42</v>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -790,16 +798,16 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
+      <c r="G10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>42</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -810,180 +818,165 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1199.98</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>1199.98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
         <v>94.2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>230.1</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>324.3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
         <v>177.8</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>22.5</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>200.3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>43</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>100.7</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>100.7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>3.7</v>
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>36.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -994,16 +987,16 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>43</v>
+      <c r="G19">
+        <v>3.7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1017,16 +1010,16 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>43</v>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1037,16 +1030,19 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>43</v>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1057,154 +1053,151 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>44</v>
+      <c r="F22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>36.85</v>
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>550.9</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>65.16</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>652.91</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>555.25000000000011</v>
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>36.85</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>550.9</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>65.16</v>
       </c>
       <c r="F24">
-        <v>555.25000000000011</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>652.91</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>555.25000000000011</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>160</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>555.25000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>24.05</v>
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>103.05</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="G26">
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>12.5</v>
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>24.05</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F27">
-        <v>44.5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>103.05</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D28">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>41.78</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>44.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1213,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>41.78</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1241,16 +1234,16 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>44</v>
+      <c r="G30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1264,16 +1257,16 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>44</v>
+      <c r="G31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1287,16 +1280,16 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>44</v>
+      <c r="G32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1307,16 +1300,19 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
-        <v>44</v>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1327,16 +1323,16 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>44</v>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1347,15 +1343,35 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
-        <v>44</v>
+      <c r="F35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="G36" t="s">
+      <c r="B37" t="s">
         <v>42</v>
       </c>
     </row>
